--- a/Jogos_da_Semana_FlashScore_2025-03-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-02.xlsx
@@ -722,10 +722,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
         <v>2.75</v>
@@ -977,19 +977,19 @@
         <v>2.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -998,16 +998,16 @@
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S4" t="n">
         <v>3.4</v>
@@ -1016,25 +1016,25 @@
         <v>1.33</v>
       </c>
       <c r="U4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W4" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="X4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
         <v>29</v>
@@ -1046,7 +1046,7 @@
         <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
         <v>6.5</v>
@@ -1058,13 +1058,13 @@
         <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL4" t="n">
         <v>10</v>
@@ -1073,10 +1073,10 @@
         <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
@@ -1124,7 +1124,7 @@
         <v>2.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
@@ -1145,16 +1145,16 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R5" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U5" t="n">
         <v>1.36</v>
@@ -1193,7 +1193,7 @@
         <v>6.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
@@ -1214,7 +1214,7 @@
         <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
         <v>23</v>
@@ -1286,10 +1286,10 @@
         <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S6" t="n">
         <v>2.5</v>
@@ -1361,10 +1361,10 @@
         <v>41</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -1401,13 +1401,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H7" t="n">
         <v>4.33</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>2.1</v>
@@ -1416,13 +1416,13 @@
         <v>2.38</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1476,7 +1476,7 @@
         <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG7" t="n">
         <v>17</v>
@@ -1862,10 +1862,10 @@
         <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S10" t="n">
         <v>3.75</v>
@@ -1991,10 +1991,10 @@
         <v>4.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -2255,16 +2255,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H13" t="n">
         <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
@@ -2285,10 +2285,10 @@
         <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="S13" t="n">
         <v>3</v>
@@ -2303,16 +2303,16 @@
         <v>3</v>
       </c>
       <c r="W13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA13" t="n">
         <v>9</v>
@@ -2330,7 +2330,7 @@
         <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG13" t="n">
         <v>13</v>
@@ -2357,7 +2357,7 @@
         <v>26</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2414,10 +2414,10 @@
         <v>2.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
@@ -2567,10 +2567,10 @@
         <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R15" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S15" t="n">
         <v>2.63</v>
@@ -2849,10 +2849,10 @@
         <v>3.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R17" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S17" t="n">
         <v>3.75</v>
@@ -3390,7 +3390,7 @@
         <v>2.3</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
         <v>3.25</v>
@@ -3411,10 +3411,10 @@
         <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
         <v>2.3</v>
@@ -3459,7 +3459,7 @@
         <v>34</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF21" t="n">
         <v>6</v>
@@ -3550,10 +3550,10 @@
         <v>5.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O22" t="n">
         <v>1.5</v>
@@ -3565,7 +3565,7 @@
         <v>2.6</v>
       </c>
       <c r="R22" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S22" t="n">
         <v>5.5</v>
@@ -3583,7 +3583,7 @@
         <v>2.25</v>
       </c>
       <c r="X22" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Y22" t="n">
         <v>5</v>
@@ -3643,10 +3643,10 @@
         <v>1.22</v>
       </c>
       <c r="AR22" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="23">
@@ -3699,10 +3699,10 @@
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.57</v>
@@ -3714,7 +3714,7 @@
         <v>2.7</v>
       </c>
       <c r="R23" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S23" t="n">
         <v>6</v>
@@ -3732,7 +3732,7 @@
         <v>2.2</v>
       </c>
       <c r="X23" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Y23" t="n">
         <v>6.5</v>
@@ -3863,7 +3863,7 @@
         <v>3.1</v>
       </c>
       <c r="R24" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S24" t="n">
         <v>6.5</v>
@@ -3881,7 +3881,7 @@
         <v>2.25</v>
       </c>
       <c r="X24" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Y24" t="n">
         <v>5.5</v>
@@ -4012,7 +4012,7 @@
         <v>3.1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S25" t="n">
         <v>6.5</v>
@@ -4027,10 +4027,10 @@
         <v>2.1</v>
       </c>
       <c r="W25" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="X25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y25" t="n">
         <v>7</v>
@@ -4292,13 +4292,13 @@
         <v>1.83</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M27" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N27" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O27" t="n">
         <v>1.62</v>
@@ -4325,13 +4325,13 @@
         <v>2.1</v>
       </c>
       <c r="W27" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X27" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z27" t="n">
         <v>10</v>
@@ -4340,16 +4340,16 @@
         <v>11</v>
       </c>
       <c r="AB27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD27" t="n">
         <v>41</v>
       </c>
       <c r="AE27" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF27" t="n">
         <v>6</v>
@@ -4367,7 +4367,7 @@
         <v>7</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
         <v>13</v>
@@ -4430,16 +4430,16 @@
         <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L28" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M28" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O28" t="n">
         <v>1.67</v>
@@ -4466,13 +4466,13 @@
         <v>2.1</v>
       </c>
       <c r="W28" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z28" t="n">
         <v>9</v>
@@ -4484,13 +4484,13 @@
         <v>21</v>
       </c>
       <c r="AC28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD28" t="n">
         <v>41</v>
       </c>
       <c r="AE28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF28" t="n">
         <v>6</v>
@@ -4499,13 +4499,13 @@
         <v>21</v>
       </c>
       <c r="AH28" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI28" t="n">
         <v>101</v>
       </c>
       <c r="AJ28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK28" t="n">
         <v>17</v>
@@ -4577,16 +4577,16 @@
         <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P29" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q29" t="n">
         <v>3.4</v>
@@ -4601,10 +4601,10 @@
         <v>1.1</v>
       </c>
       <c r="U29" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V29" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="W29" t="n">
         <v>2.63</v>
@@ -4709,7 +4709,7 @@
         <v>4.75</v>
       </c>
       <c r="J30" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
         <v>1.8</v>
@@ -4721,7 +4721,7 @@
         <v>1.17</v>
       </c>
       <c r="N30" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O30" t="n">
         <v>1.67</v>
@@ -4869,16 +4869,16 @@
         <v>4.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P31" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="R31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S31" t="n">
         <v>8</v>
@@ -4887,10 +4887,10 @@
         <v>1.08</v>
       </c>
       <c r="U31" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="W31" t="n">
         <v>2.63</v>
@@ -4899,7 +4899,7 @@
         <v>1.44</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Z31" t="n">
         <v>9</v>
@@ -4908,7 +4908,7 @@
         <v>12</v>
       </c>
       <c r="AB31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC31" t="n">
         <v>29</v>
@@ -4917,7 +4917,7 @@
         <v>51</v>
       </c>
       <c r="AE31" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AF31" t="n">
         <v>6</v>
@@ -5001,13 +5001,13 @@
         <v>1.91</v>
       </c>
       <c r="L32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N32" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O32" t="n">
         <v>1.57</v>
@@ -5034,22 +5034,22 @@
         <v>2.2</v>
       </c>
       <c r="W32" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="X32" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y32" t="n">
         <v>4.75</v>
       </c>
       <c r="Z32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA32" t="n">
         <v>10</v>
       </c>
       <c r="AB32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC32" t="n">
         <v>21</v>
@@ -5076,13 +5076,13 @@
         <v>9.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM32" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN32" t="n">
         <v>51</v>
@@ -5145,13 +5145,13 @@
         <v>4.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N33" t="n">
         <v>5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -5166,7 +5166,7 @@
         <v>8</v>
       </c>
       <c r="T33" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="U33" t="n">
         <v>1.78</v>
@@ -5286,13 +5286,13 @@
         <v>5.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N34" t="n">
         <v>4.75</v>
       </c>
       <c r="O34" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -5307,7 +5307,7 @@
         <v>8</v>
       </c>
       <c r="T34" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="U34" t="n">
         <v>1.78</v>
@@ -5428,19 +5428,19 @@
         <v>1.73</v>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="N35" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q35" t="n">
         <v>4</v>
@@ -5452,7 +5452,7 @@
         <v>9</v>
       </c>
       <c r="T35" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="U35" t="n">
         <v>1.85</v>
@@ -5470,7 +5470,7 @@
         <v>4.75</v>
       </c>
       <c r="Z35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA35" t="n">
         <v>12</v>
@@ -5572,13 +5572,13 @@
         <v>7.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N36" t="n">
         <v>5.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P36" t="n">
         <v>2.1</v>
@@ -5593,7 +5593,7 @@
         <v>6.5</v>
       </c>
       <c r="T36" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="U36" t="n">
         <v>1.67</v>
@@ -5702,10 +5702,10 @@
         <v>1.53</v>
       </c>
       <c r="H37" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I37" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J37" t="n">
         <v>1.95</v>
@@ -5720,10 +5720,10 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O37" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="P37" t="n">
         <v>7</v>
@@ -5735,10 +5735,10 @@
         <v>3.2</v>
       </c>
       <c r="S37" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="T37" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="U37" t="n">
         <v>1.2</v>
@@ -6432,10 +6432,10 @@
         <v>10</v>
       </c>
       <c r="O42" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q42" t="n">
         <v>2.1</v>
@@ -6998,10 +6998,10 @@
         <v>3.75</v>
       </c>
       <c r="M46" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O46" t="n">
         <v>1.29</v>
@@ -7010,10 +7010,10 @@
         <v>3.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R46" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S46" t="n">
         <v>3.25</v>
@@ -7266,22 +7266,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H48" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I48" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="J48" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K48" t="n">
         <v>2.1</v>
       </c>
       <c r="L48" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M48" t="n">
         <v>1.06</v>
@@ -7320,31 +7320,31 @@
         <v>1.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z48" t="n">
         <v>34</v>
       </c>
       <c r="AA48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB48" t="n">
         <v>81</v>
       </c>
       <c r="AC48" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD48" t="n">
         <v>67</v>
       </c>
       <c r="AE48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH48" t="n">
         <v>101</v>
@@ -7356,13 +7356,13 @@
         <v>5</v>
       </c>
       <c r="AK48" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AL48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM48" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>9</v>
       </c>
       <c r="AN48" t="n">
         <v>15</v>
@@ -7416,22 +7416,22 @@
         <v>1.83</v>
       </c>
       <c r="J49" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K49" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L49" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M49" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N49" t="n">
         <v>9</v>
       </c>
       <c r="O49" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -7446,7 +7446,7 @@
         <v>3.75</v>
       </c>
       <c r="T49" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U49" t="n">
         <v>1.44</v>
@@ -7455,10 +7455,10 @@
         <v>2.63</v>
       </c>
       <c r="W49" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X49" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y49" t="n">
         <v>11</v>
@@ -7470,7 +7470,7 @@
         <v>15</v>
       </c>
       <c r="AB49" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC49" t="n">
         <v>41</v>
@@ -7491,7 +7491,7 @@
         <v>51</v>
       </c>
       <c r="AI49" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ49" t="n">
         <v>6.5</v>
@@ -7574,13 +7574,13 @@
         <v>2.25</v>
       </c>
       <c r="M50" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N50" t="n">
         <v>15</v>
       </c>
       <c r="O50" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P50" t="n">
         <v>4.5</v>
@@ -7595,7 +7595,7 @@
         <v>2.5</v>
       </c>
       <c r="T50" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U50" t="n">
         <v>1.3</v>
@@ -7723,13 +7723,13 @@
         <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
         <v>8</v>
       </c>
       <c r="O51" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P51" t="n">
         <v>2.75</v>
@@ -7744,7 +7744,7 @@
         <v>4</v>
       </c>
       <c r="T51" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U51" t="n">
         <v>1.5</v>
@@ -7759,7 +7759,7 @@
         <v>1.8</v>
       </c>
       <c r="Y51" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z51" t="n">
         <v>10</v>
@@ -7789,7 +7789,7 @@
         <v>51</v>
       </c>
       <c r="AI51" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ51" t="n">
         <v>8.5</v>
@@ -7995,16 +7995,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>4.33</v>
       </c>
       <c r="I53" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J53" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
         <v>2.4</v>
@@ -8082,13 +8082,13 @@
         <v>201</v>
       </c>
       <c r="AJ53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK53" t="n">
         <v>34</v>
       </c>
       <c r="AL53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM53" t="n">
         <v>67</v>
@@ -8289,13 +8289,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H55" t="n">
         <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J55" t="n">
         <v>3.1</v>
@@ -8304,13 +8304,13 @@
         <v>1.95</v>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M55" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N55" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O55" t="n">
         <v>1.5</v>
@@ -8346,7 +8346,7 @@
         <v>6</v>
       </c>
       <c r="Z55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA55" t="n">
         <v>10</v>
@@ -8394,10 +8394,10 @@
         <v>41</v>
       </c>
       <c r="AP55" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR55" t="n">
         <v>1.9</v>
@@ -8462,16 +8462,16 @@
         <v>10</v>
       </c>
       <c r="O56" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P56" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R56" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S56" t="n">
         <v>3.4</v>
@@ -8609,16 +8609,16 @@
         <v>2.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R57" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S57" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T57" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U57" t="n">
         <v>1.57</v>
@@ -8686,10 +8686,10 @@
       <c r="AP57" t="inlineStr"/>
       <c r="AQ57" t="inlineStr"/>
       <c r="AR57" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="58">
@@ -8724,22 +8724,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="H58" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="I58" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J58" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="K58" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="L58" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="M58" t="n">
         <v>1.02</v>
@@ -8766,10 +8766,10 @@
         <v>1.82</v>
       </c>
       <c r="U58" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="V58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W58" t="n">
         <v>2.27</v>
@@ -8778,16 +8778,16 @@
         <v>1.57</v>
       </c>
       <c r="Y58" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z58" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA58" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AB58" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AC58" t="n">
         <v>11.75</v>
@@ -8805,25 +8805,25 @@
         <v>40</v>
       </c>
       <c r="AH58" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI58" t="n">
         <v>1250</v>
       </c>
       <c r="AJ58" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AK58" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AL58" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AM58" t="n">
         <v>800</v>
       </c>
       <c r="AN58" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AO58" t="n">
         <v>250</v>
@@ -8865,22 +8865,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H59" t="n">
         <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J59" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K59" t="n">
         <v>2.3</v>
       </c>
       <c r="L59" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M59" t="n">
         <v>1.06</v>
@@ -8895,10 +8895,10 @@
         <v>3.75</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R59" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S59" t="n">
         <v>3.25</v>
@@ -8913,22 +8913,22 @@
         <v>3</v>
       </c>
       <c r="W59" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X59" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y59" t="n">
         <v>6.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA59" t="n">
         <v>8.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC59" t="n">
         <v>13</v>
@@ -8946,16 +8946,16 @@
         <v>19</v>
       </c>
       <c r="AH59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI59" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ59" t="n">
         <v>17</v>
       </c>
       <c r="AK59" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL59" t="n">
         <v>21</v>
@@ -9150,7 +9150,7 @@
         <v>4.75</v>
       </c>
       <c r="H61" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I61" t="n">
         <v>1.7</v>
@@ -9159,34 +9159,34 @@
         <v>4.75</v>
       </c>
       <c r="K61" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L61" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M61" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O61" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P61" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R61" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S61" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T61" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U61" t="n">
         <v>1.33</v>
@@ -9195,10 +9195,10 @@
         <v>3.25</v>
       </c>
       <c r="W61" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="X61" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y61" t="n">
         <v>15</v>
@@ -9216,28 +9216,28 @@
         <v>34</v>
       </c>
       <c r="AD61" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE61" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF61" t="n">
         <v>7.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH61" t="n">
         <v>41</v>
       </c>
       <c r="AI61" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK61" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>9</v>
       </c>
       <c r="AL61" t="n">
         <v>8.5</v>
@@ -9249,7 +9249,7 @@
         <v>13</v>
       </c>
       <c r="AO61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP61" t="inlineStr"/>
       <c r="AQ61" t="inlineStr"/>
@@ -9288,10 +9288,10 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H62" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I62" t="n">
         <v>10</v>
@@ -9303,13 +9303,13 @@
         <v>2.75</v>
       </c>
       <c r="L62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M62" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O62" t="n">
         <v>1.14</v>
@@ -9336,10 +9336,10 @@
         <v>3.75</v>
       </c>
       <c r="W62" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="X62" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -9351,7 +9351,7 @@
         <v>9.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC62" t="n">
         <v>11</v>
@@ -9366,13 +9366,13 @@
         <v>13</v>
       </c>
       <c r="AG62" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH62" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI62" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AJ62" t="n">
         <v>23</v>
@@ -9381,10 +9381,10 @@
         <v>51</v>
       </c>
       <c r="AL62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM62" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN62" t="n">
         <v>67</v>
@@ -9439,7 +9439,7 @@
         <v>3.6</v>
       </c>
       <c r="I63" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J63" t="n">
         <v>3.6</v>
@@ -9451,13 +9451,13 @@
         <v>2.75</v>
       </c>
       <c r="M63" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N63" t="n">
         <v>13</v>
       </c>
       <c r="O63" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -9472,7 +9472,7 @@
         <v>2.75</v>
       </c>
       <c r="T63" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U63" t="n">
         <v>1.36</v>
@@ -9574,7 +9574,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H64" t="n">
         <v>3.75</v>
@@ -9592,28 +9592,28 @@
         <v>4.33</v>
       </c>
       <c r="M64" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N64" t="n">
         <v>15</v>
       </c>
       <c r="O64" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P64" t="n">
         <v>4.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R64" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S64" t="n">
         <v>2.5</v>
       </c>
       <c r="T64" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U64" t="n">
         <v>1.3</v>
@@ -9652,7 +9652,7 @@
         <v>7.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH64" t="n">
         <v>41</v>
@@ -9719,13 +9719,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="H65" t="n">
         <v>3.6</v>
       </c>
       <c r="I65" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J65" t="n">
         <v>2.5</v>
@@ -9737,13 +9737,13 @@
         <v>4</v>
       </c>
       <c r="M65" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N65" t="n">
         <v>15</v>
       </c>
       <c r="O65" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P65" t="n">
         <v>4.33</v>
@@ -9755,10 +9755,10 @@
         <v>2.15</v>
       </c>
       <c r="S65" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T65" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U65" t="n">
         <v>1.33</v>
@@ -9767,10 +9767,10 @@
         <v>3.25</v>
       </c>
       <c r="W65" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X65" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y65" t="n">
         <v>9.5</v>
@@ -9797,7 +9797,7 @@
         <v>7</v>
       </c>
       <c r="AG65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH65" t="n">
         <v>41</v>
@@ -9870,7 +9870,7 @@
         <v>4.75</v>
       </c>
       <c r="I66" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="J66" t="n">
         <v>5.5</v>
@@ -9882,13 +9882,13 @@
         <v>2.05</v>
       </c>
       <c r="M66" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N66" t="n">
         <v>15</v>
       </c>
       <c r="O66" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P66" t="n">
         <v>4.33</v>
@@ -9900,10 +9900,10 @@
         <v>2.2</v>
       </c>
       <c r="S66" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T66" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U66" t="n">
         <v>1.3</v>
@@ -10021,19 +10021,19 @@
         <v>2.05</v>
       </c>
       <c r="K67" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L67" t="n">
         <v>6</v>
       </c>
       <c r="M67" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N67" t="n">
         <v>13</v>
       </c>
       <c r="O67" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -10045,10 +10045,10 @@
         <v>2.1</v>
       </c>
       <c r="S67" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T67" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U67" t="n">
         <v>1.33</v>
@@ -10057,10 +10057,10 @@
         <v>3.25</v>
       </c>
       <c r="W67" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X67" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y67" t="n">
         <v>7.5</v>
@@ -10172,13 +10172,13 @@
         <v>4.33</v>
       </c>
       <c r="M68" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N68" t="n">
         <v>13</v>
       </c>
       <c r="O68" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -10193,7 +10193,7 @@
         <v>2.75</v>
       </c>
       <c r="T68" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U68" t="n">
         <v>1.36</v>
@@ -10577,22 +10577,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>7.3</v>
+        <v>8.75</v>
       </c>
       <c r="H71" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="I71" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="J71" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="K71" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="L71" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
@@ -10605,69 +10605,69 @@
         <v>2.75</v>
       </c>
       <c r="S71" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="T71" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="X71" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="Y71" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Z71" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AA71" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB71" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AC71" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AD71" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AE71" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG71" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI71" t="n">
         <v>250</v>
       </c>
       <c r="AJ71" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK71" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AL71" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AM71" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AN71" t="n">
         <v>8.5</v>
       </c>
       <c r="AO71" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AP71" t="inlineStr"/>
       <c r="AQ71" t="inlineStr"/>
@@ -10706,22 +10706,22 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="H72" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I72" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="J72" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K72" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L72" t="n">
         <v>2.3</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.42</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
@@ -10735,7 +10735,7 @@
         <v>1.57</v>
       </c>
       <c r="R72" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S72" t="n">
         <v>2.22</v>
@@ -10746,40 +10746,40 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X72" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Y72" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z72" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA72" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB72" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC72" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AD72" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE72" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF72" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AG72" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH72" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI72" t="n">
         <v>200</v>
@@ -10788,19 +10788,19 @@
         <v>8</v>
       </c>
       <c r="AK72" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL72" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AM72" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AN72" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AO72" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AP72" t="inlineStr"/>
       <c r="AQ72" t="inlineStr"/>
@@ -10984,28 +10984,28 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I74" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J74" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K74" t="n">
         <v>2.38</v>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M74" t="n">
         <v>1.03</v>
       </c>
       <c r="N74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O74" t="n">
         <v>1.18</v>
@@ -11041,16 +11041,16 @@
         <v>10</v>
       </c>
       <c r="Z74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA74" t="n">
         <v>9</v>
       </c>
       <c r="AB74" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC74" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD74" t="n">
         <v>21</v>
@@ -11062,7 +11062,7 @@
         <v>7.5</v>
       </c>
       <c r="AG74" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH74" t="n">
         <v>41</v>
@@ -11071,22 +11071,22 @@
         <v>126</v>
       </c>
       <c r="AJ74" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK74" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL74" t="n">
         <v>12</v>
       </c>
       <c r="AM74" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN74" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO74" t="n">
         <v>26</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>29</v>
       </c>
       <c r="AP74" t="n">
         <v>2</v>
@@ -11234,10 +11234,10 @@
         <v>23</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>
@@ -11286,7 +11286,7 @@
         <v>2.88</v>
       </c>
       <c r="K76" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L76" t="n">
         <v>4</v>
@@ -11322,19 +11322,19 @@
         <v>2.63</v>
       </c>
       <c r="W76" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X76" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y76" t="n">
         <v>7</v>
       </c>
       <c r="Z76" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA76" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB76" t="n">
         <v>19</v>
@@ -11346,25 +11346,25 @@
         <v>29</v>
       </c>
       <c r="AE76" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF76" t="n">
         <v>6.5</v>
       </c>
       <c r="AG76" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH76" t="n">
         <v>51</v>
       </c>
       <c r="AI76" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ76" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK76" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL76" t="n">
         <v>12</v>
@@ -11376,7 +11376,7 @@
         <v>29</v>
       </c>
       <c r="AO76" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP76" t="inlineStr"/>
       <c r="AQ76" t="inlineStr"/>
@@ -11802,10 +11802,10 @@
         <v>41</v>
       </c>
       <c r="AP79" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR79" t="n">
         <v>2.05</v>
@@ -12013,10 +12013,10 @@
         <v>9</v>
       </c>
       <c r="M81" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N81" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O81" t="n">
         <v>1.22</v>
@@ -12031,10 +12031,10 @@
         <v>2</v>
       </c>
       <c r="S81" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T81" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U81" t="n">
         <v>1.33</v>
@@ -12308,7 +12308,7 @@
         <v>2.2</v>
       </c>
       <c r="L83" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M83" t="n">
         <v>1.05</v>
@@ -12392,10 +12392,10 @@
         <v>34</v>
       </c>
       <c r="AN83" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO83" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP83" t="inlineStr"/>
       <c r="AQ83" t="inlineStr"/>
@@ -12575,13 +12575,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H85" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I85" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J85" t="n">
         <v>1.83</v>
@@ -12590,13 +12590,13 @@
         <v>2.5</v>
       </c>
       <c r="L85" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M85" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N85" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O85" t="n">
         <v>1.2</v>
@@ -12623,10 +12623,10 @@
         <v>3.4</v>
       </c>
       <c r="W85" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X85" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y85" t="n">
         <v>7.5</v>
@@ -12635,7 +12635,7 @@
         <v>7</v>
       </c>
       <c r="AA85" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB85" t="n">
         <v>9</v>
@@ -12650,7 +12650,7 @@
         <v>13</v>
       </c>
       <c r="AF85" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG85" t="n">
         <v>19</v>
@@ -12671,7 +12671,7 @@
         <v>23</v>
       </c>
       <c r="AM85" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN85" t="n">
         <v>51</v>
@@ -12716,109 +12716,109 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="H86" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I86" t="n">
-        <v>2.67</v>
+        <v>2.45</v>
       </c>
       <c r="J86" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="K86" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L86" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M86" t="n">
         <v>1.04</v>
       </c>
       <c r="N86" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="O86" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P86" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R86" t="n">
         <v>2.1</v>
       </c>
       <c r="S86" t="n">
-        <v>2.52</v>
+        <v>2.63</v>
       </c>
       <c r="T86" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="U86" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="V86" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="W86" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="X86" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="Y86" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ86" t="n">
         <v>11</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>250</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>10.5</v>
       </c>
       <c r="AK86" t="n">
         <v>15</v>
       </c>
       <c r="AL86" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AM86" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AN86" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO86" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP86" t="inlineStr"/>
       <c r="AQ86" t="inlineStr"/>
@@ -12860,77 +12860,77 @@
         <v>1.42</v>
       </c>
       <c r="H87" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I87" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="J87" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="K87" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="L87" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P87" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R87" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="S87" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="T87" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X87" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="Y87" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="Z87" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AA87" t="n">
         <v>8</v>
       </c>
       <c r="AB87" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AC87" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AD87" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE87" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF87" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG87" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH87" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI87" t="n">
         <v>500</v>
@@ -12990,92 +12990,92 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="J88" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="K88" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="L88" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P88" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="R88" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="S88" t="n">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="T88" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="X88" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="Y88" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="Z88" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AA88" t="n">
         <v>8</v>
       </c>
       <c r="AB88" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC88" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AD88" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE88" t="n">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF88" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG88" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>600</v>
+      </c>
+      <c r="AJ88" t="n">
         <v>16.5</v>
       </c>
-      <c r="AH88" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>450</v>
-      </c>
-      <c r="AJ88" t="n">
+      <c r="AK88" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL88" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL88" t="n">
-        <v>19</v>
       </c>
       <c r="AM88" t="n">
         <v>120</v>
@@ -13123,19 +13123,19 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="H89" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I89" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J89" t="n">
         <v>3.15</v>
       </c>
       <c r="K89" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L89" t="n">
         <v>3.05</v>
@@ -13143,85 +13143,85 @@
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="P89" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="R89" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S89" t="n">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="T89" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="U89" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V89" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="W89" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="X89" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="Y89" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="Z89" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA89" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB89" t="n">
         <v>30</v>
       </c>
       <c r="AC89" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AD89" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AE89" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>300</v>
+      </c>
+      <c r="AJ89" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF89" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH89" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>450</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK89" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL89" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AM89" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN89" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO89" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AP89" t="inlineStr"/>
       <c r="AQ89" t="inlineStr"/>
@@ -13260,13 +13260,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H90" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I90" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J90" t="n">
         <v>2.5</v>
@@ -13278,10 +13278,10 @@
         <v>5</v>
       </c>
       <c r="M90" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N90" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O90" t="n">
         <v>1.36</v>
@@ -13329,10 +13329,10 @@
         <v>17</v>
       </c>
       <c r="AD90" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE90" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF90" t="n">
         <v>7</v>
@@ -13347,7 +13347,7 @@
         <v>900</v>
       </c>
       <c r="AJ90" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK90" t="n">
         <v>21</v>
@@ -13542,13 +13542,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>3.4</v>
       </c>
       <c r="I92" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J92" t="n">
         <v>2.75</v>
@@ -13632,7 +13632,7 @@
         <v>9</v>
       </c>
       <c r="AK92" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL92" t="n">
         <v>13</v>
@@ -13707,16 +13707,16 @@
         <v>9</v>
       </c>
       <c r="O93" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P93" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R93" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S93" t="n">
         <v>4</v>
@@ -13999,16 +13999,16 @@
         <v>2.63</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R95" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S95" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T95" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U95" t="n">
         <v>1.53</v>
@@ -14076,10 +14076,10 @@
       <c r="AP95" t="inlineStr"/>
       <c r="AQ95" t="inlineStr"/>
       <c r="AR95" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS95" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="96">
@@ -14132,28 +14132,28 @@
         <v>4</v>
       </c>
       <c r="M96" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N96" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O96" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P96" t="n">
         <v>3</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R96" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S96" t="n">
         <v>4</v>
       </c>
       <c r="T96" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U96" t="n">
         <v>1.5</v>
@@ -14162,10 +14162,10 @@
         <v>2.5</v>
       </c>
       <c r="W96" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="X96" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Y96" t="n">
         <v>7</v>
@@ -14400,13 +14400,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H98" t="n">
         <v>3.2</v>
       </c>
       <c r="I98" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J98" t="n">
         <v>3.75</v>
@@ -14415,7 +14415,7 @@
         <v>1.95</v>
       </c>
       <c r="L98" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M98" t="n">
         <v>1.08</v>
@@ -14463,7 +14463,7 @@
         <v>11</v>
       </c>
       <c r="AB98" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC98" t="n">
         <v>29</v>
@@ -14478,7 +14478,7 @@
         <v>6</v>
       </c>
       <c r="AG98" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH98" t="n">
         <v>67</v>
@@ -14575,16 +14575,16 @@
         <v>2.5</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R99" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S99" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T99" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U99" t="n">
         <v>1.57</v>
@@ -14652,10 +14652,10 @@
       <c r="AP99" t="inlineStr"/>
       <c r="AQ99" t="inlineStr"/>
       <c r="AR99" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="100">
@@ -14708,10 +14708,10 @@
         <v>5.5</v>
       </c>
       <c r="M100" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N100" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O100" t="n">
         <v>1.33</v>
@@ -14726,10 +14726,10 @@
         <v>1.75</v>
       </c>
       <c r="S100" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T100" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U100" t="n">
         <v>1.44</v>
@@ -14938,10 +14938,10 @@
       <c r="AP101" t="inlineStr"/>
       <c r="AQ101" t="inlineStr"/>
       <c r="AR101" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="102">
@@ -14994,28 +14994,28 @@
         <v>3.5</v>
       </c>
       <c r="M102" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N102" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O102" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>2</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T102" t="n">
         <v>1.3</v>
-      </c>
-      <c r="P102" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R102" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S102" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T102" t="n">
-        <v>1.29</v>
       </c>
       <c r="U102" t="n">
         <v>1.4</v>
@@ -15048,19 +15048,19 @@
         <v>29</v>
       </c>
       <c r="AE102" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF102" t="n">
         <v>6.5</v>
       </c>
       <c r="AG102" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH102" t="n">
         <v>51</v>
       </c>
       <c r="AI102" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ102" t="n">
         <v>9.5</v>
@@ -15147,16 +15147,16 @@
         <v>2.63</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R103" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S103" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T103" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U103" t="n">
         <v>1.53</v>
@@ -15224,10 +15224,10 @@
       <c r="AP103" t="inlineStr"/>
       <c r="AQ103" t="inlineStr"/>
       <c r="AR103" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS103" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="104">
@@ -15262,7 +15262,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H104" t="n">
         <v>3.5</v>
@@ -15280,16 +15280,16 @@
         <v>4.75</v>
       </c>
       <c r="M104" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N104" t="n">
         <v>11</v>
       </c>
       <c r="O104" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P104" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q104" t="n">
         <v>1.93</v>
@@ -15301,7 +15301,7 @@
         <v>3.25</v>
       </c>
       <c r="T104" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U104" t="n">
         <v>1.4</v>
@@ -15403,7 +15403,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H105" t="n">
         <v>3.25</v>
@@ -15412,7 +15412,7 @@
         <v>2.45</v>
       </c>
       <c r="J105" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K105" t="n">
         <v>2.1</v>
@@ -15421,25 +15421,25 @@
         <v>3.2</v>
       </c>
       <c r="M105" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N105" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O105" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P105" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q105" t="n">
         <v>2.05</v>
       </c>
       <c r="R105" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S105" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T105" t="n">
         <v>1.25</v>
@@ -15457,7 +15457,7 @@
         <v>1.91</v>
       </c>
       <c r="Y105" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z105" t="n">
         <v>13</v>
@@ -15490,7 +15490,7 @@
         <v>251</v>
       </c>
       <c r="AJ105" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK105" t="n">
         <v>12</v>
@@ -15544,13 +15544,13 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H106" t="n">
         <v>3.1</v>
       </c>
       <c r="I106" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J106" t="n">
         <v>3.6</v>
@@ -15562,16 +15562,16 @@
         <v>3.4</v>
       </c>
       <c r="M106" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N106" t="n">
         <v>8</v>
       </c>
       <c r="O106" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P106" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q106" t="n">
         <v>2.4</v>
@@ -15583,7 +15583,7 @@
         <v>4.5</v>
       </c>
       <c r="T106" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="U106" t="n">
         <v>1.53</v>
@@ -15689,22 +15689,22 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I107" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J107" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="K107" t="n">
         <v>2</v>
       </c>
       <c r="L107" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>1.42</v>
       </c>
       <c r="V107" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="W107" t="n">
         <v>1.92</v>
@@ -15739,16 +15739,16 @@
         <v>1.78</v>
       </c>
       <c r="Y107" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Z107" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AA107" t="n">
         <v>7.6</v>
       </c>
       <c r="AB107" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC107" t="n">
         <v>15.5</v>
@@ -15766,16 +15766,16 @@
         <v>12.5</v>
       </c>
       <c r="AH107" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI107" t="n">
         <v>450</v>
       </c>
       <c r="AJ107" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AK107" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL107" t="n">
         <v>9.5</v>
@@ -15955,10 +15955,10 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H109" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I109" t="n">
         <v>2.25</v>
@@ -15970,13 +15970,13 @@
         <v>2.1</v>
       </c>
       <c r="L109" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M109" t="n">
         <v>1.06</v>
       </c>
       <c r="N109" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O109" t="n">
         <v>1.33</v>
@@ -16003,19 +16003,19 @@
         <v>2.63</v>
       </c>
       <c r="W109" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="X109" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Y109" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z109" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA109" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB109" t="n">
         <v>34</v>
@@ -16027,10 +16027,10 @@
         <v>34</v>
       </c>
       <c r="AE109" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF109" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG109" t="n">
         <v>15</v>
@@ -16039,7 +16039,7 @@
         <v>51</v>
       </c>
       <c r="AI109" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ109" t="n">
         <v>7.5</v>
@@ -16048,7 +16048,7 @@
         <v>10</v>
       </c>
       <c r="AL109" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM109" t="n">
         <v>21</v>
@@ -16117,7 +16117,7 @@
         <v>1.06</v>
       </c>
       <c r="N110" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O110" t="n">
         <v>1.3</v>
@@ -16387,7 +16387,7 @@
         <v>9.5</v>
       </c>
       <c r="J112" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="K112" t="n">
         <v>2.75</v>
@@ -16812,7 +16812,7 @@
         <v>2.38</v>
       </c>
       <c r="L115" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M115" t="n">
         <v>1.03</v>
@@ -16845,16 +16845,16 @@
         <v>3.25</v>
       </c>
       <c r="W115" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X115" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y115" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z115" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA115" t="n">
         <v>8.5</v>
@@ -16869,7 +16869,7 @@
         <v>23</v>
       </c>
       <c r="AE115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF115" t="n">
         <v>7.5</v>
@@ -16881,7 +16881,7 @@
         <v>41</v>
       </c>
       <c r="AI115" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ115" t="n">
         <v>17</v>
@@ -16944,7 +16944,7 @@
         <v>4.1</v>
       </c>
       <c r="I116" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J116" t="n">
         <v>2.2</v>
@@ -16953,7 +16953,7 @@
         <v>2.4</v>
       </c>
       <c r="L116" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M116" t="n">
         <v>1.03</v>
@@ -16992,7 +16992,7 @@
         <v>2.2</v>
       </c>
       <c r="Y116" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z116" t="n">
         <v>9</v>
@@ -17083,28 +17083,28 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H117" t="n">
         <v>3</v>
       </c>
       <c r="I117" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J117" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K117" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L117" t="n">
         <v>3.75</v>
       </c>
       <c r="M117" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N117" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O117" t="n">
         <v>1.4</v>
@@ -17113,10 +17113,10 @@
         <v>2.75</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R117" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S117" t="n">
         <v>4.33</v>
@@ -17125,16 +17125,16 @@
         <v>1.2</v>
       </c>
       <c r="U117" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V117" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W117" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X117" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y117" t="n">
         <v>7</v>
@@ -17149,19 +17149,19 @@
         <v>23</v>
       </c>
       <c r="AC117" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD117" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE117" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF117" t="n">
         <v>6</v>
       </c>
       <c r="AG117" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH117" t="n">
         <v>51</v>
@@ -17173,16 +17173,16 @@
         <v>8</v>
       </c>
       <c r="AK117" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL117" t="n">
         <v>12</v>
       </c>
       <c r="AM117" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN117" t="n">
         <v>29</v>
-      </c>
-      <c r="AN117" t="n">
-        <v>26</v>
       </c>
       <c r="AO117" t="n">
         <v>41</v>
@@ -17369,121 +17369,121 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="H119" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I119" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="J119" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K119" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L119" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M119" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N119" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P119" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R119" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S119" t="n">
+        <v>4</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U119" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V119" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X119" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y119" t="n">
         <v>8</v>
       </c>
-      <c r="O119" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P119" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R119" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S119" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T119" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U119" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V119" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W119" t="n">
-        <v>2</v>
-      </c>
-      <c r="X119" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Y119" t="n">
-        <v>7</v>
-      </c>
       <c r="Z119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA119" t="n">
         <v>11</v>
       </c>
       <c r="AB119" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC119" t="n">
         <v>26</v>
       </c>
-      <c r="AC119" t="n">
-        <v>23</v>
-      </c>
       <c r="AD119" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE119" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF119" t="n">
         <v>6.5</v>
       </c>
       <c r="AG119" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH119" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI119" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ119" t="n">
         <v>7</v>
       </c>
       <c r="AK119" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM119" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN119" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO119" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP119" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR119" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.09</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="120">
@@ -17524,7 +17524,7 @@
         <v>3.4</v>
       </c>
       <c r="I120" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="J120" t="n">
         <v>5</v>
@@ -17667,7 +17667,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="H121" t="n">
         <v>6.5</v>
@@ -17676,10 +17676,10 @@
         <v>15</v>
       </c>
       <c r="J121" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="K121" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="L121" t="n">
         <v>12</v>
@@ -17975,22 +17975,22 @@
         <v>6</v>
       </c>
       <c r="M123" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N123" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O123" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P123" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R123" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S123" t="n">
         <v>3.25</v>
@@ -18104,7 +18104,7 @@
         <v>3.9</v>
       </c>
       <c r="I124" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J124" t="n">
         <v>2.3</v>
@@ -18128,16 +18128,16 @@
         <v>4.5</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R124" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S124" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T124" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U124" t="n">
         <v>1.3</v>
@@ -18188,7 +18188,7 @@
         <v>15</v>
       </c>
       <c r="AK124" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL124" t="n">
         <v>15</v>
@@ -18203,10 +18203,10 @@
         <v>34</v>
       </c>
       <c r="AP124" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AR124" t="inlineStr"/>
       <c r="AS124" t="inlineStr"/>
@@ -18264,7 +18264,7 @@
         <v>1.06</v>
       </c>
       <c r="N125" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O125" t="n">
         <v>1.3</v>
@@ -18291,10 +18291,10 @@
         <v>2.75</v>
       </c>
       <c r="W125" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X125" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y125" t="n">
         <v>8</v>
@@ -18309,13 +18309,13 @@
         <v>21</v>
       </c>
       <c r="AC125" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD125" t="n">
         <v>29</v>
       </c>
       <c r="AE125" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF125" t="n">
         <v>6.5</v>
@@ -18327,7 +18327,7 @@
         <v>51</v>
       </c>
       <c r="AI125" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ125" t="n">
         <v>10</v>
@@ -18438,7 +18438,7 @@
         <v>2</v>
       </c>
       <c r="Y126" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z126" t="n">
         <v>8.5</v>
@@ -18468,7 +18468,7 @@
         <v>41</v>
       </c>
       <c r="AI126" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ126" t="n">
         <v>15</v>
@@ -18546,7 +18546,7 @@
         <v>1.04</v>
       </c>
       <c r="N127" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O127" t="n">
         <v>1.25</v>
@@ -19261,7 +19261,7 @@
         <v>1.07</v>
       </c>
       <c r="N132" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O132" t="n">
         <v>1.33</v>
@@ -19273,7 +19273,7 @@
         <v>2.1</v>
       </c>
       <c r="R132" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S132" t="n">
         <v>3.75</v>
@@ -19294,7 +19294,7 @@
         <v>1.83</v>
       </c>
       <c r="Y132" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z132" t="n">
         <v>12</v>
@@ -19312,7 +19312,7 @@
         <v>34</v>
       </c>
       <c r="AE132" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF132" t="n">
         <v>6</v>
@@ -19324,7 +19324,7 @@
         <v>51</v>
       </c>
       <c r="AI132" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ132" t="n">
         <v>8.5</v>
@@ -19339,7 +19339,7 @@
         <v>29</v>
       </c>
       <c r="AN132" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO132" t="n">
         <v>34</v>
@@ -19414,7 +19414,7 @@
         <v>2.1</v>
       </c>
       <c r="R133" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S133" t="n">
         <v>3.75</v>
@@ -19522,22 +19522,22 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H134" t="n">
         <v>3.5</v>
       </c>
       <c r="I134" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J134" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K134" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L134" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M134" t="n">
         <v>1.05</v>
@@ -19546,16 +19546,16 @@
         <v>11</v>
       </c>
       <c r="O134" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P134" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q134" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R134" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S134" t="n">
         <v>3.4</v>
@@ -19591,7 +19591,7 @@
         <v>15</v>
       </c>
       <c r="AD134" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE134" t="n">
         <v>10</v>
@@ -19609,13 +19609,13 @@
         <v>301</v>
       </c>
       <c r="AJ134" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK134" t="n">
         <v>21</v>
       </c>
       <c r="AL134" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM134" t="n">
         <v>41</v>
@@ -19663,19 +19663,19 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H135" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I135" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J135" t="n">
         <v>2.2</v>
       </c>
       <c r="K135" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L135" t="n">
         <v>6</v>
@@ -19693,10 +19693,10 @@
         <v>3.25</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="R135" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S135" t="n">
         <v>3.75</v>
@@ -19720,10 +19720,10 @@
         <v>6</v>
       </c>
       <c r="Z135" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA135" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB135" t="n">
         <v>11</v>
@@ -19828,16 +19828,16 @@
         <v>11</v>
       </c>
       <c r="O136" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P136" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R136" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S136" t="n">
         <v>2.25</v>
@@ -19909,10 +19909,10 @@
         <v>51</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AR136" t="inlineStr"/>
       <c r="AS136" t="inlineStr"/>
@@ -19949,13 +19949,13 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H137" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I137" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="J137" t="n">
         <v>1.8</v>
@@ -19964,13 +19964,13 @@
         <v>2.5</v>
       </c>
       <c r="L137" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M137" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N137" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O137" t="n">
         <v>1.17</v>
@@ -19979,16 +19979,16 @@
         <v>4.5</v>
       </c>
       <c r="Q137" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="R137" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S137" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T137" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U137" t="n">
         <v>1.29</v>
@@ -19997,43 +19997,43 @@
         <v>3.5</v>
       </c>
       <c r="W137" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X137" t="n">
         <v>1.91</v>
-      </c>
-      <c r="X137" t="n">
-        <v>1.8</v>
       </c>
       <c r="Y137" t="n">
         <v>8.5</v>
       </c>
       <c r="Z137" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA137" t="n">
         <v>9</v>
       </c>
       <c r="AB137" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC137" t="n">
         <v>11</v>
       </c>
       <c r="AD137" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE137" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF137" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG137" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH137" t="n">
         <v>51</v>
       </c>
       <c r="AI137" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AJ137" t="n">
         <v>23</v>
@@ -20054,10 +20054,10 @@
         <v>51</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AR137" t="inlineStr"/>
       <c r="AS137" t="inlineStr"/>
@@ -20112,10 +20112,10 @@
         <v>3</v>
       </c>
       <c r="M138" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N138" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O138" t="n">
         <v>1.25</v>
@@ -20124,10 +20124,10 @@
         <v>3.75</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R138" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S138" t="n">
         <v>3</v>
@@ -20166,10 +20166,10 @@
         <v>29</v>
       </c>
       <c r="AE138" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF138" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG138" t="n">
         <v>13</v>
@@ -20184,7 +20184,7 @@
         <v>9.5</v>
       </c>
       <c r="AK138" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL138" t="n">
         <v>10</v>
@@ -20253,10 +20253,10 @@
         <v>3.6</v>
       </c>
       <c r="M139" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N139" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O139" t="n">
         <v>1.29</v>
@@ -20265,10 +20265,10 @@
         <v>3.75</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R139" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S139" t="n">
         <v>3.2</v>
@@ -20650,22 +20650,22 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="H142" t="n">
         <v>3.85</v>
       </c>
       <c r="I142" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="J142" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K142" t="n">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="L142" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
@@ -20690,19 +20690,19 @@
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr"/>
       <c r="W142" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="X142" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Y142" t="n">
         <v>14</v>
       </c>
       <c r="Z142" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA142" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB142" t="n">
         <v>101</v>
@@ -20738,13 +20738,13 @@
         <v>6.6</v>
       </c>
       <c r="AM142" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AN142" t="n">
         <v>10</v>
       </c>
       <c r="AO142" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP142" t="inlineStr"/>
       <c r="AQ142" t="inlineStr"/>
@@ -20886,7 +20886,7 @@
         <v>1.89</v>
       </c>
       <c r="S144" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T144" t="n">
         <v>1.34</v>
@@ -20987,22 +20987,22 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H145" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I145" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J145" t="n">
         <v>2.62</v>
       </c>
       <c r="K145" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L145" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="M145" t="n">
         <v>1.06</v>
@@ -21011,28 +21011,28 @@
         <v>7.4</v>
       </c>
       <c r="O145" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P145" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R145" t="n">
         <v>1.88</v>
       </c>
       <c r="S145" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="T145" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="U145" t="n">
         <v>1.4</v>
       </c>
       <c r="V145" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="W145" t="n">
         <v>1.7</v>
@@ -21041,16 +21041,16 @@
         <v>2.05</v>
       </c>
       <c r="Y145" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z145" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AA145" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB145" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC145" t="n">
         <v>15.5</v>
@@ -21062,7 +21062,7 @@
         <v>7.4</v>
       </c>
       <c r="AF145" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AG145" t="n">
         <v>13</v>
@@ -21074,16 +21074,16 @@
         <v>400</v>
       </c>
       <c r="AJ145" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AK145" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL145" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM145" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN145" t="n">
         <v>30</v>
@@ -21128,22 +21128,22 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H146" t="n">
         <v>3.15</v>
       </c>
       <c r="I146" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="J146" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="K146" t="n">
         <v>2.02</v>
       </c>
       <c r="L146" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M146" t="n">
         <v>1.07</v>
@@ -21164,7 +21164,7 @@
         <v>1.75</v>
       </c>
       <c r="S146" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T146" t="n">
         <v>1.29</v>
@@ -21182,22 +21182,22 @@
         <v>1.98</v>
       </c>
       <c r="Y146" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z146" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA146" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB146" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC146" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AD146" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE146" t="n">
         <v>6.8</v>
@@ -21215,22 +21215,22 @@
         <v>500</v>
       </c>
       <c r="AJ146" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AK146" t="n">
         <v>11</v>
       </c>
       <c r="AL146" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AM146" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN146" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO146" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP146" t="inlineStr"/>
       <c r="AQ146" t="inlineStr"/>
@@ -21431,7 +21431,7 @@
         <v>1.07</v>
       </c>
       <c r="N148" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O148" t="n">
         <v>1.36</v>
@@ -21440,10 +21440,10 @@
         <v>3</v>
       </c>
       <c r="Q148" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R148" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S148" t="n">
         <v>3.75</v>
@@ -21692,7 +21692,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="H150" t="n">
         <v>3.3</v>
@@ -21839,7 +21839,7 @@
         <v>3.5</v>
       </c>
       <c r="I151" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="J151" t="n">
         <v>4.33</v>
@@ -21974,13 +21974,13 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H152" t="n">
         <v>3.2</v>
       </c>
       <c r="I152" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J152" t="n">
         <v>3.1</v>
@@ -22022,19 +22022,19 @@
         <v>2.63</v>
       </c>
       <c r="W152" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X152" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y152" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z152" t="n">
         <v>12</v>
       </c>
       <c r="AA152" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB152" t="n">
         <v>23</v>
@@ -22058,10 +22058,10 @@
         <v>51</v>
       </c>
       <c r="AI152" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ152" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK152" t="n">
         <v>15</v>
@@ -22115,7 +22115,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H153" t="n">
         <v>3.4</v>
@@ -22290,10 +22290,10 @@
         <v>2.75</v>
       </c>
       <c r="Q154" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R154" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S154" t="n">
         <v>4.33</v>
@@ -22575,7 +22575,7 @@
         <v>2.05</v>
       </c>
       <c r="R156" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S156" t="n">
         <v>3.5</v>
@@ -22590,10 +22590,10 @@
         <v>2.63</v>
       </c>
       <c r="W156" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X156" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y156" t="n">
         <v>8.5</v>
@@ -22623,13 +22623,13 @@
         <v>13</v>
       </c>
       <c r="AH156" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI156" t="n">
         <v>201</v>
       </c>
       <c r="AJ156" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK156" t="n">
         <v>15</v>
@@ -22842,13 +22842,13 @@
         <v>2.6</v>
       </c>
       <c r="M158" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N158" t="n">
         <v>12</v>
       </c>
       <c r="O158" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P158" t="n">
         <v>4</v>
@@ -22863,7 +22863,7 @@
         <v>2.75</v>
       </c>
       <c r="T158" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U158" t="n">
         <v>1.36</v>
@@ -22983,13 +22983,13 @@
         <v>2.63</v>
       </c>
       <c r="M159" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N159" t="n">
         <v>11</v>
       </c>
       <c r="O159" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P159" t="n">
         <v>3.75</v>
@@ -23004,7 +23004,7 @@
         <v>3</v>
       </c>
       <c r="T159" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U159" t="n">
         <v>1.36</v>
@@ -23247,97 +23247,97 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H161" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I161" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J161" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="K161" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="L161" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="M161" t="n">
         <v>1.04</v>
       </c>
       <c r="N161" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="O161" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P161" t="n">
-        <v>3.75</v>
+        <v>4.05</v>
       </c>
       <c r="Q161" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="R161" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="S161" t="n">
-        <v>2.65</v>
+        <v>2.42</v>
       </c>
       <c r="T161" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="U161" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="V161" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="W161" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X161" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Y161" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA161" t="n">
         <v>8.75</v>
-      </c>
-      <c r="Z161" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA161" t="n">
-        <v>8.5</v>
       </c>
       <c r="AB161" t="n">
         <v>18</v>
       </c>
       <c r="AC161" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD161" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE161" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AF161" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AG161" t="n">
         <v>13</v>
       </c>
       <c r="AH161" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI161" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AJ161" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AK161" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL161" t="n">
         <v>11.25</v>
@@ -23346,10 +23346,10 @@
         <v>40</v>
       </c>
       <c r="AN161" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO161" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AP161" t="inlineStr"/>
       <c r="AQ161" t="inlineStr"/>
@@ -23394,7 +23394,7 @@
         <v>3.1</v>
       </c>
       <c r="I162" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="J162" t="n">
         <v>4.5</v>
@@ -23415,7 +23415,7 @@
         <v>1.39</v>
       </c>
       <c r="P162" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="Q162" t="n">
         <v>2.15</v>
@@ -23424,22 +23424,22 @@
         <v>1.62</v>
       </c>
       <c r="S162" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T162" t="n">
         <v>1.24</v>
       </c>
       <c r="U162" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="V162" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="W162" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="X162" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Y162" t="n">
         <v>9.75</v>
@@ -23472,7 +23472,7 @@
         <v>80</v>
       </c>
       <c r="AI162" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AJ162" t="n">
         <v>6.3</v>
@@ -23529,85 +23529,85 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4.8</v>
+        <v>4.15</v>
       </c>
       <c r="H163" t="n">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
       <c r="I163" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="J163" t="n">
-        <v>4.65</v>
+        <v>4.3</v>
       </c>
       <c r="K163" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="L163" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="M163" t="n">
         <v>1.03</v>
       </c>
       <c r="N163" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O163" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P163" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="Q163" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="R163" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="S163" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="T163" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="U163" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V163" t="n">
         <v>3.25</v>
       </c>
       <c r="W163" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="X163" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y163" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z163" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AA163" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AB163" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AC163" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AD163" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE163" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF163" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AG163" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH163" t="n">
         <v>45</v>
@@ -23616,19 +23616,19 @@
         <v>250</v>
       </c>
       <c r="AJ163" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK163" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AL163" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AM163" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN163" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO163" t="n">
         <v>19</v>
@@ -24135,19 +24135,19 @@
         <v>1.83</v>
       </c>
       <c r="U167" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="V167" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="W167" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X167" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y167" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z167" t="n">
         <v>29</v>
@@ -24237,7 +24237,7 @@
         <v>1.25</v>
       </c>
       <c r="H168" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I168" t="n">
         <v>9</v>
@@ -24258,16 +24258,16 @@
         <v>19</v>
       </c>
       <c r="O168" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P168" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q168" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R168" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S168" t="n">
         <v>2.25</v>
@@ -24276,19 +24276,19 @@
         <v>1.57</v>
       </c>
       <c r="U168" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V168" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W168" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X168" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y168" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z168" t="n">
         <v>6.5</v>
@@ -24303,10 +24303,10 @@
         <v>11</v>
       </c>
       <c r="AD168" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE168" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF168" t="n">
         <v>13</v>
@@ -24324,7 +24324,7 @@
         <v>23</v>
       </c>
       <c r="AK168" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL168" t="n">
         <v>26</v>
@@ -24339,10 +24339,10 @@
         <v>51</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AQ168" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AR168" t="inlineStr"/>
       <c r="AS168" t="inlineStr"/>
@@ -24379,16 +24379,16 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H169" t="n">
         <v>3.5</v>
       </c>
       <c r="I169" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J169" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K169" t="n">
         <v>2.2</v>
@@ -24409,10 +24409,10 @@
         <v>3.5</v>
       </c>
       <c r="Q169" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R169" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S169" t="n">
         <v>3.25</v>
@@ -24436,13 +24436,13 @@
         <v>7.5</v>
       </c>
       <c r="Z169" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA169" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB169" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC169" t="n">
         <v>15</v>
@@ -24463,13 +24463,13 @@
         <v>51</v>
       </c>
       <c r="AI169" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ169" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK169" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL169" t="n">
         <v>13</v>
@@ -24520,16 +24520,16 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H170" t="n">
         <v>3</v>
       </c>
       <c r="I170" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J170" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K170" t="n">
         <v>1.95</v>
@@ -24538,10 +24538,10 @@
         <v>3.5</v>
       </c>
       <c r="M170" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N170" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O170" t="n">
         <v>1.44</v>
@@ -24583,7 +24583,7 @@
         <v>11</v>
       </c>
       <c r="AB170" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC170" t="n">
         <v>26</v>
@@ -24592,7 +24592,7 @@
         <v>41</v>
       </c>
       <c r="AE170" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF170" t="n">
         <v>6</v>
@@ -24619,7 +24619,7 @@
         <v>26</v>
       </c>
       <c r="AN170" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO170" t="n">
         <v>41</v>
@@ -24665,22 +24665,22 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H171" t="n">
         <v>3.4</v>
       </c>
       <c r="I171" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J171" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K171" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L171" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M171" t="n">
         <v>1.05</v>
@@ -24713,19 +24713,19 @@
         <v>2.75</v>
       </c>
       <c r="W171" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="X171" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Y171" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z171" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA171" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB171" t="n">
         <v>41</v>
@@ -24734,10 +24734,10 @@
         <v>29</v>
       </c>
       <c r="AD171" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE171" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF171" t="n">
         <v>6.5</v>
@@ -24749,25 +24749,25 @@
         <v>51</v>
       </c>
       <c r="AI171" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ171" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK171" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL171" t="n">
         <v>9</v>
       </c>
       <c r="AM171" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN171" t="n">
         <v>17</v>
       </c>
       <c r="AO171" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP171" t="inlineStr"/>
       <c r="AQ171" t="inlineStr"/>
@@ -24824,10 +24824,10 @@
         <v>3.4</v>
       </c>
       <c r="M172" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N172" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O172" t="n">
         <v>1.3</v>
@@ -24836,16 +24836,16 @@
         <v>3.4</v>
       </c>
       <c r="Q172" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R172" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S172" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T172" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U172" t="n">
         <v>1.4</v>
@@ -24860,10 +24860,10 @@
         <v>2</v>
       </c>
       <c r="Y172" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z172" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA172" t="n">
         <v>10</v>
@@ -24878,16 +24878,16 @@
         <v>29</v>
       </c>
       <c r="AE172" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF172" t="n">
         <v>6.5</v>
       </c>
       <c r="AG172" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH172" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI172" t="n">
         <v>201</v>
@@ -24902,7 +24902,7 @@
         <v>10</v>
       </c>
       <c r="AM172" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN172" t="n">
         <v>21</v>
@@ -24947,22 +24947,22 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="H173" t="n">
         <v>3.3</v>
       </c>
       <c r="I173" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J173" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="K173" t="n">
         <v>2.02</v>
       </c>
       <c r="L173" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
@@ -24985,7 +24985,7 @@
         <v>1.2</v>
       </c>
       <c r="U173" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V173" t="n">
         <v>2.4</v>
@@ -24997,16 +24997,16 @@
         <v>1.7</v>
       </c>
       <c r="Y173" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z173" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA173" t="n">
         <v>9</v>
       </c>
       <c r="AB173" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC173" t="n">
         <v>18.5</v>
@@ -25021,7 +25021,7 @@
         <v>6.4</v>
       </c>
       <c r="AG173" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH173" t="n">
         <v>100</v>
@@ -25093,13 +25093,13 @@
         <v>3.35</v>
       </c>
       <c r="J174" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K174" t="n">
         <v>1.8</v>
       </c>
       <c r="L174" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M174" t="n">
         <v>1.11</v>
@@ -25132,28 +25132,28 @@
         <v>2.1</v>
       </c>
       <c r="W174" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="X174" t="n">
         <v>1.7</v>
       </c>
       <c r="Y174" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="Z174" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA174" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB174" t="n">
         <v>26</v>
       </c>
       <c r="AC174" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD174" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE174" t="n">
         <v>6.2</v>
@@ -25171,22 +25171,22 @@
         <v>900</v>
       </c>
       <c r="AJ174" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AK174" t="n">
         <v>16.5</v>
       </c>
       <c r="AL174" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM174" t="n">
         <v>50</v>
       </c>
       <c r="AN174" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AO174" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP174" t="inlineStr"/>
       <c r="AQ174" t="inlineStr"/>
@@ -25255,10 +25255,10 @@
         <v>4.33</v>
       </c>
       <c r="Q175" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R175" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S175" t="n">
         <v>2.63</v>
@@ -25370,22 +25370,22 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H176" t="n">
         <v>3.8</v>
       </c>
       <c r="I176" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="J176" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K176" t="n">
         <v>2.3</v>
       </c>
       <c r="L176" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M176" t="n">
         <v>1.03</v>
@@ -25427,16 +25427,16 @@
         <v>11</v>
       </c>
       <c r="Z176" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA176" t="n">
         <v>9.5</v>
       </c>
       <c r="AB176" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC176" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD176" t="n">
         <v>23</v>
@@ -25466,7 +25466,7 @@
         <v>10</v>
       </c>
       <c r="AM176" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN176" t="n">
         <v>19</v>
@@ -25515,22 +25515,22 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H177" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I177" t="n">
         <v>3.4</v>
       </c>
       <c r="J177" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K177" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L177" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M177" t="n">
         <v>1.03</v>
@@ -25557,19 +25557,19 @@
         <v>1.5</v>
       </c>
       <c r="U177" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V177" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W177" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X177" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y177" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z177" t="n">
         <v>12</v>
@@ -25584,28 +25584,28 @@
         <v>15</v>
       </c>
       <c r="AD177" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE177" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF177" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG177" t="n">
         <v>12</v>
       </c>
       <c r="AH177" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI177" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ177" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK177" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL177" t="n">
         <v>12</v>
@@ -25620,10 +25620,10 @@
         <v>26</v>
       </c>
       <c r="AP177" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR177" t="inlineStr"/>
       <c r="AS177" t="inlineStr"/>
@@ -26087,13 +26087,13 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H181" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I181" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J181" t="n">
         <v>2.05</v>
@@ -26107,22 +26107,22 @@
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P181" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q181" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R181" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S181" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="T181" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="U181" t="n">
         <v>1.41</v>
@@ -26131,13 +26131,13 @@
         <v>2.7</v>
       </c>
       <c r="W181" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="X181" t="n">
         <v>1.78</v>
       </c>
       <c r="Y181" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Z181" t="n">
         <v>7</v>
@@ -26146,7 +26146,7 @@
         <v>8</v>
       </c>
       <c r="AB181" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AC181" t="n">
         <v>12</v>
@@ -26155,25 +26155,25 @@
         <v>26</v>
       </c>
       <c r="AE181" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AF181" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AG181" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH181" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AI181" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AJ181" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AK181" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL181" t="n">
         <v>18.5</v>
@@ -26185,7 +26185,7 @@
         <v>65</v>
       </c>
       <c r="AO181" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AP181" t="inlineStr"/>
       <c r="AQ181" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS181"/>
+  <dimension ref="A1:AS182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -998,16 +998,16 @@
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S4" t="n">
         <v>3.4</v>
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
@@ -1130,7 +1130,7 @@
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1145,10 +1145,10 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
         <v>3.2</v>
@@ -1175,13 +1175,13 @@
         <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD5" t="n">
         <v>34</v>
@@ -1205,7 +1205,7 @@
         <v>8.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL5" t="n">
         <v>9</v>
@@ -1214,7 +1214,7 @@
         <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO5" t="n">
         <v>23</v>
@@ -1256,34 +1256,34 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.83</v>
       </c>
       <c r="K6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.57</v>
@@ -1292,10 +1292,10 @@
         <v>2.38</v>
       </c>
       <c r="S6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U6" t="n">
         <v>1.29</v>
@@ -1310,7 +1310,7 @@
         <v>1.95</v>
       </c>
       <c r="Y6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
         <v>7.5</v>
@@ -1328,10 +1328,10 @@
         <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
         <v>19</v>
@@ -1343,7 +1343,7 @@
         <v>251</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
@@ -1361,10 +1361,10 @@
         <v>41</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -1419,10 +1419,10 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
         <v>6.5</v>
@@ -1847,7 +1847,7 @@
         <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -1889,7 +1889,7 @@
         <v>6</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA10" t="n">
         <v>8.5</v>
@@ -1898,13 +1898,13 @@
         <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD10" t="n">
         <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF10" t="n">
         <v>7</v>
@@ -1919,13 +1919,13 @@
         <v>451</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="n">
         <v>67</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
         <v>3.1</v>
@@ -1985,16 +1985,16 @@
         <v>2.63</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
         <v>4.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -2075,7 +2075,7 @@
         <v>41</v>
       </c>
       <c r="AO11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
@@ -2414,10 +2414,10 @@
         <v>2.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
@@ -2426,10 +2426,10 @@
         <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S14" t="n">
         <v>3.4</v>
@@ -2849,10 +2849,10 @@
         <v>3.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R17" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S17" t="n">
         <v>3.75</v>
@@ -2960,16 +2960,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="I18" t="n">
         <v>2.6</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K18" t="n">
         <v>1.8</v>
@@ -3014,7 +3014,7 @@
         <v>1.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z18" t="n">
         <v>13</v>
@@ -3153,7 +3153,7 @@
         <v>1.75</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z19" t="n">
         <v>6.5</v>
@@ -3183,7 +3183,7 @@
         <v>67</v>
       </c>
       <c r="AI19" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ19" t="n">
         <v>26</v>
@@ -3204,10 +3204,10 @@
         <v>67</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3411,10 +3411,10 @@
         <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q21" t="n">
         <v>2.3</v>
@@ -3532,16 +3532,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
         <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K22" t="n">
         <v>1.91</v>
@@ -3565,7 +3565,7 @@
         <v>2.6</v>
       </c>
       <c r="R22" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S22" t="n">
         <v>5.5</v>
@@ -3583,7 +3583,7 @@
         <v>2.25</v>
       </c>
       <c r="X22" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Y22" t="n">
         <v>5</v>
@@ -3643,10 +3643,10 @@
         <v>1.22</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="23">
@@ -3699,28 +3699,28 @@
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P23" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q23" t="n">
         <v>2.7</v>
       </c>
       <c r="R23" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="U23" t="n">
         <v>1.62</v>
@@ -3732,7 +3732,7 @@
         <v>2.2</v>
       </c>
       <c r="X23" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Y23" t="n">
         <v>6.5</v>
@@ -3759,7 +3759,7 @@
         <v>6</v>
       </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH23" t="n">
         <v>81</v>
@@ -3780,13 +3780,13 @@
         <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO23" t="n">
         <v>41</v>
       </c>
       <c r="AP23" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.2</v>
@@ -3863,7 +3863,7 @@
         <v>3.1</v>
       </c>
       <c r="R24" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S24" t="n">
         <v>6.5</v>
@@ -3881,7 +3881,7 @@
         <v>2.25</v>
       </c>
       <c r="X24" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Y24" t="n">
         <v>5.5</v>
@@ -4009,10 +4009,10 @@
         <v>2.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R25" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="S25" t="n">
         <v>6.5</v>
@@ -4027,10 +4027,10 @@
         <v>2.1</v>
       </c>
       <c r="W25" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="X25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y25" t="n">
         <v>7</v>
@@ -4128,13 +4128,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J26" t="n">
         <v>3.4</v>
@@ -4170,10 +4170,10 @@
         <v>1.1</v>
       </c>
       <c r="U26" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W26" t="n">
         <v>2.5</v>
@@ -4185,7 +4185,7 @@
         <v>5.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA26" t="n">
         <v>11</v>
@@ -4194,16 +4194,16 @@
         <v>23</v>
       </c>
       <c r="AC26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE26" t="n">
         <v>5.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG26" t="n">
         <v>23</v>
@@ -4227,7 +4227,7 @@
         <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO26" t="n">
         <v>51</v>
@@ -4295,10 +4295,10 @@
         <v>4.33</v>
       </c>
       <c r="M27" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.62</v>
@@ -4436,10 +4436,10 @@
         <v>4.75</v>
       </c>
       <c r="M28" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.67</v>
@@ -4559,7 +4559,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
@@ -4577,16 +4577,16 @@
         <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N29" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q29" t="n">
         <v>3.4</v>
@@ -4601,10 +4601,10 @@
         <v>1.1</v>
       </c>
       <c r="U29" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V29" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="W29" t="n">
         <v>2.63</v>
@@ -4646,7 +4646,7 @@
         <v>101</v>
       </c>
       <c r="AJ29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK29" t="n">
         <v>19</v>
@@ -4709,7 +4709,7 @@
         <v>4.75</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K30" t="n">
         <v>1.8</v>
@@ -4742,16 +4742,16 @@
         <v>1.1</v>
       </c>
       <c r="U30" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V30" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W30" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="X30" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y30" t="n">
         <v>4.75</v>
@@ -4769,7 +4769,7 @@
         <v>23</v>
       </c>
       <c r="AD30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE30" t="n">
         <v>4.75</v>
@@ -5145,13 +5145,13 @@
         <v>4.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N33" t="n">
         <v>5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -5166,7 +5166,7 @@
         <v>8</v>
       </c>
       <c r="T33" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="U33" t="n">
         <v>1.78</v>
@@ -5286,13 +5286,13 @@
         <v>5.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N34" t="n">
         <v>4.75</v>
       </c>
       <c r="O34" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -5307,7 +5307,7 @@
         <v>8</v>
       </c>
       <c r="T34" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="U34" t="n">
         <v>1.78</v>
@@ -5431,16 +5431,16 @@
         <v>4.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="N35" t="n">
         <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q35" t="n">
         <v>4</v>
@@ -5452,7 +5452,7 @@
         <v>9</v>
       </c>
       <c r="T35" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="U35" t="n">
         <v>1.85</v>
@@ -5572,13 +5572,13 @@
         <v>7.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N36" t="n">
         <v>5.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P36" t="n">
         <v>2.1</v>
@@ -5593,7 +5593,7 @@
         <v>6.5</v>
       </c>
       <c r="T36" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="U36" t="n">
         <v>1.67</v>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>4.75</v>
       </c>
       <c r="I37" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J37" t="n">
         <v>1.95</v>
@@ -5717,13 +5717,13 @@
         <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N37" t="n">
         <v>21</v>
       </c>
       <c r="O37" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="P37" t="n">
         <v>7</v>
@@ -5735,10 +5735,10 @@
         <v>3.2</v>
       </c>
       <c r="S37" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="T37" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="U37" t="n">
         <v>1.2</v>
@@ -5759,7 +5759,7 @@
         <v>11</v>
       </c>
       <c r="AA37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB37" t="n">
         <v>13</v>
@@ -5771,16 +5771,16 @@
         <v>17</v>
       </c>
       <c r="AE37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI37" t="n">
         <v>81</v>
@@ -5789,7 +5789,7 @@
         <v>26</v>
       </c>
       <c r="AK37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL37" t="n">
         <v>19</v>
@@ -5801,7 +5801,7 @@
         <v>34</v>
       </c>
       <c r="AO37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP37" t="n">
         <v>1.8</v>
@@ -6015,10 +6015,10 @@
         <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R39" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S39" t="n">
         <v>4</v>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H42" t="n">
         <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J42" t="n">
         <v>4</v>
@@ -6438,10 +6438,10 @@
         <v>3.25</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R42" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S42" t="n">
         <v>3.75</v>
@@ -6462,16 +6462,16 @@
         <v>1.91</v>
       </c>
       <c r="Y42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA42" t="n">
         <v>12</v>
       </c>
       <c r="AB42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC42" t="n">
         <v>29</v>
@@ -6498,13 +6498,13 @@
         <v>7</v>
       </c>
       <c r="AK42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN42" t="n">
         <v>19</v>
@@ -7121,16 +7121,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H47" t="n">
         <v>3.5</v>
       </c>
       <c r="I47" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J47" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K47" t="n">
         <v>2</v>
@@ -7139,13 +7139,13 @@
         <v>3.75</v>
       </c>
       <c r="M47" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P47" t="n">
         <v>2.75</v>
@@ -7160,7 +7160,7 @@
         <v>4</v>
       </c>
       <c r="T47" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U47" t="n">
         <v>1.5</v>
@@ -7169,22 +7169,22 @@
         <v>2.5</v>
       </c>
       <c r="W47" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X47" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
       </c>
       <c r="Z47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA47" t="n">
         <v>10</v>
       </c>
       <c r="AB47" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC47" t="n">
         <v>21</v>
@@ -7284,13 +7284,13 @@
         <v>2.1</v>
       </c>
       <c r="M48" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N48" t="n">
         <v>10</v>
       </c>
       <c r="O48" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P48" t="n">
         <v>2.75</v>
@@ -7305,7 +7305,7 @@
         <v>4</v>
       </c>
       <c r="T48" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U48" t="n">
         <v>1.5</v>
@@ -7317,7 +7317,7 @@
         <v>2.5</v>
       </c>
       <c r="X48" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Y48" t="n">
         <v>12</v>
@@ -7425,28 +7425,28 @@
         <v>2.6</v>
       </c>
       <c r="M49" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N49" t="n">
         <v>9</v>
       </c>
       <c r="O49" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R49" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S49" t="n">
         <v>3.75</v>
       </c>
       <c r="T49" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U49" t="n">
         <v>1.44</v>
@@ -7574,28 +7574,28 @@
         <v>2.25</v>
       </c>
       <c r="M50" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N50" t="n">
         <v>15</v>
       </c>
       <c r="O50" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P50" t="n">
         <v>4.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R50" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S50" t="n">
         <v>2.5</v>
       </c>
       <c r="T50" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U50" t="n">
         <v>1.3</v>
@@ -7661,10 +7661,10 @@
         <v>21</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR50" t="n">
         <v>1.28</v>
@@ -7723,13 +7723,13 @@
         <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N51" t="n">
         <v>8</v>
       </c>
       <c r="O51" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P51" t="n">
         <v>2.75</v>
@@ -7744,7 +7744,7 @@
         <v>4</v>
       </c>
       <c r="T51" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U51" t="n">
         <v>1.5</v>
@@ -7878,16 +7878,16 @@
         <v>11</v>
       </c>
       <c r="O52" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P52" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R52" t="n">
         <v>1.9</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.95</v>
       </c>
       <c r="S52" t="n">
         <v>3.25</v>
@@ -8049,7 +8049,7 @@
         <v>2</v>
       </c>
       <c r="Y53" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z53" t="n">
         <v>8</v>
@@ -8158,28 +8158,28 @@
         <v>4.33</v>
       </c>
       <c r="M54" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O54" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P54" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R54" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S54" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T54" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U54" t="n">
         <v>1.53</v>
@@ -8251,10 +8251,10 @@
         <v>1.28</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="55">
@@ -8289,16 +8289,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H55" t="n">
         <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J55" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
         <v>1.95</v>
@@ -8307,16 +8307,16 @@
         <v>4.33</v>
       </c>
       <c r="M55" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O55" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P55" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q55" t="n">
         <v>2.5</v>
@@ -8376,10 +8376,10 @@
         <v>1250</v>
       </c>
       <c r="AJ55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL55" t="n">
         <v>13</v>
@@ -8438,13 +8438,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H56" t="n">
         <v>3.3</v>
       </c>
       <c r="I56" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J56" t="n">
         <v>2.5</v>
@@ -8453,13 +8453,13 @@
         <v>2.2</v>
       </c>
       <c r="L56" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M56" t="n">
         <v>1.06</v>
       </c>
       <c r="N56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O56" t="n">
         <v>1.29</v>
@@ -8468,7 +8468,7 @@
         <v>3.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R56" t="n">
         <v>1.85</v>
@@ -8486,16 +8486,16 @@
         <v>2.75</v>
       </c>
       <c r="W56" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X56" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y56" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA56" t="n">
         <v>8.5</v>
@@ -8510,25 +8510,25 @@
         <v>26</v>
       </c>
       <c r="AE56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF56" t="n">
         <v>6.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI56" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL56" t="n">
         <v>15</v>
@@ -8686,10 +8686,10 @@
       <c r="AP57" t="inlineStr"/>
       <c r="AQ57" t="inlineStr"/>
       <c r="AR57" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="58">
@@ -8724,22 +8724,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="H58" t="n">
         <v>7.5</v>
       </c>
       <c r="I58" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J58" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="K58" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="L58" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="M58" t="n">
         <v>1.02</v>
@@ -8748,58 +8748,58 @@
         <v>11</v>
       </c>
       <c r="O58" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P58" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="R58" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="S58" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="T58" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="U58" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="V58" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="W58" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="X58" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Y58" t="n">
         <v>7.6</v>
       </c>
       <c r="Z58" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AA58" t="n">
         <v>12</v>
       </c>
       <c r="AB58" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AC58" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AD58" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE58" t="n">
         <v>11.25</v>
       </c>
       <c r="AF58" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG58" t="n">
         <v>40</v>
@@ -8808,25 +8808,25 @@
         <v>200</v>
       </c>
       <c r="AI58" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AJ58" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AK58" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="AL58" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AM58" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AN58" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="AO58" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AP58" t="inlineStr"/>
       <c r="AQ58" t="inlineStr"/>
@@ -8874,19 +8874,19 @@
         <v>7.5</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K59" t="n">
         <v>2.3</v>
       </c>
       <c r="L59" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M59" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O59" t="n">
         <v>1.25</v>
@@ -8895,7 +8895,7 @@
         <v>3.75</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R59" t="n">
         <v>1.95</v>
@@ -8928,7 +8928,7 @@
         <v>8.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC59" t="n">
         <v>13</v>
@@ -8946,16 +8946,16 @@
         <v>19</v>
       </c>
       <c r="AH59" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI59" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AJ59" t="n">
         <v>17</v>
       </c>
       <c r="AK59" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL59" t="n">
         <v>21</v>
@@ -9036,10 +9036,10 @@
         <v>3.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R60" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S60" t="n">
         <v>3.25</v>
@@ -9147,10 +9147,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H61" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I61" t="n">
         <v>1.7</v>
@@ -9165,28 +9165,28 @@
         <v>2.3</v>
       </c>
       <c r="M61" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O61" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P61" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R61" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S61" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T61" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U61" t="n">
         <v>1.33</v>
@@ -9195,16 +9195,16 @@
         <v>3.25</v>
       </c>
       <c r="W61" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="X61" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y61" t="n">
         <v>15</v>
       </c>
       <c r="Z61" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA61" t="n">
         <v>15</v>
@@ -9216,10 +9216,10 @@
         <v>34</v>
       </c>
       <c r="AD61" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF61" t="n">
         <v>7.5</v>
@@ -9231,13 +9231,13 @@
         <v>41</v>
       </c>
       <c r="AI61" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ61" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK61" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL61" t="n">
         <v>8.5</v>
@@ -9249,7 +9249,7 @@
         <v>13</v>
       </c>
       <c r="AO61" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP61" t="inlineStr"/>
       <c r="AQ61" t="inlineStr"/>
@@ -9288,7 +9288,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="H62" t="n">
         <v>6.5</v>
@@ -9439,7 +9439,7 @@
         <v>3.6</v>
       </c>
       <c r="I63" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J63" t="n">
         <v>3.6</v>
@@ -9574,13 +9574,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H64" t="n">
         <v>3.75</v>
       </c>
       <c r="I64" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J64" t="n">
         <v>2.38</v>
@@ -9622,13 +9622,13 @@
         <v>3.4</v>
       </c>
       <c r="W64" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X64" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y64" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z64" t="n">
         <v>10</v>
@@ -9649,16 +9649,16 @@
         <v>15</v>
       </c>
       <c r="AF64" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH64" t="n">
         <v>41</v>
       </c>
       <c r="AI64" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ64" t="n">
         <v>15</v>
@@ -9667,7 +9667,7 @@
         <v>23</v>
       </c>
       <c r="AL64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM64" t="n">
         <v>41</v>
@@ -9719,13 +9719,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="H65" t="n">
         <v>3.6</v>
       </c>
       <c r="I65" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J65" t="n">
         <v>2.5</v>
@@ -9776,7 +9776,7 @@
         <v>9.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA65" t="n">
         <v>8.5</v>
@@ -9797,7 +9797,7 @@
         <v>7</v>
       </c>
       <c r="AG65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH65" t="n">
         <v>41</v>
@@ -9806,7 +9806,7 @@
         <v>151</v>
       </c>
       <c r="AJ65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK65" t="n">
         <v>21</v>
@@ -9818,7 +9818,7 @@
         <v>41</v>
       </c>
       <c r="AN65" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO65" t="n">
         <v>29</v>
@@ -9870,7 +9870,7 @@
         <v>4.75</v>
       </c>
       <c r="I66" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="J66" t="n">
         <v>5.5</v>
@@ -10009,22 +10009,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H67" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I67" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J67" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K67" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L67" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M67" t="n">
         <v>1.04</v>
@@ -10066,7 +10066,7 @@
         <v>7.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA67" t="n">
         <v>8.5</v>
@@ -10093,19 +10093,19 @@
         <v>51</v>
       </c>
       <c r="AI67" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ67" t="n">
         <v>17</v>
       </c>
       <c r="AK67" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL67" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM67" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN67" t="n">
         <v>41</v>
@@ -10319,7 +10319,7 @@
         <v>6.8</v>
       </c>
       <c r="O69" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P69" t="n">
         <v>2.95</v>
@@ -10331,22 +10331,22 @@
         <v>1.7</v>
       </c>
       <c r="S69" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T69" t="n">
         <v>1.27</v>
       </c>
       <c r="U69" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V69" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="W69" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="X69" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="Y69" t="n">
         <v>7</v>
@@ -10839,7 +10839,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="H73" t="n">
         <v>3.6</v>
@@ -10860,7 +10860,7 @@
         <v>1.03</v>
       </c>
       <c r="N73" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O73" t="n">
         <v>1.17</v>
@@ -10869,7 +10869,7 @@
         <v>5</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R73" t="n">
         <v>2.35</v>
@@ -10944,10 +10944,10 @@
         <v>23</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
@@ -11005,7 +11005,7 @@
         <v>1.03</v>
       </c>
       <c r="N74" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O74" t="n">
         <v>1.18</v>
@@ -11014,7 +11014,7 @@
         <v>4.5</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R74" t="n">
         <v>2.3</v>
@@ -11129,22 +11129,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="H75" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I75" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="J75" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K75" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L75" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M75" t="n">
         <v>1.03</v>
@@ -11153,22 +11153,22 @@
         <v>15</v>
       </c>
       <c r="O75" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P75" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R75" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S75" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T75" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U75" t="n">
         <v>1.3</v>
@@ -11177,28 +11177,28 @@
         <v>3.4</v>
       </c>
       <c r="W75" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X75" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y75" t="n">
         <v>12</v>
       </c>
       <c r="Z75" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA75" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC75" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE75" t="n">
         <v>15</v>
@@ -11213,31 +11213,31 @@
         <v>34</v>
       </c>
       <c r="AI75" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ75" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK75" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM75" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN75" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO75" t="n">
         <v>23</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>
@@ -11307,7 +11307,7 @@
         <v>2.1</v>
       </c>
       <c r="R76" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S76" t="n">
         <v>3.75</v>
@@ -11562,7 +11562,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J78" t="n">
         <v>2.2</v>
@@ -11577,7 +11577,7 @@
         <v>1.04</v>
       </c>
       <c r="N78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O78" t="n">
         <v>1.22</v>
@@ -11628,10 +11628,10 @@
         <v>23</v>
       </c>
       <c r="AE78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF78" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG78" t="n">
         <v>15</v>
@@ -11846,16 +11846,16 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H80" t="n">
         <v>4</v>
       </c>
       <c r="I80" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J80" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K80" t="n">
         <v>2.2</v>
@@ -11864,10 +11864,10 @@
         <v>6.5</v>
       </c>
       <c r="M80" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O80" t="n">
         <v>1.33</v>
@@ -11900,7 +11900,7 @@
         <v>1.67</v>
       </c>
       <c r="Y80" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z80" t="n">
         <v>6.5</v>
@@ -11909,7 +11909,7 @@
         <v>8.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC80" t="n">
         <v>15</v>
@@ -12162,22 +12162,22 @@
         <v>3.5</v>
       </c>
       <c r="M82" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O82" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P82" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R82" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S82" t="n">
         <v>4</v>
@@ -12249,16 +12249,16 @@
         <v>34</v>
       </c>
       <c r="AP82" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.32</v>
       </c>
       <c r="AR82" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="83">
@@ -12296,7 +12296,7 @@
         <v>2.2</v>
       </c>
       <c r="H83" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I83" t="n">
         <v>3.25</v>
@@ -12311,28 +12311,28 @@
         <v>3.6</v>
       </c>
       <c r="M83" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N83" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O83" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P83" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="R83" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S83" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T83" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U83" t="n">
         <v>1.36</v>
@@ -12347,7 +12347,7 @@
         <v>2.1</v>
       </c>
       <c r="Y83" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z83" t="n">
         <v>11</v>
@@ -12434,13 +12434,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H84" t="n">
         <v>3.4</v>
       </c>
       <c r="I84" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J84" t="n">
         <v>3.4</v>
@@ -12455,7 +12455,7 @@
         <v>1.04</v>
       </c>
       <c r="N84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O84" t="n">
         <v>1.22</v>
@@ -12476,10 +12476,10 @@
         <v>1.4</v>
       </c>
       <c r="U84" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V84" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W84" t="n">
         <v>1.62</v>
@@ -12506,7 +12506,7 @@
         <v>26</v>
       </c>
       <c r="AE84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF84" t="n">
         <v>6.5</v>
@@ -12533,7 +12533,7 @@
         <v>23</v>
       </c>
       <c r="AN84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO84" t="n">
         <v>23</v>
@@ -12575,13 +12575,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H85" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I85" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J85" t="n">
         <v>1.83</v>
@@ -12590,13 +12590,13 @@
         <v>2.5</v>
       </c>
       <c r="L85" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M85" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O85" t="n">
         <v>1.2</v>
@@ -12623,10 +12623,10 @@
         <v>3.4</v>
       </c>
       <c r="W85" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X85" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y85" t="n">
         <v>7.5</v>
@@ -12650,7 +12650,7 @@
         <v>13</v>
       </c>
       <c r="AF85" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG85" t="n">
         <v>19</v>
@@ -12671,7 +12671,7 @@
         <v>23</v>
       </c>
       <c r="AM85" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN85" t="n">
         <v>51</v>
@@ -12990,22 +12990,22 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H88" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="I88" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K88" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L88" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
@@ -13016,24 +13016,24 @@
         <v>3.4</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R88" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S88" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="T88" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X88" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Y88" t="n">
         <v>7.1</v>
@@ -13045,46 +13045,46 @@
         <v>8</v>
       </c>
       <c r="AB88" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AC88" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AD88" t="n">
         <v>25</v>
       </c>
       <c r="AE88" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF88" t="n">
         <v>8</v>
       </c>
       <c r="AG88" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH88" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="n">
         <v>600</v>
       </c>
       <c r="AJ88" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK88" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL88" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AM88" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN88" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AO88" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AP88" t="inlineStr"/>
       <c r="AQ88" t="inlineStr"/>
@@ -13123,19 +13123,19 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="H89" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I89" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J89" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K89" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L89" t="n">
         <v>3.05</v>
@@ -13143,22 +13143,22 @@
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P89" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="R89" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="S89" t="n">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="T89" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="U89" t="n">
         <v>1.4</v>
@@ -13167,61 +13167,61 @@
         <v>2.52</v>
       </c>
       <c r="W89" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X89" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="Y89" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="Z89" t="n">
         <v>14.5</v>
       </c>
       <c r="AA89" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB89" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC89" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AD89" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE89" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AF89" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AG89" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AI89" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AJ89" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK89" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL89" t="n">
         <v>9.25</v>
       </c>
       <c r="AM89" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN89" t="n">
         <v>19.5</v>
       </c>
       <c r="AO89" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AP89" t="inlineStr"/>
       <c r="AQ89" t="inlineStr"/>
@@ -13290,16 +13290,16 @@
         <v>3</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R90" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S90" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T90" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U90" t="n">
         <v>1.44</v>
@@ -13344,7 +13344,7 @@
         <v>67</v>
       </c>
       <c r="AI90" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AJ90" t="n">
         <v>10</v>
@@ -13542,22 +13542,22 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H92" t="n">
         <v>3.4</v>
       </c>
       <c r="I92" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J92" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K92" t="n">
         <v>2</v>
       </c>
       <c r="L92" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M92" t="n">
         <v>1.08</v>
@@ -13590,16 +13590,16 @@
         <v>2.5</v>
       </c>
       <c r="W92" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X92" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y92" t="n">
         <v>6</v>
       </c>
       <c r="Z92" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA92" t="n">
         <v>9</v>
@@ -13608,7 +13608,7 @@
         <v>17</v>
       </c>
       <c r="AC92" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD92" t="n">
         <v>34</v>
@@ -13626,7 +13626,7 @@
         <v>67</v>
       </c>
       <c r="AI92" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ92" t="n">
         <v>9</v>
@@ -13635,13 +13635,13 @@
         <v>19</v>
       </c>
       <c r="AL92" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM92" t="n">
         <v>41</v>
       </c>
       <c r="AN92" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO92" t="n">
         <v>41</v>
@@ -13683,7 +13683,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H93" t="n">
         <v>3.4</v>
@@ -13698,25 +13698,25 @@
         <v>2.05</v>
       </c>
       <c r="L93" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M93" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O93" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P93" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R93" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S93" t="n">
         <v>4</v>
@@ -13746,7 +13746,7 @@
         <v>9</v>
       </c>
       <c r="AB93" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC93" t="n">
         <v>17</v>
@@ -13834,7 +13834,7 @@
         <v>3.6</v>
       </c>
       <c r="I94" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J94" t="n">
         <v>2.4</v>
@@ -13846,10 +13846,10 @@
         <v>4.75</v>
       </c>
       <c r="M94" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O94" t="n">
         <v>1.29</v>
@@ -13858,16 +13858,16 @@
         <v>3.5</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R94" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S94" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T94" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U94" t="n">
         <v>1.4</v>
@@ -13927,7 +13927,7 @@
         <v>51</v>
       </c>
       <c r="AN94" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO94" t="n">
         <v>41</v>
@@ -13969,22 +13969,22 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="H95" t="n">
         <v>3</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J95" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K95" t="n">
         <v>1.95</v>
       </c>
       <c r="L95" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M95" t="n">
         <v>1.1</v>
@@ -14011,28 +14011,28 @@
         <v>1.17</v>
       </c>
       <c r="U95" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V95" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W95" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X95" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y95" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z95" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA95" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB95" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC95" t="n">
         <v>23</v>
@@ -14041,7 +14041,7 @@
         <v>41</v>
       </c>
       <c r="AE95" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF95" t="n">
         <v>6</v>
@@ -14053,13 +14053,13 @@
         <v>67</v>
       </c>
       <c r="AI95" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ95" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK95" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL95" t="n">
         <v>12</v>
@@ -14114,7 +14114,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H96" t="n">
         <v>3.3</v>
@@ -14144,10 +14144,10 @@
         <v>3</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R96" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S96" t="n">
         <v>4</v>
@@ -14162,10 +14162,10 @@
         <v>2.5</v>
       </c>
       <c r="W96" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="X96" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y96" t="n">
         <v>7</v>
@@ -14258,10 +14258,10 @@
         <v>3</v>
       </c>
       <c r="H97" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="I97" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J97" t="n">
         <v>4</v>
@@ -14273,13 +14273,13 @@
         <v>3.5</v>
       </c>
       <c r="M97" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N97" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O97" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P97" t="n">
         <v>2.25</v>
@@ -14294,19 +14294,19 @@
         <v>6</v>
       </c>
       <c r="T97" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="U97" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V97" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W97" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X97" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y97" t="n">
         <v>6.5</v>
@@ -14315,19 +14315,19 @@
         <v>13</v>
       </c>
       <c r="AA97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB97" t="n">
         <v>34</v>
       </c>
       <c r="AC97" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD97" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE97" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF97" t="n">
         <v>6</v>
@@ -14354,7 +14354,7 @@
         <v>26</v>
       </c>
       <c r="AN97" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO97" t="n">
         <v>41</v>
@@ -14400,7 +14400,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="H98" t="n">
         <v>3.2</v>
@@ -14415,19 +14415,19 @@
         <v>1.95</v>
       </c>
       <c r="L98" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M98" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N98" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O98" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P98" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q98" t="n">
         <v>2.4</v>
@@ -14439,7 +14439,7 @@
         <v>4.5</v>
       </c>
       <c r="T98" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="U98" t="n">
         <v>1.53</v>
@@ -14454,7 +14454,7 @@
         <v>1.7</v>
       </c>
       <c r="Y98" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z98" t="n">
         <v>13</v>
@@ -14463,10 +14463,10 @@
         <v>11</v>
       </c>
       <c r="AB98" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD98" t="n">
         <v>41</v>
@@ -14478,7 +14478,7 @@
         <v>6</v>
       </c>
       <c r="AG98" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH98" t="n">
         <v>67</v>
@@ -14496,7 +14496,7 @@
         <v>10</v>
       </c>
       <c r="AM98" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN98" t="n">
         <v>23</v>
@@ -14545,13 +14545,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H99" t="n">
         <v>3.2</v>
       </c>
       <c r="I99" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J99" t="n">
         <v>3.1</v>
@@ -14575,16 +14575,16 @@
         <v>2.5</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R99" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S99" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T99" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U99" t="n">
         <v>1.57</v>
@@ -14593,16 +14593,16 @@
         <v>2.25</v>
       </c>
       <c r="W99" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X99" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y99" t="n">
         <v>6</v>
       </c>
       <c r="Z99" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA99" t="n">
         <v>10</v>
@@ -14623,7 +14623,7 @@
         <v>6.5</v>
       </c>
       <c r="AG99" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH99" t="n">
         <v>81</v>
@@ -14652,10 +14652,10 @@
       <c r="AP99" t="inlineStr"/>
       <c r="AQ99" t="inlineStr"/>
       <c r="AR99" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="100">
@@ -14976,13 +14976,13 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H102" t="n">
         <v>3.25</v>
       </c>
       <c r="I102" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J102" t="n">
         <v>3.1</v>
@@ -14994,22 +14994,22 @@
         <v>3.5</v>
       </c>
       <c r="M102" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N102" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O102" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P102" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q102" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R102" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S102" t="n">
         <v>3.4</v>
@@ -15030,19 +15030,19 @@
         <v>2</v>
       </c>
       <c r="Y102" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z102" t="n">
         <v>12</v>
       </c>
       <c r="AA102" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB102" t="n">
         <v>23</v>
       </c>
       <c r="AC102" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD102" t="n">
         <v>29</v>
@@ -15063,7 +15063,7 @@
         <v>201</v>
       </c>
       <c r="AJ102" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK102" t="n">
         <v>15</v>
@@ -15117,34 +15117,34 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H103" t="n">
         <v>3</v>
       </c>
       <c r="I103" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L103" t="n">
         <v>3.6</v>
       </c>
-      <c r="K103" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L103" t="n">
-        <v>3.5</v>
-      </c>
       <c r="M103" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N103" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O103" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P103" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q103" t="n">
         <v>2.5</v>
@@ -15159,16 +15159,16 @@
         <v>1.17</v>
       </c>
       <c r="U103" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V103" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W103" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X103" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y103" t="n">
         <v>7</v>
@@ -15189,7 +15189,7 @@
         <v>41</v>
       </c>
       <c r="AE103" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF103" t="n">
         <v>6</v>
@@ -15213,7 +15213,7 @@
         <v>11</v>
       </c>
       <c r="AM103" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN103" t="n">
         <v>26</v>
@@ -15224,10 +15224,10 @@
       <c r="AP103" t="inlineStr"/>
       <c r="AQ103" t="inlineStr"/>
       <c r="AR103" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="104">
@@ -15262,7 +15262,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H104" t="n">
         <v>3.5</v>
@@ -15280,13 +15280,13 @@
         <v>4.75</v>
       </c>
       <c r="M104" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N104" t="n">
         <v>11</v>
       </c>
       <c r="O104" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P104" t="n">
         <v>3.75</v>
@@ -15301,7 +15301,7 @@
         <v>3.25</v>
       </c>
       <c r="T104" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U104" t="n">
         <v>1.4</v>
@@ -15409,7 +15409,7 @@
         <v>3.25</v>
       </c>
       <c r="I105" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J105" t="n">
         <v>3.4</v>
@@ -15418,28 +15418,28 @@
         <v>2.1</v>
       </c>
       <c r="L105" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M105" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N105" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O105" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="P105" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q105" t="n">
         <v>2.05</v>
       </c>
       <c r="R105" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S105" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T105" t="n">
         <v>1.25</v>
@@ -15457,7 +15457,7 @@
         <v>1.91</v>
       </c>
       <c r="Y105" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z105" t="n">
         <v>13</v>
@@ -15499,7 +15499,7 @@
         <v>10</v>
       </c>
       <c r="AM105" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN105" t="n">
         <v>21</v>
@@ -15544,13 +15544,13 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H106" t="n">
         <v>3.1</v>
       </c>
       <c r="I106" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J106" t="n">
         <v>3.6</v>
@@ -15562,16 +15562,16 @@
         <v>3.4</v>
       </c>
       <c r="M106" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N106" t="n">
         <v>8</v>
       </c>
       <c r="O106" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P106" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q106" t="n">
         <v>2.4</v>
@@ -15583,7 +15583,7 @@
         <v>4.5</v>
       </c>
       <c r="T106" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="U106" t="n">
         <v>1.53</v>
@@ -15689,19 +15689,19 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="H107" t="n">
         <v>3.05</v>
       </c>
       <c r="I107" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J107" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="K107" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L107" t="n">
         <v>3.75</v>
@@ -15727,10 +15727,10 @@
         <v>1.22</v>
       </c>
       <c r="U107" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V107" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="W107" t="n">
         <v>1.92</v>
@@ -15745,22 +15745,22 @@
         <v>8.25</v>
       </c>
       <c r="AA107" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB107" t="n">
         <v>16.5</v>
       </c>
       <c r="AC107" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD107" t="n">
         <v>25</v>
       </c>
       <c r="AE107" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AF107" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AG107" t="n">
         <v>12.5</v>
@@ -15778,13 +15778,13 @@
         <v>13</v>
       </c>
       <c r="AL107" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AM107" t="n">
         <v>32</v>
       </c>
       <c r="AN107" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO107" t="n">
         <v>32</v>
@@ -15826,19 +15826,19 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>5.3</v>
       </c>
       <c r="I108" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="J108" t="n">
         <v>1.57</v>
       </c>
       <c r="K108" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="L108" t="n">
         <v>8.75</v>
@@ -15854,21 +15854,21 @@
         <v>2.22</v>
       </c>
       <c r="S108" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="T108" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr"/>
       <c r="W108" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="X108" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Y108" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Z108" t="n">
         <v>5.5</v>
@@ -15886,37 +15886,37 @@
         <v>22</v>
       </c>
       <c r="AE108" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF108" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AG108" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH108" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI108" t="n">
         <v>500</v>
       </c>
       <c r="AJ108" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK108" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL108" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM108" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AN108" t="n">
         <v>110</v>
       </c>
       <c r="AO108" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AP108" t="inlineStr"/>
       <c r="AQ108" t="inlineStr"/>
@@ -15955,22 +15955,22 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H109" t="n">
         <v>3.3</v>
       </c>
       <c r="I109" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J109" t="n">
         <v>3.75</v>
       </c>
       <c r="K109" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L109" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M109" t="n">
         <v>1.06</v>
@@ -15985,10 +15985,10 @@
         <v>3.25</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R109" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S109" t="n">
         <v>3.75</v>
@@ -16009,13 +16009,13 @@
         <v>1.95</v>
       </c>
       <c r="Y109" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z109" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA109" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB109" t="n">
         <v>34</v>
@@ -16045,10 +16045,10 @@
         <v>7.5</v>
       </c>
       <c r="AK109" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL109" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM109" t="n">
         <v>21</v>
@@ -16096,16 +16096,16 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H110" t="n">
         <v>3.4</v>
       </c>
       <c r="I110" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J110" t="n">
         <v>3</v>
-      </c>
-      <c r="J110" t="n">
-        <v>3.1</v>
       </c>
       <c r="K110" t="n">
         <v>2.1</v>
@@ -16117,19 +16117,19 @@
         <v>1.06</v>
       </c>
       <c r="N110" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O110" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P110" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q110" t="n">
         <v>2.05</v>
       </c>
       <c r="R110" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S110" t="n">
         <v>3.5</v>
@@ -16150,7 +16150,7 @@
         <v>1.95</v>
       </c>
       <c r="Y110" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z110" t="n">
         <v>11</v>
@@ -16159,7 +16159,7 @@
         <v>9.5</v>
       </c>
       <c r="AB110" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC110" t="n">
         <v>19</v>
@@ -16192,10 +16192,10 @@
         <v>11</v>
       </c>
       <c r="AM110" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN110" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO110" t="n">
         <v>34</v>
@@ -16523,22 +16523,22 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="H113" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I113" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="J113" t="n">
         <v>4.5</v>
       </c>
       <c r="K113" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L113" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
@@ -16555,49 +16555,49 @@
         <v>1.78</v>
       </c>
       <c r="S113" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="T113" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="U113" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V113" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="W113" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="X113" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="Y113" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Z113" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA113" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB113" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AC113" t="n">
         <v>40</v>
       </c>
       <c r="AD113" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE113" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF113" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AG113" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH113" t="n">
         <v>60</v>
@@ -16606,22 +16606,22 @@
         <v>450</v>
       </c>
       <c r="AJ113" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AK113" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AL113" t="n">
         <v>8</v>
       </c>
       <c r="AM113" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AN113" t="n">
         <v>14.5</v>
       </c>
       <c r="AO113" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP113" t="inlineStr"/>
       <c r="AQ113" t="inlineStr"/>
@@ -16797,16 +16797,16 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H115" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I115" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J115" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K115" t="n">
         <v>2.38</v>
@@ -16815,10 +16815,10 @@
         <v>5</v>
       </c>
       <c r="M115" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N115" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O115" t="n">
         <v>1.2</v>
@@ -16827,10 +16827,10 @@
         <v>4.33</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R115" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S115" t="n">
         <v>2.63</v>
@@ -16845,13 +16845,13 @@
         <v>3.25</v>
       </c>
       <c r="W115" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X115" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y115" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z115" t="n">
         <v>8.5</v>
@@ -16863,13 +16863,13 @@
         <v>12</v>
       </c>
       <c r="AC115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD115" t="n">
         <v>23</v>
       </c>
       <c r="AE115" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF115" t="n">
         <v>7.5</v>
@@ -16881,7 +16881,7 @@
         <v>41</v>
       </c>
       <c r="AI115" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ115" t="n">
         <v>17</v>
@@ -16941,10 +16941,10 @@
         <v>1.62</v>
       </c>
       <c r="H116" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I116" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J116" t="n">
         <v>2.2</v>
@@ -16953,7 +16953,7 @@
         <v>2.4</v>
       </c>
       <c r="L116" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M116" t="n">
         <v>1.03</v>
@@ -16980,10 +16980,10 @@
         <v>1.53</v>
       </c>
       <c r="U116" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V116" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W116" t="n">
         <v>1.62</v>
@@ -17016,7 +17016,7 @@
         <v>8</v>
       </c>
       <c r="AG116" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH116" t="n">
         <v>41</v>
@@ -17083,13 +17083,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H117" t="n">
         <v>3</v>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J117" t="n">
         <v>3.2</v>
@@ -17125,16 +17125,16 @@
         <v>1.2</v>
       </c>
       <c r="U117" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V117" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W117" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X117" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y117" t="n">
         <v>7</v>
@@ -17155,13 +17155,13 @@
         <v>34</v>
       </c>
       <c r="AE117" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF117" t="n">
         <v>6</v>
       </c>
       <c r="AG117" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH117" t="n">
         <v>51</v>
@@ -17252,16 +17252,16 @@
         <v>9</v>
       </c>
       <c r="O118" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P118" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R118" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S118" t="n">
         <v>4</v>
@@ -17369,13 +17369,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H119" t="n">
         <v>3.4</v>
       </c>
       <c r="I119" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J119" t="n">
         <v>3.6</v>
@@ -17390,7 +17390,7 @@
         <v>1.07</v>
       </c>
       <c r="N119" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O119" t="n">
         <v>1.36</v>
@@ -17399,10 +17399,10 @@
         <v>3</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R119" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S119" t="n">
         <v>4</v>
@@ -17524,7 +17524,7 @@
         <v>3.4</v>
       </c>
       <c r="I120" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="J120" t="n">
         <v>5</v>
@@ -17667,7 +17667,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="H121" t="n">
         <v>6.5</v>
@@ -17676,19 +17676,19 @@
         <v>15</v>
       </c>
       <c r="J121" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="K121" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="L121" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M121" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N121" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O121" t="n">
         <v>1.14</v>
@@ -17697,10 +17697,10 @@
         <v>5.5</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R121" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S121" t="n">
         <v>2.2</v>
@@ -17715,10 +17715,10 @@
         <v>3.75</v>
       </c>
       <c r="W121" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X121" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y121" t="n">
         <v>8.5</v>
@@ -17730,7 +17730,7 @@
         <v>11</v>
       </c>
       <c r="AB121" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC121" t="n">
         <v>11</v>
@@ -17754,7 +17754,7 @@
         <v>101</v>
       </c>
       <c r="AJ121" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK121" t="n">
         <v>67</v>
@@ -17781,7 +17781,7 @@
         <v>1.22</v>
       </c>
       <c r="AS121" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="122">
@@ -17834,22 +17834,22 @@
         <v>3.2</v>
       </c>
       <c r="M122" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N122" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O122" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P122" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R122" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S122" t="n">
         <v>3.4</v>
@@ -17975,22 +17975,22 @@
         <v>6</v>
       </c>
       <c r="M123" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N123" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O123" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P123" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R123" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S123" t="n">
         <v>3.25</v>
@@ -18101,16 +18101,16 @@
         <v>1.73</v>
       </c>
       <c r="H124" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I124" t="n">
         <v>4.33</v>
       </c>
       <c r="J124" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K124" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L124" t="n">
         <v>4.5</v>
@@ -18119,43 +18119,43 @@
         <v>1.03</v>
       </c>
       <c r="N124" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O124" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P124" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R124" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S124" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T124" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U124" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V124" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W124" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X124" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y124" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z124" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA124" t="n">
         <v>8.5</v>
@@ -18164,16 +18164,16 @@
         <v>15</v>
       </c>
       <c r="AC124" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD124" t="n">
         <v>21</v>
       </c>
       <c r="AE124" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF124" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG124" t="n">
         <v>13</v>
@@ -18182,13 +18182,13 @@
         <v>41</v>
       </c>
       <c r="AI124" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ124" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK124" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL124" t="n">
         <v>15</v>
@@ -18197,16 +18197,16 @@
         <v>51</v>
       </c>
       <c r="AN124" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO124" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP124" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR124" t="inlineStr"/>
       <c r="AS124" t="inlineStr"/>
@@ -18264,7 +18264,7 @@
         <v>1.06</v>
       </c>
       <c r="N125" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O125" t="n">
         <v>1.3</v>
@@ -18273,10 +18273,10 @@
         <v>3.4</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R125" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S125" t="n">
         <v>3.5</v>
@@ -18546,25 +18546,25 @@
         <v>1.04</v>
       </c>
       <c r="N127" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O127" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P127" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R127" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S127" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T127" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U127" t="n">
         <v>1.36</v>
@@ -18669,25 +18669,25 @@
         <v>4.5</v>
       </c>
       <c r="H128" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I128" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J128" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K128" t="n">
         <v>1.91</v>
       </c>
       <c r="L128" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M128" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N128" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O128" t="n">
         <v>1.5</v>
@@ -18726,7 +18726,7 @@
         <v>21</v>
       </c>
       <c r="AA128" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB128" t="n">
         <v>51</v>
@@ -19261,7 +19261,7 @@
         <v>1.07</v>
       </c>
       <c r="N132" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O132" t="n">
         <v>1.33</v>
@@ -19273,7 +19273,7 @@
         <v>2.1</v>
       </c>
       <c r="R132" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S132" t="n">
         <v>3.75</v>
@@ -19414,7 +19414,7 @@
         <v>2.1</v>
       </c>
       <c r="R133" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S133" t="n">
         <v>3.75</v>
@@ -19540,22 +19540,22 @@
         <v>4.75</v>
       </c>
       <c r="M134" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N134" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O134" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P134" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R134" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S134" t="n">
         <v>3.4</v>
@@ -19663,7 +19663,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H135" t="n">
         <v>3.5</v>
@@ -19693,10 +19693,10 @@
         <v>3.25</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="R135" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S135" t="n">
         <v>3.75</v>
@@ -19723,7 +19723,7 @@
         <v>7</v>
       </c>
       <c r="AA135" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB135" t="n">
         <v>11</v>
@@ -19756,7 +19756,7 @@
         <v>29</v>
       </c>
       <c r="AL135" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM135" t="n">
         <v>67</v>
@@ -19804,13 +19804,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H136" t="n">
         <v>5.75</v>
       </c>
       <c r="I136" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J136" t="n">
         <v>1.67</v>
@@ -19819,13 +19819,13 @@
         <v>2.63</v>
       </c>
       <c r="L136" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M136" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N136" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O136" t="n">
         <v>1.14</v>
@@ -19840,10 +19840,10 @@
         <v>2.5</v>
       </c>
       <c r="S136" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T136" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U136" t="n">
         <v>1.25</v>
@@ -19852,13 +19852,13 @@
         <v>3.75</v>
       </c>
       <c r="W136" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X136" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y136" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z136" t="n">
         <v>7</v>
@@ -19882,10 +19882,10 @@
         <v>12</v>
       </c>
       <c r="AG136" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH136" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI136" t="n">
         <v>900</v>
@@ -19897,7 +19897,7 @@
         <v>41</v>
       </c>
       <c r="AL136" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM136" t="n">
         <v>101</v>
@@ -19909,10 +19909,10 @@
         <v>51</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AQ136" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AR136" t="inlineStr"/>
       <c r="AS136" t="inlineStr"/>
@@ -19949,19 +19949,19 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H137" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I137" t="n">
         <v>7.5</v>
       </c>
       <c r="J137" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="K137" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L137" t="n">
         <v>6</v>
@@ -19970,40 +19970,40 @@
         <v>1.01</v>
       </c>
       <c r="N137" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O137" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P137" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q137" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="R137" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S137" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T137" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U137" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V137" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W137" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X137" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y137" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z137" t="n">
         <v>7.5</v>
@@ -20015,16 +20015,16 @@
         <v>9.5</v>
       </c>
       <c r="AC137" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD137" t="n">
         <v>23</v>
       </c>
       <c r="AE137" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF137" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG137" t="n">
         <v>17</v>
@@ -20036,7 +20036,7 @@
         <v>600</v>
       </c>
       <c r="AJ137" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK137" t="n">
         <v>41</v>
@@ -20054,10 +20054,10 @@
         <v>51</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="AR137" t="inlineStr"/>
       <c r="AS137" t="inlineStr"/>
@@ -20094,13 +20094,13 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H138" t="n">
         <v>3.4</v>
       </c>
       <c r="I138" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J138" t="n">
         <v>3.25</v>
@@ -20109,13 +20109,13 @@
         <v>2.2</v>
       </c>
       <c r="L138" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M138" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N138" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O138" t="n">
         <v>1.25</v>
@@ -20148,7 +20148,7 @@
         <v>2.1</v>
       </c>
       <c r="Y138" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z138" t="n">
         <v>15</v>
@@ -20157,7 +20157,7 @@
         <v>11</v>
       </c>
       <c r="AB138" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC138" t="n">
         <v>21</v>
@@ -20166,10 +20166,10 @@
         <v>29</v>
       </c>
       <c r="AE138" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF138" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG138" t="n">
         <v>13</v>
@@ -20181,16 +20181,16 @@
         <v>151</v>
       </c>
       <c r="AJ138" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK138" t="n">
         <v>12</v>
       </c>
       <c r="AL138" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM138" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN138" t="n">
         <v>19</v>
@@ -20517,101 +20517,109 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="H141" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I141" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J141" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="K141" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="L141" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
+        <v>3.85</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N141" t="n">
+        <v>7.5</v>
+      </c>
       <c r="O141" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P141" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="R141" t="n">
         <v>1.88</v>
       </c>
       <c r="S141" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="T141" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
+        <v>1.35</v>
+      </c>
+      <c r="U141" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V141" t="n">
+        <v>2.75</v>
+      </c>
       <c r="W141" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="X141" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="Y141" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="Z141" t="n">
-        <v>8.199999999999999</v>
+        <v>10.25</v>
       </c>
       <c r="AA141" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AB141" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC141" t="n">
         <v>16</v>
       </c>
-      <c r="AC141" t="n">
+      <c r="AD141" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG141" t="n">
         <v>13</v>
       </c>
-      <c r="AD141" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE141" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF141" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AG141" t="n">
-        <v>10</v>
-      </c>
       <c r="AH141" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI141" t="n">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="AJ141" t="n">
-        <v>9.800000000000001</v>
+        <v>10.75</v>
       </c>
       <c r="AK141" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AL141" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AM141" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AN141" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AO141" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP141" t="inlineStr"/>
       <c r="AQ141" t="inlineStr"/>
@@ -20650,45 +20658,53 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H142" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I142" t="n">
         <v>1.5</v>
       </c>
       <c r="J142" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="K142" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="L142" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
+        <v>2.05</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N142" t="n">
+        <v>7.7</v>
+      </c>
       <c r="O142" t="n">
         <v>1.27</v>
       </c>
       <c r="P142" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R142" t="n">
         <v>1.9</v>
       </c>
       <c r="S142" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="T142" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
+        <v>1.36</v>
+      </c>
+      <c r="U142" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V142" t="n">
+        <v>2.77</v>
+      </c>
       <c r="W142" t="n">
         <v>1.93</v>
       </c>
@@ -20696,55 +20712,55 @@
         <v>1.78</v>
       </c>
       <c r="Y142" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z142" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AA142" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB142" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AC142" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD142" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE142" t="n">
-        <v>11</v>
+        <v>7.7</v>
       </c>
       <c r="AF142" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="AG142" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AH142" t="n">
         <v>90</v>
       </c>
       <c r="AI142" t="n">
-        <v>101</v>
+        <v>800</v>
       </c>
       <c r="AJ142" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="AK142" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="AL142" t="n">
-        <v>6.6</v>
+        <v>8.25</v>
       </c>
       <c r="AM142" t="n">
-        <v>8.199999999999999</v>
+        <v>10.25</v>
       </c>
       <c r="AN142" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO142" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AP142" t="inlineStr"/>
       <c r="AQ142" t="inlineStr"/>
@@ -20782,41 +20798,103 @@
           <t>IMT Novi Beograd</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H143" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="I143" t="n">
+        <v>30</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K143" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L143" t="n">
+        <v>21</v>
+      </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
-      <c r="Z143" t="inlineStr"/>
-      <c r="AA143" t="inlineStr"/>
-      <c r="AB143" t="inlineStr"/>
-      <c r="AC143" t="inlineStr"/>
-      <c r="AD143" t="inlineStr"/>
-      <c r="AE143" t="inlineStr"/>
-      <c r="AF143" t="inlineStr"/>
-      <c r="AG143" t="inlineStr"/>
-      <c r="AH143" t="inlineStr"/>
+      <c r="O143" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P143" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R143" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="S143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T143" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U143" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="V143" t="n">
+        <v>5</v>
+      </c>
+      <c r="W143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X143" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>300</v>
+      </c>
       <c r="AI143" t="inlineStr"/>
-      <c r="AJ143" t="inlineStr"/>
-      <c r="AK143" t="inlineStr"/>
-      <c r="AL143" t="inlineStr"/>
+      <c r="AJ143" t="n">
+        <v>175</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>175</v>
+      </c>
       <c r="AM143" t="inlineStr"/>
-      <c r="AN143" t="inlineStr"/>
-      <c r="AO143" t="inlineStr"/>
+      <c r="AN143" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>600</v>
+      </c>
       <c r="AP143" t="inlineStr"/>
       <c r="AQ143" t="inlineStr"/>
       <c r="AR143" t="inlineStr"/>
@@ -20854,101 +20932,109 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="H144" t="n">
-        <v>3.7</v>
+        <v>4.15</v>
       </c>
       <c r="I144" t="n">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="J144" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K144" t="n">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="L144" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
+        <v>6.1</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N144" t="n">
+        <v>7.8</v>
+      </c>
       <c r="O144" t="n">
         <v>1.27</v>
       </c>
       <c r="P144" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R144" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S144" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="T144" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
+        <v>1.35</v>
+      </c>
+      <c r="U144" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="V144" t="n">
+        <v>2.85</v>
+      </c>
       <c r="W144" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="X144" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="Y144" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="Z144" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="AA144" t="n">
-        <v>6.6</v>
+        <v>8.25</v>
       </c>
       <c r="AB144" t="n">
-        <v>8.800000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="AC144" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD144" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AE144" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AF144" t="n">
-        <v>6.6</v>
+        <v>8.25</v>
       </c>
       <c r="AG144" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AH144" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AI144" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AJ144" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AK144" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="AL144" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AM144" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AN144" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AO144" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AP144" t="inlineStr"/>
       <c r="AQ144" t="inlineStr"/>
@@ -21128,22 +21214,22 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H146" t="n">
         <v>3.15</v>
       </c>
       <c r="I146" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="J146" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K146" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L146" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="M146" t="n">
         <v>1.07</v>
@@ -21179,25 +21265,25 @@
         <v>1.75</v>
       </c>
       <c r="X146" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="Y146" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z146" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA146" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AB146" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC146" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AD146" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE146" t="n">
         <v>6.8</v>
@@ -21215,22 +21301,22 @@
         <v>500</v>
       </c>
       <c r="AJ146" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AK146" t="n">
         <v>11</v>
       </c>
       <c r="AL146" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AM146" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN146" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO146" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP146" t="inlineStr"/>
       <c r="AQ146" t="inlineStr"/>
@@ -21299,10 +21385,10 @@
         <v>3.25</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R147" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S147" t="n">
         <v>3.75</v>
@@ -21440,10 +21526,10 @@
         <v>3</v>
       </c>
       <c r="Q148" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R148" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S148" t="n">
         <v>3.75</v>
@@ -21557,7 +21643,7 @@
         <v>3.3</v>
       </c>
       <c r="I149" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J149" t="n">
         <v>2.4</v>
@@ -21569,10 +21655,10 @@
         <v>4.75</v>
       </c>
       <c r="M149" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N149" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O149" t="n">
         <v>1.25</v>
@@ -21581,28 +21667,28 @@
         <v>3.75</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R149" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S149" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T149" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U149" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V149" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W149" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X149" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y149" t="n">
         <v>7.5</v>
@@ -21623,7 +21709,7 @@
         <v>26</v>
       </c>
       <c r="AE149" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF149" t="n">
         <v>6.5</v>
@@ -21632,7 +21718,7 @@
         <v>15</v>
       </c>
       <c r="AH149" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI149" t="n">
         <v>201</v>
@@ -21650,7 +21736,7 @@
         <v>51</v>
       </c>
       <c r="AN149" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO149" t="n">
         <v>41</v>
@@ -21692,7 +21778,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="H150" t="n">
         <v>3.3</v>
@@ -21833,22 +21919,22 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H151" t="n">
         <v>3.5</v>
       </c>
       <c r="I151" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="J151" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K151" t="n">
         <v>2.2</v>
       </c>
       <c r="L151" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M151" t="n">
         <v>1.05</v>
@@ -21890,7 +21976,7 @@
         <v>11</v>
       </c>
       <c r="Z151" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA151" t="n">
         <v>13</v>
@@ -21899,10 +21985,10 @@
         <v>41</v>
       </c>
       <c r="AC151" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD151" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE151" t="n">
         <v>11</v>
@@ -21929,7 +22015,7 @@
         <v>8.5</v>
       </c>
       <c r="AM151" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN151" t="n">
         <v>15</v>
@@ -21974,7 +22060,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H152" t="n">
         <v>3.2</v>
@@ -22115,7 +22201,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H153" t="n">
         <v>3.4</v>
@@ -22401,13 +22487,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H155" t="n">
         <v>3.1</v>
       </c>
       <c r="I155" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J155" t="n">
         <v>3.5</v>
@@ -22419,10 +22505,10 @@
         <v>3.25</v>
       </c>
       <c r="M155" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N155" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O155" t="n">
         <v>1.36</v>
@@ -22455,7 +22541,7 @@
         <v>1.83</v>
       </c>
       <c r="Y155" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z155" t="n">
         <v>13</v>
@@ -22500,7 +22586,7 @@
         <v>26</v>
       </c>
       <c r="AN155" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO155" t="n">
         <v>34</v>
@@ -22560,10 +22646,10 @@
         <v>3.5</v>
       </c>
       <c r="M156" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N156" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O156" t="n">
         <v>1.3</v>
@@ -22842,28 +22928,28 @@
         <v>2.6</v>
       </c>
       <c r="M158" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N158" t="n">
         <v>12</v>
       </c>
       <c r="O158" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P158" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R158" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S158" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T158" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="U158" t="n">
         <v>1.36</v>
@@ -22983,13 +23069,13 @@
         <v>2.63</v>
       </c>
       <c r="M159" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N159" t="n">
         <v>11</v>
       </c>
       <c r="O159" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P159" t="n">
         <v>3.75</v>
@@ -23004,7 +23090,7 @@
         <v>3</v>
       </c>
       <c r="T159" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U159" t="n">
         <v>1.36</v>
@@ -23106,13 +23192,13 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="H160" t="n">
         <v>3.3</v>
       </c>
       <c r="I160" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="J160" t="n">
         <v>3</v>
@@ -23121,7 +23207,7 @@
         <v>2.1</v>
       </c>
       <c r="L160" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="M160" t="n">
         <v>1.06</v>
@@ -23130,7 +23216,7 @@
         <v>7.5</v>
       </c>
       <c r="O160" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P160" t="n">
         <v>3.4</v>
@@ -23139,13 +23225,13 @@
         <v>1.82</v>
       </c>
       <c r="R160" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S160" t="n">
         <v>2.92</v>
       </c>
       <c r="T160" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="U160" t="n">
         <v>1.4</v>
@@ -23160,19 +23246,19 @@
         <v>2.12</v>
       </c>
       <c r="Y160" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z160" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA160" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB160" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC160" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AD160" t="n">
         <v>26</v>
@@ -23193,16 +23279,16 @@
         <v>350</v>
       </c>
       <c r="AJ160" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK160" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL160" t="n">
         <v>10</v>
       </c>
       <c r="AM160" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN160" t="n">
         <v>22</v>
@@ -23250,94 +23336,94 @@
         <v>1.98</v>
       </c>
       <c r="H161" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I161" t="n">
         <v>3.2</v>
       </c>
       <c r="J161" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="K161" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="L161" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="M161" t="n">
         <v>1.04</v>
       </c>
       <c r="N161" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O161" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P161" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="Q161" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R161" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S161" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T161" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W161" t="n">
         <v>1.6</v>
       </c>
-      <c r="R161" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="S161" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T161" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U161" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="V161" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="W161" t="n">
-        <v>1.57</v>
-      </c>
       <c r="X161" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y161" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z161" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA161" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB161" t="n">
         <v>18</v>
       </c>
       <c r="AC161" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD161" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE161" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF161" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AG161" t="n">
         <v>13</v>
       </c>
       <c r="AH161" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI161" t="n">
         <v>300</v>
       </c>
       <c r="AJ161" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK161" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL161" t="n">
         <v>11.25</v>
@@ -23346,10 +23432,10 @@
         <v>40</v>
       </c>
       <c r="AN161" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO161" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP161" t="inlineStr"/>
       <c r="AQ161" t="inlineStr"/>
@@ -23388,28 +23474,28 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="H162" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="I162" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="J162" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K162" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L162" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="M162" t="n">
         <v>1.09</v>
       </c>
       <c r="N162" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="O162" t="n">
         <v>1.39</v>
@@ -23424,22 +23510,22 @@
         <v>1.62</v>
       </c>
       <c r="S162" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T162" t="n">
         <v>1.24</v>
       </c>
       <c r="U162" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V162" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="W162" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="X162" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="Y162" t="n">
         <v>9.75</v>
@@ -23448,28 +23534,28 @@
         <v>21</v>
       </c>
       <c r="AA162" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB162" t="n">
         <v>65</v>
       </c>
       <c r="AC162" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD162" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE162" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AF162" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AG162" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH162" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI162" t="n">
         <v>700</v>
@@ -23478,16 +23564,16 @@
         <v>6.3</v>
       </c>
       <c r="AK162" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AL162" t="n">
         <v>8.5</v>
       </c>
       <c r="AM162" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AN162" t="n">
         <v>18</v>
-      </c>
-      <c r="AN162" t="n">
-        <v>17</v>
       </c>
       <c r="AO162" t="n">
         <v>32</v>
@@ -23529,7 +23615,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="H163" t="n">
         <v>3.85</v>
@@ -23538,13 +23624,13 @@
         <v>1.72</v>
       </c>
       <c r="J163" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K163" t="n">
         <v>2.35</v>
       </c>
       <c r="L163" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="M163" t="n">
         <v>1.03</v>
@@ -23553,67 +23639,67 @@
         <v>9</v>
       </c>
       <c r="O163" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P163" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q163" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="R163" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="S163" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="T163" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="U163" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V163" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W163" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="X163" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="Y163" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Z163" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA163" t="n">
         <v>13.5</v>
       </c>
       <c r="AB163" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AC163" t="n">
         <v>32</v>
       </c>
       <c r="AD163" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE163" t="n">
         <v>9</v>
       </c>
       <c r="AF163" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AG163" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH163" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI163" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AJ163" t="n">
         <v>9.75</v>
@@ -23631,7 +23717,7 @@
         <v>12</v>
       </c>
       <c r="AO163" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AP163" t="inlineStr"/>
       <c r="AQ163" t="inlineStr"/>
@@ -23670,109 +23756,109 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="H164" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I164" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="J164" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="K164" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L164" t="n">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="M164" t="n">
         <v>1.05</v>
       </c>
       <c r="N164" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="O164" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P164" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q164" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R164" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S164" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="T164" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U164" t="n">
         <v>1.37</v>
       </c>
-      <c r="U164" t="n">
-        <v>1.38</v>
-      </c>
       <c r="V164" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="W164" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="X164" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y164" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="Z164" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AA164" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AB164" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC164" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AD164" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AE164" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AF164" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AG164" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH164" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI164" t="n">
         <v>400</v>
       </c>
       <c r="AJ164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL164" t="n">
         <v>8.25</v>
       </c>
-      <c r="AK164" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL164" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AM164" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AN164" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO164" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP164" t="inlineStr"/>
       <c r="AQ164" t="inlineStr"/>
@@ -23952,16 +24038,16 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H166" t="n">
         <v>3.5</v>
       </c>
       <c r="I166" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J166" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K166" t="n">
         <v>2.3</v>
@@ -24000,31 +24086,31 @@
         <v>3.25</v>
       </c>
       <c r="W166" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X166" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y166" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z166" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA166" t="n">
         <v>8.5</v>
       </c>
       <c r="AB166" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC166" t="n">
         <v>15</v>
       </c>
-      <c r="AC166" t="n">
+      <c r="AD166" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE166" t="n">
         <v>13</v>
-      </c>
-      <c r="AD166" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE166" t="n">
-        <v>12</v>
       </c>
       <c r="AF166" t="n">
         <v>7</v>
@@ -24045,13 +24131,13 @@
         <v>23</v>
       </c>
       <c r="AL166" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM166" t="n">
         <v>41</v>
       </c>
       <c r="AN166" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO166" t="n">
         <v>34</v>
@@ -24237,7 +24323,7 @@
         <v>1.25</v>
       </c>
       <c r="H168" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I168" t="n">
         <v>9</v>
@@ -24252,22 +24338,22 @@
         <v>9</v>
       </c>
       <c r="M168" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N168" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O168" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P168" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q168" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R168" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S168" t="n">
         <v>2.25</v>
@@ -24276,10 +24362,10 @@
         <v>1.57</v>
       </c>
       <c r="U168" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V168" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W168" t="n">
         <v>2.1</v>
@@ -24288,7 +24374,7 @@
         <v>1.67</v>
       </c>
       <c r="Y168" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z168" t="n">
         <v>6.5</v>
@@ -24324,7 +24410,7 @@
         <v>23</v>
       </c>
       <c r="AK168" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL168" t="n">
         <v>26</v>
@@ -24339,10 +24425,10 @@
         <v>51</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AQ168" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AR168" t="inlineStr"/>
       <c r="AS168" t="inlineStr"/>
@@ -24379,13 +24465,13 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H169" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I169" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J169" t="n">
         <v>2.5</v>
@@ -24394,7 +24480,7 @@
         <v>2.2</v>
       </c>
       <c r="L169" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M169" t="n">
         <v>1.05</v>
@@ -24463,7 +24549,7 @@
         <v>51</v>
       </c>
       <c r="AI169" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ169" t="n">
         <v>12</v>
@@ -24478,10 +24564,10 @@
         <v>41</v>
       </c>
       <c r="AN169" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO169" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP169" t="inlineStr"/>
       <c r="AQ169" t="inlineStr"/>
@@ -24520,28 +24606,28 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H170" t="n">
         <v>3</v>
       </c>
       <c r="I170" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J170" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K170" t="n">
         <v>1.95</v>
       </c>
       <c r="L170" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M170" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N170" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O170" t="n">
         <v>1.44</v>
@@ -24556,10 +24642,10 @@
         <v>1.57</v>
       </c>
       <c r="S170" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T170" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U170" t="n">
         <v>1.53</v>
@@ -24586,13 +24672,13 @@
         <v>26</v>
       </c>
       <c r="AC170" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD170" t="n">
         <v>41</v>
       </c>
       <c r="AE170" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF170" t="n">
         <v>6</v>
@@ -24607,16 +24693,16 @@
         <v>1000</v>
       </c>
       <c r="AJ170" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK170" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL170" t="n">
         <v>11</v>
       </c>
       <c r="AM170" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN170" t="n">
         <v>26</v>
@@ -24627,10 +24713,10 @@
       <c r="AP170" t="inlineStr"/>
       <c r="AQ170" t="inlineStr"/>
       <c r="AR170" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="171">
@@ -24665,13 +24751,13 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H171" t="n">
         <v>3.4</v>
       </c>
       <c r="I171" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J171" t="n">
         <v>4</v>
@@ -24728,10 +24814,10 @@
         <v>12</v>
       </c>
       <c r="AB171" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC171" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD171" t="n">
         <v>34</v>
@@ -24836,16 +24922,16 @@
         <v>3.4</v>
       </c>
       <c r="Q172" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R172" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S172" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T172" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U172" t="n">
         <v>1.4</v>
@@ -24918,7 +25004,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>6TVQbl3C</t>
+          <t>n16aDmI5</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -24928,7 +25014,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -24938,111 +25024,111 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>FK Zorya Luhansk</t>
+          <t>Inhulets</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Kryvbas</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.02</v>
+        <v>11.5</v>
       </c>
       <c r="H173" t="n">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="I173" t="n">
-        <v>3.45</v>
+        <v>1.25</v>
       </c>
       <c r="J173" t="n">
-        <v>2.65</v>
+        <v>9.75</v>
       </c>
       <c r="K173" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="L173" t="n">
-        <v>4</v>
+        <v>1.72</v>
       </c>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P173" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R173" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S173" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T173" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U173" t="n">
         <v>1.39</v>
       </c>
-      <c r="P173" t="n">
+      <c r="V173" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W173" t="n">
         <v>2.55</v>
       </c>
-      <c r="Q173" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R173" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S173" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T173" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U173" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V173" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W173" t="n">
-        <v>1.93</v>
-      </c>
       <c r="X173" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="Y173" t="n">
-        <v>6.1</v>
+        <v>22</v>
       </c>
       <c r="Z173" t="n">
-        <v>8.5</v>
+        <v>80</v>
       </c>
       <c r="AA173" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="AB173" t="n">
-        <v>17.5</v>
+        <v>450</v>
       </c>
       <c r="AC173" t="n">
-        <v>18.5</v>
+        <v>250</v>
       </c>
       <c r="AD173" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AG173" t="n">
         <v>37</v>
       </c>
-      <c r="AE173" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AF173" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AG173" t="n">
-        <v>18</v>
-      </c>
       <c r="AH173" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AI173" t="n">
-        <v>900</v>
+        <v>101</v>
       </c>
       <c r="AJ173" t="n">
-        <v>8.5</v>
+        <v>5.3</v>
       </c>
       <c r="AK173" t="n">
-        <v>16.5</v>
+        <v>4.9</v>
       </c>
       <c r="AL173" t="n">
-        <v>12.5</v>
+        <v>9.75</v>
       </c>
       <c r="AM173" t="n">
-        <v>45</v>
+        <v>6.6</v>
       </c>
       <c r="AN173" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="AO173" t="n">
         <v>50</v>
@@ -25055,7 +25141,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>GtbG95HU</t>
+          <t>6TVQbl3C</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -25065,7 +25151,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -25075,61 +25161,57 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Veres-Rivne</t>
+          <t>FK Zorya Luhansk</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.37</v>
+        <v>2.02</v>
       </c>
       <c r="H174" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="I174" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J174" t="n">
-        <v>3.15</v>
+        <v>2.65</v>
       </c>
       <c r="K174" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="L174" t="n">
         <v>4</v>
       </c>
-      <c r="M174" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N174" t="n">
-        <v>6.2</v>
-      </c>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
       <c r="O174" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="P174" t="n">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="Q174" t="n">
-        <v>2.35</v>
+        <v>2.12</v>
       </c>
       <c r="R174" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="S174" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="T174" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="U174" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="V174" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="W174" t="n">
         <v>1.93</v>
@@ -25141,52 +25223,52 @@
         <v>6.1</v>
       </c>
       <c r="Z174" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA174" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB174" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AC174" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AD174" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE174" t="n">
-        <v>6.2</v>
+        <v>7.9</v>
       </c>
       <c r="AF174" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="AG174" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AH174" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI174" t="n">
         <v>900</v>
       </c>
       <c r="AJ174" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AK174" t="n">
         <v>16.5</v>
       </c>
       <c r="AL174" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AM174" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN174" t="n">
         <v>35</v>
       </c>
       <c r="AO174" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP174" t="inlineStr"/>
       <c r="AQ174" t="inlineStr"/>
@@ -25196,7 +25278,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>E74uErun</t>
+          <t>GtbG95HU</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -25206,142 +25288,138 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Los Angeles FC</t>
+          <t>Veres-Rivne</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.65</v>
+        <v>2.37</v>
       </c>
       <c r="H175" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I175" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J175" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L175" t="n">
         <v>4.1</v>
       </c>
-      <c r="I175" t="n">
-        <v>5</v>
-      </c>
-      <c r="J175" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K175" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L175" t="n">
-        <v>4.75</v>
-      </c>
       <c r="M175" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N175" t="n">
-        <v>15</v>
+        <v>6.2</v>
       </c>
       <c r="O175" t="n">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="P175" t="n">
-        <v>4.33</v>
+        <v>2.35</v>
       </c>
       <c r="Q175" t="n">
-        <v>1.67</v>
+        <v>2.35</v>
       </c>
       <c r="R175" t="n">
-        <v>2.15</v>
+        <v>1.47</v>
       </c>
       <c r="S175" t="n">
-        <v>2.63</v>
+        <v>3.95</v>
       </c>
       <c r="T175" t="n">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="U175" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="V175" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="W175" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="X175" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="Y175" t="n">
-        <v>9</v>
+        <v>6.1</v>
       </c>
       <c r="Z175" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AA175" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB175" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AC175" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AD175" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AE175" t="n">
-        <v>15</v>
+        <v>6.1</v>
       </c>
       <c r="AF175" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>900</v>
+      </c>
+      <c r="AJ175" t="n">
         <v>8</v>
       </c>
-      <c r="AG175" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH175" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI175" t="n">
-        <v>151</v>
-      </c>
-      <c r="AJ175" t="n">
-        <v>17</v>
-      </c>
       <c r="AK175" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AL175" t="n">
-        <v>15</v>
+        <v>11.75</v>
       </c>
       <c r="AM175" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AN175" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AO175" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP175" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AQ175" t="n">
-        <v>1.83</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="AP175" t="inlineStr"/>
+      <c r="AQ175" t="inlineStr"/>
       <c r="AR175" t="inlineStr"/>
       <c r="AS175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>zsZUgufU</t>
+          <t>E74uErun</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -25361,55 +25439,55 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Portland Timbers</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Austin FC</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="H176" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I176" t="n">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="J176" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="K176" t="n">
         <v>2.3</v>
       </c>
       <c r="L176" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M176" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N176" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O176" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P176" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q176" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="R176" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S176" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T176" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U176" t="n">
         <v>1.33</v>
@@ -25418,67 +25496,67 @@
         <v>3.25</v>
       </c>
       <c r="W176" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="X176" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="Y176" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z176" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AA176" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB176" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AC176" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AD176" t="n">
         <v>23</v>
       </c>
       <c r="AE176" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF176" t="n">
         <v>7.5</v>
       </c>
       <c r="AG176" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH176" t="n">
         <v>41</v>
       </c>
       <c r="AI176" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AJ176" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AK176" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL176" t="n">
         <v>15</v>
       </c>
-      <c r="AL176" t="n">
-        <v>10</v>
-      </c>
       <c r="AM176" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AN176" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AO176" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR176" t="inlineStr"/>
       <c r="AS176" t="inlineStr"/>
@@ -25486,7 +25564,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SGVMe1PH</t>
+          <t>zsZUgufU</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -25506,118 +25584,118 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>San Diego FC</t>
+          <t>Portland Timbers</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>St. Louis City</t>
+          <t>Austin FC</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="H177" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I177" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="J177" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="K177" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L177" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M177" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N177" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O177" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P177" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q177" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S177" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V177" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W177" t="n">
         <v>1.62</v>
       </c>
-      <c r="R177" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S177" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T177" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U177" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V177" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W177" t="n">
-        <v>1.57</v>
-      </c>
       <c r="X177" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y177" t="n">
         <v>10</v>
       </c>
       <c r="Z177" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA177" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB177" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC177" t="n">
         <v>19</v>
       </c>
-      <c r="AC177" t="n">
-        <v>15</v>
-      </c>
       <c r="AD177" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE177" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF177" t="n">
         <v>7</v>
       </c>
       <c r="AG177" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH177" t="n">
         <v>41</v>
       </c>
       <c r="AI177" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ177" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AK177" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN177" t="n">
         <v>19</v>
       </c>
-      <c r="AL177" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM177" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN177" t="n">
+      <c r="AO177" t="n">
         <v>23</v>
-      </c>
-      <c r="AO177" t="n">
-        <v>26</v>
       </c>
       <c r="AP177" t="n">
         <v>2.05</v>
@@ -25631,7 +25709,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>nL2mCM9b</t>
+          <t>SGVMe1PH</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -25641,7 +25719,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -25651,28 +25729,28 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Vancouver Whitecaps</t>
+          <t>San Diego FC</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>St. Louis City</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H178" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I178" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J178" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K178" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L178" t="n">
         <v>3.75</v>
@@ -25681,94 +25759,94 @@
         <v>1.03</v>
       </c>
       <c r="N178" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O178" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P178" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q178" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R178" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T178" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U178" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V178" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W178" t="n">
         <v>1.57</v>
       </c>
-      <c r="R178" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S178" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T178" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U178" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V178" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W178" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X178" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y178" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z178" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA178" t="n">
         <v>9</v>
       </c>
       <c r="AB178" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC178" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD178" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE178" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF178" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG178" t="n">
         <v>12</v>
       </c>
       <c r="AH178" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI178" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ178" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK178" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL178" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM178" t="n">
         <v>41</v>
       </c>
       <c r="AN178" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO178" t="n">
         <v>26</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AR178" t="inlineStr"/>
       <c r="AS178" t="inlineStr"/>
@@ -25776,7 +25854,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>6NIlA0vB</t>
+          <t>nL2mCM9b</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -25786,7 +25864,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -25796,31 +25874,31 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Houston Dynamo</t>
+          <t>Vancouver Whitecaps</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Inter Miami</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.8</v>
+        <v>1.91</v>
       </c>
       <c r="H179" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I179" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="J179" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="K179" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L179" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="M179" t="n">
         <v>1.03</v>
@@ -25829,28 +25907,28 @@
         <v>17</v>
       </c>
       <c r="O179" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P179" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q179" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R179" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S179" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T179" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U179" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V179" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W179" t="n">
         <v>1.53</v>
@@ -25859,22 +25937,22 @@
         <v>2.38</v>
       </c>
       <c r="Y179" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z179" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB179" t="n">
         <v>17</v>
       </c>
-      <c r="AA179" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB179" t="n">
-        <v>29</v>
-      </c>
       <c r="AC179" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD179" t="n">
         <v>21</v>
-      </c>
-      <c r="AD179" t="n">
-        <v>23</v>
       </c>
       <c r="AE179" t="n">
         <v>17</v>
@@ -25892,28 +25970,28 @@
         <v>126</v>
       </c>
       <c r="AJ179" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AK179" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL179" t="n">
         <v>13</v>
       </c>
-      <c r="AL179" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AM179" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN179" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AO179" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AP179" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AR179" t="inlineStr"/>
       <c r="AS179" t="inlineStr"/>
@@ -25921,7 +25999,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>QTWdvh5C</t>
+          <t>6NIlA0vB</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -25931,134 +26009,142 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Zamora</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>Inter Miami</t>
         </is>
       </c>
       <c r="G180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H180" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I180" t="n">
+        <v>3</v>
+      </c>
+      <c r="J180" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K180" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L180" t="n">
         <v>3.4</v>
       </c>
-      <c r="H180" t="n">
-        <v>3</v>
-      </c>
-      <c r="I180" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J180" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K180" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="L180" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N180" t="n">
+        <v>15</v>
+      </c>
       <c r="O180" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="P180" t="n">
-        <v>2.47</v>
+        <v>4.5</v>
       </c>
       <c r="Q180" t="n">
-        <v>2.18</v>
+        <v>1.6</v>
       </c>
       <c r="R180" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V180" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W180" t="n">
         <v>1.53</v>
       </c>
-      <c r="S180" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T180" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="U180" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V180" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="W180" t="n">
-        <v>1.9</v>
-      </c>
       <c r="X180" t="n">
-        <v>1.72</v>
+        <v>2.38</v>
       </c>
       <c r="Y180" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z180" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE180" t="n">
         <v>17</v>
       </c>
-      <c r="AA180" t="n">
+      <c r="AF180" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG180" t="n">
         <v>12</v>
       </c>
-      <c r="AB180" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC180" t="n">
-        <v>35</v>
-      </c>
-      <c r="AD180" t="n">
-        <v>45</v>
-      </c>
-      <c r="AE180" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AF180" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AG180" t="n">
-        <v>16</v>
-      </c>
       <c r="AH180" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AI180" t="n">
-        <v>900</v>
+        <v>126</v>
       </c>
       <c r="AJ180" t="n">
-        <v>6.2</v>
+        <v>13</v>
       </c>
       <c r="AK180" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AL180" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AM180" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN180" t="n">
         <v>21</v>
       </c>
-      <c r="AN180" t="n">
-        <v>20</v>
-      </c>
       <c r="AO180" t="n">
-        <v>37</v>
-      </c>
-      <c r="AP180" t="inlineStr"/>
-      <c r="AQ180" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.83</v>
+      </c>
       <c r="AR180" t="inlineStr"/>
       <c r="AS180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>routrz6m</t>
+          <t>QTWdvh5C</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -26068,7 +26154,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -26078,120 +26164,257 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Monagas</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Yaracuyanos</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H181" t="n">
-        <v>3.85</v>
+        <v>3</v>
       </c>
       <c r="I181" t="n">
-        <v>6</v>
+        <v>2.18</v>
       </c>
       <c r="J181" t="n">
-        <v>2.05</v>
+        <v>3.9</v>
       </c>
       <c r="K181" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="L181" t="n">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="P181" t="n">
-        <v>3.25</v>
+        <v>2.47</v>
       </c>
       <c r="Q181" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R181" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S181" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T181" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U181" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="V181" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X181" t="n">
         <v>1.72</v>
       </c>
-      <c r="R181" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S181" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T181" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="U181" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="V181" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="W181" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="X181" t="n">
-        <v>1.78</v>
-      </c>
       <c r="Y181" t="n">
-        <v>6.7</v>
+        <v>8.5</v>
       </c>
       <c r="Z181" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AA181" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB181" t="n">
-        <v>10.5</v>
+        <v>50</v>
       </c>
       <c r="AC181" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="AD181" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AE181" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="AF181" t="n">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="AG181" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH181" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AI181" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="AJ181" t="n">
-        <v>16.5</v>
+        <v>6.2</v>
       </c>
       <c r="AK181" t="n">
-        <v>40</v>
+        <v>9.5</v>
       </c>
       <c r="AL181" t="n">
-        <v>18.5</v>
+        <v>9.25</v>
       </c>
       <c r="AM181" t="n">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="AN181" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="AO181" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AP181" t="inlineStr"/>
       <c r="AQ181" t="inlineStr"/>
       <c r="AR181" t="inlineStr"/>
       <c r="AS181" t="inlineStr"/>
     </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>routrz6m</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>02/03/2025</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Yaracuyanos</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H182" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I182" t="n">
+        <v>6</v>
+      </c>
+      <c r="J182" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K182" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L182" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P182" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R182" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S182" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T182" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U182" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="V182" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X182" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>600</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP182" t="inlineStr"/>
+      <c r="AQ182" t="inlineStr"/>
+      <c r="AR182" t="inlineStr"/>
+      <c r="AS182" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2025-03-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-02.xlsx
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
         <v>2.38</v>
@@ -722,10 +722,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>2.75</v>
@@ -758,7 +758,7 @@
         <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
@@ -770,7 +770,7 @@
         <v>7.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
@@ -782,10 +782,10 @@
         <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM2" t="n">
         <v>51</v>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
         <v>2.3</v>
@@ -848,7 +848,7 @@
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -887,7 +887,7 @@
         <v>1.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
         <v>15</v>
@@ -905,13 +905,13 @@
         <v>41</v>
       </c>
       <c r="AE3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF3" t="n">
         <v>6</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
@@ -989,7 +989,7 @@
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -1004,7 +1004,7 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="R4" t="n">
         <v>1.91</v>
@@ -1022,16 +1022,16 @@
         <v>2.75</v>
       </c>
       <c r="W4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
@@ -1040,7 +1040,7 @@
         <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD4" t="n">
         <v>29</v>
@@ -1049,7 +1049,7 @@
         <v>10</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
@@ -1067,13 +1067,13 @@
         <v>12</v>
       </c>
       <c r="AL4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM4" t="n">
         <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>29</v>
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
@@ -1130,7 +1130,7 @@
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1145,10 +1145,10 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S5" t="n">
         <v>3.2</v>
@@ -1163,10 +1163,10 @@
         <v>3</v>
       </c>
       <c r="W5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y5" t="n">
         <v>12</v>
@@ -1175,13 +1175,13 @@
         <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD5" t="n">
         <v>34</v>
@@ -1199,7 +1199,7 @@
         <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ5" t="n">
         <v>8.5</v>
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H6" t="n">
         <v>5.25</v>
@@ -1549,64 +1549,64 @@
         <v>2.63</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J8" t="n">
         <v>3.4</v>
       </c>
       <c r="K8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W8" t="n">
         <v>2</v>
       </c>
-      <c r="L8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.95</v>
-      </c>
       <c r="X8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z8" t="n">
         <v>12</v>
       </c>
       <c r="AA8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="n">
         <v>26</v>
@@ -1615,28 +1615,28 @@
         <v>23</v>
       </c>
       <c r="AD8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF8" t="n">
         <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI8" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AJ8" t="n">
         <v>7.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL8" t="n">
         <v>11</v>
@@ -1645,15 +1645,19 @@
         <v>29</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
+      <c r="AR8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2.08</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1835,10 +1839,10 @@
         <v>1.6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="J10" t="n">
         <v>2.2</v>
@@ -1850,16 +1854,16 @@
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q10" t="n">
         <v>2.1</v>
@@ -1904,13 +1908,13 @@
         <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
         <v>67</v>
@@ -1931,7 +1935,7 @@
         <v>67</v>
       </c>
       <c r="AN10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO10" t="n">
         <v>51</v>
@@ -1973,13 +1977,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
         <v>2.63</v>
@@ -1994,7 +1998,7 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -2114,19 +2118,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="n">
         <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
         <v>4.5</v>
@@ -2177,7 +2181,7 @@
         <v>8.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
         <v>15</v>
@@ -2189,7 +2193,7 @@
         <v>10</v>
       </c>
       <c r="AF12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
@@ -2285,10 +2289,10 @@
         <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="S13" t="n">
         <v>3</v>
@@ -2414,10 +2418,10 @@
         <v>2.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
@@ -2426,10 +2430,10 @@
         <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S14" t="n">
         <v>3.4</v>
@@ -2549,7 +2553,7 @@
         <v>6.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.95</v>
@@ -2561,22 +2565,22 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R15" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U15" t="n">
         <v>1.3</v>
@@ -2585,37 +2589,37 @@
         <v>3.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="X15" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Y15" t="n">
         <v>19</v>
       </c>
       <c r="Z15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
         <v>21</v>
       </c>
       <c r="AB15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AC15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD15" t="n">
         <v>41</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
         <v>51</v>
@@ -2624,10 +2628,10 @@
         <v>251</v>
       </c>
       <c r="AJ15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK15" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>7</v>
       </c>
       <c r="AL15" t="n">
         <v>8.5</v>
@@ -2641,8 +2645,12 @@
       <c r="AO15" t="n">
         <v>23</v>
       </c>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
+      <c r="AP15" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>1.83</v>
+      </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
     </row>
@@ -2849,10 +2857,10 @@
         <v>3.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S17" t="n">
         <v>3.75</v>
@@ -2960,22 +2968,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="I18" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J18" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
         <v>1.8</v>
       </c>
       <c r="L18" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
         <v>1.14</v>
@@ -3014,10 +3022,10 @@
         <v>1.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
         <v>13</v>
@@ -3048,16 +3056,16 @@
         <v>5.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL18" t="n">
         <v>12</v>
       </c>
       <c r="AM18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO18" t="n">
         <v>51</v>
@@ -3204,10 +3212,10 @@
         <v>67</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3387,22 +3395,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
@@ -3441,16 +3449,16 @@
         <v>1.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA21" t="n">
         <v>10</v>
       </c>
-      <c r="AA21" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AB21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC21" t="n">
         <v>21</v>
@@ -3459,7 +3467,7 @@
         <v>34</v>
       </c>
       <c r="AE21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF21" t="n">
         <v>6</v>
@@ -3474,7 +3482,7 @@
         <v>401</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK21" t="n">
         <v>15</v>
@@ -3532,7 +3540,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
@@ -3643,10 +3651,10 @@
         <v>1.22</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="23">
@@ -3699,10 +3707,10 @@
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.53</v>
@@ -3792,10 +3800,10 @@
         <v>1.2</v>
       </c>
       <c r="AR23" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="24">
@@ -3935,7 +3943,7 @@
         <v>51</v>
       </c>
       <c r="AP24" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.17</v>
@@ -4015,10 +4023,10 @@
         <v>1.4</v>
       </c>
       <c r="S25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="T25" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="U25" t="n">
         <v>1.67</v>
@@ -4084,7 +4092,7 @@
         <v>41</v>
       </c>
       <c r="AP25" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.17</v>
@@ -4134,7 +4142,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J26" t="n">
         <v>3.4</v>
@@ -4146,10 +4154,10 @@
         <v>4.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.67</v>
@@ -4170,10 +4178,10 @@
         <v>1.1</v>
       </c>
       <c r="U26" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W26" t="n">
         <v>2.5</v>
@@ -4197,13 +4205,13 @@
         <v>26</v>
       </c>
       <c r="AD26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE26" t="n">
         <v>5.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
         <v>23</v>
@@ -4227,7 +4235,7 @@
         <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO26" t="n">
         <v>51</v>
@@ -4301,10 +4309,10 @@
         <v>5.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P27" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q27" t="n">
         <v>3.1</v>
@@ -4418,13 +4426,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I28" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J28" t="n">
         <v>3.2</v>
@@ -4436,10 +4444,10 @@
         <v>4.75</v>
       </c>
       <c r="M28" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O28" t="n">
         <v>1.67</v>
@@ -4448,22 +4456,22 @@
         <v>2.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T28" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="U28" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V28" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
         <v>2.5</v>
@@ -4496,7 +4504,7 @@
         <v>6</v>
       </c>
       <c r="AG28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH28" t="n">
         <v>101</v>
@@ -4559,10 +4567,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I29" t="n">
         <v>4.1</v>
@@ -4583,10 +4591,10 @@
         <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P29" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q29" t="n">
         <v>3.4</v>
@@ -4601,10 +4609,10 @@
         <v>1.1</v>
       </c>
       <c r="U29" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V29" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="W29" t="n">
         <v>2.63</v>
@@ -4625,7 +4633,7 @@
         <v>19</v>
       </c>
       <c r="AC29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD29" t="n">
         <v>51</v>
@@ -4646,7 +4654,7 @@
         <v>101</v>
       </c>
       <c r="AJ29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK29" t="n">
         <v>19</v>
@@ -4700,22 +4708,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I30" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
         <v>1.8</v>
       </c>
       <c r="L30" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
         <v>1.17</v>
@@ -4742,10 +4750,10 @@
         <v>1.1</v>
       </c>
       <c r="U30" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V30" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W30" t="n">
         <v>2.5</v>
@@ -4754,7 +4762,7 @@
         <v>1.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Z30" t="n">
         <v>8</v>
@@ -4769,7 +4777,7 @@
         <v>23</v>
       </c>
       <c r="AD30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE30" t="n">
         <v>4.75</v>
@@ -4787,19 +4795,19 @@
         <v>101</v>
       </c>
       <c r="AJ30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM30" t="n">
         <v>51</v>
       </c>
       <c r="AN30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO30" t="n">
         <v>67</v>
@@ -4845,13 +4853,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H31" t="n">
         <v>2.63</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J31" t="n">
         <v>3.25</v>
@@ -4860,7 +4868,7 @@
         <v>1.73</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M31" t="n">
         <v>1.18</v>
@@ -4869,16 +4877,16 @@
         <v>4.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R31" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S31" t="n">
         <v>8</v>
@@ -4887,10 +4895,10 @@
         <v>1.08</v>
       </c>
       <c r="U31" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V31" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="W31" t="n">
         <v>2.63</v>
@@ -4917,16 +4925,16 @@
         <v>51</v>
       </c>
       <c r="AE31" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AF31" t="n">
         <v>6</v>
       </c>
       <c r="AG31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH31" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI31" t="n">
         <v>101</v>
@@ -5431,10 +5439,10 @@
         <v>4.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="N35" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="O35" t="n">
         <v>1.83</v>
@@ -5572,10 +5580,10 @@
         <v>7.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N36" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O36" t="n">
         <v>1.67</v>
@@ -5590,10 +5598,10 @@
         <v>1.36</v>
       </c>
       <c r="S36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T36" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="U36" t="n">
         <v>1.67</v>
@@ -5699,52 +5707,52 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H37" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I37" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K37" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M37" t="n">
         <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O37" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R37" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T37" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="U37" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="V37" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="W37" t="n">
         <v>1.44</v>
@@ -5759,10 +5767,10 @@
         <v>11</v>
       </c>
       <c r="AA37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC37" t="n">
         <v>11</v>
@@ -5771,13 +5779,13 @@
         <v>17</v>
       </c>
       <c r="AE37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH37" t="n">
         <v>34</v>
@@ -5786,13 +5794,13 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK37" t="n">
         <v>34</v>
       </c>
       <c r="AL37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM37" t="n">
         <v>51</v>
@@ -5985,7 +5993,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H39" t="n">
         <v>3.4</v>
@@ -6027,16 +6035,16 @@
         <v>1.22</v>
       </c>
       <c r="U39" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V39" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W39" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X39" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y39" t="n">
         <v>6.5</v>
@@ -6048,16 +6056,16 @@
         <v>9</v>
       </c>
       <c r="AB39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC39" t="n">
         <v>17</v>
       </c>
       <c r="AD39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF39" t="n">
         <v>6.5</v>
@@ -6084,7 +6092,7 @@
         <v>41</v>
       </c>
       <c r="AN39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO39" t="n">
         <v>41</v>
@@ -6126,19 +6134,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J40" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K40" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L40" t="n">
         <v>4</v>
@@ -6183,13 +6191,13 @@
         <v>9</v>
       </c>
       <c r="Z40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA40" t="n">
         <v>8.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC40" t="n">
         <v>15</v>
@@ -6204,7 +6212,7 @@
         <v>7</v>
       </c>
       <c r="AG40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH40" t="n">
         <v>41</v>
@@ -6219,16 +6227,16 @@
         <v>21</v>
       </c>
       <c r="AL40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM40" t="n">
         <v>41</v>
       </c>
       <c r="AN40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO40" t="n">
         <v>29</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>34</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6267,16 +6275,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H41" t="n">
         <v>3.6</v>
       </c>
       <c r="I41" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J41" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
         <v>2.25</v>
@@ -6309,16 +6317,16 @@
         <v>1.4</v>
       </c>
       <c r="U41" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V41" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W41" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X41" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y41" t="n">
         <v>13</v>
@@ -6339,7 +6347,7 @@
         <v>34</v>
       </c>
       <c r="AE41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF41" t="n">
         <v>7</v>
@@ -6357,7 +6365,7 @@
         <v>8.5</v>
       </c>
       <c r="AK41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL41" t="n">
         <v>8.5</v>
@@ -6432,16 +6440,16 @@
         <v>10</v>
       </c>
       <c r="O42" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P42" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R42" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S42" t="n">
         <v>3.75</v>
@@ -6573,22 +6581,22 @@
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P43" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R43" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S43" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T43" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U43" t="n">
         <v>1.33</v>
@@ -6694,28 +6702,28 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H44" t="n">
         <v>3.4</v>
       </c>
       <c r="I44" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J44" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K44" t="n">
         <v>2.3</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M44" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O44" t="n">
         <v>1.2</v>
@@ -6724,10 +6732,10 @@
         <v>4.33</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R44" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S44" t="n">
         <v>2.63</v>
@@ -6748,7 +6756,7 @@
         <v>2.38</v>
       </c>
       <c r="Y44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z44" t="n">
         <v>15</v>
@@ -6766,13 +6774,13 @@
         <v>23</v>
       </c>
       <c r="AE44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF44" t="n">
         <v>7</v>
       </c>
       <c r="AG44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH44" t="n">
         <v>34</v>
@@ -6790,7 +6798,7 @@
         <v>10</v>
       </c>
       <c r="AM44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN44" t="n">
         <v>19</v>
@@ -6839,22 +6847,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J45" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K45" t="n">
         <v>2.3</v>
       </c>
       <c r="L45" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M45" t="n">
         <v>1.04</v>
@@ -6896,7 +6904,7 @@
         <v>8.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA45" t="n">
         <v>8.5</v>
@@ -6932,13 +6940,13 @@
         <v>23</v>
       </c>
       <c r="AL45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM45" t="n">
         <v>41</v>
       </c>
       <c r="AN45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO45" t="n">
         <v>34</v>
@@ -7010,10 +7018,10 @@
         <v>3.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R46" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S46" t="n">
         <v>3.25</v>
@@ -7139,13 +7147,13 @@
         <v>3.75</v>
       </c>
       <c r="M47" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N47" t="n">
         <v>9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P47" t="n">
         <v>2.75</v>
@@ -7160,7 +7168,7 @@
         <v>4</v>
       </c>
       <c r="T47" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U47" t="n">
         <v>1.5</v>
@@ -7172,7 +7180,7 @@
         <v>2</v>
       </c>
       <c r="X47" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -7284,28 +7292,28 @@
         <v>2.1</v>
       </c>
       <c r="M48" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N48" t="n">
         <v>10</v>
       </c>
       <c r="O48" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P48" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R48" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S48" t="n">
         <v>4</v>
       </c>
       <c r="T48" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U48" t="n">
         <v>1.5</v>
@@ -7317,7 +7325,7 @@
         <v>2.5</v>
       </c>
       <c r="X48" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Y48" t="n">
         <v>12</v>
@@ -7556,7 +7564,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H50" t="n">
         <v>4.1</v>
@@ -7568,7 +7576,7 @@
         <v>4.75</v>
       </c>
       <c r="K50" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L50" t="n">
         <v>2.25</v>
@@ -7604,10 +7612,10 @@
         <v>3.4</v>
       </c>
       <c r="W50" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X50" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y50" t="n">
         <v>15</v>
@@ -7646,7 +7654,7 @@
         <v>9</v>
       </c>
       <c r="AK50" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL50" t="n">
         <v>8.5</v>
@@ -7705,16 +7713,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
         <v>3.2</v>
       </c>
       <c r="I51" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K51" t="n">
         <v>2</v>
@@ -7735,16 +7743,16 @@
         <v>2.75</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R51" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T51" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U51" t="n">
         <v>1.5</v>
@@ -7810,16 +7818,16 @@
         <v>41</v>
       </c>
       <c r="AP51" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AR51" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.14</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="52">
@@ -7854,22 +7862,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="H52" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="J52" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K52" t="n">
         <v>2.2</v>
       </c>
       <c r="L52" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M52" t="n">
         <v>1.05</v>
@@ -7884,10 +7892,10 @@
         <v>3.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R52" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S52" t="n">
         <v>3.25</v>
@@ -7896,10 +7904,10 @@
         <v>1.33</v>
       </c>
       <c r="U52" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V52" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W52" t="n">
         <v>1.7</v>
@@ -7908,22 +7916,22 @@
         <v>2.05</v>
       </c>
       <c r="Y52" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA52" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB52" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC52" t="n">
         <v>21</v>
       </c>
-      <c r="AC52" t="n">
-        <v>19</v>
-      </c>
       <c r="AD52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE52" t="n">
         <v>11</v>
@@ -7941,19 +7949,19 @@
         <v>201</v>
       </c>
       <c r="AJ52" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL52" t="n">
         <v>10</v>
       </c>
-      <c r="AK52" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>11</v>
-      </c>
       <c r="AM52" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO52" t="n">
         <v>29</v>
@@ -7995,16 +8003,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H53" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I53" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K53" t="n">
         <v>2.4</v>
@@ -8019,22 +8027,22 @@
         <v>15</v>
       </c>
       <c r="O53" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P53" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R53" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S53" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T53" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U53" t="n">
         <v>1.3</v>
@@ -8049,7 +8057,7 @@
         <v>2</v>
       </c>
       <c r="Y53" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z53" t="n">
         <v>8</v>
@@ -8058,7 +8066,7 @@
         <v>8.5</v>
       </c>
       <c r="AB53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC53" t="n">
         <v>12</v>
@@ -8070,7 +8078,7 @@
         <v>15</v>
       </c>
       <c r="AF53" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG53" t="n">
         <v>15</v>
@@ -8082,16 +8090,16 @@
         <v>201</v>
       </c>
       <c r="AJ53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM53" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN53" t="n">
         <v>41</v>
@@ -8251,10 +8259,10 @@
         <v>1.28</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="55">
@@ -8289,22 +8297,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K55" t="n">
         <v>1.95</v>
       </c>
       <c r="L55" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M55" t="n">
         <v>1.1</v>
@@ -8346,13 +8354,13 @@
         <v>6</v>
       </c>
       <c r="Z55" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA55" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA55" t="n">
-        <v>10</v>
-      </c>
       <c r="AB55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC55" t="n">
         <v>21</v>
@@ -8367,7 +8375,7 @@
         <v>6</v>
       </c>
       <c r="AG55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH55" t="n">
         <v>67</v>
@@ -8382,16 +8390,16 @@
         <v>17</v>
       </c>
       <c r="AL55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM55" t="n">
         <v>41</v>
       </c>
       <c r="AN55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO55" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP55" t="n">
         <v>3.9</v>
@@ -8438,40 +8446,40 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>3.3</v>
       </c>
       <c r="I56" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J56" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K56" t="n">
         <v>2.2</v>
       </c>
       <c r="L56" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M56" t="n">
         <v>1.06</v>
       </c>
       <c r="N56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O56" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P56" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="R56" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S56" t="n">
         <v>3.4</v>
@@ -8486,10 +8494,10 @@
         <v>2.75</v>
       </c>
       <c r="W56" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X56" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y56" t="n">
         <v>7</v>
@@ -8525,7 +8533,7 @@
         <v>251</v>
       </c>
       <c r="AJ56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK56" t="n">
         <v>23</v>
@@ -8534,10 +8542,10 @@
         <v>15</v>
       </c>
       <c r="AM56" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN56" t="n">
         <v>41</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>34</v>
       </c>
       <c r="AO56" t="n">
         <v>41</v>
@@ -8579,16 +8587,16 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H57" t="n">
         <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J57" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K57" t="n">
         <v>1.91</v>
@@ -8597,10 +8605,10 @@
         <v>3.75</v>
       </c>
       <c r="M57" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N57" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O57" t="n">
         <v>1.5</v>
@@ -8645,7 +8653,7 @@
         <v>26</v>
       </c>
       <c r="AC57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD57" t="n">
         <v>41</v>
@@ -8669,10 +8677,10 @@
         <v>7</v>
       </c>
       <c r="AK57" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL57" t="n">
         <v>12</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>11</v>
       </c>
       <c r="AM57" t="n">
         <v>29</v>
@@ -8727,19 +8735,19 @@
         <v>1.11</v>
       </c>
       <c r="H58" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="I58" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J58" t="n">
         <v>1.34</v>
       </c>
       <c r="K58" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L58" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M58" t="n">
         <v>1.02</v>
@@ -8757,52 +8765,52 @@
         <v>1.36</v>
       </c>
       <c r="R58" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="S58" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T58" t="n">
         <v>1.85</v>
-      </c>
-      <c r="T58" t="n">
-        <v>1.88</v>
       </c>
       <c r="U58" t="n">
         <v>1.17</v>
       </c>
       <c r="V58" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="W58" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="X58" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="Y58" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AA58" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC58" t="n">
         <v>12</v>
       </c>
-      <c r="AB58" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AD58" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AE58" t="n">
         <v>11.25</v>
       </c>
       <c r="AF58" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH58" t="n">
         <v>200</v>
@@ -8814,7 +8822,7 @@
         <v>50</v>
       </c>
       <c r="AK58" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AL58" t="n">
         <v>100</v>
@@ -8823,7 +8831,7 @@
         <v>1000</v>
       </c>
       <c r="AN58" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AO58" t="n">
         <v>300</v>
@@ -8865,13 +8873,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I59" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J59" t="n">
         <v>2.05</v>
@@ -8889,16 +8897,16 @@
         <v>11</v>
       </c>
       <c r="O59" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P59" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R59" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S59" t="n">
         <v>3.25</v>
@@ -8913,16 +8921,16 @@
         <v>3</v>
       </c>
       <c r="W59" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X59" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y59" t="n">
         <v>6.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA59" t="n">
         <v>8.5</v>
@@ -9036,16 +9044,16 @@
         <v>3.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R60" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S60" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T60" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U60" t="n">
         <v>1.4</v>
@@ -9147,22 +9155,22 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H61" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J61" t="n">
         <v>4.75</v>
       </c>
       <c r="K61" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L61" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M61" t="n">
         <v>1.03</v>
@@ -9177,10 +9185,10 @@
         <v>4.33</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R61" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S61" t="n">
         <v>2.63</v>
@@ -9189,10 +9197,10 @@
         <v>1.44</v>
       </c>
       <c r="U61" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V61" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W61" t="n">
         <v>1.67</v>
@@ -9204,7 +9212,7 @@
         <v>15</v>
       </c>
       <c r="Z61" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA61" t="n">
         <v>15</v>
@@ -9219,13 +9227,13 @@
         <v>34</v>
       </c>
       <c r="AE61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF61" t="n">
         <v>7.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH61" t="n">
         <v>41</v>
@@ -9312,16 +9320,16 @@
         <v>19</v>
       </c>
       <c r="O62" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P62" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R62" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S62" t="n">
         <v>2.25</v>
@@ -9393,10 +9401,10 @@
         <v>51</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AQ62" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AR62" t="inlineStr"/>
       <c r="AS62" t="inlineStr"/>
@@ -9463,16 +9471,16 @@
         <v>4</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R63" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S63" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T63" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U63" t="n">
         <v>1.36</v>
@@ -9577,10 +9585,10 @@
         <v>1.8</v>
       </c>
       <c r="H64" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I64" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J64" t="n">
         <v>2.38</v>
@@ -9667,7 +9675,7 @@
         <v>23</v>
       </c>
       <c r="AL64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM64" t="n">
         <v>41</v>
@@ -9719,13 +9727,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H65" t="n">
         <v>3.6</v>
       </c>
       <c r="I65" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J65" t="n">
         <v>2.5</v>
@@ -9767,16 +9775,16 @@
         <v>3.25</v>
       </c>
       <c r="W65" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X65" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y65" t="n">
         <v>9.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA65" t="n">
         <v>8.5</v>
@@ -9806,7 +9814,7 @@
         <v>151</v>
       </c>
       <c r="AJ65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK65" t="n">
         <v>21</v>
@@ -9818,7 +9826,7 @@
         <v>41</v>
       </c>
       <c r="AN65" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO65" t="n">
         <v>29</v>
@@ -10295,13 +10303,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H69" t="n">
         <v>3.4</v>
       </c>
       <c r="I69" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J69" t="n">
         <v>2.75</v>
@@ -10352,13 +10360,13 @@
         <v>7</v>
       </c>
       <c r="Z69" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA69" t="n">
         <v>9</v>
       </c>
       <c r="AB69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC69" t="n">
         <v>17</v>
@@ -10388,7 +10396,7 @@
         <v>17</v>
       </c>
       <c r="AL69" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM69" t="n">
         <v>41</v>
@@ -10580,29 +10588,29 @@
         <v>8.75</v>
       </c>
       <c r="H71" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I71" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="J71" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="K71" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="L71" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R71" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="S71" t="n">
         <v>1.87</v>
@@ -10613,10 +10621,10 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X71" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Y71" t="n">
         <v>27</v>
@@ -10637,13 +10645,13 @@
         <v>50</v>
       </c>
       <c r="AE71" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF71" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AG71" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH71" t="n">
         <v>50</v>
@@ -10658,16 +10666,16 @@
         <v>6.7</v>
       </c>
       <c r="AL71" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AM71" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AN71" t="n">
         <v>8.5</v>
       </c>
       <c r="AO71" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AP71" t="inlineStr"/>
       <c r="AQ71" t="inlineStr"/>
@@ -10839,7 +10847,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="H73" t="n">
         <v>3.6</v>
@@ -10869,7 +10877,7 @@
         <v>5</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R73" t="n">
         <v>2.35</v>
@@ -10984,19 +10992,19 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H74" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I74" t="n">
         <v>3.2</v>
       </c>
       <c r="J74" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K74" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L74" t="n">
         <v>3.6</v>
@@ -11005,7 +11013,7 @@
         <v>1.03</v>
       </c>
       <c r="N74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O74" t="n">
         <v>1.18</v>
@@ -11014,10 +11022,10 @@
         <v>4.5</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R74" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S74" t="n">
         <v>2.5</v>
@@ -11032,10 +11040,10 @@
         <v>3.4</v>
       </c>
       <c r="W74" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X74" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y74" t="n">
         <v>10</v>
@@ -11056,7 +11064,7 @@
         <v>21</v>
       </c>
       <c r="AE74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF74" t="n">
         <v>7.5</v>
@@ -11089,10 +11097,10 @@
         <v>26</v>
       </c>
       <c r="AP74" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr"/>
@@ -11129,22 +11137,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
         <v>3.6</v>
       </c>
       <c r="I75" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K75" t="n">
         <v>2.38</v>
       </c>
       <c r="L75" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M75" t="n">
         <v>1.03</v>
@@ -11159,7 +11167,7 @@
         <v>5</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R75" t="n">
         <v>2.3</v>
@@ -11183,7 +11191,7 @@
         <v>2.5</v>
       </c>
       <c r="Y75" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z75" t="n">
         <v>13</v>
@@ -11192,10 +11200,10 @@
         <v>9.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC75" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD75" t="n">
         <v>21</v>
@@ -11219,19 +11227,19 @@
         <v>13</v>
       </c>
       <c r="AK75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL75" t="n">
         <v>11</v>
       </c>
       <c r="AM75" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN75" t="n">
         <v>21</v>
       </c>
       <c r="AO75" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP75" t="n">
         <v>1.98</v>
@@ -11277,10 +11285,10 @@
         <v>2.1</v>
       </c>
       <c r="H76" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I76" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J76" t="n">
         <v>2.88</v>
@@ -11292,10 +11300,10 @@
         <v>4</v>
       </c>
       <c r="M76" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N76" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O76" t="n">
         <v>1.36</v>
@@ -11304,22 +11312,22 @@
         <v>3</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R76" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S76" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T76" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U76" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V76" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W76" t="n">
         <v>1.91</v>
@@ -11328,7 +11336,7 @@
         <v>1.8</v>
       </c>
       <c r="Y76" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z76" t="n">
         <v>9.5</v>
@@ -11343,10 +11351,10 @@
         <v>19</v>
       </c>
       <c r="AD76" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE76" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF76" t="n">
         <v>6.5</v>
@@ -11361,7 +11369,7 @@
         <v>351</v>
       </c>
       <c r="AJ76" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK76" t="n">
         <v>15</v>
@@ -11556,7 +11564,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H78" t="n">
         <v>4</v>
@@ -11571,7 +11579,7 @@
         <v>2.3</v>
       </c>
       <c r="L78" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M78" t="n">
         <v>1.04</v>
@@ -11610,7 +11618,7 @@
         <v>1.91</v>
       </c>
       <c r="Y78" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z78" t="n">
         <v>8</v>
@@ -11631,7 +11639,7 @@
         <v>13</v>
       </c>
       <c r="AF78" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG78" t="n">
         <v>15</v>
@@ -11646,10 +11654,10 @@
         <v>15</v>
       </c>
       <c r="AK78" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL78" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM78" t="n">
         <v>51</v>
@@ -11852,7 +11860,7 @@
         <v>4</v>
       </c>
       <c r="I80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J80" t="n">
         <v>2.1</v>
@@ -11861,13 +11869,13 @@
         <v>2.2</v>
       </c>
       <c r="L80" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M80" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N80" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O80" t="n">
         <v>1.33</v>
@@ -11876,10 +11884,10 @@
         <v>3.25</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R80" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S80" t="n">
         <v>3.75</v>
@@ -11900,7 +11908,7 @@
         <v>1.67</v>
       </c>
       <c r="Y80" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z80" t="n">
         <v>6.5</v>
@@ -11912,7 +11920,7 @@
         <v>10</v>
       </c>
       <c r="AC80" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD80" t="n">
         <v>34</v>
@@ -11936,13 +11944,13 @@
         <v>13</v>
       </c>
       <c r="AK80" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL80" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM80" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN80" t="n">
         <v>51</v>
@@ -11995,22 +12003,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H81" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J81" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K81" t="n">
         <v>2.5</v>
       </c>
       <c r="L81" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
@@ -12025,16 +12033,16 @@
         <v>4</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R81" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S81" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T81" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U81" t="n">
         <v>1.33</v>
@@ -12043,16 +12051,16 @@
         <v>3.25</v>
       </c>
       <c r="W81" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X81" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y81" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z81" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA81" t="n">
         <v>9</v>
@@ -12067,13 +12075,13 @@
         <v>34</v>
       </c>
       <c r="AE81" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF81" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG81" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH81" t="n">
         <v>81</v>
@@ -12100,16 +12108,16 @@
         <v>81</v>
       </c>
       <c r="AP81" t="n">
-        <v>2.37</v>
+        <v>2.34</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="AR81" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AS81" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="82">
@@ -12174,16 +12182,16 @@
         <v>2.75</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R82" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S82" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T82" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U82" t="n">
         <v>1.5</v>
@@ -12293,19 +12301,19 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H83" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I83" t="n">
         <v>3.3</v>
       </c>
-      <c r="I83" t="n">
-        <v>3.25</v>
-      </c>
       <c r="J83" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K83" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L83" t="n">
         <v>3.6</v>
@@ -12323,10 +12331,10 @@
         <v>4</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R83" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S83" t="n">
         <v>2.75</v>
@@ -12341,10 +12349,10 @@
         <v>3</v>
       </c>
       <c r="W83" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X83" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -12362,16 +12370,16 @@
         <v>17</v>
       </c>
       <c r="AD83" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE83" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF83" t="n">
         <v>6.5</v>
       </c>
       <c r="AG83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH83" t="n">
         <v>41</v>
@@ -12380,7 +12388,7 @@
         <v>151</v>
       </c>
       <c r="AJ83" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK83" t="n">
         <v>17</v>
@@ -12455,7 +12463,7 @@
         <v>1.04</v>
       </c>
       <c r="N84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O84" t="n">
         <v>1.22</v>
@@ -12476,10 +12484,10 @@
         <v>1.4</v>
       </c>
       <c r="U84" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V84" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W84" t="n">
         <v>1.62</v>
@@ -12506,7 +12514,7 @@
         <v>26</v>
       </c>
       <c r="AE84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF84" t="n">
         <v>6.5</v>
@@ -12593,10 +12601,10 @@
         <v>7</v>
       </c>
       <c r="M85" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N85" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O85" t="n">
         <v>1.2</v>
@@ -12605,10 +12613,10 @@
         <v>4.33</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R85" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S85" t="n">
         <v>2.63</v>
@@ -12734,10 +12742,10 @@
         <v>3.2</v>
       </c>
       <c r="M86" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N86" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O86" t="n">
         <v>1.2</v>
@@ -13123,7 +13131,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="H89" t="n">
         <v>3.25</v>
@@ -13143,10 +13151,10 @@
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P89" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q89" t="n">
         <v>1.78</v>
@@ -13155,10 +13163,10 @@
         <v>1.82</v>
       </c>
       <c r="S89" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T89" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="U89" t="n">
         <v>1.4</v>
@@ -13173,7 +13181,7 @@
         <v>2.02</v>
       </c>
       <c r="Y89" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z89" t="n">
         <v>14.5</v>
@@ -13203,7 +13211,7 @@
         <v>55</v>
       </c>
       <c r="AI89" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AJ89" t="n">
         <v>8.75</v>
@@ -13260,13 +13268,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I90" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J90" t="n">
         <v>2.5</v>
@@ -13275,7 +13283,7 @@
         <v>2.1</v>
       </c>
       <c r="L90" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M90" t="n">
         <v>1.06</v>
@@ -13284,10 +13292,10 @@
         <v>10</v>
       </c>
       <c r="O90" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P90" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q90" t="n">
         <v>2.1</v>
@@ -13308,13 +13316,13 @@
         <v>2.63</v>
       </c>
       <c r="W90" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X90" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y90" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z90" t="n">
         <v>8</v>
@@ -13338,10 +13346,10 @@
         <v>7</v>
       </c>
       <c r="AG90" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH90" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI90" t="n">
         <v>800</v>
@@ -13356,7 +13364,7 @@
         <v>15</v>
       </c>
       <c r="AM90" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN90" t="n">
         <v>41</v>
@@ -13542,22 +13550,22 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J92" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K92" t="n">
         <v>2</v>
       </c>
       <c r="L92" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M92" t="n">
         <v>1.08</v>
@@ -13572,10 +13580,10 @@
         <v>2.75</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R92" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S92" t="n">
         <v>4.33</v>
@@ -13590,66 +13598,70 @@
         <v>2.5</v>
       </c>
       <c r="W92" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X92" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y92" t="n">
         <v>6</v>
       </c>
       <c r="Z92" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA92" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB92" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC92" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD92" t="n">
         <v>34</v>
       </c>
       <c r="AE92" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF92" t="n">
         <v>6.5</v>
       </c>
       <c r="AG92" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH92" t="n">
         <v>67</v>
       </c>
       <c r="AI92" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AJ92" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK92" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL92" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM92" t="n">
         <v>41</v>
       </c>
       <c r="AN92" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO92" t="n">
         <v>41</v>
       </c>
       <c r="AP92" t="inlineStr"/>
       <c r="AQ92" t="inlineStr"/>
-      <c r="AR92" t="inlineStr"/>
-      <c r="AS92" t="inlineStr"/>
+      <c r="AR92" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -13683,7 +13695,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
         <v>3.4</v>
@@ -13698,7 +13710,7 @@
         <v>2.05</v>
       </c>
       <c r="L93" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M93" t="n">
         <v>1.08</v>
@@ -13746,7 +13758,7 @@
         <v>9</v>
       </c>
       <c r="AB93" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC93" t="n">
         <v>17</v>
@@ -13828,13 +13840,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H94" t="n">
         <v>3.6</v>
       </c>
       <c r="I94" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J94" t="n">
         <v>2.4</v>
@@ -13915,7 +13927,7 @@
         <v>251</v>
       </c>
       <c r="AJ94" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK94" t="n">
         <v>23</v>
@@ -13927,7 +13939,7 @@
         <v>51</v>
       </c>
       <c r="AN94" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO94" t="n">
         <v>41</v>
@@ -13969,13 +13981,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H95" t="n">
         <v>3</v>
       </c>
       <c r="I95" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J95" t="n">
         <v>3.25</v>
@@ -13984,13 +13996,13 @@
         <v>1.95</v>
       </c>
       <c r="L95" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M95" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N95" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O95" t="n">
         <v>1.44</v>
@@ -14026,7 +14038,7 @@
         <v>6.5</v>
       </c>
       <c r="Z95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA95" t="n">
         <v>10</v>
@@ -14056,10 +14068,10 @@
         <v>501</v>
       </c>
       <c r="AJ95" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK95" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL95" t="n">
         <v>12</v>
@@ -14114,70 +14126,70 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H96" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I96" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K96" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L96" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M96" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N96" t="n">
         <v>9</v>
       </c>
       <c r="O96" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P96" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R96" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S96" t="n">
         <v>4</v>
       </c>
       <c r="T96" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U96" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V96" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W96" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X96" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y96" t="n">
         <v>7</v>
       </c>
       <c r="Z96" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA96" t="n">
         <v>10</v>
       </c>
-      <c r="AA96" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AB96" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC96" t="n">
         <v>21</v>
@@ -14186,7 +14198,7 @@
         <v>34</v>
       </c>
       <c r="AE96" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF96" t="n">
         <v>6</v>
@@ -14195,19 +14207,19 @@
         <v>17</v>
       </c>
       <c r="AH96" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI96" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ96" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK96" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM96" t="n">
         <v>34</v>
@@ -14220,8 +14232,12 @@
       </c>
       <c r="AP96" t="inlineStr"/>
       <c r="AQ96" t="inlineStr"/>
-      <c r="AR96" t="inlineStr"/>
-      <c r="AS96" t="inlineStr"/>
+      <c r="AR96" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -14255,31 +14271,31 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H97" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="I97" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="J97" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K97" t="n">
         <v>1.83</v>
       </c>
       <c r="L97" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M97" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N97" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O97" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P97" t="n">
         <v>2.25</v>
@@ -14294,13 +14310,13 @@
         <v>6</v>
       </c>
       <c r="T97" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="U97" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V97" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W97" t="n">
         <v>2.25</v>
@@ -14309,19 +14325,19 @@
         <v>1.57</v>
       </c>
       <c r="Y97" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA97" t="n">
         <v>13</v>
       </c>
       <c r="AB97" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC97" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD97" t="n">
         <v>51</v>
@@ -14342,19 +14358,19 @@
         <v>101</v>
       </c>
       <c r="AJ97" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AK97" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL97" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM97" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AN97" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AO97" t="n">
         <v>41</v>
@@ -14400,16 +14416,16 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H98" t="n">
         <v>3.2</v>
       </c>
       <c r="I98" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J98" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K98" t="n">
         <v>1.95</v>
@@ -14418,16 +14434,16 @@
         <v>3.4</v>
       </c>
       <c r="M98" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N98" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O98" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P98" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q98" t="n">
         <v>2.4</v>
@@ -14436,10 +14452,10 @@
         <v>1.53</v>
       </c>
       <c r="S98" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T98" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="U98" t="n">
         <v>1.53</v>
@@ -14487,7 +14503,7 @@
         <v>501</v>
       </c>
       <c r="AJ98" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK98" t="n">
         <v>11</v>
@@ -14507,10 +14523,10 @@
       <c r="AP98" t="inlineStr"/>
       <c r="AQ98" t="inlineStr"/>
       <c r="AR98" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -14545,22 +14561,22 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="H99" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I99" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="J99" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="K99" t="n">
         <v>1.91</v>
       </c>
       <c r="L99" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M99" t="n">
         <v>1.1</v>
@@ -14575,16 +14591,16 @@
         <v>2.5</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R99" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S99" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T99" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U99" t="n">
         <v>1.57</v>
@@ -14599,16 +14615,16 @@
         <v>1.62</v>
       </c>
       <c r="Y99" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA99" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB99" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC99" t="n">
         <v>21</v>
@@ -14617,7 +14633,7 @@
         <v>41</v>
       </c>
       <c r="AE99" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF99" t="n">
         <v>6.5</v>
@@ -14632,30 +14648,30 @@
         <v>101</v>
       </c>
       <c r="AJ99" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK99" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL99" t="n">
         <v>15</v>
-      </c>
-      <c r="AL99" t="n">
-        <v>13</v>
       </c>
       <c r="AM99" t="n">
         <v>41</v>
       </c>
       <c r="AN99" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO99" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP99" t="inlineStr"/>
       <c r="AQ99" t="inlineStr"/>
       <c r="AR99" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="100">
@@ -14690,100 +14706,100 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="H100" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I100" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J100" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="K100" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L100" t="n">
         <v>5.5</v>
       </c>
       <c r="M100" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N100" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O100" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P100" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="R100" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="S100" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="T100" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="U100" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="V100" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W100" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="X100" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="Y100" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z100" t="n">
         <v>7.5</v>
       </c>
       <c r="AA100" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB100" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC100" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>501</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL100" t="n">
         <v>15</v>
-      </c>
-      <c r="AD100" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE100" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF100" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG100" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH100" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI100" t="n">
-        <v>401</v>
-      </c>
-      <c r="AJ100" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK100" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL100" t="n">
-        <v>17</v>
       </c>
       <c r="AM100" t="n">
         <v>51</v>
@@ -14792,12 +14808,16 @@
         <v>41</v>
       </c>
       <c r="AO100" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP100" t="inlineStr"/>
       <c r="AQ100" t="inlineStr"/>
-      <c r="AR100" t="inlineStr"/>
-      <c r="AS100" t="inlineStr"/>
+      <c r="AR100" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -14831,16 +14851,16 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I101" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J101" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K101" t="n">
         <v>1.95</v>
@@ -14894,13 +14914,13 @@
         <v>10</v>
       </c>
       <c r="AB101" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC101" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD101" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE101" t="n">
         <v>7</v>
@@ -14918,13 +14938,13 @@
         <v>451</v>
       </c>
       <c r="AJ101" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK101" t="n">
         <v>15</v>
       </c>
       <c r="AL101" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM101" t="n">
         <v>34</v>
@@ -14938,10 +14958,10 @@
       <c r="AP101" t="inlineStr"/>
       <c r="AQ101" t="inlineStr"/>
       <c r="AR101" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="102">
@@ -14976,46 +14996,46 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="H102" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I102" t="n">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="J102" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="K102" t="n">
         <v>2.1</v>
       </c>
       <c r="L102" t="n">
+        <v>3</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N102" t="n">
+        <v>11</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P102" t="n">
         <v>3.5</v>
       </c>
-      <c r="M102" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N102" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O102" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P102" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Q102" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="R102" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="S102" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T102" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U102" t="n">
         <v>1.4</v>
@@ -15030,25 +15050,25 @@
         <v>2</v>
       </c>
       <c r="Y102" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z102" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA102" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE102" t="n">
         <v>10</v>
-      </c>
-      <c r="AB102" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD102" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE102" t="n">
-        <v>9.5</v>
       </c>
       <c r="AF102" t="n">
         <v>6.5</v>
@@ -15057,28 +15077,28 @@
         <v>13</v>
       </c>
       <c r="AH102" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI102" t="n">
         <v>201</v>
       </c>
       <c r="AJ102" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK102" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AL102" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AM102" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AN102" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AO102" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AP102" t="inlineStr"/>
       <c r="AQ102" t="inlineStr"/>
@@ -15117,103 +15137,103 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I103" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="J103" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K103" t="n">
         <v>1.91</v>
       </c>
       <c r="L103" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M103" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N103" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O103" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P103" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R103" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S103" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T103" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U103" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V103" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W103" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X103" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y103" t="n">
         <v>7</v>
       </c>
       <c r="Z103" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA103" t="n">
         <v>12</v>
       </c>
-      <c r="AA103" t="n">
-        <v>11</v>
-      </c>
       <c r="AB103" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC103" t="n">
         <v>29</v>
-      </c>
-      <c r="AC103" t="n">
-        <v>26</v>
       </c>
       <c r="AD103" t="n">
         <v>41</v>
       </c>
       <c r="AE103" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF103" t="n">
         <v>6</v>
       </c>
       <c r="AG103" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH103" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI103" t="n">
         <v>1250</v>
       </c>
       <c r="AJ103" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK103" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL103" t="n">
         <v>11</v>
       </c>
       <c r="AM103" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN103" t="n">
         <v>26</v>
@@ -15224,10 +15244,10 @@
       <c r="AP103" t="inlineStr"/>
       <c r="AQ103" t="inlineStr"/>
       <c r="AR103" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="104">
@@ -15262,22 +15282,22 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I104" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J104" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K104" t="n">
         <v>2.2</v>
       </c>
       <c r="L104" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M104" t="n">
         <v>1.05</v>
@@ -15286,16 +15306,16 @@
         <v>11</v>
       </c>
       <c r="O104" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P104" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R104" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S104" t="n">
         <v>3.25</v>
@@ -15319,13 +15339,13 @@
         <v>7.5</v>
       </c>
       <c r="Z104" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA104" t="n">
         <v>8.5</v>
       </c>
       <c r="AB104" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC104" t="n">
         <v>15</v>
@@ -15334,10 +15354,10 @@
         <v>26</v>
       </c>
       <c r="AE104" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF104" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG104" t="n">
         <v>15</v>
@@ -15349,13 +15369,13 @@
         <v>251</v>
       </c>
       <c r="AJ104" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL104" t="n">
         <v>13</v>
-      </c>
-      <c r="AK104" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL104" t="n">
-        <v>15</v>
       </c>
       <c r="AM104" t="n">
         <v>41</v>
@@ -15403,40 +15423,40 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="H105" t="n">
         <v>3.25</v>
       </c>
       <c r="I105" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="J105" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K105" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L105" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M105" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N105" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O105" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P105" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R105" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S105" t="n">
         <v>3.75</v>
@@ -15451,34 +15471,34 @@
         <v>2.63</v>
       </c>
       <c r="W105" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X105" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y105" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z105" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB105" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC105" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD105" t="n">
         <v>34</v>
       </c>
       <c r="AE105" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF105" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG105" t="n">
         <v>15</v>
@@ -15493,19 +15513,19 @@
         <v>8.5</v>
       </c>
       <c r="AK105" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL105" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM105" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN105" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO105" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP105" t="inlineStr"/>
       <c r="AQ105" t="inlineStr"/>
@@ -15544,13 +15564,13 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H106" t="n">
         <v>3.1</v>
       </c>
       <c r="I106" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J106" t="n">
         <v>3.6</v>
@@ -15559,13 +15579,13 @@
         <v>1.95</v>
       </c>
       <c r="L106" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M106" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N106" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O106" t="n">
         <v>1.44</v>
@@ -15601,7 +15621,7 @@
         <v>7</v>
       </c>
       <c r="Z106" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA106" t="n">
         <v>11</v>
@@ -15616,25 +15636,25 @@
         <v>41</v>
       </c>
       <c r="AE106" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF106" t="n">
         <v>6</v>
       </c>
       <c r="AG106" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH106" t="n">
         <v>67</v>
       </c>
       <c r="AI106" t="n">
-        <v>101</v>
+        <v>1000</v>
       </c>
       <c r="AJ106" t="n">
         <v>7</v>
       </c>
       <c r="AK106" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL106" t="n">
         <v>11</v>
@@ -15643,7 +15663,7 @@
         <v>26</v>
       </c>
       <c r="AN106" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO106" t="n">
         <v>41</v>
@@ -15651,10 +15671,10 @@
       <c r="AP106" t="inlineStr"/>
       <c r="AQ106" t="inlineStr"/>
       <c r="AR106" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -15955,16 +15975,16 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H109" t="n">
         <v>3.3</v>
       </c>
       <c r="I109" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J109" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K109" t="n">
         <v>2.05</v>
@@ -15973,22 +15993,22 @@
         <v>3.1</v>
       </c>
       <c r="M109" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N109" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O109" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P109" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R109" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S109" t="n">
         <v>3.75</v>
@@ -16003,13 +16023,13 @@
         <v>2.63</v>
       </c>
       <c r="W109" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X109" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y109" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z109" t="n">
         <v>15</v>
@@ -16018,7 +16038,7 @@
         <v>11</v>
       </c>
       <c r="AB109" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC109" t="n">
         <v>26</v>
@@ -16039,7 +16059,7 @@
         <v>51</v>
       </c>
       <c r="AI109" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ109" t="n">
         <v>7.5</v>
@@ -16051,10 +16071,10 @@
         <v>9.5</v>
       </c>
       <c r="AM109" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN109" t="n">
         <v>21</v>
-      </c>
-      <c r="AN109" t="n">
-        <v>19</v>
       </c>
       <c r="AO109" t="n">
         <v>29</v>
@@ -16096,16 +16116,16 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H110" t="n">
         <v>3.4</v>
       </c>
       <c r="I110" t="n">
+        <v>3</v>
+      </c>
+      <c r="J110" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>3</v>
       </c>
       <c r="K110" t="n">
         <v>2.1</v>
@@ -16117,7 +16137,7 @@
         <v>1.06</v>
       </c>
       <c r="N110" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O110" t="n">
         <v>1.33</v>
@@ -16150,7 +16170,7 @@
         <v>1.95</v>
       </c>
       <c r="Y110" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z110" t="n">
         <v>11</v>
@@ -16159,7 +16179,7 @@
         <v>9.5</v>
       </c>
       <c r="AB110" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC110" t="n">
         <v>19</v>
@@ -16192,10 +16212,10 @@
         <v>11</v>
       </c>
       <c r="AM110" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN110" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO110" t="n">
         <v>34</v>
@@ -16237,13 +16257,13 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H111" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I111" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J111" t="n">
         <v>2.75</v>
@@ -16261,22 +16281,22 @@
         <v>10</v>
       </c>
       <c r="O111" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>2</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S111" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T111" t="n">
         <v>1.3</v>
-      </c>
-      <c r="P111" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R111" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S111" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T111" t="n">
-        <v>1.29</v>
       </c>
       <c r="U111" t="n">
         <v>1.4</v>
@@ -16306,7 +16326,7 @@
         <v>17</v>
       </c>
       <c r="AD111" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE111" t="n">
         <v>10</v>
@@ -16378,7 +16398,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H112" t="n">
         <v>6</v>
@@ -16393,7 +16413,7 @@
         <v>2.75</v>
       </c>
       <c r="L112" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M112" t="n">
         <v>1.02</v>
@@ -16450,10 +16470,10 @@
         <v>23</v>
       </c>
       <c r="AE112" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF112" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG112" t="n">
         <v>21</v>
@@ -16468,10 +16488,10 @@
         <v>26</v>
       </c>
       <c r="AK112" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL112" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM112" t="n">
         <v>101</v>
@@ -16523,102 +16543,102 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.05</v>
+        <v>4.35</v>
       </c>
       <c r="H113" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I113" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="J113" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K113" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L113" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P113" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R113" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S113" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="T113" t="n">
         <v>1.32</v>
       </c>
       <c r="U113" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V113" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="W113" t="n">
         <v>1.7</v>
       </c>
       <c r="X113" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Y113" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="Z113" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA113" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB113" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AC113" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD113" t="n">
         <v>45</v>
       </c>
       <c r="AE113" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF113" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AG113" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH113" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI113" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AJ113" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AK113" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AL113" t="n">
         <v>8</v>
       </c>
       <c r="AM113" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN113" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO113" t="n">
         <v>24</v>
@@ -16818,25 +16838,25 @@
         <v>1.04</v>
       </c>
       <c r="N115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O115" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P115" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R115" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S115" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T115" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U115" t="n">
         <v>1.33</v>
@@ -16944,7 +16964,7 @@
         <v>4</v>
       </c>
       <c r="I116" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J116" t="n">
         <v>2.2</v>
@@ -16953,7 +16973,7 @@
         <v>2.4</v>
       </c>
       <c r="L116" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M116" t="n">
         <v>1.03</v>
@@ -16962,22 +16982,22 @@
         <v>15</v>
       </c>
       <c r="O116" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P116" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R116" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="S116" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="T116" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U116" t="n">
         <v>1.3</v>
@@ -16986,10 +17006,10 @@
         <v>3.4</v>
       </c>
       <c r="W116" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X116" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y116" t="n">
         <v>9</v>
@@ -17043,10 +17063,10 @@
         <v>34</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AR116" t="inlineStr"/>
       <c r="AS116" t="inlineStr"/>
@@ -17083,22 +17103,22 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="H117" t="n">
         <v>3</v>
       </c>
       <c r="I117" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="J117" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="K117" t="n">
         <v>2</v>
       </c>
       <c r="L117" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M117" t="n">
         <v>1.08</v>
@@ -17125,43 +17145,43 @@
         <v>1.2</v>
       </c>
       <c r="U117" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V117" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W117" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X117" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y117" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z117" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA117" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB117" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC117" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AD117" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE117" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF117" t="n">
         <v>6</v>
       </c>
       <c r="AG117" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH117" t="n">
         <v>51</v>
@@ -17170,22 +17190,22 @@
         <v>351</v>
       </c>
       <c r="AJ117" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK117" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AL117" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM117" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO117" t="n">
         <v>34</v>
-      </c>
-      <c r="AN117" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO117" t="n">
-        <v>41</v>
       </c>
       <c r="AP117" t="inlineStr"/>
       <c r="AQ117" t="inlineStr"/>
@@ -17228,28 +17248,28 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H118" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I118" t="n">
         <v>5</v>
       </c>
       <c r="J118" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K118" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L118" t="n">
         <v>5.5</v>
       </c>
       <c r="M118" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N118" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O118" t="n">
         <v>1.4</v>
@@ -17258,31 +17278,31 @@
         <v>2.75</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R118" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S118" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V118" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W118" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X118" t="n">
         <v>1.62</v>
       </c>
-      <c r="S118" t="n">
-        <v>4</v>
-      </c>
-      <c r="T118" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U118" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V118" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W118" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X118" t="n">
-        <v>1.67</v>
-      </c>
       <c r="Y118" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z118" t="n">
         <v>7</v>
@@ -17294,16 +17314,16 @@
         <v>13</v>
       </c>
       <c r="AC118" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD118" t="n">
         <v>34</v>
       </c>
       <c r="AE118" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF118" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG118" t="n">
         <v>19</v>
@@ -17315,10 +17335,10 @@
         <v>101</v>
       </c>
       <c r="AJ118" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK118" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL118" t="n">
         <v>17</v>
@@ -17372,19 +17392,19 @@
         <v>2.8</v>
       </c>
       <c r="H119" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I119" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J119" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K119" t="n">
         <v>2.05</v>
       </c>
       <c r="L119" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M119" t="n">
         <v>1.07</v>
@@ -17399,10 +17419,10 @@
         <v>3</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R119" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S119" t="n">
         <v>4</v>
@@ -17411,10 +17431,10 @@
         <v>1.22</v>
       </c>
       <c r="U119" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V119" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W119" t="n">
         <v>1.91</v>
@@ -17441,10 +17461,10 @@
         <v>34</v>
       </c>
       <c r="AE119" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF119" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG119" t="n">
         <v>17</v>
@@ -17462,10 +17482,10 @@
         <v>11</v>
       </c>
       <c r="AL119" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM119" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN119" t="n">
         <v>21</v>
@@ -17536,10 +17556,10 @@
         <v>2.5</v>
       </c>
       <c r="M120" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N120" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O120" t="n">
         <v>1.33</v>
@@ -17548,16 +17568,16 @@
         <v>3.25</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R120" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S120" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T120" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U120" t="n">
         <v>1.44</v>
@@ -17590,7 +17610,7 @@
         <v>41</v>
       </c>
       <c r="AE120" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF120" t="n">
         <v>6.5</v>
@@ -17602,7 +17622,7 @@
         <v>51</v>
       </c>
       <c r="AI120" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ120" t="n">
         <v>6.5</v>
@@ -17667,16 +17687,16 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H121" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I121" t="n">
         <v>15</v>
       </c>
       <c r="J121" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K121" t="n">
         <v>2.88</v>
@@ -17685,10 +17705,10 @@
         <v>11</v>
       </c>
       <c r="M121" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N121" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O121" t="n">
         <v>1.14</v>
@@ -17703,10 +17723,10 @@
         <v>2.6</v>
       </c>
       <c r="S121" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T121" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U121" t="n">
         <v>1.25</v>
@@ -17724,10 +17744,10 @@
         <v>8.5</v>
       </c>
       <c r="Z121" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA121" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB121" t="n">
         <v>7</v>
@@ -17742,10 +17762,10 @@
         <v>15</v>
       </c>
       <c r="AF121" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG121" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH121" t="n">
         <v>81</v>
@@ -17760,7 +17780,7 @@
         <v>67</v>
       </c>
       <c r="AL121" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM121" t="n">
         <v>201</v>
@@ -17987,10 +18007,10 @@
         <v>3.5</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R123" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S123" t="n">
         <v>3.25</v>
@@ -18246,10 +18266,10 @@
         <v>2.15</v>
       </c>
       <c r="H125" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I125" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J125" t="n">
         <v>2.88</v>
@@ -18267,28 +18287,28 @@
         <v>10</v>
       </c>
       <c r="O125" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P125" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R125" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S125" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T125" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U125" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V125" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W125" t="n">
         <v>1.8</v>
@@ -18297,10 +18317,10 @@
         <v>1.91</v>
       </c>
       <c r="Y125" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z125" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA125" t="n">
         <v>9.5</v>
@@ -18315,7 +18335,7 @@
         <v>29</v>
       </c>
       <c r="AE125" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF125" t="n">
         <v>6.5</v>
@@ -18330,7 +18350,7 @@
         <v>251</v>
       </c>
       <c r="AJ125" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK125" t="n">
         <v>17</v>
@@ -18384,16 +18404,16 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H126" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I126" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J126" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K126" t="n">
         <v>2.38</v>
@@ -18432,13 +18452,13 @@
         <v>3.25</v>
       </c>
       <c r="W126" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X126" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y126" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z126" t="n">
         <v>8.5</v>
@@ -18468,7 +18488,7 @@
         <v>41</v>
       </c>
       <c r="AI126" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ126" t="n">
         <v>15</v>
@@ -18483,7 +18503,7 @@
         <v>51</v>
       </c>
       <c r="AN126" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO126" t="n">
         <v>41</v>
@@ -18531,16 +18551,16 @@
         <v>4.33</v>
       </c>
       <c r="I127" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="J127" t="n">
         <v>7</v>
       </c>
       <c r="K127" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L127" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M127" t="n">
         <v>1.04</v>
@@ -18555,10 +18575,10 @@
         <v>4</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R127" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S127" t="n">
         <v>2.75</v>
@@ -18567,10 +18587,10 @@
         <v>1.4</v>
       </c>
       <c r="U127" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V127" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W127" t="n">
         <v>2</v>
@@ -18582,7 +18602,7 @@
         <v>17</v>
       </c>
       <c r="Z127" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA127" t="n">
         <v>21</v>
@@ -18621,7 +18641,7 @@
         <v>8.5</v>
       </c>
       <c r="AM127" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN127" t="n">
         <v>12</v>
@@ -18666,22 +18686,22 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H128" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I128" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J128" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K128" t="n">
         <v>1.91</v>
       </c>
       <c r="L128" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M128" t="n">
         <v>1.11</v>
@@ -18714,16 +18734,16 @@
         <v>2.25</v>
       </c>
       <c r="W128" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X128" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y128" t="n">
         <v>9</v>
       </c>
       <c r="Z128" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA128" t="n">
         <v>17</v>
@@ -18744,17 +18764,17 @@
         <v>6.5</v>
       </c>
       <c r="AG128" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH128" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI128" t="inlineStr"/>
       <c r="AJ128" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AK128" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AL128" t="n">
         <v>9.5</v>
@@ -18771,10 +18791,10 @@
       <c r="AP128" t="inlineStr"/>
       <c r="AQ128" t="inlineStr"/>
       <c r="AR128" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="129">
@@ -19240,13 +19260,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H132" t="n">
         <v>3</v>
       </c>
       <c r="I132" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J132" t="n">
         <v>3.2</v>
@@ -19261,7 +19281,7 @@
         <v>1.07</v>
       </c>
       <c r="N132" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O132" t="n">
         <v>1.33</v>
@@ -19294,10 +19314,10 @@
         <v>1.83</v>
       </c>
       <c r="Y132" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z132" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA132" t="n">
         <v>10</v>
@@ -19327,19 +19347,19 @@
         <v>251</v>
       </c>
       <c r="AJ132" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK132" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL132" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM132" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN132" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO132" t="n">
         <v>34</v>
@@ -19405,10 +19425,10 @@
         <v>9</v>
       </c>
       <c r="O133" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P133" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q133" t="n">
         <v>2.1</v>
@@ -19540,10 +19560,10 @@
         <v>4.75</v>
       </c>
       <c r="M134" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N134" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O134" t="n">
         <v>1.3</v>
@@ -19579,7 +19599,7 @@
         <v>7</v>
       </c>
       <c r="Z134" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA134" t="n">
         <v>8.5</v>
@@ -19591,7 +19611,7 @@
         <v>15</v>
       </c>
       <c r="AD134" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE134" t="n">
         <v>10</v>
@@ -19609,7 +19629,7 @@
         <v>301</v>
       </c>
       <c r="AJ134" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK134" t="n">
         <v>21</v>
@@ -19618,7 +19638,7 @@
         <v>15</v>
       </c>
       <c r="AM134" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN134" t="n">
         <v>34</v>
@@ -19804,13 +19824,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H136" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I136" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J136" t="n">
         <v>1.67</v>
@@ -19819,13 +19839,13 @@
         <v>2.63</v>
       </c>
       <c r="L136" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M136" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N136" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O136" t="n">
         <v>1.14</v>
@@ -19852,13 +19872,13 @@
         <v>3.75</v>
       </c>
       <c r="W136" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X136" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y136" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z136" t="n">
         <v>7</v>
@@ -19882,13 +19902,13 @@
         <v>12</v>
       </c>
       <c r="AG136" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH136" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI136" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AJ136" t="n">
         <v>23</v>
@@ -19897,7 +19917,7 @@
         <v>41</v>
       </c>
       <c r="AL136" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM136" t="n">
         <v>101</v>
@@ -19967,10 +19987,10 @@
         <v>6</v>
       </c>
       <c r="M137" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N137" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O137" t="n">
         <v>1.2</v>
@@ -20018,7 +20038,7 @@
         <v>12</v>
       </c>
       <c r="AD137" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE137" t="n">
         <v>13</v>
@@ -20118,10 +20138,10 @@
         <v>12</v>
       </c>
       <c r="O138" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P138" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q138" t="n">
         <v>1.8</v>
@@ -20130,10 +20150,10 @@
         <v>2</v>
       </c>
       <c r="S138" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T138" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U138" t="n">
         <v>1.36</v>
@@ -20169,7 +20189,7 @@
         <v>12</v>
       </c>
       <c r="AF138" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG138" t="n">
         <v>13</v>
@@ -20181,7 +20201,7 @@
         <v>151</v>
       </c>
       <c r="AJ138" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK138" t="n">
         <v>12</v>
@@ -20376,13 +20396,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H140" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I140" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3.5</v>
       </c>
       <c r="J140" t="n">
         <v>2.75</v>
@@ -20424,13 +20444,13 @@
         <v>2.75</v>
       </c>
       <c r="W140" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X140" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y140" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z140" t="n">
         <v>10</v>
@@ -20460,7 +20480,7 @@
         <v>51</v>
       </c>
       <c r="AI140" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ140" t="n">
         <v>10</v>
@@ -20472,10 +20492,10 @@
         <v>12</v>
       </c>
       <c r="AM140" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN140" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO140" t="n">
         <v>34</v>
@@ -20517,52 +20537,52 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="H141" t="n">
         <v>3.3</v>
       </c>
       <c r="I141" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="J141" t="n">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="K141" t="n">
         <v>2.12</v>
       </c>
       <c r="L141" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="M141" t="n">
         <v>1.06</v>
       </c>
       <c r="N141" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="O141" t="n">
         <v>1.28</v>
       </c>
       <c r="P141" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R141" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S141" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="T141" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="U141" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V141" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="W141" t="n">
         <v>1.7</v>
@@ -20571,25 +20591,25 @@
         <v>2.05</v>
       </c>
       <c r="Y141" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Z141" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AA141" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB141" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC141" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD141" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE141" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AF141" t="n">
         <v>6.5</v>
@@ -20604,19 +20624,19 @@
         <v>400</v>
       </c>
       <c r="AJ141" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL141" t="n">
         <v>10.75</v>
       </c>
-      <c r="AK141" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL141" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AM141" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN141" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AO141" t="n">
         <v>32</v>
@@ -20799,101 +20819,101 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="H143" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="I143" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J143" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="K143" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L143" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="P143" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="R143" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="S143" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T143" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="U143" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="V143" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="W143" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="X143" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="Y143" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z143" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AA143" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB143" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AC143" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AD143" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AE143" t="n">
         <v>30</v>
       </c>
       <c r="AF143" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AG143" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AH143" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AI143" t="inlineStr"/>
       <c r="AJ143" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="AK143" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="AL143" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="AM143" t="inlineStr"/>
       <c r="AN143" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO143" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="AP143" t="inlineStr"/>
       <c r="AQ143" t="inlineStr"/>
@@ -21073,7 +21093,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="H145" t="n">
         <v>3.35</v>
@@ -21085,10 +21105,10 @@
         <v>2.62</v>
       </c>
       <c r="K145" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L145" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="M145" t="n">
         <v>1.06</v>
@@ -21115,10 +21135,10 @@
         <v>1.35</v>
       </c>
       <c r="U145" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V145" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="W145" t="n">
         <v>1.7</v>
@@ -21127,10 +21147,10 @@
         <v>2.05</v>
       </c>
       <c r="Y145" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z145" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AA145" t="n">
         <v>8.5</v>
@@ -21148,7 +21168,7 @@
         <v>7.4</v>
       </c>
       <c r="AF145" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AG145" t="n">
         <v>13</v>
@@ -21163,7 +21183,7 @@
         <v>10.5</v>
       </c>
       <c r="AK145" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL145" t="n">
         <v>11.75</v>
@@ -21214,109 +21234,109 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H146" t="n">
         <v>3.15</v>
       </c>
       <c r="I146" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="J146" t="n">
         <v>3.8</v>
       </c>
       <c r="K146" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L146" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="M146" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N146" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O146" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P146" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="Q146" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R146" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S146" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T146" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="U146" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="V146" t="n">
-        <v>2.6</v>
+        <v>2.77</v>
       </c>
       <c r="W146" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X146" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y146" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z146" t="n">
         <v>16.5</v>
       </c>
       <c r="AA146" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB146" t="n">
         <v>45</v>
       </c>
       <c r="AC146" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AD146" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE146" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AF146" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AG146" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH146" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI146" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AJ146" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AK146" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AL146" t="n">
         <v>8.75</v>
       </c>
       <c r="AM146" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN146" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO146" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP146" t="inlineStr"/>
       <c r="AQ146" t="inlineStr"/>
@@ -21355,106 +21375,106 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="H147" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="I147" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="J147" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="K147" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L147" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M147" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N147" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O147" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="P147" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R147" t="n">
         <v>2.05</v>
       </c>
-      <c r="R147" t="n">
-        <v>1.75</v>
-      </c>
       <c r="S147" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="T147" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="U147" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="V147" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="W147" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="X147" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Y147" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z147" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA147" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB147" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AC147" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD147" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE147" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF147" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG147" t="n">
         <v>15</v>
       </c>
       <c r="AH147" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI147" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ147" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK147" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AL147" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM147" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN147" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO147" t="n">
         <v>34</v>
@@ -21496,22 +21516,22 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H148" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I148" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="J148" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K148" t="n">
         <v>2.05</v>
       </c>
       <c r="L148" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M148" t="n">
         <v>1.07</v>
@@ -21544,25 +21564,25 @@
         <v>2.63</v>
       </c>
       <c r="W148" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X148" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y148" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z148" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA148" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB148" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC148" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD148" t="n">
         <v>29</v>
@@ -21571,10 +21591,10 @@
         <v>8.5</v>
       </c>
       <c r="AF148" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG148" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH148" t="n">
         <v>51</v>
@@ -21583,19 +21603,19 @@
         <v>351</v>
       </c>
       <c r="AJ148" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK148" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL148" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM148" t="n">
         <v>41</v>
       </c>
       <c r="AN148" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO148" t="n">
         <v>41</v>
@@ -21637,22 +21657,22 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H149" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I149" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J149" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K149" t="n">
         <v>2.2</v>
       </c>
       <c r="L149" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M149" t="n">
         <v>1.06</v>
@@ -21661,22 +21681,22 @@
         <v>10</v>
       </c>
       <c r="O149" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P149" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="R149" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="S149" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T149" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U149" t="n">
         <v>1.4</v>
@@ -21808,16 +21828,16 @@
         <v>3.5</v>
       </c>
       <c r="Q150" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R150" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S150" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T150" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U150" t="n">
         <v>1.4</v>
@@ -21919,22 +21939,22 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H151" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I151" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="J151" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K151" t="n">
         <v>2.2</v>
       </c>
       <c r="L151" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M151" t="n">
         <v>1.05</v>
@@ -21967,22 +21987,22 @@
         <v>2.75</v>
       </c>
       <c r="W151" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X151" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y151" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z151" t="n">
         <v>21</v>
       </c>
       <c r="AA151" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB151" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC151" t="n">
         <v>34</v>
@@ -21991,25 +22011,25 @@
         <v>41</v>
       </c>
       <c r="AE151" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF151" t="n">
         <v>7</v>
       </c>
       <c r="AG151" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH151" t="n">
         <v>51</v>
       </c>
       <c r="AI151" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ151" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK151" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL151" t="n">
         <v>8.5</v>
@@ -22075,13 +22095,13 @@
         <v>2.1</v>
       </c>
       <c r="L152" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M152" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N152" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O152" t="n">
         <v>1.3</v>
@@ -22093,7 +22113,7 @@
         <v>2.05</v>
       </c>
       <c r="R152" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S152" t="n">
         <v>3.5</v>
@@ -22132,7 +22152,7 @@
         <v>29</v>
       </c>
       <c r="AE152" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF152" t="n">
         <v>6</v>
@@ -22346,22 +22366,22 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H154" t="n">
         <v>2.9</v>
       </c>
       <c r="I154" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J154" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K154" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L154" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M154" t="n">
         <v>1.08</v>
@@ -22388,10 +22408,10 @@
         <v>1.2</v>
       </c>
       <c r="U154" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V154" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W154" t="n">
         <v>1.91</v>
@@ -22415,10 +22435,10 @@
         <v>23</v>
       </c>
       <c r="AD154" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE154" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF154" t="n">
         <v>5.5</v>
@@ -22433,7 +22453,7 @@
         <v>351</v>
       </c>
       <c r="AJ154" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK154" t="n">
         <v>13</v>
@@ -22505,10 +22525,10 @@
         <v>3.25</v>
       </c>
       <c r="M155" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N155" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O155" t="n">
         <v>1.36</v>
@@ -22517,10 +22537,10 @@
         <v>3</v>
       </c>
       <c r="Q155" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R155" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S155" t="n">
         <v>4</v>
@@ -22646,10 +22666,10 @@
         <v>3.5</v>
       </c>
       <c r="M156" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N156" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O156" t="n">
         <v>1.3</v>
@@ -22799,10 +22819,10 @@
         <v>4</v>
       </c>
       <c r="Q157" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R157" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S157" t="n">
         <v>2.75</v>
@@ -22931,25 +22951,25 @@
         <v>1.04</v>
       </c>
       <c r="N158" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O158" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P158" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R158" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S158" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T158" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U158" t="n">
         <v>1.36</v>
@@ -23192,22 +23212,22 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="H160" t="n">
         <v>3.3</v>
       </c>
       <c r="I160" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="J160" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K160" t="n">
         <v>2.1</v>
       </c>
       <c r="L160" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M160" t="n">
         <v>1.06</v>
@@ -23216,7 +23236,7 @@
         <v>7.5</v>
       </c>
       <c r="O160" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P160" t="n">
         <v>3.4</v>
@@ -23255,13 +23275,13 @@
         <v>9.25</v>
       </c>
       <c r="AB160" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC160" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AD160" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE160" t="n">
         <v>7.5</v>
@@ -23279,22 +23299,22 @@
         <v>350</v>
       </c>
       <c r="AJ160" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK160" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL160" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AM160" t="n">
         <v>32</v>
       </c>
       <c r="AN160" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO160" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP160" t="inlineStr"/>
       <c r="AQ160" t="inlineStr"/>
@@ -23333,22 +23353,22 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H161" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I161" t="n">
         <v>3.2</v>
       </c>
       <c r="J161" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="K161" t="n">
         <v>2.27</v>
       </c>
       <c r="L161" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M161" t="n">
         <v>1.04</v>
@@ -23357,19 +23377,19 @@
         <v>8.5</v>
       </c>
       <c r="O161" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P161" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="Q161" t="n">
         <v>1.65</v>
       </c>
       <c r="R161" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S161" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="T161" t="n">
         <v>1.45</v>
@@ -23384,7 +23404,7 @@
         <v>1.6</v>
       </c>
       <c r="X161" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Y161" t="n">
         <v>9.25</v>
@@ -23408,7 +23428,7 @@
         <v>8.5</v>
       </c>
       <c r="AF161" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AG161" t="n">
         <v>13</v>
@@ -23474,22 +23494,22 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="H162" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I162" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="J162" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="K162" t="n">
         <v>1.91</v>
       </c>
       <c r="L162" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="M162" t="n">
         <v>1.09</v>
@@ -23498,46 +23518,46 @@
         <v>6.1</v>
       </c>
       <c r="O162" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P162" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="Q162" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R162" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S162" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T162" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="U162" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V162" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="W162" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X162" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="Y162" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z162" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA162" t="n">
         <v>12.5</v>
       </c>
       <c r="AB162" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AC162" t="n">
         <v>37</v>
@@ -23552,10 +23572,10 @@
         <v>5.8</v>
       </c>
       <c r="AG162" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH162" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI162" t="n">
         <v>700</v>
@@ -23564,16 +23584,16 @@
         <v>6.3</v>
       </c>
       <c r="AK162" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AL162" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AM162" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AN162" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO162" t="n">
         <v>32</v>
@@ -23615,22 +23635,22 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H163" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I163" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="J163" t="n">
-        <v>4.2</v>
+        <v>4.55</v>
       </c>
       <c r="K163" t="n">
         <v>2.35</v>
       </c>
       <c r="L163" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="M163" t="n">
         <v>1.03</v>
@@ -23651,73 +23671,73 @@
         <v>2.37</v>
       </c>
       <c r="S163" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="T163" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U163" t="n">
         <v>1.29</v>
       </c>
       <c r="V163" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="W163" t="n">
         <v>1.52</v>
       </c>
       <c r="X163" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Y163" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z163" t="n">
         <v>29</v>
       </c>
       <c r="AA163" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB163" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AC163" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD163" t="n">
         <v>32</v>
-      </c>
-      <c r="AD163" t="n">
-        <v>29</v>
       </c>
       <c r="AE163" t="n">
         <v>9</v>
       </c>
       <c r="AF163" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AG163" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH163" t="n">
         <v>40</v>
       </c>
       <c r="AI163" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ163" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AK163" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AL163" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AM163" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AN163" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AO163" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AP163" t="inlineStr"/>
       <c r="AQ163" t="inlineStr"/>
@@ -23756,52 +23776,52 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="H164" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I164" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="J164" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="K164" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L164" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="M164" t="n">
         <v>1.05</v>
       </c>
       <c r="N164" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O164" t="n">
         <v>1.25</v>
       </c>
       <c r="P164" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q164" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R164" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S164" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="T164" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="U164" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="V164" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="W164" t="n">
         <v>1.7</v>
@@ -23810,52 +23830,52 @@
         <v>2.05</v>
       </c>
       <c r="Y164" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z164" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA164" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB164" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC164" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AD164" t="n">
         <v>37</v>
       </c>
       <c r="AE164" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AF164" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AG164" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH164" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI164" t="n">
         <v>400</v>
       </c>
       <c r="AJ164" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AK164" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL164" t="n">
         <v>8.25</v>
       </c>
       <c r="AM164" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN164" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO164" t="n">
         <v>23</v>
@@ -23897,43 +23917,43 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H165" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="I165" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J165" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="K165" t="n">
         <v>2.25</v>
       </c>
       <c r="L165" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M165" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N165" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="O165" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P165" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q165" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R165" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S165" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="T165" t="n">
         <v>1.4</v>
@@ -23942,25 +23962,25 @@
         <v>1.36</v>
       </c>
       <c r="V165" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="W165" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X165" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Y165" t="n">
         <v>7.3</v>
       </c>
       <c r="Z165" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AA165" t="n">
         <v>8</v>
       </c>
       <c r="AB165" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AC165" t="n">
         <v>12</v>
@@ -23969,13 +23989,13 @@
         <v>24</v>
       </c>
       <c r="AE165" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AF165" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AG165" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH165" t="n">
         <v>70</v>
@@ -23984,13 +24004,13 @@
         <v>500</v>
       </c>
       <c r="AJ165" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK165" t="n">
         <v>32</v>
       </c>
       <c r="AL165" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AM165" t="n">
         <v>100</v>
@@ -24320,40 +24340,40 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H168" t="n">
         <v>7</v>
       </c>
       <c r="I168" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J168" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K168" t="n">
         <v>2.75</v>
       </c>
       <c r="L168" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M168" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N168" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O168" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P168" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q168" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R168" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S168" t="n">
         <v>2.25</v>
@@ -24368,13 +24388,13 @@
         <v>3.75</v>
       </c>
       <c r="W168" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X168" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y168" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z168" t="n">
         <v>6.5</v>
@@ -24383,7 +24403,7 @@
         <v>9.5</v>
       </c>
       <c r="AB168" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC168" t="n">
         <v>11</v>
@@ -24398,10 +24418,10 @@
         <v>13</v>
       </c>
       <c r="AG168" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH168" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI168" t="n">
         <v>301</v>
@@ -24410,10 +24430,10 @@
         <v>23</v>
       </c>
       <c r="AK168" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL168" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM168" t="n">
         <v>126</v>
@@ -24425,10 +24445,10 @@
         <v>51</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AQ168" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AR168" t="inlineStr"/>
       <c r="AS168" t="inlineStr"/>
@@ -24495,16 +24515,16 @@
         <v>3.5</v>
       </c>
       <c r="Q169" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R169" t="n">
         <v>1.88</v>
       </c>
-      <c r="R169" t="n">
-        <v>1.93</v>
-      </c>
       <c r="S169" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T169" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U169" t="n">
         <v>1.4</v>
@@ -24627,7 +24647,7 @@
         <v>1.08</v>
       </c>
       <c r="N170" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O170" t="n">
         <v>1.44</v>
@@ -24636,16 +24656,16 @@
         <v>2.63</v>
       </c>
       <c r="Q170" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R170" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S170" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T170" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U170" t="n">
         <v>1.53</v>
@@ -24713,10 +24733,10 @@
       <c r="AP170" t="inlineStr"/>
       <c r="AQ170" t="inlineStr"/>
       <c r="AR170" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -24751,22 +24771,22 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H171" t="n">
         <v>3.4</v>
       </c>
       <c r="I171" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J171" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K171" t="n">
         <v>2.2</v>
       </c>
       <c r="L171" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M171" t="n">
         <v>1.05</v>
@@ -24805,7 +24825,7 @@
         <v>2</v>
       </c>
       <c r="Y171" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z171" t="n">
         <v>17</v>
@@ -24892,16 +24912,16 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H172" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I172" t="n">
         <v>2.63</v>
       </c>
       <c r="J172" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K172" t="n">
         <v>2.1</v>
@@ -24916,37 +24936,37 @@
         <v>10</v>
       </c>
       <c r="O172" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P172" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q172" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="R172" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="S172" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T172" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U172" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V172" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W172" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X172" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y172" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z172" t="n">
         <v>12</v>
@@ -24955,16 +24975,16 @@
         <v>10</v>
       </c>
       <c r="AB172" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC172" t="n">
         <v>21</v>
       </c>
       <c r="AD172" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE172" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF172" t="n">
         <v>6.5</v>
@@ -24976,10 +24996,10 @@
         <v>51</v>
       </c>
       <c r="AI172" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ172" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK172" t="n">
         <v>13</v>
@@ -24988,13 +25008,13 @@
         <v>10</v>
       </c>
       <c r="AM172" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN172" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO172" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP172" t="inlineStr"/>
       <c r="AQ172" t="inlineStr"/>
@@ -25170,105 +25190,105 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="H174" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I174" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="J174" t="n">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="K174" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L174" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P174" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q174" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R174" t="n">
         <v>1.57</v>
       </c>
       <c r="S174" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T174" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="U174" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="V174" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W174" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="X174" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Y174" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z174" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA174" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB174" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC174" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AD174" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE174" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AF174" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AG174" t="n">
         <v>18</v>
       </c>
       <c r="AH174" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI174" t="n">
         <v>900</v>
       </c>
       <c r="AJ174" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK174" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AL174" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM174" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AN174" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AO174" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AP174" t="inlineStr"/>
       <c r="AQ174" t="inlineStr"/>
@@ -25307,34 +25327,34 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="H175" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="I175" t="n">
         <v>3.4</v>
       </c>
       <c r="J175" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K175" t="n">
         <v>1.8</v>
       </c>
       <c r="L175" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="M175" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N175" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O175" t="n">
         <v>1.47</v>
       </c>
       <c r="P175" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="Q175" t="n">
         <v>2.35</v>
@@ -25355,19 +25375,19 @@
         <v>2.1</v>
       </c>
       <c r="W175" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="X175" t="n">
         <v>1.7</v>
       </c>
       <c r="Y175" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z175" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA175" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB175" t="n">
         <v>26</v>
@@ -25376,13 +25396,13 @@
         <v>23</v>
       </c>
       <c r="AD175" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE175" t="n">
         <v>6.1</v>
       </c>
       <c r="AF175" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AG175" t="n">
         <v>15.5</v>
@@ -25394,16 +25414,16 @@
         <v>900</v>
       </c>
       <c r="AJ175" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AK175" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL175" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AM175" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN175" t="n">
         <v>37</v>
@@ -25448,61 +25468,61 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H176" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I176" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J176" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K176" t="n">
         <v>2.25</v>
       </c>
-      <c r="K176" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L176" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M176" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N176" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O176" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P176" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q176" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R176" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S176" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T176" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U176" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V176" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W176" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="X176" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="Y176" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z176" t="n">
         <v>8.5</v>
@@ -25511,34 +25531,34 @@
         <v>8.5</v>
       </c>
       <c r="AB176" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC176" t="n">
         <v>13</v>
       </c>
       <c r="AD176" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE176" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF176" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG176" t="n">
         <v>15</v>
       </c>
       <c r="AH176" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI176" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ176" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK176" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL176" t="n">
         <v>15</v>
@@ -25593,22 +25613,22 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="H177" t="n">
         <v>3.75</v>
       </c>
       <c r="I177" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="J177" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K177" t="n">
         <v>2.25</v>
       </c>
       <c r="L177" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M177" t="n">
         <v>1.04</v>
@@ -25647,22 +25667,22 @@
         <v>2.2</v>
       </c>
       <c r="Y177" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z177" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA177" t="n">
         <v>10</v>
       </c>
       <c r="AB177" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD177" t="n">
         <v>26</v>
-      </c>
-      <c r="AC177" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD177" t="n">
-        <v>23</v>
       </c>
       <c r="AE177" t="n">
         <v>13</v>
@@ -25683,16 +25703,16 @@
         <v>10</v>
       </c>
       <c r="AK177" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL177" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM177" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN177" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO177" t="n">
         <v>23</v>
@@ -25738,19 +25758,19 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H178" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I178" t="n">
         <v>3.4</v>
       </c>
       <c r="J178" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K178" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L178" t="n">
         <v>3.75</v>
@@ -25759,40 +25779,40 @@
         <v>1.03</v>
       </c>
       <c r="N178" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O178" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P178" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q178" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R178" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S178" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T178" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U178" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V178" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W178" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X178" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y178" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z178" t="n">
         <v>12</v>
@@ -25810,25 +25830,25 @@
         <v>21</v>
       </c>
       <c r="AE178" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF178" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG178" t="n">
         <v>12</v>
       </c>
       <c r="AH178" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI178" t="n">
         <v>126</v>
       </c>
       <c r="AJ178" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK178" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL178" t="n">
         <v>12</v>
@@ -25843,10 +25863,10 @@
         <v>26</v>
       </c>
       <c r="AP178" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="AR178" t="inlineStr"/>
       <c r="AS178" t="inlineStr"/>
@@ -25895,7 +25915,7 @@
         <v>2.5</v>
       </c>
       <c r="K179" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L179" t="n">
         <v>4</v>
@@ -26028,16 +26048,16 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H180" t="n">
         <v>3.8</v>
       </c>
       <c r="I180" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J180" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="K180" t="n">
         <v>2.3</v>
@@ -26088,13 +26108,13 @@
         <v>13</v>
       </c>
       <c r="AA180" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB180" t="n">
         <v>21</v>
       </c>
       <c r="AC180" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD180" t="n">
         <v>21</v>
@@ -26109,13 +26129,13 @@
         <v>12</v>
       </c>
       <c r="AH180" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI180" t="n">
         <v>126</v>
       </c>
       <c r="AJ180" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK180" t="n">
         <v>17</v>
@@ -26124,7 +26144,7 @@
         <v>11</v>
       </c>
       <c r="AM180" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN180" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-02.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -740,25 +740,25 @@
         <v>3.25</v>
       </c>
       <c r="W2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
         <v>8.5</v>
       </c>
       <c r="AB2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC2" t="n">
         <v>13</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>12</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
@@ -770,7 +770,7 @@
         <v>7.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
@@ -779,22 +779,22 @@
         <v>151</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -833,34 +833,34 @@
         </is>
       </c>
       <c r="G3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H3" t="n">
         <v>3.3</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
         <v>2.3</v>
@@ -875,64 +875,64 @@
         <v>1.22</v>
       </c>
       <c r="U3" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V3" t="n">
         <v>2.5</v>
       </c>
       <c r="W3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
         <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>29</v>
       </c>
       <c r="AD3" t="n">
         <v>41</v>
       </c>
       <c r="AE3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG3" t="n">
         <v>17</v>
       </c>
       <c r="AH3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI3" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
         <v>34</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1016,7 +1016,7 @@
         <v>1.33</v>
       </c>
       <c r="U4" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V4" t="n">
         <v>2.75</v>
@@ -1049,7 +1049,7 @@
         <v>10</v>
       </c>
       <c r="AF4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
@@ -1061,7 +1061,7 @@
         <v>201</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK4" t="n">
         <v>12</v>
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
@@ -1130,7 +1130,7 @@
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1139,10 +1139,10 @@
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
         <v>1.89</v>
@@ -1157,7 +1157,7 @@
         <v>1.36</v>
       </c>
       <c r="U5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V5" t="n">
         <v>3</v>
@@ -1175,13 +1175,13 @@
         <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD5" t="n">
         <v>34</v>
@@ -1202,16 +1202,16 @@
         <v>201</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
         <v>10</v>
       </c>
       <c r="AL5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN5" t="n">
         <v>15</v>
@@ -1277,7 +1277,7 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
         <v>1.17</v>
@@ -1298,7 +1298,7 @@
         <v>1.57</v>
       </c>
       <c r="U6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V6" t="n">
         <v>3.5</v>
@@ -1361,10 +1361,10 @@
         <v>41</v>
       </c>
       <c r="AP6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>1.92</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1.98</v>
       </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         <v>1.44</v>
       </c>
       <c r="U7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V7" t="n">
         <v>3.25</v>
@@ -1561,13 +1561,13 @@
         <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1588,10 +1588,10 @@
         <v>1.2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V8" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W8" t="n">
         <v>2</v>
@@ -1630,7 +1630,7 @@
         <v>67</v>
       </c>
       <c r="AI8" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AJ8" t="n">
         <v>7.5</v>
@@ -1653,10 +1653,10 @@
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="9">
@@ -1691,13 +1691,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J9" t="n">
         <v>4.75</v>
@@ -1733,7 +1733,7 @@
         <v>1.22</v>
       </c>
       <c r="U9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V9" t="n">
         <v>2.5</v>
@@ -1748,7 +1748,7 @@
         <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>15</v>
@@ -1787,7 +1787,7 @@
         <v>9</v>
       </c>
       <c r="AM9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN9" t="n">
         <v>17</v>
@@ -1836,19 +1836,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
         <v>5.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
         <v>6</v>
@@ -1860,10 +1860,10 @@
         <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q10" t="n">
         <v>2.1</v>
@@ -1878,10 +1878,10 @@
         <v>1.29</v>
       </c>
       <c r="U10" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V10" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W10" t="n">
         <v>2.05</v>
@@ -1899,19 +1899,19 @@
         <v>8.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
         <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
@@ -1920,10 +1920,10 @@
         <v>67</v>
       </c>
       <c r="AI10" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
@@ -1935,7 +1935,7 @@
         <v>67</v>
       </c>
       <c r="AN10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO10" t="n">
         <v>51</v>
@@ -1989,7 +1989,7 @@
         <v>2.63</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>4.75</v>
@@ -2001,10 +2001,10 @@
         <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
         <v>2.3</v>
@@ -2019,7 +2019,7 @@
         <v>1.22</v>
       </c>
       <c r="U11" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V11" t="n">
         <v>2.5</v>
@@ -2040,7 +2040,7 @@
         <v>9</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
         <v>17</v>
@@ -2061,10 +2061,10 @@
         <v>67</v>
       </c>
       <c r="AI11" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
         <v>21</v>
@@ -2118,97 +2118,97 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
         <v>4.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="S12" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U12" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="V12" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="W12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X12" t="n">
         <v>1.8</v>
       </c>
-      <c r="X12" t="n">
-        <v>1.95</v>
-      </c>
       <c r="Y12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA12" t="n">
         <v>9</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>8.5</v>
       </c>
       <c r="AB12" t="n">
         <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AF12" t="n">
         <v>6.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH12" t="n">
         <v>51</v>
       </c>
       <c r="AI12" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
         <v>13</v>
@@ -2289,10 +2289,10 @@
         <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="S13" t="n">
         <v>3</v>
@@ -2301,7 +2301,7 @@
         <v>1.4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V13" t="n">
         <v>3</v>
@@ -2400,13 +2400,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -2415,7 +2415,7 @@
         <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2424,16 +2424,16 @@
         <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S14" t="n">
         <v>3.4</v>
@@ -2442,10 +2442,10 @@
         <v>1.3</v>
       </c>
       <c r="U14" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="V14" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="W14" t="n">
         <v>1.8</v>
@@ -2454,7 +2454,7 @@
         <v>1.95</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
         <v>17</v>
@@ -2472,13 +2472,13 @@
         <v>34</v>
       </c>
       <c r="AE14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
         <v>51</v>
@@ -2496,13 +2496,13 @@
         <v>9</v>
       </c>
       <c r="AM14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN14" t="n">
         <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
@@ -2541,16 +2541,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H15" t="n">
         <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>2.5</v>
@@ -2565,34 +2565,34 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R15" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U15" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X15" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y15" t="n">
         <v>19</v>
@@ -2601,7 +2601,7 @@
         <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="n">
         <v>67</v>
@@ -2625,31 +2625,31 @@
         <v>51</v>
       </c>
       <c r="AI15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK15" t="n">
         <v>8</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>7.5</v>
       </c>
       <c r="AL15" t="n">
         <v>8.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN15" t="n">
         <v>11</v>
       </c>
       <c r="AO15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J17" t="n">
         <v>2.3</v>
@@ -2842,31 +2842,31 @@
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U17" t="n">
         <v>1.44</v>
@@ -2896,7 +2896,7 @@
         <v>15</v>
       </c>
       <c r="AD17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
         <v>8.5</v>
@@ -2968,16 +2968,16 @@
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.9</v>
       </c>
-      <c r="H18" t="n">
-        <v>2.88</v>
-      </c>
       <c r="I18" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
         <v>1.8</v>
@@ -2992,34 +2992,34 @@
         <v>5.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V18" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S18" t="n">
-        <v>7</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.13</v>
-      </c>
       <c r="W18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y18" t="n">
         <v>6</v>
@@ -3028,32 +3028,32 @@
         <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD18" t="n">
         <v>51</v>
       </c>
       <c r="AE18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AF18" t="n">
         <v>6</v>
       </c>
       <c r="AG18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK18" t="n">
         <v>11</v>
@@ -3065,7 +3065,7 @@
         <v>29</v>
       </c>
       <c r="AN18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO18" t="n">
         <v>51</v>
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H19" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
         <v>1.67</v>
       </c>
       <c r="K19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L19" t="n">
         <v>9</v>
@@ -3170,7 +3170,7 @@
         <v>9</v>
       </c>
       <c r="AB19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC19" t="n">
         <v>11</v>
@@ -3191,7 +3191,7 @@
         <v>67</v>
       </c>
       <c r="AI19" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AJ19" t="n">
         <v>26</v>
@@ -3212,10 +3212,10 @@
         <v>67</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
         <v>3.1</v>
       </c>
-      <c r="I20" t="n">
-        <v>3.5</v>
-      </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
         <v>1.83</v>
       </c>
       <c r="L20" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>1.13</v>
@@ -3282,22 +3282,22 @@
         <v>2.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T20" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U20" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W20" t="n">
         <v>2.25</v>
@@ -3306,19 +3306,19 @@
         <v>1.57</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD20" t="n">
         <v>41</v>
@@ -3337,19 +3337,19 @@
       </c>
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>13</v>
       </c>
       <c r="AM20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO20" t="n">
         <v>51</v>
@@ -3395,13 +3395,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
         <v>3.2</v>
@@ -3419,10 +3419,10 @@
         <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
         <v>2.3</v>
@@ -3467,7 +3467,7 @@
         <v>34</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF21" t="n">
         <v>6</v>
@@ -3485,16 +3485,16 @@
         <v>8</v>
       </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM21" t="n">
         <v>34</v>
       </c>
       <c r="AN21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>41</v>
@@ -4178,7 +4178,7 @@
         <v>1.1</v>
       </c>
       <c r="U26" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V26" t="n">
         <v>2.1</v>
@@ -4327,7 +4327,7 @@
         <v>1.11</v>
       </c>
       <c r="U27" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V27" t="n">
         <v>2.1</v>
@@ -4426,13 +4426,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H28" t="n">
         <v>2.8</v>
       </c>
       <c r="I28" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J28" t="n">
         <v>3.2</v>
@@ -4471,7 +4471,7 @@
         <v>1.73</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="W28" t="n">
         <v>2.5</v>
@@ -4495,7 +4495,7 @@
         <v>26</v>
       </c>
       <c r="AD28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -4513,7 +4513,7 @@
         <v>101</v>
       </c>
       <c r="AJ28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK28" t="n">
         <v>17</v>
@@ -4708,13 +4708,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H30" t="n">
         <v>2.7</v>
       </c>
       <c r="I30" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J30" t="n">
         <v>3</v>
@@ -4729,7 +4729,7 @@
         <v>1.17</v>
       </c>
       <c r="N30" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O30" t="n">
         <v>1.67</v>
@@ -4765,7 +4765,7 @@
         <v>5</v>
       </c>
       <c r="Z30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA30" t="n">
         <v>11</v>
@@ -5036,7 +5036,7 @@
         <v>1.13</v>
       </c>
       <c r="U32" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V32" t="n">
         <v>2.2</v>
@@ -5276,13 +5276,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H34" t="n">
         <v>2.8</v>
       </c>
       <c r="I34" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J34" t="n">
         <v>3</v>
@@ -5375,7 +5375,7 @@
         <v>51</v>
       </c>
       <c r="AN34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO34" t="n">
         <v>67</v>
@@ -5565,13 +5565,13 @@
         <v>1.67</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J36" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K36" t="n">
         <v>1.83</v>
@@ -5598,10 +5598,10 @@
         <v>1.36</v>
       </c>
       <c r="S36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="T36" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="U36" t="n">
         <v>1.67</v>
@@ -5652,16 +5652,16 @@
         <v>9</v>
       </c>
       <c r="AK36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL36" t="n">
         <v>21</v>
       </c>
       <c r="AM36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN36" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AO36" t="n">
         <v>81</v>
@@ -5713,7 +5713,7 @@
         <v>4.5</v>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J37" t="n">
         <v>2.05</v>
@@ -5728,7 +5728,7 @@
         <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O37" t="n">
         <v>1.11</v>
@@ -5737,16 +5737,16 @@
         <v>6.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R37" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T37" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="U37" t="n">
         <v>1.22</v>
@@ -5788,7 +5788,7 @@
         <v>12</v>
       </c>
       <c r="AH37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI37" t="n">
         <v>81</v>
@@ -5993,13 +5993,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H39" t="n">
         <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
         <v>2.63</v>
@@ -6008,7 +6008,7 @@
         <v>2.05</v>
       </c>
       <c r="L39" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M39" t="n">
         <v>1.07</v>
@@ -6017,16 +6017,16 @@
         <v>9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R39" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S39" t="n">
         <v>4</v>
@@ -6035,16 +6035,16 @@
         <v>1.22</v>
       </c>
       <c r="U39" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V39" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W39" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X39" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y39" t="n">
         <v>6.5</v>
@@ -6062,10 +6062,10 @@
         <v>17</v>
       </c>
       <c r="AD39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF39" t="n">
         <v>6.5</v>
@@ -6077,16 +6077,16 @@
         <v>51</v>
       </c>
       <c r="AI39" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AJ39" t="n">
         <v>10</v>
       </c>
       <c r="AK39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM39" t="n">
         <v>41</v>
@@ -6419,58 +6419,58 @@
         <v>3.4</v>
       </c>
       <c r="H42" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I42" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J42" t="n">
         <v>4</v>
       </c>
       <c r="K42" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
         <v>2.88</v>
       </c>
       <c r="M42" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="S42" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="T42" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="U42" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V42" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W42" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X42" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z42" t="n">
         <v>17</v>
@@ -6488,37 +6488,37 @@
         <v>41</v>
       </c>
       <c r="AE42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH42" t="n">
         <v>51</v>
       </c>
       <c r="AI42" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK42" t="n">
         <v>9.5</v>
       </c>
       <c r="AL42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN42" t="n">
         <v>19</v>
       </c>
       <c r="AO42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
@@ -6581,22 +6581,22 @@
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P43" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R43" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S43" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T43" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U43" t="n">
         <v>1.33</v>
@@ -6847,22 +6847,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H45" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I45" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J45" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K45" t="n">
         <v>2.3</v>
       </c>
       <c r="L45" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M45" t="n">
         <v>1.04</v>
@@ -6871,22 +6871,22 @@
         <v>13</v>
       </c>
       <c r="O45" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R45" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T45" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U45" t="n">
         <v>1.33</v>
@@ -6895,16 +6895,16 @@
         <v>3.25</v>
       </c>
       <c r="W45" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X45" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA45" t="n">
         <v>8.5</v>
@@ -6919,13 +6919,13 @@
         <v>23</v>
       </c>
       <c r="AE45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF45" t="n">
         <v>7</v>
       </c>
       <c r="AG45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH45" t="n">
         <v>41</v>
@@ -6934,22 +6934,22 @@
         <v>151</v>
       </c>
       <c r="AJ45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK45" t="n">
         <v>23</v>
       </c>
       <c r="AL45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO45" t="n">
         <v>41</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>34</v>
       </c>
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
@@ -7018,10 +7018,10 @@
         <v>3.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R46" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S46" t="n">
         <v>3.25</v>
@@ -7129,7 +7129,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H47" t="n">
         <v>3.5</v>
@@ -7138,7 +7138,7 @@
         <v>2.88</v>
       </c>
       <c r="J47" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K47" t="n">
         <v>2</v>
@@ -7150,7 +7150,7 @@
         <v>1.07</v>
       </c>
       <c r="N47" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O47" t="n">
         <v>1.4</v>
@@ -7159,16 +7159,16 @@
         <v>2.75</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R47" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T47" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U47" t="n">
         <v>1.5</v>
@@ -7186,13 +7186,13 @@
         <v>7</v>
       </c>
       <c r="Z47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA47" t="n">
         <v>10</v>
       </c>
       <c r="AB47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC47" t="n">
         <v>21</v>
@@ -7564,16 +7564,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H50" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J50" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K50" t="n">
         <v>2.38</v>
@@ -7588,22 +7588,22 @@
         <v>15</v>
       </c>
       <c r="O50" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P50" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R50" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S50" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T50" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U50" t="n">
         <v>1.3</v>
@@ -7627,7 +7627,7 @@
         <v>15</v>
       </c>
       <c r="AB50" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC50" t="n">
         <v>34</v>
@@ -7675,10 +7675,10 @@
         <v>1.8</v>
       </c>
       <c r="AR50" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS50" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="51">
@@ -7862,28 +7862,28 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="H52" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I52" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="J52" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="K52" t="n">
         <v>2.2</v>
       </c>
       <c r="L52" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O52" t="n">
         <v>1.29</v>
@@ -7892,16 +7892,16 @@
         <v>3.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R52" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S52" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T52" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U52" t="n">
         <v>1.4</v>
@@ -7910,61 +7910,61 @@
         <v>2.75</v>
       </c>
       <c r="W52" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X52" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y52" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA52" t="n">
         <v>9</v>
       </c>
-      <c r="Z52" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA52" t="n">
+      <c r="AB52" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE52" t="n">
         <v>10</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>11</v>
       </c>
       <c r="AF52" t="n">
         <v>6.5</v>
       </c>
       <c r="AG52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI52" t="n">
         <v>201</v>
       </c>
       <c r="AJ52" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK52" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AL52" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AM52" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN52" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AO52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP52" t="inlineStr"/>
       <c r="AQ52" t="inlineStr"/>
@@ -8003,64 +8003,64 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H53" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="I53" t="n">
         <v>5.75</v>
       </c>
       <c r="J53" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K53" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L53" t="n">
         <v>5.5</v>
       </c>
       <c r="M53" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N53" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O53" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="P53" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="R53" t="n">
-        <v>2.15</v>
+        <v>1.82</v>
       </c>
       <c r="S53" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="T53" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="U53" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="V53" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="W53" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="X53" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Y53" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA53" t="n">
         <v>8.5</v>
@@ -8069,34 +8069,34 @@
         <v>12</v>
       </c>
       <c r="AC53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD53" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AE53" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ53" t="n">
         <v>15</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>17</v>
       </c>
       <c r="AK53" t="n">
         <v>29</v>
       </c>
       <c r="AL53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM53" t="n">
         <v>51</v>
@@ -8148,28 +8148,28 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H54" t="n">
         <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J54" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K54" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L54" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O54" t="n">
         <v>1.44</v>
@@ -8208,10 +8208,10 @@
         <v>9.5</v>
       </c>
       <c r="AA54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC54" t="n">
         <v>21</v>
@@ -8220,7 +8220,7 @@
         <v>34</v>
       </c>
       <c r="AE54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF54" t="n">
         <v>6</v>
@@ -8235,7 +8235,7 @@
         <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK54" t="n">
         <v>17</v>
@@ -8259,10 +8259,10 @@
         <v>1.28</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="55">
@@ -8408,10 +8408,10 @@
         <v>1.24</v>
       </c>
       <c r="AR55" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="56">
@@ -8449,7 +8449,7 @@
         <v>1.8</v>
       </c>
       <c r="H56" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I56" t="n">
         <v>4.75</v>
@@ -8470,22 +8470,22 @@
         <v>10</v>
       </c>
       <c r="O56" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P56" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="R56" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S56" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T56" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U56" t="n">
         <v>1.4</v>
@@ -8494,13 +8494,13 @@
         <v>2.75</v>
       </c>
       <c r="W56" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X56" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y56" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z56" t="n">
         <v>8.5</v>
@@ -8518,7 +8518,7 @@
         <v>26</v>
       </c>
       <c r="AE56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF56" t="n">
         <v>6.5</v>
@@ -8605,10 +8605,10 @@
         <v>3.75</v>
       </c>
       <c r="M57" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N57" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O57" t="n">
         <v>1.5</v>
@@ -8694,10 +8694,10 @@
       <c r="AP57" t="inlineStr"/>
       <c r="AQ57" t="inlineStr"/>
       <c r="AR57" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="58">
@@ -8744,7 +8744,7 @@
         <v>1.34</v>
       </c>
       <c r="K58" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L58" t="n">
         <v>15</v>
@@ -8759,52 +8759,52 @@
         <v>1.11</v>
       </c>
       <c r="P58" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="R58" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="S58" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T58" t="n">
         <v>1.88</v>
-      </c>
-      <c r="T58" t="n">
-        <v>1.85</v>
       </c>
       <c r="U58" t="n">
         <v>1.17</v>
       </c>
       <c r="V58" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="W58" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="X58" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Y58" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z58" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AA58" t="n">
         <v>12.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AC58" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AD58" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE58" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF58" t="n">
         <v>19.5</v>
@@ -8873,13 +8873,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H59" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J59" t="n">
         <v>2.05</v>
@@ -8891,46 +8891,46 @@
         <v>6.5</v>
       </c>
       <c r="M59" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N59" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O59" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P59" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R59" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="S59" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T59" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U59" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="V59" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W59" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X59" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y59" t="n">
         <v>6.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA59" t="n">
         <v>8.5</v>
@@ -8954,10 +8954,10 @@
         <v>19</v>
       </c>
       <c r="AH59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI59" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ59" t="n">
         <v>17</v>
@@ -9014,28 +9014,28 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H60" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I60" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K60" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L60" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M60" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O60" t="n">
         <v>1.29</v>
@@ -9056,40 +9056,40 @@
         <v>1.3</v>
       </c>
       <c r="U60" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V60" t="n">
         <v>2.75</v>
       </c>
       <c r="W60" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X60" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y60" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA60" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB60" t="n">
         <v>21</v>
       </c>
       <c r="AC60" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD60" t="n">
         <v>26</v>
       </c>
       <c r="AE60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF60" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG60" t="n">
         <v>13</v>
@@ -9101,19 +9101,19 @@
         <v>201</v>
       </c>
       <c r="AJ60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL60" t="n">
         <v>11</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>12</v>
       </c>
       <c r="AM60" t="n">
         <v>34</v>
       </c>
       <c r="AN60" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO60" t="n">
         <v>34</v>
@@ -9179,25 +9179,25 @@
         <v>15</v>
       </c>
       <c r="O61" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P61" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R61" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S61" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T61" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U61" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V61" t="n">
         <v>3.4</v>
@@ -9338,7 +9338,7 @@
         <v>1.57</v>
       </c>
       <c r="U62" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V62" t="n">
         <v>3.75</v>
@@ -9471,19 +9471,19 @@
         <v>4</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R63" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S63" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T63" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U63" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V63" t="n">
         <v>3</v>
@@ -9582,22 +9582,22 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H64" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I64" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J64" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K64" t="n">
         <v>2.38</v>
       </c>
       <c r="L64" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M64" t="n">
         <v>1.03</v>
@@ -9639,7 +9639,7 @@
         <v>9</v>
       </c>
       <c r="Z64" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA64" t="n">
         <v>8.5</v>
@@ -9657,7 +9657,7 @@
         <v>15</v>
       </c>
       <c r="AF64" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG64" t="n">
         <v>13</v>
@@ -9672,16 +9672,16 @@
         <v>15</v>
       </c>
       <c r="AK64" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM64" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN64" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO64" t="n">
         <v>34</v>
@@ -9727,22 +9727,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
         <v>3.6</v>
       </c>
       <c r="I65" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J65" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K65" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M65" t="n">
         <v>1.03</v>
@@ -9751,28 +9751,28 @@
         <v>15</v>
       </c>
       <c r="O65" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P65" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R65" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S65" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T65" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U65" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V65" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W65" t="n">
         <v>1.57</v>
@@ -9781,16 +9781,16 @@
         <v>2.25</v>
       </c>
       <c r="Y65" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z65" t="n">
         <v>11</v>
       </c>
       <c r="AA65" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC65" t="n">
         <v>15</v>
@@ -9811,16 +9811,16 @@
         <v>41</v>
       </c>
       <c r="AI65" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK65" t="n">
         <v>21</v>
       </c>
       <c r="AL65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM65" t="n">
         <v>41</v>
@@ -9832,10 +9832,10 @@
         <v>29</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr"/>
@@ -10017,13 +10017,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H67" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J67" t="n">
         <v>2.1</v>
@@ -10071,7 +10071,7 @@
         <v>1.91</v>
       </c>
       <c r="Y67" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z67" t="n">
         <v>8</v>
@@ -10080,7 +10080,7 @@
         <v>8.5</v>
       </c>
       <c r="AB67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC67" t="n">
         <v>12</v>
@@ -10095,7 +10095,7 @@
         <v>8</v>
       </c>
       <c r="AG67" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH67" t="n">
         <v>51</v>
@@ -10162,19 +10162,19 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>3.4</v>
       </c>
       <c r="I68" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J68" t="n">
         <v>2.4</v>
       </c>
       <c r="K68" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L68" t="n">
         <v>4.33</v>
@@ -10204,10 +10204,10 @@
         <v>1.4</v>
       </c>
       <c r="U68" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V68" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W68" t="n">
         <v>1.67</v>
@@ -10228,7 +10228,7 @@
         <v>15</v>
       </c>
       <c r="AC68" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD68" t="n">
         <v>23</v>
@@ -10303,34 +10303,34 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H69" t="n">
         <v>3.4</v>
       </c>
       <c r="I69" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J69" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K69" t="n">
         <v>2.05</v>
       </c>
       <c r="L69" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M69" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N69" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="O69" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P69" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="Q69" t="n">
         <v>2.1</v>
@@ -10339,10 +10339,10 @@
         <v>1.7</v>
       </c>
       <c r="S69" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T69" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="U69" t="n">
         <v>1.42</v>
@@ -10369,7 +10369,7 @@
         <v>19</v>
       </c>
       <c r="AC69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD69" t="n">
         <v>29</v>
@@ -10387,10 +10387,10 @@
         <v>51</v>
       </c>
       <c r="AI69" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ69" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK69" t="n">
         <v>17</v>
@@ -10399,7 +10399,7 @@
         <v>12</v>
       </c>
       <c r="AM69" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN69" t="n">
         <v>29</v>
@@ -10588,49 +10588,49 @@
         <v>8.75</v>
       </c>
       <c r="H71" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I71" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="J71" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="K71" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="L71" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R71" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="S71" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="T71" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X71" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="Y71" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Z71" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA71" t="n">
         <v>23</v>
@@ -10639,43 +10639,43 @@
         <v>175</v>
       </c>
       <c r="AC71" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD71" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE71" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG71" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI71" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AJ71" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AK71" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AL71" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AM71" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AN71" t="n">
         <v>8.5</v>
       </c>
       <c r="AO71" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AP71" t="inlineStr"/>
       <c r="AQ71" t="inlineStr"/>
@@ -10714,22 +10714,22 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H72" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I72" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="J72" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K72" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L72" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
@@ -10740,10 +10740,10 @@
         <v>4.3</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R72" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="S72" t="n">
         <v>2.22</v>
@@ -10760,16 +10760,16 @@
         <v>2.28</v>
       </c>
       <c r="Y72" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z72" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA72" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB72" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC72" t="n">
         <v>22</v>
@@ -10778,22 +10778,22 @@
         <v>24</v>
       </c>
       <c r="AE72" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF72" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AG72" t="n">
         <v>11</v>
       </c>
       <c r="AH72" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI72" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AJ72" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AK72" t="n">
         <v>8.5</v>
@@ -10808,7 +10808,7 @@
         <v>10.75</v>
       </c>
       <c r="AO72" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AP72" t="inlineStr"/>
       <c r="AQ72" t="inlineStr"/>
@@ -10856,10 +10856,10 @@
         <v>2.7</v>
       </c>
       <c r="J73" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K73" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L73" t="n">
         <v>3.2</v>
@@ -10871,22 +10871,22 @@
         <v>15</v>
       </c>
       <c r="O73" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P73" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R73" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S73" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T73" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U73" t="n">
         <v>1.3</v>
@@ -10952,10 +10952,10 @@
         <v>23</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
@@ -10992,22 +10992,22 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L74" t="n">
         <v>3.75</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K74" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.6</v>
       </c>
       <c r="M74" t="n">
         <v>1.03</v>
@@ -11040,16 +11040,16 @@
         <v>3.4</v>
       </c>
       <c r="W74" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X74" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y74" t="n">
         <v>10</v>
       </c>
       <c r="Z74" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA74" t="n">
         <v>9</v>
@@ -11137,46 +11137,46 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H75" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I75" t="n">
         <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="K75" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L75" t="n">
         <v>3.4</v>
       </c>
       <c r="M75" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N75" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O75" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P75" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R75" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S75" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="T75" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U75" t="n">
         <v>1.3</v>
@@ -11185,10 +11185,10 @@
         <v>3.4</v>
       </c>
       <c r="W75" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X75" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y75" t="n">
         <v>11</v>
@@ -11203,7 +11203,7 @@
         <v>21</v>
       </c>
       <c r="AC75" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD75" t="n">
         <v>21</v>
@@ -11215,25 +11215,25 @@
         <v>7</v>
       </c>
       <c r="AG75" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH75" t="n">
         <v>34</v>
       </c>
       <c r="AI75" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ75" t="n">
         <v>13</v>
       </c>
       <c r="AK75" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL75" t="n">
         <v>11</v>
       </c>
       <c r="AM75" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN75" t="n">
         <v>21</v>
@@ -11242,10 +11242,10 @@
         <v>26</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>
@@ -11300,16 +11300,16 @@
         <v>4</v>
       </c>
       <c r="M76" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N76" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O76" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P76" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q76" t="n">
         <v>2.2</v>
@@ -11321,7 +11321,7 @@
         <v>4</v>
       </c>
       <c r="T76" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U76" t="n">
         <v>1.5</v>
@@ -11330,10 +11330,10 @@
         <v>2.5</v>
       </c>
       <c r="W76" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="X76" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Y76" t="n">
         <v>6.5</v>
@@ -11582,13 +11582,13 @@
         <v>5</v>
       </c>
       <c r="M78" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N78" t="n">
         <v>13</v>
       </c>
       <c r="O78" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -11603,7 +11603,7 @@
         <v>2.75</v>
       </c>
       <c r="T78" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U78" t="n">
         <v>1.33</v>
@@ -11612,10 +11612,10 @@
         <v>3.25</v>
       </c>
       <c r="W78" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X78" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Y78" t="n">
         <v>8</v>
@@ -11723,13 +11723,13 @@
         <v>3.75</v>
       </c>
       <c r="M79" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N79" t="n">
         <v>6</v>
       </c>
       <c r="O79" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P79" t="n">
         <v>2.2</v>
@@ -11744,7 +11744,7 @@
         <v>6.5</v>
       </c>
       <c r="T79" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="U79" t="n">
         <v>1.62</v>
@@ -11756,7 +11756,7 @@
         <v>2.2</v>
       </c>
       <c r="X79" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Y79" t="n">
         <v>6.5</v>
@@ -11854,58 +11854,58 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H80" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I80" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J80" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K80" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L80" t="n">
         <v>7</v>
       </c>
       <c r="M80" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N80" t="n">
         <v>10</v>
       </c>
       <c r="O80" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P80" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R80" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="S80" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T80" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="U80" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V80" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W80" t="n">
         <v>2.1</v>
       </c>
       <c r="X80" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Y80" t="n">
         <v>6</v>
@@ -11917,31 +11917,31 @@
         <v>8.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC80" t="n">
         <v>13</v>
       </c>
       <c r="AD80" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE80" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF80" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG80" t="n">
         <v>21</v>
       </c>
       <c r="AH80" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI80" t="n">
         <v>501</v>
       </c>
       <c r="AJ80" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK80" t="n">
         <v>34</v>
@@ -11959,16 +11959,16 @@
         <v>51</v>
       </c>
       <c r="AP80" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="AR80" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="81">
@@ -12003,13 +12003,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H81" t="n">
         <v>5</v>
       </c>
       <c r="I81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J81" t="n">
         <v>1.73</v>
@@ -12021,13 +12021,13 @@
         <v>9.5</v>
       </c>
       <c r="M81" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N81" t="n">
         <v>13</v>
       </c>
       <c r="O81" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -12042,7 +12042,7 @@
         <v>2.75</v>
       </c>
       <c r="T81" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U81" t="n">
         <v>1.33</v>
@@ -12054,13 +12054,13 @@
         <v>2.25</v>
       </c>
       <c r="X81" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Y81" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z81" t="n">
         <v>6</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>5.5</v>
       </c>
       <c r="AA81" t="n">
         <v>9</v>
@@ -12117,7 +12117,7 @@
         <v>1.38</v>
       </c>
       <c r="AS81" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="82">
@@ -12257,16 +12257,16 @@
         <v>34</v>
       </c>
       <c r="AP82" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AR82" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="83">
@@ -12301,22 +12301,22 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H83" t="n">
         <v>3.4</v>
       </c>
       <c r="I83" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K83" t="n">
         <v>2.25</v>
       </c>
       <c r="L83" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M83" t="n">
         <v>1.04</v>
@@ -12325,43 +12325,43 @@
         <v>13</v>
       </c>
       <c r="O83" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P83" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R83" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S83" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T83" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U83" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V83" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W83" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X83" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y83" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z83" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA83" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB83" t="n">
         <v>21</v>
@@ -12373,7 +12373,7 @@
         <v>23</v>
       </c>
       <c r="AE83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF83" t="n">
         <v>6.5</v>
@@ -12385,7 +12385,7 @@
         <v>41</v>
       </c>
       <c r="AI83" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ83" t="n">
         <v>12</v>
@@ -12394,16 +12394,16 @@
         <v>17</v>
       </c>
       <c r="AL83" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM83" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN83" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO83" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP83" t="inlineStr"/>
       <c r="AQ83" t="inlineStr"/>
@@ -12442,16 +12442,16 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H84" t="n">
         <v>3.4</v>
       </c>
       <c r="I84" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J84" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K84" t="n">
         <v>2.25</v>
@@ -12487,7 +12487,7 @@
         <v>1.33</v>
       </c>
       <c r="V84" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W84" t="n">
         <v>1.62</v>
@@ -12514,7 +12514,7 @@
         <v>26</v>
       </c>
       <c r="AE84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF84" t="n">
         <v>6.5</v>
@@ -12544,7 +12544,7 @@
         <v>19</v>
       </c>
       <c r="AO84" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP84" t="inlineStr"/>
       <c r="AQ84" t="inlineStr"/>
@@ -12625,7 +12625,7 @@
         <v>1.44</v>
       </c>
       <c r="U85" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V85" t="n">
         <v>3.4</v>
@@ -12754,10 +12754,10 @@
         <v>4.33</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R86" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S86" t="n">
         <v>2.63</v>
@@ -12766,7 +12766,7 @@
         <v>1.44</v>
       </c>
       <c r="U86" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V86" t="n">
         <v>3.25</v>
@@ -12998,53 +12998,53 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="I88" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="J88" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K88" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="L88" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P88" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R88" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S88" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="T88" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X88" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Y88" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Z88" t="n">
         <v>7.1</v>
@@ -13053,10 +13053,10 @@
         <v>8</v>
       </c>
       <c r="AB88" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AC88" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD88" t="n">
         <v>25</v>
@@ -13065,34 +13065,34 @@
         <v>11.5</v>
       </c>
       <c r="AF88" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG88" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH88" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI88" t="n">
         <v>600</v>
       </c>
       <c r="AJ88" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK88" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL88" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM88" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN88" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AO88" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AP88" t="inlineStr"/>
       <c r="AQ88" t="inlineStr"/>
@@ -13316,10 +13316,10 @@
         <v>2.63</v>
       </c>
       <c r="W90" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="X90" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Y90" t="n">
         <v>6.5</v>
@@ -13457,10 +13457,10 @@
         <v>3.25</v>
       </c>
       <c r="W91" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X91" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Y91" t="n">
         <v>15</v>
@@ -13550,22 +13550,22 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="H92" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I92" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K92" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L92" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M92" t="n">
         <v>1.08</v>
@@ -13574,10 +13574,10 @@
         <v>8</v>
       </c>
       <c r="O92" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P92" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q92" t="n">
         <v>2.35</v>
@@ -13586,37 +13586,37 @@
         <v>1.57</v>
       </c>
       <c r="S92" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T92" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U92" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V92" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W92" t="n">
         <v>2</v>
       </c>
       <c r="X92" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Y92" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA92" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB92" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC92" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD92" t="n">
         <v>34</v>
@@ -13625,7 +13625,7 @@
         <v>7.5</v>
       </c>
       <c r="AF92" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG92" t="n">
         <v>17</v>
@@ -13637,19 +13637,19 @@
         <v>451</v>
       </c>
       <c r="AJ92" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AK92" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL92" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM92" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN92" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO92" t="n">
         <v>41</v>
@@ -13657,10 +13657,10 @@
       <c r="AP92" t="inlineStr"/>
       <c r="AQ92" t="inlineStr"/>
       <c r="AR92" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="93">
@@ -13695,7 +13695,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H93" t="n">
         <v>3.4</v>
@@ -13710,25 +13710,25 @@
         <v>2.05</v>
       </c>
       <c r="L93" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M93" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N93" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O93" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P93" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R93" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S93" t="n">
         <v>4</v>
@@ -13746,7 +13746,7 @@
         <v>2.05</v>
       </c>
       <c r="X93" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Y93" t="n">
         <v>6</v>
@@ -13758,7 +13758,7 @@
         <v>9</v>
       </c>
       <c r="AB93" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC93" t="n">
         <v>17</v>
@@ -13840,19 +13840,19 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H94" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I94" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J94" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K94" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L94" t="n">
         <v>4.75</v>
@@ -13864,37 +13864,37 @@
         <v>10</v>
       </c>
       <c r="O94" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T94" t="n">
         <v>1.29</v>
       </c>
-      <c r="P94" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R94" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S94" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T94" t="n">
-        <v>1.3</v>
-      </c>
       <c r="U94" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V94" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W94" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="X94" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="Y94" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z94" t="n">
         <v>8.5</v>
@@ -13909,13 +13909,13 @@
         <v>15</v>
       </c>
       <c r="AD94" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE94" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF94" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG94" t="n">
         <v>15</v>
@@ -13924,19 +13924,19 @@
         <v>51</v>
       </c>
       <c r="AI94" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ94" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK94" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL94" t="n">
         <v>15</v>
       </c>
       <c r="AM94" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN94" t="n">
         <v>34</v>
@@ -14706,22 +14706,22 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H100" t="n">
         <v>3.4</v>
       </c>
       <c r="I100" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J100" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K100" t="n">
         <v>2</v>
       </c>
       <c r="L100" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M100" t="n">
         <v>1.08</v>
@@ -14754,16 +14754,16 @@
         <v>2.38</v>
       </c>
       <c r="W100" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X100" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y100" t="n">
         <v>5.5</v>
       </c>
       <c r="Z100" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA100" t="n">
         <v>9</v>
@@ -14778,16 +14778,16 @@
         <v>34</v>
       </c>
       <c r="AE100" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF100" t="n">
         <v>6.5</v>
       </c>
       <c r="AG100" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH100" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI100" t="n">
         <v>501</v>
@@ -14851,16 +14851,16 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H101" t="n">
         <v>3.1</v>
       </c>
       <c r="I101" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J101" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K101" t="n">
         <v>1.95</v>
@@ -14881,10 +14881,10 @@
         <v>2.63</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R101" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S101" t="n">
         <v>4.5</v>
@@ -14914,13 +14914,13 @@
         <v>10</v>
       </c>
       <c r="AB101" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC101" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD101" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE101" t="n">
         <v>7</v>
@@ -14958,10 +14958,10 @@
       <c r="AP101" t="inlineStr"/>
       <c r="AQ101" t="inlineStr"/>
       <c r="AR101" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="102">
@@ -15882,10 +15882,10 @@
       <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr"/>
       <c r="W108" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="X108" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Y108" t="n">
         <v>7</v>
@@ -16116,7 +16116,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H110" t="n">
         <v>3.4</v>
@@ -16125,7 +16125,7 @@
         <v>3</v>
       </c>
       <c r="J110" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K110" t="n">
         <v>2.1</v>
@@ -16137,19 +16137,19 @@
         <v>1.06</v>
       </c>
       <c r="N110" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O110" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P110" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q110" t="n">
         <v>2.05</v>
       </c>
       <c r="R110" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S110" t="n">
         <v>3.5</v>
@@ -16179,7 +16179,7 @@
         <v>9.5</v>
       </c>
       <c r="AB110" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC110" t="n">
         <v>19</v>
@@ -16203,7 +16203,7 @@
         <v>251</v>
       </c>
       <c r="AJ110" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK110" t="n">
         <v>15</v>
@@ -16212,7 +16212,7 @@
         <v>11</v>
       </c>
       <c r="AM110" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN110" t="n">
         <v>23</v>
@@ -16257,19 +16257,19 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
         <v>3.5</v>
       </c>
       <c r="I111" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J111" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K111" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L111" t="n">
         <v>4</v>
@@ -16287,10 +16287,10 @@
         <v>3.5</v>
       </c>
       <c r="Q111" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R111" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S111" t="n">
         <v>3.4</v>
@@ -16314,13 +16314,13 @@
         <v>7.5</v>
       </c>
       <c r="Z111" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA111" t="n">
         <v>9</v>
       </c>
       <c r="AB111" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC111" t="n">
         <v>17</v>
@@ -16344,13 +16344,13 @@
         <v>251</v>
       </c>
       <c r="AJ111" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK111" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL111" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM111" t="n">
         <v>41</v>
@@ -16817,13 +16817,13 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I115" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J115" t="n">
         <v>2.2</v>
@@ -16832,7 +16832,7 @@
         <v>2.38</v>
       </c>
       <c r="L115" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M115" t="n">
         <v>1.04</v>
@@ -16841,22 +16841,22 @@
         <v>13</v>
       </c>
       <c r="O115" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P115" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R115" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S115" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T115" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U115" t="n">
         <v>1.33</v>
@@ -16874,7 +16874,7 @@
         <v>8</v>
       </c>
       <c r="Z115" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA115" t="n">
         <v>8.5</v>
@@ -16958,22 +16958,22 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H116" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I116" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J116" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K116" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L116" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M116" t="n">
         <v>1.03</v>
@@ -17000,10 +17000,10 @@
         <v>1.44</v>
       </c>
       <c r="U116" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V116" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W116" t="n">
         <v>1.67</v>
@@ -17012,10 +17012,10 @@
         <v>2.1</v>
       </c>
       <c r="Y116" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z116" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA116" t="n">
         <v>8.5</v>
@@ -17024,16 +17024,16 @@
         <v>13</v>
       </c>
       <c r="AC116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD116" t="n">
         <v>21</v>
       </c>
       <c r="AE116" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF116" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG116" t="n">
         <v>15</v>
@@ -17045,10 +17045,10 @@
         <v>151</v>
       </c>
       <c r="AJ116" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK116" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL116" t="n">
         <v>15</v>
@@ -17060,7 +17060,7 @@
         <v>34</v>
       </c>
       <c r="AO116" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP116" t="n">
         <v>2</v>
@@ -17103,28 +17103,28 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I117" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="J117" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K117" t="n">
         <v>2</v>
       </c>
       <c r="L117" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M117" t="n">
         <v>1.08</v>
       </c>
       <c r="N117" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O117" t="n">
         <v>1.4</v>
@@ -17151,19 +17151,19 @@
         <v>2.5</v>
       </c>
       <c r="W117" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X117" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y117" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z117" t="n">
         <v>15</v>
       </c>
       <c r="AA117" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB117" t="n">
         <v>34</v>
@@ -17181,7 +17181,7 @@
         <v>6</v>
       </c>
       <c r="AG117" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH117" t="n">
         <v>51</v>
@@ -17190,16 +17190,16 @@
         <v>351</v>
       </c>
       <c r="AJ117" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK117" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL117" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM117" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN117" t="n">
         <v>21</v>
@@ -17269,7 +17269,7 @@
         <v>1.08</v>
       </c>
       <c r="N118" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O118" t="n">
         <v>1.4</v>
@@ -17389,46 +17389,46 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="H119" t="n">
         <v>3.5</v>
       </c>
       <c r="I119" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="J119" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K119" t="n">
         <v>2.05</v>
       </c>
       <c r="L119" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M119" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N119" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O119" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P119" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R119" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S119" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T119" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U119" t="n">
         <v>1.44</v>
@@ -17437,34 +17437,34 @@
         <v>2.63</v>
       </c>
       <c r="W119" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X119" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y119" t="n">
         <v>8</v>
       </c>
       <c r="Z119" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB119" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC119" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AD119" t="n">
         <v>34</v>
       </c>
       <c r="AE119" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF119" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG119" t="n">
         <v>17</v>
@@ -17473,19 +17473,19 @@
         <v>51</v>
       </c>
       <c r="AI119" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ119" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL119" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM119" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AN119" t="n">
         <v>21</v>
@@ -17494,16 +17494,16 @@
         <v>34</v>
       </c>
       <c r="AP119" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AR119" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="120">
@@ -17798,10 +17798,10 @@
         <v>2.05</v>
       </c>
       <c r="AR121" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AS121" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="122">
@@ -17836,16 +17836,16 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H122" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I122" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J122" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I122" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J122" t="n">
-        <v>3.4</v>
       </c>
       <c r="K122" t="n">
         <v>2.1</v>
@@ -17854,10 +17854,10 @@
         <v>3.2</v>
       </c>
       <c r="M122" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N122" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O122" t="n">
         <v>1.29</v>
@@ -17866,10 +17866,10 @@
         <v>3.5</v>
       </c>
       <c r="Q122" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R122" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S122" t="n">
         <v>3.4</v>
@@ -17878,16 +17878,16 @@
         <v>1.3</v>
       </c>
       <c r="U122" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V122" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W122" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X122" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y122" t="n">
         <v>9</v>
@@ -17896,43 +17896,43 @@
         <v>13</v>
       </c>
       <c r="AA122" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB122" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD122" t="n">
         <v>29</v>
       </c>
-      <c r="AC122" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD122" t="n">
-        <v>34</v>
-      </c>
       <c r="AE122" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF122" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG122" t="n">
         <v>13</v>
       </c>
       <c r="AH122" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI122" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ122" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL122" t="n">
         <v>10</v>
       </c>
       <c r="AM122" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN122" t="n">
         <v>21</v>
@@ -17977,10 +17977,10 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H123" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I123" t="n">
         <v>5.75</v>
@@ -17989,34 +17989,34 @@
         <v>2.1</v>
       </c>
       <c r="K123" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L123" t="n">
         <v>6</v>
       </c>
       <c r="M123" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N123" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O123" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P123" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R123" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="S123" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T123" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U123" t="n">
         <v>1.36</v>
@@ -18031,10 +18031,10 @@
         <v>1.8</v>
       </c>
       <c r="Y123" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z123" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA123" t="n">
         <v>8.5</v>
@@ -18049,7 +18049,7 @@
         <v>26</v>
       </c>
       <c r="AE123" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF123" t="n">
         <v>8</v>
@@ -18061,7 +18061,7 @@
         <v>51</v>
       </c>
       <c r="AI123" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ123" t="n">
         <v>15</v>
@@ -18142,22 +18142,22 @@
         <v>17</v>
       </c>
       <c r="O124" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P124" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q124" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S124" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T124" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R124" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S124" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T124" t="n">
-        <v>1.53</v>
       </c>
       <c r="U124" t="n">
         <v>1.29</v>
@@ -18223,10 +18223,10 @@
         <v>29</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR124" t="inlineStr"/>
       <c r="AS124" t="inlineStr"/>
@@ -18404,22 +18404,22 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H126" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I126" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J126" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K126" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L126" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M126" t="n">
         <v>1.04</v>
@@ -18428,10 +18428,10 @@
         <v>13</v>
       </c>
       <c r="O126" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P126" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q126" t="n">
         <v>1.7</v>
@@ -18461,13 +18461,13 @@
         <v>8.5</v>
       </c>
       <c r="Z126" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA126" t="n">
         <v>8.5</v>
       </c>
       <c r="AB126" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC126" t="n">
         <v>13</v>
@@ -18482,7 +18482,7 @@
         <v>7.5</v>
       </c>
       <c r="AG126" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH126" t="n">
         <v>41</v>
@@ -18494,7 +18494,7 @@
         <v>15</v>
       </c>
       <c r="AK126" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL126" t="n">
         <v>15</v>
@@ -18506,7 +18506,7 @@
         <v>34</v>
       </c>
       <c r="AO126" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP126" t="inlineStr"/>
       <c r="AQ126" t="inlineStr"/>
@@ -18545,7 +18545,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H127" t="n">
         <v>4.33</v>
@@ -18566,7 +18566,7 @@
         <v>1.04</v>
       </c>
       <c r="N127" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O127" t="n">
         <v>1.22</v>
@@ -18686,28 +18686,28 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H128" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I128" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J128" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K128" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L128" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="M128" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N128" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O128" t="n">
         <v>1.5</v>
@@ -18734,34 +18734,34 @@
         <v>2.25</v>
       </c>
       <c r="W128" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X128" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y128" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z128" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA128" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB128" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC128" t="n">
         <v>51</v>
       </c>
-      <c r="AC128" t="n">
-        <v>41</v>
-      </c>
       <c r="AD128" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE128" t="n">
         <v>6.5</v>
       </c>
       <c r="AF128" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG128" t="n">
         <v>23</v>
@@ -18771,16 +18771,16 @@
       </c>
       <c r="AI128" t="inlineStr"/>
       <c r="AJ128" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AK128" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AL128" t="n">
         <v>9.5</v>
       </c>
       <c r="AM128" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN128" t="n">
         <v>19</v>
@@ -18829,13 +18829,13 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H129" t="n">
         <v>3</v>
       </c>
       <c r="I129" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J129" t="n">
         <v>2.75</v>
@@ -18847,22 +18847,22 @@
         <v>5</v>
       </c>
       <c r="M129" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N129" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O129" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P129" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q129" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R129" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S129" t="n">
         <v>5</v>
@@ -18871,16 +18871,16 @@
         <v>1.17</v>
       </c>
       <c r="U129" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V129" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W129" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X129" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y129" t="n">
         <v>5.5</v>
@@ -18892,7 +18892,7 @@
         <v>9.5</v>
       </c>
       <c r="AB129" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC129" t="n">
         <v>19</v>
@@ -18901,7 +18901,7 @@
         <v>41</v>
       </c>
       <c r="AE129" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF129" t="n">
         <v>6</v>
@@ -18910,13 +18910,13 @@
         <v>19</v>
       </c>
       <c r="AH129" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI129" t="n">
         <v>501</v>
       </c>
       <c r="AJ129" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK129" t="n">
         <v>21</v>
@@ -18936,10 +18936,10 @@
       <c r="AP129" t="inlineStr"/>
       <c r="AQ129" t="inlineStr"/>
       <c r="AR129" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS129" t="n">
         <v>1.9</v>
-      </c>
-      <c r="AS129" t="n">
-        <v>1.95</v>
       </c>
     </row>
     <row r="130">
@@ -18974,13 +18974,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H130" t="n">
         <v>3.1</v>
       </c>
       <c r="I130" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J130" t="n">
         <v>3.1</v>
@@ -18992,10 +18992,10 @@
         <v>4.33</v>
       </c>
       <c r="M130" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N130" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O130" t="n">
         <v>1.5</v>
@@ -19061,7 +19061,7 @@
         <v>501</v>
       </c>
       <c r="AJ130" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK130" t="n">
         <v>15</v>
@@ -19425,10 +19425,10 @@
         <v>9</v>
       </c>
       <c r="O133" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P133" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q133" t="n">
         <v>2.1</v>
@@ -19560,10 +19560,10 @@
         <v>4.75</v>
       </c>
       <c r="M134" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N134" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O134" t="n">
         <v>1.3</v>
@@ -19599,7 +19599,7 @@
         <v>7</v>
       </c>
       <c r="Z134" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA134" t="n">
         <v>8.5</v>
@@ -19611,7 +19611,7 @@
         <v>15</v>
       </c>
       <c r="AD134" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE134" t="n">
         <v>10</v>
@@ -19629,7 +19629,7 @@
         <v>301</v>
       </c>
       <c r="AJ134" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK134" t="n">
         <v>21</v>
@@ -19638,7 +19638,7 @@
         <v>15</v>
       </c>
       <c r="AM134" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN134" t="n">
         <v>34</v>
@@ -19713,10 +19713,10 @@
         <v>3.25</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="R135" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S135" t="n">
         <v>3.75</v>
@@ -19827,43 +19827,43 @@
         <v>1.25</v>
       </c>
       <c r="H136" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I136" t="n">
         <v>8.5</v>
       </c>
       <c r="J136" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K136" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L136" t="n">
         <v>8</v>
       </c>
       <c r="M136" t="n">
-        <v>1.02</v>
+        <v>19</v>
       </c>
       <c r="N136" t="n">
-        <v>11</v>
+        <v>1.03</v>
       </c>
       <c r="O136" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P136" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="R136" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="S136" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T136" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U136" t="n">
         <v>1.25</v>
@@ -19872,13 +19872,13 @@
         <v>3.75</v>
       </c>
       <c r="W136" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X136" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y136" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z136" t="n">
         <v>7</v>
@@ -19896,22 +19896,22 @@
         <v>26</v>
       </c>
       <c r="AE136" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF136" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG136" t="n">
         <v>23</v>
       </c>
       <c r="AH136" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI136" t="n">
         <v>800</v>
       </c>
       <c r="AJ136" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK136" t="n">
         <v>41</v>
@@ -20002,7 +20002,7 @@
         <v>1.62</v>
       </c>
       <c r="R137" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S137" t="n">
         <v>2.5</v>
@@ -20114,16 +20114,16 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H138" t="n">
         <v>3.4</v>
       </c>
       <c r="I138" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J138" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K138" t="n">
         <v>2.2</v>
@@ -20132,10 +20132,10 @@
         <v>2.88</v>
       </c>
       <c r="M138" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N138" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O138" t="n">
         <v>1.22</v>
@@ -20144,7 +20144,7 @@
         <v>4</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R138" t="n">
         <v>2</v>
@@ -20180,7 +20180,7 @@
         <v>29</v>
       </c>
       <c r="AC138" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD138" t="n">
         <v>29</v>
@@ -20201,7 +20201,7 @@
         <v>151</v>
       </c>
       <c r="AJ138" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK138" t="n">
         <v>12</v>
@@ -20213,7 +20213,7 @@
         <v>21</v>
       </c>
       <c r="AN138" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO138" t="n">
         <v>26</v>
@@ -20255,13 +20255,13 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H139" t="n">
         <v>3.3</v>
       </c>
       <c r="I139" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J139" t="n">
         <v>3</v>
@@ -20270,7 +20270,7 @@
         <v>2.2</v>
       </c>
       <c r="L139" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M139" t="n">
         <v>1.05</v>
@@ -20309,7 +20309,7 @@
         <v>2.05</v>
       </c>
       <c r="Y139" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z139" t="n">
         <v>12</v>
@@ -20318,10 +20318,10 @@
         <v>9.5</v>
       </c>
       <c r="AB139" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC139" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD139" t="n">
         <v>26</v>
@@ -20342,16 +20342,16 @@
         <v>151</v>
       </c>
       <c r="AJ139" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK139" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL139" t="n">
         <v>11</v>
       </c>
       <c r="AM139" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN139" t="n">
         <v>23</v>
@@ -20678,22 +20678,22 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="H142" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I142" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="J142" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="K142" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L142" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M142" t="n">
         <v>1.05</v>
@@ -20702,49 +20702,49 @@
         <v>7.7</v>
       </c>
       <c r="O142" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P142" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R142" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S142" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U142" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="V142" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W142" t="n">
         <v>1.9</v>
       </c>
-      <c r="S142" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T142" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U142" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="V142" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="W142" t="n">
-        <v>1.93</v>
-      </c>
       <c r="X142" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="Y142" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z142" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AA142" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB142" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AC142" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD142" t="n">
         <v>65</v>
@@ -20753,34 +20753,34 @@
         <v>7.7</v>
       </c>
       <c r="AF142" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AG142" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH142" t="n">
         <v>90</v>
       </c>
       <c r="AI142" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AJ142" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AK142" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AL142" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AM142" t="n">
         <v>10.25</v>
       </c>
       <c r="AN142" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AO142" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP142" t="inlineStr"/>
       <c r="AQ142" t="inlineStr"/>
@@ -20819,98 +20819,98 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="H143" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="I143" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J143" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="K143" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L143" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P143" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="R143" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="S143" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T143" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="U143" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="V143" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="W143" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="X143" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y143" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z143" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AA143" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB143" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AC143" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AD143" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE143" t="n">
         <v>30</v>
       </c>
       <c r="AF143" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG143" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH143" t="n">
         <v>200</v>
       </c>
       <c r="AI143" t="inlineStr"/>
       <c r="AJ143" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK143" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AL143" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM143" t="inlineStr"/>
       <c r="AN143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO143" t="n">
         <v>300</v>
@@ -21237,19 +21237,19 @@
         <v>3.3</v>
       </c>
       <c r="H146" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I146" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J146" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K146" t="n">
         <v>2.1</v>
       </c>
       <c r="L146" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="M146" t="n">
         <v>1.08</v>
@@ -21261,7 +21261,7 @@
         <v>1.35</v>
       </c>
       <c r="P146" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="Q146" t="n">
         <v>2.02</v>
@@ -21270,40 +21270,40 @@
         <v>1.7</v>
       </c>
       <c r="S146" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T146" t="n">
         <v>1.27</v>
       </c>
       <c r="U146" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V146" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="W146" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X146" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Y146" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z146" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA146" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB146" t="n">
         <v>45</v>
       </c>
       <c r="AC146" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD146" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE146" t="n">
         <v>6.6</v>
@@ -21312,7 +21312,7 @@
         <v>6</v>
       </c>
       <c r="AG146" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH146" t="n">
         <v>70</v>
@@ -21321,19 +21321,19 @@
         <v>600</v>
       </c>
       <c r="AJ146" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AK146" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AL146" t="n">
         <v>8.75</v>
       </c>
       <c r="AM146" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN146" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO146" t="n">
         <v>29</v>
@@ -21516,22 +21516,22 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H148" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I148" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J148" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K148" t="n">
         <v>2.05</v>
       </c>
       <c r="L148" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M148" t="n">
         <v>1.07</v>
@@ -21552,10 +21552,10 @@
         <v>1.67</v>
       </c>
       <c r="S148" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T148" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U148" t="n">
         <v>1.44</v>
@@ -21564,25 +21564,25 @@
         <v>2.63</v>
       </c>
       <c r="W148" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X148" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y148" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z148" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA148" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB148" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC148" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD148" t="n">
         <v>29</v>
@@ -21591,10 +21591,10 @@
         <v>8.5</v>
       </c>
       <c r="AF148" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG148" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH148" t="n">
         <v>51</v>
@@ -21603,19 +21603,19 @@
         <v>351</v>
       </c>
       <c r="AJ148" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK148" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL148" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM148" t="n">
         <v>41</v>
       </c>
       <c r="AN148" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO148" t="n">
         <v>41</v>
@@ -21939,13 +21939,13 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H151" t="n">
         <v>3.6</v>
       </c>
       <c r="I151" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J151" t="n">
         <v>4.75</v>
@@ -21969,16 +21969,16 @@
         <v>3.5</v>
       </c>
       <c r="Q151" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R151" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S151" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T151" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U151" t="n">
         <v>1.4</v>
@@ -22002,7 +22002,7 @@
         <v>15</v>
       </c>
       <c r="AB151" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC151" t="n">
         <v>34</v>
@@ -22011,25 +22011,25 @@
         <v>41</v>
       </c>
       <c r="AE151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF151" t="n">
         <v>7</v>
       </c>
       <c r="AG151" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH151" t="n">
         <v>51</v>
       </c>
       <c r="AI151" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ151" t="n">
         <v>7</v>
       </c>
       <c r="AK151" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AL151" t="n">
         <v>8.5</v>
@@ -22080,13 +22080,13 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H152" t="n">
         <v>3.2</v>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J152" t="n">
         <v>3.1</v>
@@ -22098,10 +22098,10 @@
         <v>3.6</v>
       </c>
       <c r="M152" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N152" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O152" t="n">
         <v>1.3</v>
@@ -22113,7 +22113,7 @@
         <v>2.05</v>
       </c>
       <c r="R152" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S152" t="n">
         <v>3.5</v>
@@ -22137,7 +22137,7 @@
         <v>8</v>
       </c>
       <c r="Z152" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA152" t="n">
         <v>9.5</v>
@@ -22146,13 +22146,13 @@
         <v>23</v>
       </c>
       <c r="AC152" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD152" t="n">
         <v>29</v>
       </c>
       <c r="AE152" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF152" t="n">
         <v>6</v>
@@ -22221,22 +22221,22 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H153" t="n">
         <v>3.4</v>
       </c>
       <c r="I153" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J153" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K153" t="n">
         <v>2</v>
       </c>
       <c r="L153" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M153" t="n">
         <v>1.08</v>
@@ -22251,10 +22251,10 @@
         <v>2.63</v>
       </c>
       <c r="Q153" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R153" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S153" t="n">
         <v>4.5</v>
@@ -22269,10 +22269,10 @@
         <v>2.38</v>
       </c>
       <c r="W153" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X153" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y153" t="n">
         <v>5.5</v>
@@ -22299,10 +22299,10 @@
         <v>6.5</v>
       </c>
       <c r="AG153" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH153" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI153" t="n">
         <v>1000</v>
@@ -22314,7 +22314,7 @@
         <v>21</v>
       </c>
       <c r="AL153" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM153" t="n">
         <v>51</v>
@@ -22328,10 +22328,10 @@
       <c r="AP153" t="inlineStr"/>
       <c r="AQ153" t="inlineStr"/>
       <c r="AR153" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="154">
@@ -22366,28 +22366,28 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H154" t="n">
         <v>2.9</v>
       </c>
       <c r="I154" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J154" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K154" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L154" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M154" t="n">
         <v>1.08</v>
       </c>
       <c r="N154" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O154" t="n">
         <v>1.4</v>
@@ -22396,10 +22396,10 @@
         <v>2.75</v>
       </c>
       <c r="Q154" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R154" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S154" t="n">
         <v>4.33</v>
@@ -22408,16 +22408,16 @@
         <v>1.2</v>
       </c>
       <c r="U154" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V154" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W154" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="X154" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Y154" t="n">
         <v>7.5</v>
@@ -22435,10 +22435,10 @@
         <v>23</v>
       </c>
       <c r="AD154" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE154" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF154" t="n">
         <v>5.5</v>
@@ -22453,7 +22453,7 @@
         <v>351</v>
       </c>
       <c r="AJ154" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK154" t="n">
         <v>13</v>
@@ -22537,16 +22537,16 @@
         <v>3</v>
       </c>
       <c r="Q155" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R155" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S155" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T155" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U155" t="n">
         <v>1.5</v>
@@ -22555,10 +22555,10 @@
         <v>2.5</v>
       </c>
       <c r="W155" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X155" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y155" t="n">
         <v>8.5</v>
@@ -22654,16 +22654,16 @@
         <v>3.1</v>
       </c>
       <c r="I156" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J156" t="n">
         <v>3.2</v>
       </c>
       <c r="K156" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L156" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M156" t="n">
         <v>1.07</v>
@@ -22672,22 +22672,22 @@
         <v>9</v>
       </c>
       <c r="O156" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P156" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R156" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S156" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T156" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U156" t="n">
         <v>1.44</v>
@@ -22696,13 +22696,13 @@
         <v>2.63</v>
       </c>
       <c r="W156" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X156" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Y156" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z156" t="n">
         <v>12</v>
@@ -22717,25 +22717,25 @@
         <v>21</v>
       </c>
       <c r="AD156" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE156" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF156" t="n">
         <v>6</v>
       </c>
       <c r="AG156" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH156" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI156" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ156" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK156" t="n">
         <v>15</v>
@@ -22789,16 +22789,16 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H157" t="n">
         <v>3.6</v>
       </c>
       <c r="I157" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J157" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K157" t="n">
         <v>2.25</v>
@@ -22837,7 +22837,7 @@
         <v>3.25</v>
       </c>
       <c r="W157" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X157" t="n">
         <v>2.2</v>
@@ -22846,13 +22846,13 @@
         <v>9</v>
       </c>
       <c r="Z157" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA157" t="n">
         <v>9</v>
       </c>
       <c r="AB157" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC157" t="n">
         <v>15</v>
@@ -22879,10 +22879,10 @@
         <v>13</v>
       </c>
       <c r="AK157" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL157" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM157" t="n">
         <v>41</v>
@@ -22891,7 +22891,7 @@
         <v>26</v>
       </c>
       <c r="AO157" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP157" t="inlineStr"/>
       <c r="AQ157" t="inlineStr"/>
@@ -22930,64 +22930,64 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H158" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I158" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="J158" t="n">
         <v>4</v>
       </c>
       <c r="K158" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L158" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M158" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N158" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O158" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P158" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R158" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X158" t="n">
         <v>2</v>
       </c>
-      <c r="S158" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T158" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U158" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V158" t="n">
-        <v>3</v>
-      </c>
-      <c r="W158" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X158" t="n">
-        <v>2.1</v>
-      </c>
       <c r="Y158" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z158" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA158" t="n">
         <v>13</v>
@@ -23002,7 +23002,7 @@
         <v>34</v>
       </c>
       <c r="AE158" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF158" t="n">
         <v>6.5</v>
@@ -23014,25 +23014,25 @@
         <v>41</v>
       </c>
       <c r="AI158" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ158" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK158" t="n">
         <v>10</v>
       </c>
       <c r="AL158" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM158" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN158" t="n">
         <v>17</v>
       </c>
-      <c r="AN158" t="n">
-        <v>15</v>
-      </c>
       <c r="AO158" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP158" t="inlineStr"/>
       <c r="AQ158" t="inlineStr"/>
@@ -23071,22 +23071,22 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="H159" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I159" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="J159" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K159" t="n">
         <v>2.2</v>
       </c>
       <c r="L159" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="M159" t="n">
         <v>1.05</v>
@@ -23119,28 +23119,28 @@
         <v>3</v>
       </c>
       <c r="W159" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X159" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y159" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA159" t="n">
         <v>12</v>
       </c>
-      <c r="Z159" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA159" t="n">
-        <v>13</v>
-      </c>
       <c r="AB159" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC159" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD159" t="n">
         <v>29</v>
-      </c>
-      <c r="AD159" t="n">
-        <v>34</v>
       </c>
       <c r="AE159" t="n">
         <v>11</v>
@@ -23155,22 +23155,22 @@
         <v>41</v>
       </c>
       <c r="AI159" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ159" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK159" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL159" t="n">
         <v>9</v>
       </c>
       <c r="AM159" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN159" t="n">
         <v>17</v>
-      </c>
-      <c r="AN159" t="n">
-        <v>15</v>
       </c>
       <c r="AO159" t="n">
         <v>26</v>
@@ -23212,22 +23212,22 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="H160" t="n">
         <v>3.3</v>
       </c>
       <c r="I160" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="J160" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K160" t="n">
         <v>2.1</v>
       </c>
       <c r="L160" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M160" t="n">
         <v>1.06</v>
@@ -23236,10 +23236,10 @@
         <v>7.5</v>
       </c>
       <c r="O160" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P160" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q160" t="n">
         <v>1.82</v>
@@ -23248,7 +23248,7 @@
         <v>1.88</v>
       </c>
       <c r="S160" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="T160" t="n">
         <v>1.35</v>
@@ -23257,13 +23257,13 @@
         <v>1.4</v>
       </c>
       <c r="V160" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="W160" t="n">
         <v>1.65</v>
       </c>
       <c r="X160" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Y160" t="n">
         <v>8.75</v>
@@ -23275,10 +23275,10 @@
         <v>9.25</v>
       </c>
       <c r="AB160" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AC160" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AD160" t="n">
         <v>27</v>
@@ -23293,7 +23293,7 @@
         <v>12.5</v>
       </c>
       <c r="AH160" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI160" t="n">
         <v>350</v>
@@ -23302,19 +23302,19 @@
         <v>9.75</v>
       </c>
       <c r="AK160" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL160" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AM160" t="n">
         <v>32</v>
       </c>
       <c r="AN160" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO160" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP160" t="inlineStr"/>
       <c r="AQ160" t="inlineStr"/>
@@ -23353,10 +23353,10 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H161" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I161" t="n">
         <v>3.2</v>
@@ -23380,7 +23380,7 @@
         <v>1.22</v>
       </c>
       <c r="P161" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q161" t="n">
         <v>1.65</v>
@@ -23389,10 +23389,10 @@
         <v>2.1</v>
       </c>
       <c r="S161" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="T161" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="U161" t="n">
         <v>1.33</v>
@@ -23401,7 +23401,7 @@
         <v>3.05</v>
       </c>
       <c r="W161" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X161" t="n">
         <v>2.18</v>
@@ -23416,7 +23416,7 @@
         <v>8.5</v>
       </c>
       <c r="AB161" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC161" t="n">
         <v>14.5</v>
@@ -23428,7 +23428,7 @@
         <v>8.5</v>
       </c>
       <c r="AF161" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AG161" t="n">
         <v>13</v>
@@ -23440,10 +23440,10 @@
         <v>300</v>
       </c>
       <c r="AJ161" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AK161" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL161" t="n">
         <v>11.25</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H162" t="n">
         <v>3</v>
@@ -23503,13 +23503,13 @@
         <v>2.12</v>
       </c>
       <c r="J162" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="K162" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="L162" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="M162" t="n">
         <v>1.09</v>
@@ -23521,55 +23521,55 @@
         <v>1.4</v>
       </c>
       <c r="P162" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q162" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R162" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S162" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T162" t="n">
         <v>1.23</v>
       </c>
       <c r="U162" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V162" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="W162" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="X162" t="n">
         <v>1.82</v>
       </c>
       <c r="Y162" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z162" t="n">
         <v>19</v>
       </c>
       <c r="AA162" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB162" t="n">
         <v>55</v>
       </c>
       <c r="AC162" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD162" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE162" t="n">
         <v>6.1</v>
       </c>
       <c r="AF162" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AG162" t="n">
         <v>15</v>
@@ -23581,22 +23581,22 @@
         <v>700</v>
       </c>
       <c r="AJ162" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AK162" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AL162" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AM162" t="n">
         <v>20</v>
       </c>
       <c r="AN162" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO162" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP162" t="inlineStr"/>
       <c r="AQ162" t="inlineStr"/>
@@ -23635,34 +23635,34 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4.5</v>
+        <v>4.15</v>
       </c>
       <c r="H163" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I163" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="J163" t="n">
-        <v>4.55</v>
+        <v>4.25</v>
       </c>
       <c r="K163" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L163" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="M163" t="n">
         <v>1.03</v>
       </c>
       <c r="N163" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O163" t="n">
         <v>1.17</v>
       </c>
       <c r="P163" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="Q163" t="n">
         <v>1.52</v>
@@ -23671,43 +23671,43 @@
         <v>2.37</v>
       </c>
       <c r="S163" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="T163" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U163" t="n">
         <v>1.29</v>
       </c>
       <c r="V163" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W163" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X163" t="n">
         <v>2.35</v>
       </c>
       <c r="Y163" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z163" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA163" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB163" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AC163" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AD163" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE163" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF163" t="n">
         <v>8</v>
@@ -23722,22 +23722,22 @@
         <v>250</v>
       </c>
       <c r="AJ163" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AK163" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AL163" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AM163" t="n">
         <v>14.5</v>
       </c>
       <c r="AN163" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AO163" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AP163" t="inlineStr"/>
       <c r="AQ163" t="inlineStr"/>
@@ -23779,16 +23779,16 @@
         <v>3.95</v>
       </c>
       <c r="H164" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I164" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J164" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="K164" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L164" t="n">
         <v>2.37</v>
@@ -23797,31 +23797,31 @@
         <v>1.05</v>
       </c>
       <c r="N164" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O164" t="n">
         <v>1.25</v>
       </c>
       <c r="P164" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q164" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R164" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S164" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="T164" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="U164" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="V164" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="W164" t="n">
         <v>1.7</v>
@@ -23830,7 +23830,7 @@
         <v>2.05</v>
       </c>
       <c r="Y164" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z164" t="n">
         <v>23</v>
@@ -23848,10 +23848,10 @@
         <v>37</v>
       </c>
       <c r="AE164" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AF164" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AG164" t="n">
         <v>13.5</v>
@@ -23866,13 +23866,13 @@
         <v>7.9</v>
       </c>
       <c r="AK164" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AL164" t="n">
         <v>8.25</v>
       </c>
       <c r="AM164" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AN164" t="n">
         <v>13.5</v>
@@ -23917,43 +23917,43 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H165" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I165" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J165" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K165" t="n">
         <v>2.25</v>
       </c>
       <c r="L165" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M165" t="n">
         <v>1.05</v>
       </c>
       <c r="N165" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O165" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P165" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q165" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R165" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S165" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="T165" t="n">
         <v>1.4</v>
@@ -23971,7 +23971,7 @@
         <v>1.93</v>
       </c>
       <c r="Y165" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Z165" t="n">
         <v>7.7</v>
@@ -23980,7 +23980,7 @@
         <v>8</v>
       </c>
       <c r="AB165" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC165" t="n">
         <v>12</v>
@@ -23989,13 +23989,13 @@
         <v>24</v>
       </c>
       <c r="AE165" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AF165" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AG165" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH165" t="n">
         <v>70</v>
@@ -24004,7 +24004,7 @@
         <v>500</v>
       </c>
       <c r="AJ165" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK165" t="n">
         <v>32</v>
@@ -24058,22 +24058,22 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="H166" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I166" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="J166" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K166" t="n">
         <v>2.3</v>
       </c>
       <c r="L166" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M166" t="n">
         <v>1.04</v>
@@ -24100,31 +24100,31 @@
         <v>1.44</v>
       </c>
       <c r="U166" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V166" t="n">
         <v>3.25</v>
       </c>
       <c r="W166" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X166" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y166" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z166" t="n">
         <v>9</v>
-      </c>
-      <c r="Z166" t="n">
-        <v>10</v>
       </c>
       <c r="AA166" t="n">
         <v>8.5</v>
       </c>
       <c r="AB166" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC166" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD166" t="n">
         <v>21</v>
@@ -24148,16 +24148,16 @@
         <v>15</v>
       </c>
       <c r="AK166" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL166" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM166" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN166" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO166" t="n">
         <v>34</v>
@@ -24199,19 +24199,19 @@
         </is>
       </c>
       <c r="G167" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H167" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J167" t="n">
         <v>4.5</v>
       </c>
-      <c r="H167" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="J167" t="n">
-        <v>4.33</v>
-      </c>
       <c r="K167" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L167" t="n">
         <v>2.1</v>
@@ -24223,37 +24223,37 @@
         <v>21</v>
       </c>
       <c r="O167" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P167" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q167" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="R167" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="S167" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="T167" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="U167" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="V167" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="W167" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X167" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y167" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z167" t="n">
         <v>29</v>
@@ -24268,40 +24268,40 @@
         <v>29</v>
       </c>
       <c r="AD167" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE167" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF167" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG167" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH167" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI167" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ167" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK167" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL167" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM167" t="n">
         <v>15</v>
       </c>
       <c r="AN167" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO167" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP167" t="inlineStr"/>
       <c r="AQ167" t="inlineStr"/>
@@ -24346,16 +24346,16 @@
         <v>7</v>
       </c>
       <c r="I168" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J168" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="K168" t="n">
         <v>2.75</v>
       </c>
       <c r="L168" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M168" t="n">
         <v>1.02</v>
@@ -24385,13 +24385,13 @@
         <v>1.25</v>
       </c>
       <c r="V168" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W168" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X168" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y168" t="n">
         <v>8</v>
@@ -24403,7 +24403,7 @@
         <v>9.5</v>
       </c>
       <c r="AB168" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC168" t="n">
         <v>11</v>
@@ -24433,7 +24433,7 @@
         <v>51</v>
       </c>
       <c r="AL168" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM168" t="n">
         <v>126</v>
@@ -24445,10 +24445,10 @@
         <v>51</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AQ168" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AR168" t="inlineStr"/>
       <c r="AS168" t="inlineStr"/>
@@ -24485,22 +24485,22 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H169" t="n">
         <v>3.6</v>
       </c>
       <c r="I169" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J169" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K169" t="n">
         <v>2.2</v>
       </c>
       <c r="L169" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M169" t="n">
         <v>1.05</v>
@@ -24527,22 +24527,22 @@
         <v>1.3</v>
       </c>
       <c r="U169" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V169" t="n">
         <v>2.75</v>
       </c>
       <c r="W169" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X169" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y169" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z169" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA169" t="n">
         <v>8.5</v>
@@ -24563,7 +24563,7 @@
         <v>7</v>
       </c>
       <c r="AG169" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH169" t="n">
         <v>51</v>
@@ -24578,7 +24578,7 @@
         <v>21</v>
       </c>
       <c r="AL169" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM169" t="n">
         <v>41</v>
@@ -24644,10 +24644,10 @@
         <v>3.6</v>
       </c>
       <c r="M170" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N170" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O170" t="n">
         <v>1.44</v>
@@ -24668,10 +24668,10 @@
         <v>1.18</v>
       </c>
       <c r="U170" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V170" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W170" t="n">
         <v>2</v>
@@ -24733,10 +24733,10 @@
       <c r="AP170" t="inlineStr"/>
       <c r="AQ170" t="inlineStr"/>
       <c r="AR170" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS170" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="171">
@@ -24771,13 +24771,13 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H171" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I171" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J171" t="n">
         <v>3.75</v>
@@ -24801,10 +24801,10 @@
         <v>3.5</v>
       </c>
       <c r="Q171" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R171" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S171" t="n">
         <v>3.25</v>
@@ -24813,7 +24813,7 @@
         <v>1.33</v>
       </c>
       <c r="U171" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V171" t="n">
         <v>2.75</v>
@@ -24831,7 +24831,7 @@
         <v>17</v>
       </c>
       <c r="AA171" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB171" t="n">
         <v>34</v>
@@ -24852,7 +24852,7 @@
         <v>15</v>
       </c>
       <c r="AH171" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI171" t="n">
         <v>201</v>
@@ -24861,13 +24861,13 @@
         <v>8</v>
       </c>
       <c r="AK171" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL171" t="n">
         <v>9</v>
       </c>
       <c r="AM171" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN171" t="n">
         <v>17</v>
@@ -24942,10 +24942,10 @@
         <v>3.25</v>
       </c>
       <c r="Q172" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R172" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S172" t="n">
         <v>3.75</v>
@@ -24954,10 +24954,10 @@
         <v>1.25</v>
       </c>
       <c r="U172" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V172" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W172" t="n">
         <v>1.8</v>
@@ -25190,33 +25190,33 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="H174" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I174" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="J174" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="K174" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L174" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P174" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="Q174" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R174" t="n">
         <v>1.57</v>
@@ -25231,28 +25231,28 @@
         <v>1.44</v>
       </c>
       <c r="V174" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="W174" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="X174" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Y174" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z174" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA174" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB174" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AC174" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD174" t="n">
         <v>35</v>
@@ -25261,34 +25261,34 @@
         <v>8</v>
       </c>
       <c r="AF174" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AG174" t="n">
         <v>18</v>
       </c>
       <c r="AH174" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI174" t="n">
         <v>900</v>
       </c>
       <c r="AJ174" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK174" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AL174" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM174" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN174" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AO174" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP174" t="inlineStr"/>
       <c r="AQ174" t="inlineStr"/>
@@ -25336,13 +25336,13 @@
         <v>3.4</v>
       </c>
       <c r="J175" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K175" t="n">
         <v>1.8</v>
       </c>
       <c r="L175" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="M175" t="n">
         <v>1.12</v>
@@ -25354,7 +25354,7 @@
         <v>1.47</v>
       </c>
       <c r="P175" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="Q175" t="n">
         <v>2.35</v>
@@ -25381,13 +25381,13 @@
         <v>1.7</v>
       </c>
       <c r="Y175" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z175" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA175" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB175" t="n">
         <v>26</v>
@@ -25396,13 +25396,13 @@
         <v>23</v>
       </c>
       <c r="AD175" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE175" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AF175" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AG175" t="n">
         <v>15.5</v>
@@ -25414,7 +25414,7 @@
         <v>900</v>
       </c>
       <c r="AJ175" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AK175" t="n">
         <v>17</v>
@@ -25423,7 +25423,7 @@
         <v>12</v>
       </c>
       <c r="AM175" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN175" t="n">
         <v>37</v>
@@ -25903,22 +25903,22 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="H179" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I179" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="J179" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K179" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L179" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M179" t="n">
         <v>1.03</v>
@@ -25951,22 +25951,22 @@
         <v>3.5</v>
       </c>
       <c r="W179" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X179" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y179" t="n">
         <v>10</v>
       </c>
       <c r="Z179" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA179" t="n">
         <v>8.5</v>
       </c>
       <c r="AB179" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC179" t="n">
         <v>13</v>
@@ -25978,13 +25978,13 @@
         <v>17</v>
       </c>
       <c r="AF179" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG179" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH179" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI179" t="n">
         <v>126</v>
@@ -25993,7 +25993,7 @@
         <v>15</v>
       </c>
       <c r="AK179" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL179" t="n">
         <v>13</v>
@@ -26002,16 +26002,16 @@
         <v>41</v>
       </c>
       <c r="AN179" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO179" t="n">
         <v>29</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AR179" t="inlineStr"/>
       <c r="AS179" t="inlineStr"/>
@@ -26048,16 +26048,16 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H180" t="n">
         <v>3.8</v>
       </c>
       <c r="I180" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J180" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="K180" t="n">
         <v>2.3</v>
@@ -26108,13 +26108,13 @@
         <v>13</v>
       </c>
       <c r="AA180" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB180" t="n">
         <v>21</v>
       </c>
       <c r="AC180" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD180" t="n">
         <v>21</v>
@@ -26129,13 +26129,13 @@
         <v>12</v>
       </c>
       <c r="AH180" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI180" t="n">
         <v>126</v>
       </c>
       <c r="AJ180" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK180" t="n">
         <v>17</v>
@@ -26144,7 +26144,7 @@
         <v>11</v>
       </c>
       <c r="AM180" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN180" t="n">
         <v>21</v>
@@ -26193,22 +26193,22 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I181" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="J181" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="K181" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L181" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
@@ -26225,34 +26225,34 @@
         <v>1.53</v>
       </c>
       <c r="S181" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T181" t="n">
         <v>1.19</v>
       </c>
       <c r="U181" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="V181" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="W181" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="X181" t="n">
         <v>1.72</v>
       </c>
       <c r="Y181" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z181" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA181" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB181" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC181" t="n">
         <v>35</v>
@@ -26261,31 +26261,31 @@
         <v>45</v>
       </c>
       <c r="AE181" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AF181" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AG181" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH181" t="n">
         <v>90</v>
       </c>
       <c r="AI181" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AJ181" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AK181" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AL181" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AM181" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN181" t="n">
         <v>20</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-02.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
         <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -740,22 +740,22 @@
         <v>3.25</v>
       </c>
       <c r="W2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
         <v>8.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
         <v>13</v>
@@ -770,7 +770,7 @@
         <v>7.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
@@ -782,13 +782,13 @@
         <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
         <v>15</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
         <v>34</v>
@@ -833,61 +833,61 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.05</v>
       </c>
-      <c r="J3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
       <c r="L3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V3" t="n">
         <v>2.5</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>17</v>
@@ -905,7 +905,7 @@
         <v>41</v>
       </c>
       <c r="AE3" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF3" t="n">
         <v>6.5</v>
@@ -914,13 +914,13 @@
         <v>17</v>
       </c>
       <c r="AH3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK3" t="n">
         <v>9</v>
@@ -998,13 +998,13 @@
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="R4" t="n">
         <v>1.91</v>
@@ -1016,7 +1016,7 @@
         <v>1.33</v>
       </c>
       <c r="U4" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V4" t="n">
         <v>2.75</v>
@@ -1028,7 +1028,7 @@
         <v>2.05</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>15</v>
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
@@ -1139,16 +1139,16 @@
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R5" t="n">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="S5" t="n">
         <v>3.2</v>
@@ -1157,7 +1157,7 @@
         <v>1.36</v>
       </c>
       <c r="U5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V5" t="n">
         <v>3</v>
@@ -1175,7 +1175,7 @@
         <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1208,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="AL5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN5" t="n">
         <v>15</v>
@@ -1268,7 +1268,7 @@
         <v>1.83</v>
       </c>
       <c r="K6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L6" t="n">
         <v>7</v>
@@ -1280,46 +1280,46 @@
         <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U6" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V6" t="n">
         <v>3.5</v>
       </c>
       <c r="W6" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA6" t="n">
         <v>8.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -1328,13 +1328,13 @@
         <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
         <v>51</v>
@@ -1358,13 +1358,13 @@
         <v>51</v>
       </c>
       <c r="AO6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         <v>1.44</v>
       </c>
       <c r="U7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V7" t="n">
         <v>3.25</v>
@@ -1561,13 +1561,13 @@
         <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1588,10 +1588,10 @@
         <v>1.2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W8" t="n">
         <v>2</v>
@@ -1606,7 +1606,7 @@
         <v>12</v>
       </c>
       <c r="AA8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB8" t="n">
         <v>26</v>
@@ -1653,10 +1653,10 @@
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="9">
@@ -1691,16 +1691,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -1733,7 +1733,7 @@
         <v>1.22</v>
       </c>
       <c r="U9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V9" t="n">
         <v>2.5</v>
@@ -1745,7 +1745,7 @@
         <v>1.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
         <v>21</v>
@@ -1754,7 +1754,7 @@
         <v>15</v>
       </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC9" t="n">
         <v>41</v>
@@ -1836,19 +1836,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L10" t="n">
         <v>6</v>
@@ -1878,10 +1878,10 @@
         <v>1.29</v>
       </c>
       <c r="U10" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V10" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W10" t="n">
         <v>2.05</v>
@@ -1893,25 +1893,25 @@
         <v>6</v>
       </c>
       <c r="Z10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA10" t="n">
         <v>8.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
         <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
@@ -1923,7 +1923,7 @@
         <v>501</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
@@ -1977,28 +1977,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -2007,10 +2007,10 @@
         <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
         <v>4.33</v>
@@ -2019,7 +2019,7 @@
         <v>1.22</v>
       </c>
       <c r="U11" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
         <v>2.5</v>
@@ -2034,7 +2034,7 @@
         <v>6</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA11" t="n">
         <v>9</v>
@@ -2043,13 +2043,13 @@
         <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="n">
         <v>34</v>
       </c>
       <c r="AE11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
@@ -2064,16 +2064,16 @@
         <v>451</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
         <v>15</v>
       </c>
       <c r="AM11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
         <v>41</v>
@@ -2142,16 +2142,16 @@
         <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S12" t="n">
         <v>4</v>
@@ -2160,10 +2160,10 @@
         <v>1.25</v>
       </c>
       <c r="U12" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V12" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W12" t="n">
         <v>1.95</v>
@@ -2301,7 +2301,7 @@
         <v>1.4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V13" t="n">
         <v>3</v>
@@ -2403,58 +2403,58 @@
         <v>3.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="S14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U14" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="V14" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="W14" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="X14" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
         <v>17</v>
@@ -2466,28 +2466,28 @@
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD14" t="n">
         <v>34</v>
       </c>
       <c r="AE14" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG14" t="n">
         <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK14" t="n">
         <v>10</v>
@@ -2496,13 +2496,13 @@
         <v>9</v>
       </c>
       <c r="AM14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN14" t="n">
         <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
@@ -2544,10 +2544,10 @@
         <v>6.5</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J15" t="n">
         <v>6</v>
@@ -2556,13 +2556,13 @@
         <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O15" t="n">
         <v>1.17</v>
@@ -2583,7 +2583,7 @@
         <v>1.53</v>
       </c>
       <c r="U15" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V15" t="n">
         <v>3.5</v>
@@ -2595,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="Y15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="n">
         <v>34</v>
@@ -2637,7 +2637,7 @@
         <v>8.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN15" t="n">
         <v>11</v>
@@ -2646,10 +2646,10 @@
         <v>21</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2686,16 +2686,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
         <v>2.2</v>
@@ -2704,28 +2704,28 @@
         <v>3.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T16" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U16" t="n">
         <v>1.36</v>
@@ -2734,10 +2734,10 @@
         <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y16" t="n">
         <v>9</v>
@@ -2746,7 +2746,7 @@
         <v>12</v>
       </c>
       <c r="AA16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB16" t="n">
         <v>21</v>
@@ -2755,16 +2755,16 @@
         <v>17</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF16" t="n">
         <v>6.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
         <v>41</v>
@@ -2776,10 +2776,10 @@
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM16" t="n">
         <v>34</v>
@@ -2827,46 +2827,46 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U17" t="n">
         <v>1.44</v>
@@ -2899,7 +2899,7 @@
         <v>29</v>
       </c>
       <c r="AE17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF17" t="n">
         <v>7</v>
@@ -2968,46 +2968,46 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J18" t="n">
         <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L18" t="n">
         <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P18" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="U18" t="n">
         <v>1.67</v>
@@ -3016,10 +3016,10 @@
         <v>2.1</v>
       </c>
       <c r="W18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="X18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Y18" t="n">
         <v>6</v>
@@ -3037,7 +3037,7 @@
         <v>29</v>
       </c>
       <c r="AD18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE18" t="n">
         <v>5.5</v>
@@ -3056,7 +3056,7 @@
         <v>6</v>
       </c>
       <c r="AK18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL18" t="n">
         <v>12</v>
@@ -3068,7 +3068,7 @@
         <v>29</v>
       </c>
       <c r="AO18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3137,10 +3137,10 @@
         <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R19" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="S19" t="n">
         <v>2.38</v>
@@ -3212,10 +3212,10 @@
         <v>67</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3252,13 +3252,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J20" t="n">
         <v>3.4</v>
@@ -3282,22 +3282,22 @@
         <v>2.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="R20" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="U20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W20" t="n">
         <v>2.25</v>
@@ -3306,7 +3306,7 @@
         <v>1.57</v>
       </c>
       <c r="Y20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z20" t="n">
         <v>10</v>
@@ -3395,13 +3395,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J21" t="n">
         <v>3.2</v>
@@ -3425,10 +3425,10 @@
         <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="n">
         <v>4.33</v>
@@ -3485,10 +3485,10 @@
         <v>8</v>
       </c>
       <c r="AK21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM21" t="n">
         <v>34</v>
@@ -3540,28 +3540,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K22" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.5</v>
@@ -3573,7 +3573,7 @@
         <v>2.6</v>
       </c>
       <c r="R22" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S22" t="n">
         <v>5.5</v>
@@ -3588,22 +3588,22 @@
         <v>2.25</v>
       </c>
       <c r="W22" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X22" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y22" t="n">
         <v>5</v>
       </c>
       <c r="Z22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA22" t="n">
         <v>9.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
         <v>19</v>
@@ -3618,7 +3618,7 @@
         <v>6.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH22" t="n">
         <v>81</v>
@@ -3627,10 +3627,10 @@
         <v>101</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
         <v>17</v>
@@ -3651,10 +3651,10 @@
         <v>1.22</v>
       </c>
       <c r="AR22" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="23">
@@ -3689,16 +3689,16 @@
         </is>
       </c>
       <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
         <v>2.9</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
       </c>
       <c r="I23" t="n">
         <v>2.63</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
         <v>1.83</v>
@@ -3713,34 +3713,34 @@
         <v>6.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P23" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q23" t="n">
         <v>2.7</v>
       </c>
       <c r="R23" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T23" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U23" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X23" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y23" t="n">
         <v>6.5</v>
@@ -3752,22 +3752,22 @@
         <v>12</v>
       </c>
       <c r="AB23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF23" t="n">
         <v>6</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH23" t="n">
         <v>81</v>
@@ -3782,28 +3782,28 @@
         <v>11</v>
       </c>
       <c r="AL23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO23" t="n">
         <v>41</v>
       </c>
       <c r="AP23" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR23" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="24">
@@ -3838,16 +3838,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H24" t="n">
         <v>2.7</v>
       </c>
       <c r="I24" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
         <v>1.83</v>
@@ -3856,10 +3856,10 @@
         <v>4.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O24" t="n">
         <v>1.62</v>
@@ -3871,7 +3871,7 @@
         <v>3.1</v>
       </c>
       <c r="R24" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S24" t="n">
         <v>6.5</v>
@@ -3895,7 +3895,7 @@
         <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA24" t="n">
         <v>11</v>
@@ -3916,7 +3916,7 @@
         <v>5.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
         <v>81</v>
@@ -3928,7 +3928,7 @@
         <v>7.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
         <v>15</v>
@@ -3987,22 +3987,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J25" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K25" t="n">
         <v>1.83</v>
       </c>
       <c r="L25" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>1.13</v>
@@ -4017,10 +4017,10 @@
         <v>2.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="R25" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S25" t="n">
         <v>6</v>
@@ -4041,13 +4041,13 @@
         <v>1.53</v>
       </c>
       <c r="Y25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA25" t="n">
         <v>15</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>13</v>
       </c>
       <c r="AB25" t="n">
         <v>41</v>
@@ -4059,13 +4059,13 @@
         <v>51</v>
       </c>
       <c r="AE25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH25" t="n">
         <v>101</v>
@@ -4074,16 +4074,16 @@
         <v>101</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN25" t="n">
         <v>23</v>
@@ -4136,49 +4136,49 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J26" t="n">
         <v>3.2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.4</v>
       </c>
       <c r="K26" t="n">
         <v>1.8</v>
       </c>
       <c r="L26" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N26" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q26" t="n">
         <v>3.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="U26" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V26" t="n">
         <v>2.1</v>
@@ -4190,19 +4190,19 @@
         <v>1.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z26" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA26" t="n">
         <v>11</v>
       </c>
       <c r="AB26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC26" t="n">
         <v>23</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>26</v>
       </c>
       <c r="AD26" t="n">
         <v>41</v>
@@ -4211,7 +4211,7 @@
         <v>5.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG26" t="n">
         <v>23</v>
@@ -4223,25 +4223,25 @@
         <v>101</v>
       </c>
       <c r="AJ26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM26" t="n">
         <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO26" t="n">
         <v>51</v>
       </c>
       <c r="AP26" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.15</v>
@@ -4318,7 +4318,7 @@
         <v>3.1</v>
       </c>
       <c r="R27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S27" t="n">
         <v>6.5</v>
@@ -4327,7 +4327,7 @@
         <v>1.11</v>
       </c>
       <c r="U27" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V27" t="n">
         <v>2.1</v>
@@ -4444,10 +4444,10 @@
         <v>4.75</v>
       </c>
       <c r="M28" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.67</v>
@@ -4459,7 +4459,7 @@
         <v>3.4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S28" t="n">
         <v>7</v>
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H29" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
@@ -4585,22 +4585,22 @@
         <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q29" t="n">
         <v>3.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S29" t="n">
         <v>7</v>
@@ -4609,10 +4609,10 @@
         <v>1.1</v>
       </c>
       <c r="U29" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V29" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="W29" t="n">
         <v>2.63</v>
@@ -4624,7 +4624,7 @@
         <v>4.75</v>
       </c>
       <c r="Z29" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA29" t="n">
         <v>11</v>
@@ -4654,7 +4654,7 @@
         <v>101</v>
       </c>
       <c r="AJ29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK29" t="n">
         <v>19</v>
@@ -4666,7 +4666,7 @@
         <v>51</v>
       </c>
       <c r="AN29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO29" t="n">
         <v>67</v>
@@ -4759,7 +4759,7 @@
         <v>2.5</v>
       </c>
       <c r="X30" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Y30" t="n">
         <v>5</v>
@@ -4877,16 +4877,16 @@
         <v>4.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P31" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="R31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S31" t="n">
         <v>8</v>
@@ -4895,16 +4895,16 @@
         <v>1.08</v>
       </c>
       <c r="U31" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="W31" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="X31" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Y31" t="n">
         <v>5</v>
@@ -5036,7 +5036,7 @@
         <v>1.13</v>
       </c>
       <c r="U32" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V32" t="n">
         <v>2.2</v>
@@ -5045,7 +5045,7 @@
         <v>2.5</v>
       </c>
       <c r="X32" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Y32" t="n">
         <v>4.75</v>
@@ -5153,10 +5153,10 @@
         <v>4.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.73</v>
@@ -5183,10 +5183,10 @@
         <v>2.03</v>
       </c>
       <c r="W33" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="X33" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Y33" t="n">
         <v>5</v>
@@ -5276,28 +5276,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I34" t="n">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L34" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M34" t="n">
         <v>1.17</v>
       </c>
       <c r="N34" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O34" t="n">
         <v>1.73</v>
@@ -5318,10 +5318,10 @@
         <v>1.08</v>
       </c>
       <c r="U34" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V34" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="W34" t="n">
         <v>2.63</v>
@@ -5330,55 +5330,55 @@
         <v>1.44</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Z34" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AA34" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB34" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AC34" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AD34" t="n">
         <v>51</v>
       </c>
       <c r="AE34" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AF34" t="n">
         <v>6</v>
       </c>
       <c r="AG34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH34" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI34" t="n">
         <v>101</v>
       </c>
       <c r="AJ34" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AL34" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AM34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO34" t="n">
         <v>51</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>67</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
@@ -5463,10 +5463,10 @@
         <v>1.07</v>
       </c>
       <c r="U35" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V35" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W35" t="n">
         <v>2.75</v>
@@ -5996,13 +5996,13 @@
         <v>1.95</v>
       </c>
       <c r="H39" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J39" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K39" t="n">
         <v>2.05</v>
@@ -6035,16 +6035,16 @@
         <v>1.22</v>
       </c>
       <c r="U39" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V39" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W39" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X39" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y39" t="n">
         <v>6.5</v>
@@ -6062,10 +6062,10 @@
         <v>17</v>
       </c>
       <c r="AD39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF39" t="n">
         <v>6.5</v>
@@ -6074,13 +6074,13 @@
         <v>17</v>
       </c>
       <c r="AH39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI39" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK39" t="n">
         <v>19</v>
@@ -6134,7 +6134,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H40" t="n">
         <v>3.5</v>
@@ -6152,28 +6152,28 @@
         <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
         <v>13</v>
       </c>
       <c r="O40" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R40" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S40" t="n">
         <v>2.75</v>
       </c>
       <c r="T40" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U40" t="n">
         <v>1.33</v>
@@ -6281,7 +6281,7 @@
         <v>3.6</v>
       </c>
       <c r="I41" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="J41" t="n">
         <v>4</v>
@@ -6293,13 +6293,13 @@
         <v>2.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
         <v>13</v>
       </c>
       <c r="O41" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -6314,7 +6314,7 @@
         <v>2.75</v>
       </c>
       <c r="T41" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U41" t="n">
         <v>1.33</v>
@@ -6416,7 +6416,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H42" t="n">
         <v>3.25</v>
@@ -6428,34 +6428,34 @@
         <v>4</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L42" t="n">
         <v>2.88</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P42" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S42" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T42" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="U42" t="n">
         <v>1.5</v>
@@ -6488,10 +6488,10 @@
         <v>41</v>
       </c>
       <c r="AE42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG42" t="n">
         <v>17</v>
@@ -6522,8 +6522,12 @@
       </c>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
-      <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="inlineStr"/>
+      <c r="AR42" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6557,16 +6561,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H43" t="n">
         <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K43" t="n">
         <v>2.3</v>
@@ -6575,28 +6579,28 @@
         <v>3.25</v>
       </c>
       <c r="M43" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N43" t="n">
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P43" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R43" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S43" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="T43" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="U43" t="n">
         <v>1.33</v>
@@ -6647,7 +6651,7 @@
         <v>12</v>
       </c>
       <c r="AK43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL43" t="n">
         <v>11</v>
@@ -6659,7 +6663,7 @@
         <v>21</v>
       </c>
       <c r="AO43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP43" t="n">
         <v>2.05</v>
@@ -6702,31 +6706,31 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H44" t="n">
         <v>3.4</v>
       </c>
       <c r="I44" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="J44" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L44" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M44" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
         <v>13</v>
       </c>
       <c r="O44" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P44" t="n">
         <v>4.33</v>
@@ -6738,10 +6742,10 @@
         <v>2.1</v>
       </c>
       <c r="S44" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T44" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U44" t="n">
         <v>1.33</v>
@@ -6750,22 +6754,22 @@
         <v>3.25</v>
       </c>
       <c r="W44" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X44" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC44" t="n">
         <v>19</v>
@@ -6777,13 +6781,13 @@
         <v>13</v>
       </c>
       <c r="AF44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI44" t="n">
         <v>126</v>
@@ -6795,16 +6799,16 @@
         <v>15</v>
       </c>
       <c r="AL44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO44" t="n">
         <v>26</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>23</v>
       </c>
       <c r="AP44" t="n">
         <v>2</v>
@@ -6847,34 +6851,34 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H45" t="n">
         <v>3.7</v>
       </c>
       <c r="I45" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J45" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K45" t="n">
         <v>2.3</v>
       </c>
       <c r="L45" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
         <v>13</v>
       </c>
       <c r="O45" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P45" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
         <v>1.7</v>
@@ -6883,10 +6887,10 @@
         <v>2.1</v>
       </c>
       <c r="S45" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T45" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U45" t="n">
         <v>1.33</v>
@@ -6895,16 +6899,16 @@
         <v>3.25</v>
       </c>
       <c r="W45" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X45" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA45" t="n">
         <v>8.5</v>
@@ -6919,13 +6923,13 @@
         <v>23</v>
       </c>
       <c r="AE45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH45" t="n">
         <v>41</v>
@@ -6943,13 +6947,13 @@
         <v>15</v>
       </c>
       <c r="AM45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN45" t="n">
         <v>34</v>
       </c>
       <c r="AO45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
@@ -6988,31 +6992,31 @@
         </is>
       </c>
       <c r="G46" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K46" t="n">
         <v>2.2</v>
       </c>
-      <c r="H46" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L46" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N46" t="n">
         <v>11</v>
       </c>
       <c r="O46" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P46" t="n">
         <v>3.5</v>
@@ -7027,7 +7031,7 @@
         <v>3.25</v>
       </c>
       <c r="T46" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U46" t="n">
         <v>1.4</v>
@@ -7045,13 +7049,13 @@
         <v>8</v>
       </c>
       <c r="Z46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA46" t="n">
         <v>9</v>
       </c>
       <c r="AB46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC46" t="n">
         <v>17</v>
@@ -7063,7 +7067,7 @@
         <v>10</v>
       </c>
       <c r="AF46" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG46" t="n">
         <v>13</v>
@@ -7078,16 +7082,16 @@
         <v>11</v>
       </c>
       <c r="AK46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO46" t="n">
         <v>34</v>
@@ -7147,13 +7151,13 @@
         <v>3.75</v>
       </c>
       <c r="M47" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P47" t="n">
         <v>2.75</v>
@@ -7168,7 +7172,7 @@
         <v>4.33</v>
       </c>
       <c r="T47" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U47" t="n">
         <v>1.5</v>
@@ -7274,13 +7278,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="H48" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I48" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="J48" t="n">
         <v>7.5</v>
@@ -7292,46 +7296,46 @@
         <v>2.1</v>
       </c>
       <c r="M48" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N48" t="n">
         <v>10</v>
       </c>
       <c r="O48" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P48" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R48" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T48" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="U48" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V48" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W48" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X48" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y48" t="n">
         <v>12</v>
       </c>
       <c r="Z48" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA48" t="n">
         <v>21</v>
@@ -7343,7 +7347,7 @@
         <v>51</v>
       </c>
       <c r="AD48" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AE48" t="n">
         <v>8.5</v>
@@ -7361,7 +7365,7 @@
         <v>101</v>
       </c>
       <c r="AJ48" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AK48" t="n">
         <v>6</v>
@@ -7370,13 +7374,13 @@
         <v>9</v>
       </c>
       <c r="AM48" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN48" t="n">
         <v>15</v>
       </c>
       <c r="AO48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP48" t="inlineStr"/>
       <c r="AQ48" t="inlineStr"/>
@@ -7520,16 +7524,16 @@
         <v>29</v>
       </c>
       <c r="AP49" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR49" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="50">
@@ -7564,13 +7568,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I50" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J50" t="n">
         <v>4.5</v>
@@ -7579,7 +7583,7 @@
         <v>2.38</v>
       </c>
       <c r="L50" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M50" t="n">
         <v>1.03</v>
@@ -7606,10 +7610,10 @@
         <v>1.44</v>
       </c>
       <c r="U50" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V50" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W50" t="n">
         <v>1.67</v>
@@ -7624,7 +7628,7 @@
         <v>23</v>
       </c>
       <c r="AA50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB50" t="n">
         <v>41</v>
@@ -7639,7 +7643,7 @@
         <v>15</v>
       </c>
       <c r="AF50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG50" t="n">
         <v>15</v>
@@ -7651,16 +7655,16 @@
         <v>151</v>
       </c>
       <c r="AJ50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL50" t="n">
         <v>8.5</v>
       </c>
       <c r="AM50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN50" t="n">
         <v>13</v>
@@ -8003,64 +8007,64 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H53" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I53" t="n">
         <v>5.75</v>
       </c>
       <c r="J53" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K53" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="L53" t="n">
         <v>5.5</v>
       </c>
       <c r="M53" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N53" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O53" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="P53" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="R53" t="n">
-        <v>1.82</v>
+        <v>2.2</v>
       </c>
       <c r="S53" t="n">
-        <v>3.4</v>
+        <v>2.62</v>
       </c>
       <c r="T53" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="U53" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="V53" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X53" t="n">
         <v>1.95</v>
       </c>
-      <c r="X53" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Y53" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Z53" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA53" t="n">
         <v>8.5</v>
@@ -8069,34 +8073,34 @@
         <v>12</v>
       </c>
       <c r="AC53" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE53" t="n">
         <v>13</v>
       </c>
-      <c r="AD53" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>10</v>
-      </c>
       <c r="AF53" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH53" t="n">
         <v>51</v>
       </c>
       <c r="AI53" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AJ53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK53" t="n">
         <v>29</v>
       </c>
       <c r="AL53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM53" t="n">
         <v>51</v>
@@ -8166,10 +8170,10 @@
         <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O54" t="n">
         <v>1.44</v>
@@ -8259,10 +8263,10 @@
         <v>1.28</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="55">
@@ -8315,28 +8319,28 @@
         <v>4.5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N55" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O55" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P55" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R55" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S55" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T55" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U55" t="n">
         <v>1.57</v>
@@ -8402,16 +8406,16 @@
         <v>51</v>
       </c>
       <c r="AP55" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR55" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="56">
@@ -8476,16 +8480,16 @@
         <v>3.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="R56" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S56" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T56" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U56" t="n">
         <v>1.4</v>
@@ -8587,13 +8591,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H57" t="n">
         <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J57" t="n">
         <v>3.4</v>
@@ -8605,10 +8609,10 @@
         <v>3.75</v>
       </c>
       <c r="M57" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N57" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O57" t="n">
         <v>1.5</v>
@@ -8650,7 +8654,7 @@
         <v>11</v>
       </c>
       <c r="AB57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC57" t="n">
         <v>23</v>
@@ -8694,10 +8698,10 @@
       <c r="AP57" t="inlineStr"/>
       <c r="AQ57" t="inlineStr"/>
       <c r="AR57" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="58">
@@ -8732,19 +8736,19 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>7.8</v>
       </c>
       <c r="I58" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J58" t="n">
         <v>1.34</v>
       </c>
       <c r="K58" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L58" t="n">
         <v>15</v>
@@ -8759,19 +8763,19 @@
         <v>1.11</v>
       </c>
       <c r="P58" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="R58" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="S58" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T58" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="U58" t="n">
         <v>1.17</v>
@@ -8780,31 +8784,31 @@
         <v>4.6</v>
       </c>
       <c r="W58" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="X58" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="Y58" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="Z58" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AA58" t="n">
         <v>12.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC58" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AD58" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE58" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF58" t="n">
         <v>19.5</v>
@@ -8813,28 +8817,28 @@
         <v>45</v>
       </c>
       <c r="AH58" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI58" t="n">
         <v>1000</v>
       </c>
       <c r="AJ58" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK58" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL58" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM58" t="n">
         <v>1000</v>
       </c>
       <c r="AN58" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AO58" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AP58" t="inlineStr"/>
       <c r="AQ58" t="inlineStr"/>
@@ -8873,19 +8877,19 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H59" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I59" t="n">
         <v>7.5</v>
       </c>
       <c r="J59" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L59" t="n">
         <v>6.5</v>
@@ -8897,40 +8901,40 @@
         <v>13</v>
       </c>
       <c r="O59" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P59" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R59" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S59" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V59" t="n">
         <v>3</v>
       </c>
-      <c r="T59" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U59" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="V59" t="n">
-        <v>2.75</v>
-      </c>
       <c r="W59" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X59" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y59" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z59" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA59" t="n">
         <v>8.5</v>
@@ -8939,31 +8943,31 @@
         <v>10</v>
       </c>
       <c r="AC59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD59" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF59" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG59" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>301</v>
+      </c>
+      <c r="AJ59" t="n">
         <v>19</v>
       </c>
-      <c r="AH59" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>401</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>17</v>
-      </c>
       <c r="AK59" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL59" t="n">
         <v>21</v>
@@ -9032,10 +9036,10 @@
         <v>3.6</v>
       </c>
       <c r="M60" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O60" t="n">
         <v>1.29</v>
@@ -9044,19 +9048,19 @@
         <v>3.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R60" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S60" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T60" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U60" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V60" t="n">
         <v>2.75</v>
@@ -9155,13 +9159,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H61" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I61" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J61" t="n">
         <v>4.75</v>
@@ -9179,25 +9183,25 @@
         <v>15</v>
       </c>
       <c r="O61" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P61" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R61" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S61" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T61" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U61" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="V61" t="n">
         <v>3.4</v>
@@ -9242,7 +9246,7 @@
         <v>151</v>
       </c>
       <c r="AJ61" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK61" t="n">
         <v>9</v>
@@ -9251,7 +9255,7 @@
         <v>8.5</v>
       </c>
       <c r="AM61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN61" t="n">
         <v>13</v>
@@ -9296,13 +9300,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J62" t="n">
         <v>1.62</v>
@@ -9311,13 +9315,13 @@
         <v>2.75</v>
       </c>
       <c r="L62" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="M62" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O62" t="n">
         <v>1.17</v>
@@ -9338,28 +9342,28 @@
         <v>1.57</v>
       </c>
       <c r="U62" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="V62" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W62" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="X62" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="Y62" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA62" t="n">
         <v>9.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC62" t="n">
         <v>11</v>
@@ -9374,13 +9378,13 @@
         <v>13</v>
       </c>
       <c r="AG62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH62" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ62" t="n">
         <v>23</v>
@@ -9392,19 +9396,19 @@
         <v>29</v>
       </c>
       <c r="AM62" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN62" t="n">
+        <v>81</v>
+      </c>
+      <c r="AO62" t="n">
         <v>67</v>
       </c>
-      <c r="AO62" t="n">
-        <v>51</v>
-      </c>
       <c r="AP62" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AQ62" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AR62" t="inlineStr"/>
       <c r="AS62" t="inlineStr"/>
@@ -9450,7 +9454,7 @@
         <v>2.15</v>
       </c>
       <c r="J63" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K63" t="n">
         <v>2.2</v>
@@ -9459,40 +9463,40 @@
         <v>2.75</v>
       </c>
       <c r="M63" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N63" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O63" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P63" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="R63" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S63" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T63" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U63" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V63" t="n">
         <v>3</v>
       </c>
       <c r="W63" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X63" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y63" t="n">
         <v>11</v>
@@ -9513,7 +9517,7 @@
         <v>29</v>
       </c>
       <c r="AE63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF63" t="n">
         <v>7</v>
@@ -9525,10 +9529,10 @@
         <v>41</v>
       </c>
       <c r="AI63" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK63" t="n">
         <v>11</v>
@@ -9543,7 +9547,7 @@
         <v>17</v>
       </c>
       <c r="AO63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP63" t="inlineStr"/>
       <c r="AQ63" t="inlineStr"/>
@@ -9582,22 +9586,22 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="H64" t="n">
         <v>3.8</v>
       </c>
       <c r="I64" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J64" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K64" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L64" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M64" t="n">
         <v>1.03</v>
@@ -9639,13 +9643,13 @@
         <v>9</v>
       </c>
       <c r="Z64" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA64" t="n">
         <v>8.5</v>
       </c>
       <c r="AB64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC64" t="n">
         <v>13</v>
@@ -9669,7 +9673,7 @@
         <v>151</v>
       </c>
       <c r="AJ64" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK64" t="n">
         <v>26</v>
@@ -9727,70 +9731,70 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="H65" t="n">
         <v>3.6</v>
       </c>
       <c r="I65" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J65" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K65" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L65" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O65" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P65" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q65" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W65" t="n">
         <v>1.62</v>
       </c>
-      <c r="R65" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S65" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T65" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U65" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V65" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W65" t="n">
-        <v>1.57</v>
-      </c>
       <c r="X65" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y65" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z65" t="n">
         <v>10</v>
       </c>
-      <c r="Z65" t="n">
-        <v>11</v>
-      </c>
       <c r="AA65" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC65" t="n">
         <v>15</v>
@@ -9799,43 +9803,43 @@
         <v>21</v>
       </c>
       <c r="AE65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF65" t="n">
         <v>7</v>
       </c>
       <c r="AG65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH65" t="n">
         <v>41</v>
       </c>
       <c r="AI65" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK65" t="n">
         <v>21</v>
       </c>
       <c r="AL65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM65" t="n">
         <v>41</v>
       </c>
       <c r="AN65" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO65" t="n">
         <v>29</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr"/>
@@ -9872,22 +9876,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="H66" t="n">
         <v>4.75</v>
       </c>
       <c r="I66" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="J66" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K66" t="n">
         <v>2.4</v>
       </c>
       <c r="L66" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
         <v>1.03</v>
@@ -9902,10 +9906,10 @@
         <v>4.33</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R66" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S66" t="n">
         <v>2.63</v>
@@ -9914,19 +9918,19 @@
         <v>1.44</v>
       </c>
       <c r="U66" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V66" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W66" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="X66" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y66" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z66" t="n">
         <v>29</v>
@@ -9935,7 +9939,7 @@
         <v>17</v>
       </c>
       <c r="AB66" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC66" t="n">
         <v>41</v>
@@ -9950,25 +9954,25 @@
         <v>9</v>
       </c>
       <c r="AG66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH66" t="n">
         <v>51</v>
       </c>
       <c r="AI66" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ66" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK66" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AL66" t="n">
         <v>8.5</v>
       </c>
       <c r="AM66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN66" t="n">
         <v>12</v>
@@ -10017,7 +10021,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="H67" t="n">
         <v>4</v>
@@ -10029,7 +10033,7 @@
         <v>2.1</v>
       </c>
       <c r="K67" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L67" t="n">
         <v>5.5</v>
@@ -10162,16 +10166,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H68" t="n">
         <v>3.4</v>
       </c>
       <c r="I68" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J68" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K68" t="n">
         <v>2.3</v>
@@ -10228,7 +10232,7 @@
         <v>15</v>
       </c>
       <c r="AC68" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD68" t="n">
         <v>23</v>
@@ -10261,7 +10265,7 @@
         <v>41</v>
       </c>
       <c r="AN68" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO68" t="n">
         <v>34</v>
@@ -10321,40 +10325,40 @@
         <v>4</v>
       </c>
       <c r="M69" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N69" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="O69" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P69" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R69" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S69" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T69" t="n">
         <v>1.26</v>
       </c>
       <c r="U69" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="V69" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="W69" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X69" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Y69" t="n">
         <v>7</v>
@@ -10363,7 +10367,7 @@
         <v>9.5</v>
       </c>
       <c r="AA69" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB69" t="n">
         <v>19</v>
@@ -10387,7 +10391,7 @@
         <v>51</v>
       </c>
       <c r="AI69" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ69" t="n">
         <v>9</v>
@@ -10399,7 +10403,7 @@
         <v>12</v>
       </c>
       <c r="AM69" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN69" t="n">
         <v>29</v>
@@ -10444,22 +10448,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H70" t="n">
         <v>3.4</v>
       </c>
       <c r="I70" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J70" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K70" t="n">
         <v>2.05</v>
       </c>
       <c r="L70" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M70" t="n">
         <v>1.06</v>
@@ -10474,16 +10478,16 @@
         <v>3</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R70" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S70" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T70" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U70" t="n">
         <v>1.44</v>
@@ -10498,16 +10502,16 @@
         <v>1.83</v>
       </c>
       <c r="Y70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z70" t="n">
         <v>11</v>
       </c>
       <c r="AA70" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB70" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC70" t="n">
         <v>21</v>
@@ -10543,7 +10547,7 @@
         <v>29</v>
       </c>
       <c r="AN70" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO70" t="n">
         <v>34</v>
@@ -10585,22 +10589,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>8.75</v>
+        <v>10.75</v>
       </c>
       <c r="H71" t="n">
         <v>5.1</v>
       </c>
       <c r="I71" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="J71" t="n">
-        <v>7.2</v>
+        <v>8.75</v>
       </c>
       <c r="K71" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="L71" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
@@ -10613,7 +10617,7 @@
         <v>2.75</v>
       </c>
       <c r="S71" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T71" t="n">
         <v>1.65</v>
@@ -10621,61 +10625,61 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="X71" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="Y71" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Z71" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AA71" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB71" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AC71" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AD71" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AE71" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AF71" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AG71" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AH71" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AI71" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AJ71" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK71" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AL71" t="n">
         <v>7.6</v>
       </c>
       <c r="AM71" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AN71" t="n">
         <v>8.5</v>
       </c>
       <c r="AO71" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AP71" t="inlineStr"/>
       <c r="AQ71" t="inlineStr"/>
@@ -10714,86 +10718,86 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="H72" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I72" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J72" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K72" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="L72" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P72" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R72" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S72" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="T72" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="X72" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="Y72" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Z72" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AA72" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AB72" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC72" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AD72" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE72" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AF72" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AG72" t="n">
         <v>11</v>
       </c>
       <c r="AH72" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI72" t="n">
         <v>175</v>
       </c>
       <c r="AJ72" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK72" t="n">
         <v>8.5</v>
@@ -10802,13 +10806,13 @@
         <v>7.2</v>
       </c>
       <c r="AM72" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AN72" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AO72" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AP72" t="inlineStr"/>
       <c r="AQ72" t="inlineStr"/>
@@ -10847,22 +10851,22 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
         <v>3.6</v>
       </c>
       <c r="I73" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J73" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K73" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="L73" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M73" t="n">
         <v>1.03</v>
@@ -10895,16 +10899,16 @@
         <v>3.4</v>
       </c>
       <c r="W73" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X73" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z73" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA73" t="n">
         <v>9.5</v>
@@ -10919,10 +10923,10 @@
         <v>21</v>
       </c>
       <c r="AE73" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF73" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG73" t="n">
         <v>12</v>
@@ -10931,10 +10935,10 @@
         <v>34</v>
       </c>
       <c r="AI73" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK73" t="n">
         <v>17</v>
@@ -10946,16 +10950,16 @@
         <v>29</v>
       </c>
       <c r="AN73" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO73" t="n">
         <v>23</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
@@ -10992,16 +10996,16 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H74" t="n">
         <v>3.8</v>
       </c>
       <c r="I74" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J74" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K74" t="n">
         <v>2.37</v>
@@ -11013,7 +11017,7 @@
         <v>1.03</v>
       </c>
       <c r="N74" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O74" t="n">
         <v>1.18</v>
@@ -11022,10 +11026,10 @@
         <v>4.5</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R74" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S74" t="n">
         <v>2.5</v>
@@ -11040,10 +11044,10 @@
         <v>3.4</v>
       </c>
       <c r="W74" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X74" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y74" t="n">
         <v>10</v>
@@ -11055,7 +11059,7 @@
         <v>9</v>
       </c>
       <c r="AB74" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC74" t="n">
         <v>15</v>
@@ -11070,7 +11074,7 @@
         <v>7.5</v>
       </c>
       <c r="AG74" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH74" t="n">
         <v>41</v>
@@ -11082,13 +11086,13 @@
         <v>13</v>
       </c>
       <c r="AK74" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL74" t="n">
         <v>12</v>
       </c>
       <c r="AM74" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN74" t="n">
         <v>23</v>
@@ -11097,10 +11101,10 @@
         <v>26</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr"/>
@@ -11137,7 +11141,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
         <v>3.5</v>
@@ -11155,28 +11159,28 @@
         <v>3.4</v>
       </c>
       <c r="M75" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O75" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P75" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R75" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S75" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T75" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U75" t="n">
         <v>1.3</v>
@@ -11191,7 +11195,7 @@
         <v>2.38</v>
       </c>
       <c r="Y75" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z75" t="n">
         <v>13</v>
@@ -11233,7 +11237,7 @@
         <v>11</v>
       </c>
       <c r="AM75" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN75" t="n">
         <v>21</v>
@@ -11242,10 +11246,10 @@
         <v>26</v>
       </c>
       <c r="AP75" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>
@@ -11291,7 +11295,7 @@
         <v>3.3</v>
       </c>
       <c r="J76" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K76" t="n">
         <v>2.05</v>
@@ -11300,13 +11304,13 @@
         <v>4</v>
       </c>
       <c r="M76" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N76" t="n">
         <v>9</v>
       </c>
       <c r="O76" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P76" t="n">
         <v>2.75</v>
@@ -11315,13 +11319,13 @@
         <v>2.2</v>
       </c>
       <c r="R76" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S76" t="n">
         <v>4</v>
       </c>
       <c r="T76" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U76" t="n">
         <v>1.5</v>
@@ -11330,10 +11334,10 @@
         <v>2.5</v>
       </c>
       <c r="W76" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X76" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y76" t="n">
         <v>6.5</v>
@@ -11564,61 +11568,61 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H78" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I78" t="n">
         <v>5</v>
       </c>
       <c r="J78" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K78" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L78" t="n">
         <v>5</v>
       </c>
       <c r="M78" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O78" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P78" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="R78" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="S78" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T78" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="U78" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V78" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W78" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="X78" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Y78" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z78" t="n">
         <v>8</v>
@@ -11627,16 +11631,16 @@
         <v>8.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC78" t="n">
         <v>13</v>
       </c>
       <c r="AD78" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE78" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF78" t="n">
         <v>7.5</v>
@@ -11648,7 +11652,7 @@
         <v>51</v>
       </c>
       <c r="AI78" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ78" t="n">
         <v>15</v>
@@ -11657,7 +11661,7 @@
         <v>26</v>
       </c>
       <c r="AL78" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM78" t="n">
         <v>51</v>
@@ -11705,64 +11709,64 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H79" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I79" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J79" t="n">
         <v>3.6</v>
       </c>
       <c r="K79" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L79" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M79" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N79" t="n">
         <v>6</v>
       </c>
       <c r="O79" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="P79" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="R79" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S79" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="T79" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="U79" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V79" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W79" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X79" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Y79" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z79" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA79" t="n">
         <v>12</v>
@@ -11777,13 +11781,13 @@
         <v>41</v>
       </c>
       <c r="AE79" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF79" t="n">
         <v>6</v>
       </c>
       <c r="AG79" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH79" t="n">
         <v>81</v>
@@ -11801,16 +11805,16 @@
         <v>12</v>
       </c>
       <c r="AM79" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN79" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO79" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP79" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.18</v>
@@ -11854,13 +11858,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H80" t="n">
         <v>4.33</v>
       </c>
       <c r="I80" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J80" t="n">
         <v>2</v>
@@ -11869,31 +11873,31 @@
         <v>2.25</v>
       </c>
       <c r="L80" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M80" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N80" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O80" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P80" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R80" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S80" t="n">
         <v>3.4</v>
       </c>
       <c r="T80" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="U80" t="n">
         <v>1.4</v>
@@ -11905,13 +11909,13 @@
         <v>2.1</v>
       </c>
       <c r="X80" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Y80" t="n">
         <v>6</v>
       </c>
       <c r="Z80" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA80" t="n">
         <v>8.5</v>
@@ -11923,10 +11927,10 @@
         <v>13</v>
       </c>
       <c r="AD80" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE80" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF80" t="n">
         <v>8.5</v>
@@ -11935,7 +11939,7 @@
         <v>21</v>
       </c>
       <c r="AH80" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI80" t="n">
         <v>501</v>
@@ -11965,10 +11969,10 @@
         <v>1.46</v>
       </c>
       <c r="AR80" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="81">
@@ -12021,28 +12025,28 @@
         <v>9.5</v>
       </c>
       <c r="M81" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N81" t="n">
         <v>13</v>
       </c>
       <c r="O81" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P81" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R81" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S81" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T81" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="U81" t="n">
         <v>1.33</v>
@@ -12054,16 +12058,16 @@
         <v>2.25</v>
       </c>
       <c r="X81" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Y81" t="n">
         <v>6.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA81" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB81" t="n">
         <v>7.5</v>
@@ -12152,67 +12156,67 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H82" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J82" t="n">
         <v>3.4</v>
       </c>
       <c r="K82" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L82" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M82" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O82" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P82" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="R82" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="S82" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="T82" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U82" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V82" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W82" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="X82" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Y82" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB82" t="n">
         <v>26</v>
@@ -12221,25 +12225,25 @@
         <v>23</v>
       </c>
       <c r="AD82" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF82" t="n">
         <v>6</v>
       </c>
       <c r="AG82" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH82" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI82" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AJ82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK82" t="n">
         <v>13</v>
@@ -12251,22 +12255,22 @@
         <v>29</v>
       </c>
       <c r="AN82" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AO82" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP82" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AR82" t="n">
-        <v>1.71</v>
+        <v>1.98</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="83">
@@ -12301,22 +12305,22 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="H83" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="J83" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K83" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L83" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M83" t="n">
         <v>1.04</v>
@@ -12349,25 +12353,25 @@
         <v>3.25</v>
       </c>
       <c r="W83" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X83" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y83" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z83" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA83" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB83" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC83" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD83" t="n">
         <v>23</v>
@@ -12376,7 +12380,7 @@
         <v>13</v>
       </c>
       <c r="AF83" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG83" t="n">
         <v>12</v>
@@ -12385,25 +12389,25 @@
         <v>41</v>
       </c>
       <c r="AI83" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK83" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AL83" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM83" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO83" t="n">
         <v>29</v>
-      </c>
-      <c r="AN83" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO83" t="n">
-        <v>26</v>
       </c>
       <c r="AP83" t="inlineStr"/>
       <c r="AQ83" t="inlineStr"/>
@@ -12484,7 +12488,7 @@
         <v>1.4</v>
       </c>
       <c r="U84" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V84" t="n">
         <v>3</v>
@@ -12625,7 +12629,7 @@
         <v>1.44</v>
       </c>
       <c r="U85" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="V85" t="n">
         <v>3.4</v>
@@ -12766,7 +12770,7 @@
         <v>1.44</v>
       </c>
       <c r="U86" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V86" t="n">
         <v>3.25</v>
@@ -13134,7 +13138,7 @@
         <v>2.7</v>
       </c>
       <c r="H89" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I89" t="n">
         <v>2.45</v>
@@ -13143,7 +13147,7 @@
         <v>3.25</v>
       </c>
       <c r="K89" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L89" t="n">
         <v>3.05</v>
@@ -13151,34 +13155,34 @@
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P89" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R89" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S89" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="T89" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="U89" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V89" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="W89" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X89" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Y89" t="n">
         <v>9.5</v>
@@ -13199,37 +13203,37 @@
         <v>28</v>
       </c>
       <c r="AE89" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF89" t="n">
         <v>6.3</v>
       </c>
       <c r="AG89" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH89" t="n">
         <v>55</v>
       </c>
       <c r="AI89" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AJ89" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK89" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL89" t="n">
         <v>9.25</v>
       </c>
       <c r="AM89" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN89" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO89" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP89" t="inlineStr"/>
       <c r="AQ89" t="inlineStr"/>
@@ -13268,46 +13272,46 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H90" t="n">
         <v>3.4</v>
       </c>
       <c r="I90" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J90" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K90" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L90" t="n">
         <v>4.75</v>
       </c>
       <c r="M90" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N90" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O90" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P90" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R90" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S90" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T90" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U90" t="n">
         <v>1.44</v>
@@ -13316,10 +13320,10 @@
         <v>2.63</v>
       </c>
       <c r="W90" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="X90" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="Y90" t="n">
         <v>6.5</v>
@@ -13340,10 +13344,10 @@
         <v>29</v>
       </c>
       <c r="AE90" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF90" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG90" t="n">
         <v>17</v>
@@ -13367,7 +13371,7 @@
         <v>41</v>
       </c>
       <c r="AN90" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO90" t="n">
         <v>41</v>
@@ -13430,13 +13434,13 @@
         <v>1.04</v>
       </c>
       <c r="N91" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O91" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P91" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q91" t="n">
         <v>1.75</v>
@@ -13445,10 +13449,10 @@
         <v>2.05</v>
       </c>
       <c r="S91" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T91" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U91" t="n">
         <v>1.33</v>
@@ -13457,10 +13461,10 @@
         <v>3.25</v>
       </c>
       <c r="W91" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="X91" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Y91" t="n">
         <v>15</v>
@@ -13550,19 +13554,19 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H92" t="n">
         <v>3.2</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J92" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K92" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L92" t="n">
         <v>4</v>
@@ -13574,10 +13578,10 @@
         <v>8</v>
       </c>
       <c r="O92" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P92" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q92" t="n">
         <v>2.35</v>
@@ -13586,10 +13590,10 @@
         <v>1.57</v>
       </c>
       <c r="S92" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T92" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U92" t="n">
         <v>1.53</v>
@@ -13601,7 +13605,7 @@
         <v>2</v>
       </c>
       <c r="X92" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Y92" t="n">
         <v>6.5</v>
@@ -13613,7 +13617,7 @@
         <v>10</v>
       </c>
       <c r="AB92" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC92" t="n">
         <v>21</v>
@@ -13637,10 +13641,10 @@
         <v>451</v>
       </c>
       <c r="AJ92" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK92" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL92" t="n">
         <v>12</v>
@@ -13657,10 +13661,10 @@
       <c r="AP92" t="inlineStr"/>
       <c r="AQ92" t="inlineStr"/>
       <c r="AR92" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="93">
@@ -13695,7 +13699,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
         <v>3.4</v>
@@ -13710,13 +13714,13 @@
         <v>2.05</v>
       </c>
       <c r="L93" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M93" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O93" t="n">
         <v>1.36</v>
@@ -13737,16 +13741,16 @@
         <v>1.22</v>
       </c>
       <c r="U93" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V93" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W93" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X93" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Y93" t="n">
         <v>6</v>
@@ -13755,7 +13759,7 @@
         <v>7.5</v>
       </c>
       <c r="AA93" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB93" t="n">
         <v>13</v>
@@ -13788,7 +13792,7 @@
         <v>23</v>
       </c>
       <c r="AL93" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM93" t="n">
         <v>51</v>
@@ -13797,7 +13801,7 @@
         <v>41</v>
       </c>
       <c r="AO93" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP93" t="inlineStr"/>
       <c r="AQ93" t="inlineStr"/>
@@ -13840,28 +13844,28 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H94" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I94" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J94" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K94" t="n">
         <v>2.1</v>
       </c>
       <c r="L94" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M94" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N94" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O94" t="n">
         <v>1.3</v>
@@ -13888,16 +13892,16 @@
         <v>2.63</v>
       </c>
       <c r="W94" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="X94" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="Y94" t="n">
         <v>6.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA94" t="n">
         <v>8.5</v>
@@ -13918,7 +13922,7 @@
         <v>6.5</v>
       </c>
       <c r="AG94" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH94" t="n">
         <v>51</v>
@@ -13927,19 +13931,19 @@
         <v>301</v>
       </c>
       <c r="AJ94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK94" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL94" t="n">
         <v>15</v>
       </c>
       <c r="AM94" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN94" t="n">
         <v>41</v>
-      </c>
-      <c r="AN94" t="n">
-        <v>34</v>
       </c>
       <c r="AO94" t="n">
         <v>41</v>
@@ -13981,19 +13985,19 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H95" t="n">
         <v>3</v>
       </c>
       <c r="I95" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J95" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K95" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L95" t="n">
         <v>3.75</v>
@@ -14041,10 +14045,10 @@
         <v>11</v>
       </c>
       <c r="AA95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB95" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC95" t="n">
         <v>23</v>
@@ -14077,7 +14081,7 @@
         <v>12</v>
       </c>
       <c r="AM95" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN95" t="n">
         <v>29</v>
@@ -14088,10 +14092,10 @@
       <c r="AP95" t="inlineStr"/>
       <c r="AQ95" t="inlineStr"/>
       <c r="AR95" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="96">
@@ -15709,22 +15713,22 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H107" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I107" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J107" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="K107" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="L107" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
@@ -15732,67 +15736,67 @@
         <v>1.38</v>
       </c>
       <c r="P107" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="R107" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S107" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T107" t="n">
         <v>1.22</v>
       </c>
       <c r="U107" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V107" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="W107" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="X107" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Y107" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Z107" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA107" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AB107" t="n">
         <v>16.5</v>
       </c>
       <c r="AC107" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD107" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE107" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AF107" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AG107" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH107" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI107" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AJ107" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AK107" t="n">
         <v>13</v>
@@ -15801,13 +15805,13 @@
         <v>9.75</v>
       </c>
       <c r="AM107" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN107" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO107" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP107" t="inlineStr"/>
       <c r="AQ107" t="inlineStr"/>
@@ -15846,32 +15850,36 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H108" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I108" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="J108" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K108" t="n">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="L108" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
+      <c r="O108" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4.4</v>
+      </c>
       <c r="Q108" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="R108" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="S108" t="n">
         <v>2.07</v>
@@ -15882,61 +15890,61 @@
       <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr"/>
       <c r="W108" t="n">
-        <v>2.04</v>
+        <v>2.21</v>
       </c>
       <c r="X108" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="Y108" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="Z108" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA108" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AB108" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AC108" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD108" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG108" t="n">
         <v>22</v>
       </c>
-      <c r="AE108" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF108" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG108" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AH108" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AI108" t="n">
         <v>500</v>
       </c>
       <c r="AJ108" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL108" t="n">
         <v>27</v>
       </c>
-      <c r="AK108" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL108" t="n">
-        <v>29</v>
-      </c>
       <c r="AM108" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AN108" t="n">
         <v>110</v>
       </c>
       <c r="AO108" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AP108" t="inlineStr"/>
       <c r="AQ108" t="inlineStr"/>
@@ -16266,7 +16274,7 @@
         <v>3.7</v>
       </c>
       <c r="J111" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K111" t="n">
         <v>2.2</v>
@@ -16275,10 +16283,10 @@
         <v>4</v>
       </c>
       <c r="M111" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N111" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O111" t="n">
         <v>1.29</v>
@@ -16287,10 +16295,10 @@
         <v>3.5</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R111" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S111" t="n">
         <v>3.4</v>
@@ -16407,7 +16415,7 @@
         <v>9.5</v>
       </c>
       <c r="J112" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="K112" t="n">
         <v>2.75</v>
@@ -16829,10 +16837,10 @@
         <v>2.2</v>
       </c>
       <c r="K115" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L115" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M115" t="n">
         <v>1.04</v>
@@ -16874,7 +16882,7 @@
         <v>8</v>
       </c>
       <c r="Z115" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA115" t="n">
         <v>8.5</v>
@@ -16883,13 +16891,13 @@
         <v>12</v>
       </c>
       <c r="AC115" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD115" t="n">
         <v>23</v>
       </c>
       <c r="AE115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF115" t="n">
         <v>7.5</v>
@@ -16958,19 +16966,19 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H116" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I116" t="n">
         <v>4.75</v>
       </c>
       <c r="J116" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K116" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L116" t="n">
         <v>4.75</v>
@@ -16979,43 +16987,43 @@
         <v>1.03</v>
       </c>
       <c r="N116" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O116" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="P116" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="R116" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="S116" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="T116" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="U116" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="V116" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="W116" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X116" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y116" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z116" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA116" t="n">
         <v>8.5</v>
@@ -17024,31 +17032,31 @@
         <v>13</v>
       </c>
       <c r="AC116" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD116" t="n">
         <v>21</v>
       </c>
       <c r="AE116" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG116" t="n">
         <v>13</v>
-      </c>
-      <c r="AF116" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG116" t="n">
-        <v>15</v>
       </c>
       <c r="AH116" t="n">
         <v>41</v>
       </c>
       <c r="AI116" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ116" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK116" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL116" t="n">
         <v>15</v>
@@ -17060,13 +17068,13 @@
         <v>34</v>
       </c>
       <c r="AO116" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP116" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ116" t="n">
         <v>2</v>
-      </c>
-      <c r="AQ116" t="n">
-        <v>1.85</v>
       </c>
       <c r="AR116" t="inlineStr"/>
       <c r="AS116" t="inlineStr"/>
@@ -17103,28 +17111,28 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H117" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I117" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="J117" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K117" t="n">
         <v>2</v>
       </c>
       <c r="L117" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M117" t="n">
         <v>1.08</v>
       </c>
       <c r="N117" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O117" t="n">
         <v>1.4</v>
@@ -17151,10 +17159,10 @@
         <v>2.5</v>
       </c>
       <c r="W117" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X117" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y117" t="n">
         <v>8.5</v>
@@ -17163,7 +17171,7 @@
         <v>15</v>
       </c>
       <c r="AA117" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB117" t="n">
         <v>34</v>
@@ -17181,7 +17189,7 @@
         <v>6</v>
       </c>
       <c r="AG117" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH117" t="n">
         <v>51</v>
@@ -17190,16 +17198,16 @@
         <v>351</v>
       </c>
       <c r="AJ117" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK117" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL117" t="n">
         <v>10</v>
       </c>
-      <c r="AL117" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AM117" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN117" t="n">
         <v>21</v>
@@ -17248,16 +17256,16 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H118" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I118" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J118" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K118" t="n">
         <v>2.05</v>
@@ -17269,7 +17277,7 @@
         <v>1.08</v>
       </c>
       <c r="N118" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O118" t="n">
         <v>1.4</v>
@@ -17296,16 +17304,16 @@
         <v>2.5</v>
       </c>
       <c r="W118" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X118" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y118" t="n">
         <v>5.5</v>
       </c>
       <c r="Z118" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA118" t="n">
         <v>9</v>
@@ -17389,40 +17397,40 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H119" t="n">
         <v>3.5</v>
       </c>
       <c r="I119" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J119" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K119" t="n">
         <v>2.05</v>
       </c>
       <c r="L119" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M119" t="n">
         <v>1.06</v>
       </c>
       <c r="N119" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O119" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P119" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R119" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S119" t="n">
         <v>3.75</v>
@@ -17446,16 +17454,16 @@
         <v>8</v>
       </c>
       <c r="Z119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA119" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB119" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC119" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD119" t="n">
         <v>34</v>
@@ -17473,19 +17481,19 @@
         <v>51</v>
       </c>
       <c r="AI119" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ119" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK119" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL119" t="n">
         <v>10</v>
       </c>
       <c r="AM119" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN119" t="n">
         <v>21</v>
@@ -17836,16 +17844,16 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H122" t="n">
         <v>3.3</v>
       </c>
       <c r="I122" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J122" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K122" t="n">
         <v>2.1</v>
@@ -17854,10 +17862,10 @@
         <v>3.2</v>
       </c>
       <c r="M122" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N122" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O122" t="n">
         <v>1.29</v>
@@ -17890,7 +17898,7 @@
         <v>2</v>
       </c>
       <c r="Y122" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z122" t="n">
         <v>13</v>
@@ -17899,7 +17907,7 @@
         <v>10</v>
       </c>
       <c r="AB122" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC122" t="n">
         <v>21</v>
@@ -17977,7 +17985,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H123" t="n">
         <v>4.2</v>
@@ -18007,10 +18015,10 @@
         <v>3.75</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R123" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S123" t="n">
         <v>3</v>
@@ -18025,10 +18033,10 @@
         <v>3</v>
       </c>
       <c r="W123" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X123" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y123" t="n">
         <v>7</v>
@@ -18055,7 +18063,7 @@
         <v>8</v>
       </c>
       <c r="AG123" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH123" t="n">
         <v>51</v>
@@ -18073,7 +18081,7 @@
         <v>17</v>
       </c>
       <c r="AM123" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN123" t="n">
         <v>41</v>
@@ -18142,10 +18150,10 @@
         <v>17</v>
       </c>
       <c r="O124" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P124" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q124" t="n">
         <v>1.53</v>
@@ -18223,10 +18231,10 @@
         <v>29</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ124" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR124" t="inlineStr"/>
       <c r="AS124" t="inlineStr"/>
@@ -18272,22 +18280,22 @@
         <v>3.2</v>
       </c>
       <c r="J125" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K125" t="n">
         <v>2.1</v>
       </c>
       <c r="L125" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M125" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N125" t="n">
         <v>10</v>
       </c>
       <c r="O125" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P125" t="n">
         <v>3.25</v>
@@ -18302,7 +18310,7 @@
         <v>3.75</v>
       </c>
       <c r="T125" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U125" t="n">
         <v>1.44</v>
@@ -18311,10 +18319,10 @@
         <v>2.63</v>
       </c>
       <c r="W125" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X125" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y125" t="n">
         <v>7.5</v>
@@ -18347,13 +18355,13 @@
         <v>51</v>
       </c>
       <c r="AI125" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ125" t="n">
         <v>9.5</v>
       </c>
       <c r="AK125" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL125" t="n">
         <v>12</v>
@@ -18362,7 +18370,7 @@
         <v>34</v>
       </c>
       <c r="AN125" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO125" t="n">
         <v>34</v>
@@ -18422,13 +18430,13 @@
         <v>4.75</v>
       </c>
       <c r="M126" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N126" t="n">
         <v>13</v>
       </c>
       <c r="O126" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P126" t="n">
         <v>4</v>
@@ -18440,10 +18448,10 @@
         <v>2.1</v>
       </c>
       <c r="S126" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T126" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U126" t="n">
         <v>1.33</v>
@@ -18560,31 +18568,31 @@
         <v>2.4</v>
       </c>
       <c r="L127" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="M127" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N127" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O127" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P127" t="n">
         <v>4</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R127" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S127" t="n">
         <v>2.75</v>
       </c>
       <c r="T127" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U127" t="n">
         <v>1.33</v>
@@ -18686,46 +18694,46 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H128" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I128" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="J128" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K128" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L128" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M128" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N128" t="n">
         <v>7</v>
       </c>
       <c r="O128" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P128" t="n">
         <v>2.5</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R128" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S128" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T128" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U128" t="n">
         <v>1.57</v>
@@ -18734,28 +18742,28 @@
         <v>2.25</v>
       </c>
       <c r="W128" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X128" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y128" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z128" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA128" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB128" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC128" t="n">
         <v>51</v>
       </c>
       <c r="AD128" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AE128" t="n">
         <v>6.5</v>
@@ -18767,14 +18775,14 @@
         <v>23</v>
       </c>
       <c r="AH128" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI128" t="inlineStr"/>
       <c r="AJ128" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AK128" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AL128" t="n">
         <v>9.5</v>
@@ -18791,10 +18799,10 @@
       <c r="AP128" t="inlineStr"/>
       <c r="AQ128" t="inlineStr"/>
       <c r="AR128" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="129">
@@ -18829,31 +18837,31 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I129" t="n">
         <v>4.5</v>
       </c>
       <c r="J129" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="K129" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="L129" t="n">
         <v>5</v>
       </c>
       <c r="M129" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N129" t="n">
         <v>6.5</v>
       </c>
       <c r="O129" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P129" t="n">
         <v>2.5</v>
@@ -18865,49 +18873,49 @@
         <v>1.48</v>
       </c>
       <c r="S129" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U129" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V129" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W129" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X129" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y129" t="n">
         <v>5</v>
-      </c>
-      <c r="T129" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U129" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V129" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W129" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X129" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y129" t="n">
-        <v>5.5</v>
       </c>
       <c r="Z129" t="n">
         <v>8</v>
       </c>
       <c r="AA129" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB129" t="n">
         <v>17</v>
       </c>
       <c r="AC129" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD129" t="n">
         <v>41</v>
       </c>
       <c r="AE129" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF129" t="n">
         <v>6</v>
       </c>
       <c r="AG129" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH129" t="n">
         <v>81</v>
@@ -18916,7 +18924,7 @@
         <v>501</v>
       </c>
       <c r="AJ129" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK129" t="n">
         <v>21</v>
@@ -18936,10 +18944,10 @@
       <c r="AP129" t="inlineStr"/>
       <c r="AQ129" t="inlineStr"/>
       <c r="AR129" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="130">
@@ -18986,19 +18994,19 @@
         <v>3.1</v>
       </c>
       <c r="K130" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L130" t="n">
         <v>4.33</v>
       </c>
       <c r="M130" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N130" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O130" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P130" t="n">
         <v>2.5</v>
@@ -19013,7 +19021,7 @@
         <v>5</v>
       </c>
       <c r="T130" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="U130" t="n">
         <v>1.57</v>
@@ -19137,13 +19145,13 @@
         <v>2.5</v>
       </c>
       <c r="M131" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N131" t="n">
         <v>11</v>
       </c>
       <c r="O131" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P131" t="n">
         <v>3.75</v>
@@ -19158,7 +19166,7 @@
         <v>3</v>
       </c>
       <c r="T131" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U131" t="n">
         <v>1.36</v>
@@ -19260,7 +19268,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H132" t="n">
         <v>3</v>
@@ -19269,22 +19277,22 @@
         <v>3</v>
       </c>
       <c r="J132" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K132" t="n">
         <v>2.05</v>
       </c>
       <c r="L132" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M132" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N132" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O132" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P132" t="n">
         <v>3.25</v>
@@ -19299,7 +19307,7 @@
         <v>3.75</v>
       </c>
       <c r="T132" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U132" t="n">
         <v>1.44</v>
@@ -19344,7 +19352,7 @@
         <v>51</v>
       </c>
       <c r="AI132" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ132" t="n">
         <v>9</v>
@@ -19560,10 +19568,10 @@
         <v>4.75</v>
       </c>
       <c r="M134" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N134" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O134" t="n">
         <v>1.3</v>
@@ -19713,10 +19721,10 @@
         <v>3.25</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="R135" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S135" t="n">
         <v>3.75</v>
@@ -19842,10 +19850,10 @@
         <v>8</v>
       </c>
       <c r="M136" t="n">
-        <v>19</v>
+        <v>1.02</v>
       </c>
       <c r="N136" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="O136" t="n">
         <v>1.13</v>
@@ -19866,16 +19874,16 @@
         <v>1.67</v>
       </c>
       <c r="U136" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V136" t="n">
         <v>3.75</v>
       </c>
       <c r="W136" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="X136" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Y136" t="n">
         <v>9</v>
@@ -19993,16 +20001,16 @@
         <v>10</v>
       </c>
       <c r="O137" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P137" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q137" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R137" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S137" t="n">
         <v>2.5</v>
@@ -20011,16 +20019,16 @@
         <v>1.5</v>
       </c>
       <c r="U137" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V137" t="n">
         <v>3.4</v>
       </c>
       <c r="W137" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X137" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y137" t="n">
         <v>8</v>
@@ -20038,7 +20046,7 @@
         <v>12</v>
       </c>
       <c r="AD137" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE137" t="n">
         <v>13</v>
@@ -20074,10 +20082,10 @@
         <v>51</v>
       </c>
       <c r="AP137" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="AR137" t="inlineStr"/>
       <c r="AS137" t="inlineStr"/>
@@ -20114,13 +20122,13 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H138" t="n">
         <v>3.4</v>
       </c>
       <c r="I138" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J138" t="n">
         <v>3.4</v>
@@ -20129,7 +20137,7 @@
         <v>2.2</v>
       </c>
       <c r="L138" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M138" t="n">
         <v>1.04</v>
@@ -20156,13 +20164,13 @@
         <v>1.4</v>
       </c>
       <c r="U138" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V138" t="n">
         <v>3</v>
       </c>
       <c r="W138" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X138" t="n">
         <v>2.1</v>
@@ -20171,13 +20179,13 @@
         <v>11</v>
       </c>
       <c r="Z138" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA138" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB138" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC138" t="n">
         <v>23</v>
@@ -20255,7 +20263,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H139" t="n">
         <v>3.3</v>
@@ -20273,10 +20281,10 @@
         <v>3.5</v>
       </c>
       <c r="M139" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N139" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O139" t="n">
         <v>1.29</v>
@@ -20285,10 +20293,10 @@
         <v>3.75</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R139" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S139" t="n">
         <v>3.2</v>
@@ -20297,19 +20305,19 @@
         <v>1.36</v>
       </c>
       <c r="U139" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V139" t="n">
         <v>2.75</v>
       </c>
       <c r="W139" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X139" t="n">
         <v>2.05</v>
       </c>
       <c r="Y139" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z139" t="n">
         <v>12</v>
@@ -20339,7 +20347,7 @@
         <v>41</v>
       </c>
       <c r="AI139" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ139" t="n">
         <v>10</v>
@@ -20426,10 +20434,10 @@
         <v>3.5</v>
       </c>
       <c r="Q140" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R140" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S140" t="n">
         <v>3.4</v>
@@ -20438,13 +20446,13 @@
         <v>1.33</v>
       </c>
       <c r="U140" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V140" t="n">
         <v>2.75</v>
       </c>
       <c r="W140" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X140" t="n">
         <v>2</v>
@@ -20822,19 +20830,19 @@
         <v>1.06</v>
       </c>
       <c r="H143" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="I143" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J143" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="K143" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="L143" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
@@ -20842,52 +20850,52 @@
         <v>1.06</v>
       </c>
       <c r="P143" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="R143" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="S143" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T143" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U143" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="V143" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="W143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="X143" t="n">
         <v>1.55</v>
       </c>
-      <c r="T143" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U143" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="V143" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="W143" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="X143" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Y143" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z143" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA143" t="n">
         <v>15</v>
       </c>
       <c r="AB143" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AC143" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD143" t="n">
         <v>45</v>
       </c>
       <c r="AE143" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF143" t="n">
         <v>27</v>
@@ -20896,14 +20904,14 @@
         <v>55</v>
       </c>
       <c r="AH143" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI143" t="inlineStr"/>
       <c r="AJ143" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK143" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AL143" t="n">
         <v>110</v>
@@ -21096,67 +21104,67 @@
         <v>2.05</v>
       </c>
       <c r="H145" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I145" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J145" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="K145" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L145" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="M145" t="n">
         <v>1.06</v>
       </c>
       <c r="N145" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O145" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P145" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q145" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R145" t="n">
         <v>1.83</v>
       </c>
-      <c r="R145" t="n">
-        <v>1.88</v>
-      </c>
       <c r="S145" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="T145" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="U145" t="n">
         <v>1.42</v>
       </c>
       <c r="V145" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="W145" t="n">
         <v>1.7</v>
       </c>
       <c r="X145" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="Y145" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="Z145" t="n">
         <v>10.5</v>
       </c>
       <c r="AA145" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB145" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC145" t="n">
         <v>15.5</v>
@@ -21165,22 +21173,22 @@
         <v>24</v>
       </c>
       <c r="AE145" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AF145" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AG145" t="n">
         <v>13</v>
       </c>
       <c r="AH145" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI145" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AJ145" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK145" t="n">
         <v>18.5</v>
@@ -21192,10 +21200,10 @@
         <v>50</v>
       </c>
       <c r="AN145" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO145" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AP145" t="inlineStr"/>
       <c r="AQ145" t="inlineStr"/>
@@ -21243,28 +21251,28 @@
         <v>2.2</v>
       </c>
       <c r="J146" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K146" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L146" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M146" t="n">
         <v>1.08</v>
       </c>
       <c r="N146" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="O146" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P146" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="Q146" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R146" t="n">
         <v>1.7</v>
@@ -21279,37 +21287,37 @@
         <v>1.4</v>
       </c>
       <c r="V146" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="W146" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X146" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Y146" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z146" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA146" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB146" t="n">
         <v>45</v>
       </c>
       <c r="AC146" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD146" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE146" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF146" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AG146" t="n">
         <v>14</v>
@@ -21321,10 +21329,10 @@
         <v>600</v>
       </c>
       <c r="AJ146" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AK146" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AL146" t="n">
         <v>8.75</v>
@@ -21333,10 +21341,10 @@
         <v>22</v>
       </c>
       <c r="AN146" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO146" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP146" t="inlineStr"/>
       <c r="AQ146" t="inlineStr"/>
@@ -22083,10 +22091,10 @@
         <v>2.38</v>
       </c>
       <c r="H152" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I152" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J152" t="n">
         <v>3.1</v>
@@ -22110,28 +22118,28 @@
         <v>3.4</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R152" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S152" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T152" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U152" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V152" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W152" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X152" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y152" t="n">
         <v>8</v>
@@ -22161,10 +22169,10 @@
         <v>13</v>
       </c>
       <c r="AH152" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI152" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ152" t="n">
         <v>9.5</v>
@@ -22221,13 +22229,13 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H153" t="n">
         <v>3.4</v>
       </c>
       <c r="I153" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J153" t="n">
         <v>2.5</v>
@@ -22254,7 +22262,7 @@
         <v>2.4</v>
       </c>
       <c r="R153" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S153" t="n">
         <v>4.5</v>
@@ -22278,22 +22286,22 @@
         <v>5.5</v>
       </c>
       <c r="Z153" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA153" t="n">
         <v>9</v>
       </c>
       <c r="AB153" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC153" t="n">
         <v>17</v>
       </c>
       <c r="AD153" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE153" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF153" t="n">
         <v>6.5</v>
@@ -22308,10 +22316,10 @@
         <v>1000</v>
       </c>
       <c r="AJ153" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK153" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL153" t="n">
         <v>17</v>
@@ -22366,16 +22374,16 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H154" t="n">
+        <v>3</v>
+      </c>
+      <c r="I154" t="n">
         <v>2.9</v>
       </c>
-      <c r="I154" t="n">
-        <v>3</v>
-      </c>
       <c r="J154" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K154" t="n">
         <v>2</v>
@@ -22387,7 +22395,7 @@
         <v>1.08</v>
       </c>
       <c r="N154" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O154" t="n">
         <v>1.4</v>
@@ -22396,16 +22404,16 @@
         <v>2.75</v>
       </c>
       <c r="Q154" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R154" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="S154" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T154" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U154" t="n">
         <v>1.5</v>
@@ -22414,10 +22422,10 @@
         <v>2.5</v>
       </c>
       <c r="W154" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="X154" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="Y154" t="n">
         <v>7.5</v>
@@ -22507,22 +22515,22 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H155" t="n">
         <v>3.1</v>
       </c>
       <c r="I155" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J155" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K155" t="n">
         <v>2.05</v>
       </c>
       <c r="L155" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M155" t="n">
         <v>1.07</v>
@@ -22531,13 +22539,13 @@
         <v>9</v>
       </c>
       <c r="O155" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P155" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q155" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R155" t="n">
         <v>1.67</v>
@@ -22549,19 +22557,19 @@
         <v>1.25</v>
       </c>
       <c r="U155" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V155" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W155" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X155" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y155" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z155" t="n">
         <v>13</v>
@@ -22606,7 +22614,7 @@
         <v>26</v>
       </c>
       <c r="AN155" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO155" t="n">
         <v>34</v>
@@ -22648,16 +22656,16 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H156" t="n">
         <v>3.1</v>
       </c>
       <c r="I156" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J156" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K156" t="n">
         <v>2.05</v>
@@ -22669,7 +22677,7 @@
         <v>1.07</v>
       </c>
       <c r="N156" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O156" t="n">
         <v>1.33</v>
@@ -22678,10 +22686,10 @@
         <v>3.25</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R156" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S156" t="n">
         <v>3.75</v>
@@ -22699,13 +22707,13 @@
         <v>1.8</v>
       </c>
       <c r="X156" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y156" t="n">
         <v>8</v>
       </c>
       <c r="Z156" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA156" t="n">
         <v>10</v>
@@ -22717,7 +22725,7 @@
         <v>21</v>
       </c>
       <c r="AD156" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE156" t="n">
         <v>8.5</v>
@@ -22747,7 +22755,7 @@
         <v>29</v>
       </c>
       <c r="AN156" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO156" t="n">
         <v>34</v>
@@ -22789,13 +22797,13 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H157" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I157" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J157" t="n">
         <v>2.63</v>
@@ -22804,7 +22812,7 @@
         <v>2.25</v>
       </c>
       <c r="L157" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M157" t="n">
         <v>1.04</v>
@@ -22819,10 +22827,10 @@
         <v>4</v>
       </c>
       <c r="Q157" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R157" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S157" t="n">
         <v>2.75</v>
@@ -22837,7 +22845,7 @@
         <v>3.25</v>
       </c>
       <c r="W157" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X157" t="n">
         <v>2.2</v>
@@ -22876,7 +22884,7 @@
         <v>151</v>
       </c>
       <c r="AJ157" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK157" t="n">
         <v>19</v>
@@ -22885,7 +22893,7 @@
         <v>12</v>
       </c>
       <c r="AM157" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN157" t="n">
         <v>26</v>
@@ -22936,7 +22944,7 @@
         <v>3.3</v>
       </c>
       <c r="I158" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J158" t="n">
         <v>4</v>
@@ -22948,28 +22956,28 @@
         <v>2.75</v>
       </c>
       <c r="M158" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N158" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O158" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P158" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="R158" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S158" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T158" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U158" t="n">
         <v>1.4</v>
@@ -23353,61 +23361,61 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="H161" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I161" t="n">
         <v>3.2</v>
       </c>
       <c r="J161" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="K161" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="L161" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="M161" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N161" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O161" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P161" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="Q161" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="R161" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S161" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="T161" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U161" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V161" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="W161" t="n">
         <v>1.62</v>
       </c>
       <c r="X161" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="Y161" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z161" t="n">
         <v>10.75</v>
@@ -23416,37 +23424,37 @@
         <v>8.5</v>
       </c>
       <c r="AB161" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC161" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD161" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE161" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF161" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AG161" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH161" t="n">
         <v>50</v>
       </c>
       <c r="AI161" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AJ161" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AK161" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL161" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AM161" t="n">
         <v>40</v>
@@ -23494,109 +23502,109 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I162" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="J162" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K162" t="n">
         <v>1.93</v>
       </c>
       <c r="L162" t="n">
-        <v>2.87</v>
+        <v>2.72</v>
       </c>
       <c r="M162" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N162" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="O162" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P162" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="Q162" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R162" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S162" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T162" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="U162" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V162" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="W162" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="X162" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="Y162" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z162" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA162" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB162" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD162" t="n">
         <v>55</v>
       </c>
-      <c r="AC162" t="n">
-        <v>35</v>
-      </c>
-      <c r="AD162" t="n">
-        <v>40</v>
-      </c>
       <c r="AE162" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AF162" t="n">
         <v>5.9</v>
       </c>
       <c r="AG162" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH162" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI162" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AJ162" t="n">
         <v>6.2</v>
       </c>
       <c r="AK162" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AL162" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM162" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AN162" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AO162" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP162" t="inlineStr"/>
       <c r="AQ162" t="inlineStr"/>
@@ -23635,85 +23643,85 @@
         </is>
       </c>
       <c r="G163" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H163" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J163" t="n">
         <v>4.15</v>
       </c>
-      <c r="H163" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J163" t="n">
-        <v>4.25</v>
-      </c>
       <c r="K163" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="L163" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="M163" t="n">
         <v>1.03</v>
       </c>
       <c r="N163" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O163" t="n">
         <v>1.17</v>
       </c>
       <c r="P163" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="Q163" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R163" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="S163" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="T163" t="n">
         <v>1.57</v>
       </c>
       <c r="U163" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V163" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="W163" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X163" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="Y163" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z163" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA163" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB163" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AC163" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD163" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE163" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF163" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG163" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH163" t="n">
         <v>40</v>
@@ -23725,16 +23733,16 @@
         <v>10</v>
       </c>
       <c r="AK163" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AL163" t="n">
         <v>8.25</v>
       </c>
       <c r="AM163" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AN163" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO163" t="n">
         <v>18.5</v>
@@ -23917,22 +23925,22 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H165" t="n">
         <v>3.95</v>
       </c>
       <c r="I165" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J165" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="K165" t="n">
         <v>2.25</v>
       </c>
       <c r="L165" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M165" t="n">
         <v>1.05</v>
@@ -23959,28 +23967,28 @@
         <v>1.4</v>
       </c>
       <c r="U165" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="V165" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="W165" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X165" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Y165" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z165" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AA165" t="n">
         <v>8</v>
       </c>
       <c r="AB165" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AC165" t="n">
         <v>12</v>
@@ -24004,13 +24012,13 @@
         <v>500</v>
       </c>
       <c r="AJ165" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK165" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL165" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AM165" t="n">
         <v>100</v>
@@ -24058,22 +24066,22 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H166" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I166" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J166" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K166" t="n">
         <v>2.3</v>
       </c>
       <c r="L166" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M166" t="n">
         <v>1.04</v>
@@ -24088,10 +24096,10 @@
         <v>4.33</v>
       </c>
       <c r="Q166" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R166" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S166" t="n">
         <v>2.63</v>
@@ -24100,22 +24108,22 @@
         <v>1.44</v>
       </c>
       <c r="U166" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V166" t="n">
         <v>3.25</v>
       </c>
       <c r="W166" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X166" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y166" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z166" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA166" t="n">
         <v>8.5</v>
@@ -24148,13 +24156,13 @@
         <v>15</v>
       </c>
       <c r="AK166" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL166" t="n">
         <v>15</v>
       </c>
       <c r="AM166" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN166" t="n">
         <v>34</v>
@@ -24205,10 +24213,10 @@
         <v>4.33</v>
       </c>
       <c r="I167" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="J167" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K167" t="n">
         <v>2.6</v>
@@ -24235,13 +24243,13 @@
         <v>2.7</v>
       </c>
       <c r="S167" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T167" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U167" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V167" t="n">
         <v>3.75</v>
@@ -24265,7 +24273,7 @@
         <v>51</v>
       </c>
       <c r="AC167" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD167" t="n">
         <v>29</v>
@@ -24289,16 +24297,16 @@
         <v>11</v>
       </c>
       <c r="AK167" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL167" t="n">
         <v>8.5</v>
       </c>
       <c r="AM167" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN167" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO167" t="n">
         <v>19</v>
@@ -24382,7 +24390,7 @@
         <v>1.57</v>
       </c>
       <c r="U168" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V168" t="n">
         <v>3.5</v>
@@ -24485,22 +24493,22 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H169" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I169" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J169" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K169" t="n">
         <v>2.2</v>
       </c>
       <c r="L169" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M169" t="n">
         <v>1.05</v>
@@ -24515,19 +24523,19 @@
         <v>3.5</v>
       </c>
       <c r="Q169" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R169" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S169" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T169" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U169" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V169" t="n">
         <v>2.75</v>
@@ -24542,13 +24550,13 @@
         <v>7</v>
       </c>
       <c r="Z169" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA169" t="n">
         <v>8.5</v>
       </c>
       <c r="AB169" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC169" t="n">
         <v>15</v>
@@ -24560,7 +24568,7 @@
         <v>11</v>
       </c>
       <c r="AF169" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG169" t="n">
         <v>17</v>
@@ -24569,22 +24577,22 @@
         <v>51</v>
       </c>
       <c r="AI169" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ169" t="n">
         <v>12</v>
       </c>
       <c r="AK169" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL169" t="n">
         <v>15</v>
       </c>
       <c r="AM169" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN169" t="n">
         <v>41</v>
-      </c>
-      <c r="AN169" t="n">
-        <v>34</v>
       </c>
       <c r="AO169" t="n">
         <v>41</v>
@@ -24626,13 +24634,13 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H170" t="n">
         <v>3</v>
       </c>
       <c r="I170" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J170" t="n">
         <v>3.4</v>
@@ -24641,13 +24649,13 @@
         <v>1.95</v>
       </c>
       <c r="L170" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M170" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N170" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O170" t="n">
         <v>1.44</v>
@@ -24668,10 +24676,10 @@
         <v>1.18</v>
       </c>
       <c r="U170" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V170" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W170" t="n">
         <v>2</v>
@@ -24683,7 +24691,7 @@
         <v>7</v>
       </c>
       <c r="Z170" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA170" t="n">
         <v>11</v>
@@ -24698,7 +24706,7 @@
         <v>41</v>
       </c>
       <c r="AE170" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF170" t="n">
         <v>6</v>
@@ -24733,10 +24741,10 @@
       <c r="AP170" t="inlineStr"/>
       <c r="AQ170" t="inlineStr"/>
       <c r="AR170" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -24771,13 +24779,13 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H171" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I171" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J171" t="n">
         <v>3.75</v>
@@ -24813,7 +24821,7 @@
         <v>1.33</v>
       </c>
       <c r="U171" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V171" t="n">
         <v>2.75</v>
@@ -24831,7 +24839,7 @@
         <v>17</v>
       </c>
       <c r="AA171" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB171" t="n">
         <v>34</v>
@@ -24867,7 +24875,7 @@
         <v>9</v>
       </c>
       <c r="AM171" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN171" t="n">
         <v>17</v>
@@ -24954,10 +24962,10 @@
         <v>1.25</v>
       </c>
       <c r="U172" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V172" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W172" t="n">
         <v>1.8</v>
@@ -25330,19 +25338,19 @@
         <v>2.35</v>
       </c>
       <c r="H175" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I175" t="n">
         <v>3.4</v>
       </c>
       <c r="J175" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K175" t="n">
         <v>1.8</v>
       </c>
       <c r="L175" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="M175" t="n">
         <v>1.12</v>
@@ -25381,28 +25389,28 @@
         <v>1.7</v>
       </c>
       <c r="Y175" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z175" t="n">
         <v>10.5</v>
       </c>
       <c r="AA175" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB175" t="n">
         <v>26</v>
       </c>
       <c r="AC175" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD175" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE175" t="n">
         <v>6.2</v>
       </c>
       <c r="AF175" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AG175" t="n">
         <v>15.5</v>
@@ -25414,10 +25422,10 @@
         <v>900</v>
       </c>
       <c r="AJ175" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AK175" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL175" t="n">
         <v>12</v>
@@ -25903,16 +25911,16 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H179" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I179" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J179" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K179" t="n">
         <v>2.4</v>
@@ -25957,7 +25965,7 @@
         <v>2.25</v>
       </c>
       <c r="Y179" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z179" t="n">
         <v>10</v>
@@ -25990,13 +25998,13 @@
         <v>126</v>
       </c>
       <c r="AJ179" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK179" t="n">
         <v>23</v>
       </c>
       <c r="AL179" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM179" t="n">
         <v>41</v>
@@ -26008,10 +26016,10 @@
         <v>29</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AR179" t="inlineStr"/>
       <c r="AS179" t="inlineStr"/>
@@ -26048,10 +26056,10 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H180" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I180" t="n">
         <v>3</v>
@@ -26060,16 +26068,16 @@
         <v>2.75</v>
       </c>
       <c r="K180" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L180" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M180" t="n">
         <v>1.03</v>
       </c>
       <c r="N180" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O180" t="n">
         <v>1.18</v>
@@ -26105,7 +26113,7 @@
         <v>11</v>
       </c>
       <c r="Z180" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA180" t="n">
         <v>9</v>
@@ -26150,13 +26158,13 @@
         <v>21</v>
       </c>
       <c r="AO180" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP180" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR180" t="inlineStr"/>
       <c r="AS180" t="inlineStr"/>
@@ -26196,57 +26204,57 @@
         <v>3.6</v>
       </c>
       <c r="H181" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="I181" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="J181" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="K181" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="L181" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="P181" t="n">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="Q181" t="n">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="R181" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="S181" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="T181" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="U181" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V181" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="W181" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="X181" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="Y181" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="Z181" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA181" t="n">
         <v>12.5</v>
@@ -26255,43 +26263,43 @@
         <v>55</v>
       </c>
       <c r="AC181" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AD181" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AE181" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="AF181" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AG181" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AH181" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AI181" t="n">
         <v>800</v>
       </c>
       <c r="AJ181" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AK181" t="n">
         <v>9.25</v>
       </c>
       <c r="AL181" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AM181" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN181" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO181" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP181" t="inlineStr"/>
       <c r="AQ181" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-02.xlsx
@@ -1260,22 +1260,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H6" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K6" t="n">
         <v>2.6</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1296,10 +1296,10 @@
         <v>2.38</v>
       </c>
       <c r="S6" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T6" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U6" t="n">
         <v>2.38</v>
@@ -1314,22 +1314,22 @@
         <v>3.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC6" t="n">
         <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1344,13 +1344,13 @@
         <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
       </c>
       <c r="AK6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL6" t="n">
         <v>21</v>
@@ -1359,7 +1359,7 @@
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
         <v>81</v>
@@ -1368,7 +1368,7 @@
         <v>51</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -2263,75 +2263,75 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L13" t="n">
         <v>3.6</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4</v>
-      </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X13" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
         <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
         <v>23</v>
@@ -2340,10 +2340,10 @@
         <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ13" t="n">
         <v>41</v>
@@ -2352,7 +2352,7 @@
         <v>151</v>
       </c>
       <c r="AL13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM13" t="n">
         <v>19</v>
@@ -2361,10 +2361,10 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -3399,22 +3399,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="J21" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
@@ -3458,16 +3458,16 @@
         <v>7</v>
       </c>
       <c r="AB21" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
         <v>34</v>
@@ -3479,28 +3479,28 @@
         <v>6</v>
       </c>
       <c r="AI21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ21" t="n">
         <v>51</v>
       </c>
       <c r="AK21" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL21" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AM21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN21" t="n">
         <v>13</v>
       </c>
-      <c r="AN21" t="n">
-        <v>11</v>
-      </c>
       <c r="AO21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP21" t="n">
         <v>29</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>41</v>
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H22" t="n">
         <v>3.6</v>
@@ -3553,13 +3553,13 @@
         <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K22" t="n">
         <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.1</v>
@@ -3583,7 +3583,7 @@
         <v>4.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="U22" t="n">
         <v>5</v>
@@ -3607,13 +3607,13 @@
         <v>4.75</v>
       </c>
       <c r="AB22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC22" t="n">
         <v>9.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>17</v>
@@ -3655,10 +3655,10 @@
         <v>67</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="23">
@@ -3693,22 +3693,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
         <v>1.91</v>
       </c>
       <c r="L23" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.1</v>
@@ -3723,22 +3723,22 @@
         <v>2.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T23" t="n">
         <v>1.22</v>
       </c>
       <c r="U23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W23" t="n">
         <v>1.57</v>
@@ -3753,19 +3753,19 @@
         <v>1.67</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB23" t="n">
         <v>12</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
         <v>29</v>
       </c>
       <c r="AE23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF23" t="n">
         <v>41</v>
@@ -3786,28 +3786,28 @@
         <v>501</v>
       </c>
       <c r="AL23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN23" t="n">
         <v>11</v>
       </c>
       <c r="AO23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ23" t="n">
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="24">
@@ -3842,10 +3842,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H24" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I24" t="n">
         <v>3.7</v>
@@ -3905,16 +3905,16 @@
         <v>5.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC24" t="n">
         <v>11</v>
       </c>
       <c r="AD24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE24" t="n">
         <v>23</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>26</v>
       </c>
       <c r="AF24" t="n">
         <v>41</v>
@@ -3926,7 +3926,7 @@
         <v>5.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ24" t="n">
         <v>81</v>
@@ -3938,7 +3938,7 @@
         <v>7.5</v>
       </c>
       <c r="AM24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN24" t="n">
         <v>15</v>
@@ -3991,13 +3991,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J25" t="n">
         <v>4.33</v>
@@ -4015,10 +4015,10 @@
         <v>6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q25" t="n">
         <v>2.88</v>
@@ -4063,7 +4063,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF25" t="n">
         <v>51</v>
@@ -4087,16 +4087,16 @@
         <v>5.5</v>
       </c>
       <c r="AM25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN25" t="n">
         <v>11</v>
       </c>
       <c r="AO25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ25" t="n">
         <v>41</v>
@@ -4289,40 +4289,40 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I27" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K27" t="n">
         <v>1.8</v>
       </c>
       <c r="L27" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N27" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -4333,10 +4333,10 @@
         <v>1.1</v>
       </c>
       <c r="W27" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X27" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="Y27" t="n">
         <v>2.5</v>
@@ -4348,22 +4348,22 @@
         <v>5.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="n">
         <v>12</v>
       </c>
       <c r="AD27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF27" t="n">
         <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH27" t="n">
         <v>5.5</v>
@@ -4378,19 +4378,19 @@
         <v>101</v>
       </c>
       <c r="AL27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ27" t="n">
         <v>51</v>
@@ -4430,13 +4430,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I28" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J28" t="n">
         <v>3.2</v>
@@ -4448,10 +4448,10 @@
         <v>4.75</v>
       </c>
       <c r="M28" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N28" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O28" t="n">
         <v>1.67</v>
@@ -4474,10 +4474,10 @@
         <v>1.1</v>
       </c>
       <c r="W28" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X28" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="Y28" t="n">
         <v>2.5</v>
@@ -4504,7 +4504,7 @@
         <v>51</v>
       </c>
       <c r="AG28" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH28" t="n">
         <v>6</v>
@@ -4519,7 +4519,7 @@
         <v>101</v>
       </c>
       <c r="AL28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM28" t="n">
         <v>17</v>
@@ -4577,7 +4577,7 @@
         <v>2.9</v>
       </c>
       <c r="I29" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
@@ -4595,16 +4595,16 @@
         <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R29" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -4615,10 +4615,10 @@
         <v>1.08</v>
       </c>
       <c r="W29" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X29" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="Y29" t="n">
         <v>2.75</v>
@@ -4627,7 +4627,7 @@
         <v>1.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AB29" t="n">
         <v>8</v>
@@ -4645,7 +4645,7 @@
         <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH29" t="n">
         <v>6.5</v>
@@ -4672,7 +4672,7 @@
         <v>51</v>
       </c>
       <c r="AP29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ29" t="n">
         <v>67</v>
@@ -4712,16 +4712,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H30" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
         <v>1.8</v>
@@ -4771,7 +4771,7 @@
         <v>5</v>
       </c>
       <c r="AB30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC30" t="n">
         <v>11</v>
@@ -4863,13 +4863,13 @@
         <v>2.63</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J31" t="n">
         <v>3.2</v>
       </c>
       <c r="K31" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L31" t="n">
         <v>5</v>
@@ -4881,16 +4881,16 @@
         <v>4.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R31" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -4901,10 +4901,10 @@
         <v>1.08</v>
       </c>
       <c r="W31" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X31" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="Y31" t="n">
         <v>2.63</v>
@@ -4931,13 +4931,13 @@
         <v>51</v>
       </c>
       <c r="AG31" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AH31" t="n">
         <v>6</v>
       </c>
       <c r="AI31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ31" t="n">
         <v>126</v>
@@ -4998,10 +4998,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="H32" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
         <v>5</v>
@@ -5010,22 +5010,22 @@
         <v>2.63</v>
       </c>
       <c r="K32" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L32" t="n">
         <v>6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N32" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q32" t="n">
         <v>2.88</v>
@@ -5036,16 +5036,16 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V32" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W32" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X32" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y32" t="n">
         <v>2.5</v>
@@ -5087,7 +5087,7 @@
         <v>101</v>
       </c>
       <c r="AL32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM32" t="n">
         <v>23</v>
@@ -5157,13 +5157,13 @@
         <v>4.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N33" t="n">
         <v>5.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -5180,7 +5180,7 @@
         <v>7</v>
       </c>
       <c r="V33" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="W33" t="n">
         <v>1.75</v>
@@ -5280,34 +5280,34 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I34" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J34" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
         <v>1.8</v>
       </c>
       <c r="L34" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N34" t="n">
         <v>5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="P34" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q34" t="n">
         <v>3.4</v>
@@ -5321,7 +5321,7 @@
         <v>7</v>
       </c>
       <c r="V34" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="W34" t="n">
         <v>1.75</v>
@@ -5339,22 +5339,22 @@
         <v>5</v>
       </c>
       <c r="AB34" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE34" t="n">
         <v>26</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>29</v>
       </c>
       <c r="AF34" t="n">
         <v>51</v>
       </c>
       <c r="AG34" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AH34" t="n">
         <v>6</v>
@@ -5369,10 +5369,10 @@
         <v>101</v>
       </c>
       <c r="AL34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN34" t="n">
         <v>15</v>
@@ -5425,13 +5425,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H35" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="I35" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J35" t="n">
         <v>3.4</v>
@@ -5443,16 +5443,16 @@
         <v>4.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="N35" t="n">
         <v>4.33</v>
       </c>
       <c r="O35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q35" t="n">
         <v>4</v>
@@ -5466,7 +5466,7 @@
         <v>9</v>
       </c>
       <c r="V35" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="W35" t="n">
         <v>1.83</v>
@@ -5475,13 +5475,13 @@
         <v>1.98</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AA35" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AB35" t="n">
         <v>9.5</v>
@@ -5493,13 +5493,13 @@
         <v>23</v>
       </c>
       <c r="AE35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF35" t="n">
         <v>51</v>
       </c>
       <c r="AG35" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AH35" t="n">
         <v>6</v>
@@ -5517,7 +5517,7 @@
         <v>6.5</v>
       </c>
       <c r="AM35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN35" t="n">
         <v>17</v>
@@ -5584,16 +5584,16 @@
         <v>7.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="N36" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="P36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q36" t="n">
         <v>3.1</v>
@@ -5607,7 +5607,7 @@
         <v>6.5</v>
       </c>
       <c r="V36" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="W36" t="n">
         <v>1.67</v>
@@ -7589,10 +7589,10 @@
         <v>1.68</v>
       </c>
       <c r="J50" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K50" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L50" t="n">
         <v>2.3</v>
@@ -7610,10 +7610,10 @@
         <v>4.33</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R50" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S50" t="n">
         <v>2.05</v>
@@ -7640,7 +7640,7 @@
         <v>2.1</v>
       </c>
       <c r="AA50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB50" t="n">
         <v>23</v>
@@ -7658,7 +7658,7 @@
         <v>34</v>
       </c>
       <c r="AG50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH50" t="n">
         <v>7.5</v>
@@ -7670,13 +7670,13 @@
         <v>41</v>
       </c>
       <c r="AK50" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL50" t="n">
         <v>8.5</v>
       </c>
       <c r="AM50" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN50" t="n">
         <v>8.5</v>
@@ -7688,13 +7688,13 @@
         <v>13</v>
       </c>
       <c r="AQ50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR50" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AS50" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="51">
@@ -7747,10 +7747,10 @@
         <v>3.6</v>
       </c>
       <c r="M51" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O51" t="n">
         <v>1.36</v>
@@ -7765,10 +7765,10 @@
         <v>1.65</v>
       </c>
       <c r="S51" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T51" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="U51" t="n">
         <v>4</v>
@@ -7840,10 +7840,10 @@
         <v>34</v>
       </c>
       <c r="AR51" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="52">
@@ -8023,31 +8023,31 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="H53" t="n">
         <v>2.88</v>
       </c>
       <c r="I53" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J53" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K53" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L53" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N53" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O53" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P53" t="n">
         <v>2.5</v>
@@ -8059,16 +8059,16 @@
         <v>1.48</v>
       </c>
       <c r="S53" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T53" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="U53" t="n">
         <v>5.5</v>
       </c>
       <c r="V53" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="W53" t="n">
         <v>1.57</v>
@@ -8083,19 +8083,19 @@
         <v>1.67</v>
       </c>
       <c r="AA53" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD53" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE53" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF53" t="n">
         <v>41</v>
@@ -8107,7 +8107,7 @@
         <v>5.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ53" t="n">
         <v>67</v>
@@ -8116,19 +8116,19 @@
         <v>1000</v>
       </c>
       <c r="AL53" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM53" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN53" t="n">
         <v>13</v>
       </c>
-      <c r="AN53" t="n">
-        <v>12</v>
-      </c>
       <c r="AO53" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP53" t="n">
         <v>34</v>
-      </c>
-      <c r="AP53" t="n">
-        <v>29</v>
       </c>
       <c r="AQ53" t="n">
         <v>41</v>
@@ -8172,31 +8172,31 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
         <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J54" t="n">
         <v>2.75</v>
       </c>
       <c r="K54" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="L54" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M54" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N54" t="n">
         <v>6</v>
       </c>
       <c r="O54" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P54" t="n">
         <v>2.2</v>
@@ -8208,7 +8208,7 @@
         <v>1.4</v>
       </c>
       <c r="S54" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T54" t="n">
         <v>1.17</v>
@@ -8217,25 +8217,25 @@
         <v>6.5</v>
       </c>
       <c r="V54" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="W54" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X54" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y54" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA54" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AB54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC54" t="n">
         <v>10</v>
@@ -8256,7 +8256,7 @@
         <v>6.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ54" t="n">
         <v>101</v>
@@ -8268,19 +8268,19 @@
         <v>9</v>
       </c>
       <c r="AM54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO54" t="n">
         <v>51</v>
       </c>
       <c r="AP54" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ54" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR54" t="n">
         <v>2.1</v>
@@ -10182,84 +10182,84 @@
         </is>
       </c>
       <c r="G68" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K68" t="n">
         <v>2.1</v>
       </c>
-      <c r="H68" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M68" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N68" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="O68" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="P68" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R68" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="V68" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="W68" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="X68" t="n">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="Y68" t="n">
         <v>1.75</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AA68" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB68" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC68" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD68" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF68" t="n">
         <v>29</v>
       </c>
       <c r="AG68" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI68" t="n">
         <v>17</v>
@@ -10271,19 +10271,19 @@
         <v>351</v>
       </c>
       <c r="AL68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO68" t="n">
         <v>41</v>
       </c>
       <c r="AP68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ68" t="n">
         <v>41</v>
@@ -16003,28 +16003,28 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H109" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I109" t="n">
+        <v>3</v>
+      </c>
+      <c r="J109" t="n">
         <v>3.1</v>
       </c>
-      <c r="J109" t="n">
-        <v>3</v>
-      </c>
       <c r="K109" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L109" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M109" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N109" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O109" t="n">
         <v>1.33</v>
@@ -16033,10 +16033,10 @@
         <v>3.25</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="R109" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
@@ -16068,16 +16068,16 @@
         <v>9.5</v>
       </c>
       <c r="AD109" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE109" t="n">
         <v>21</v>
-      </c>
-      <c r="AE109" t="n">
-        <v>19</v>
       </c>
       <c r="AF109" t="n">
         <v>29</v>
       </c>
       <c r="AG109" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH109" t="n">
         <v>6.5</v>
@@ -16089,7 +16089,7 @@
         <v>51</v>
       </c>
       <c r="AK109" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL109" t="n">
         <v>9</v>
@@ -16101,7 +16101,7 @@
         <v>11</v>
       </c>
       <c r="AO109" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP109" t="n">
         <v>26</v>
@@ -16153,7 +16153,7 @@
         <v>3.75</v>
       </c>
       <c r="J110" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K110" t="n">
         <v>2.2</v>
@@ -16174,10 +16174,10 @@
         <v>3.5</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R110" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
@@ -16288,7 +16288,7 @@
         <v>1.27</v>
       </c>
       <c r="H111" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I111" t="n">
         <v>10</v>
@@ -16297,7 +16297,7 @@
         <v>1.67</v>
       </c>
       <c r="K111" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L111" t="n">
         <v>8</v>
@@ -16327,10 +16327,10 @@
         <v>1.93</v>
       </c>
       <c r="U111" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V111" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W111" t="n">
         <v>1.22</v>
@@ -16339,10 +16339,10 @@
         <v>4</v>
       </c>
       <c r="Y111" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z111" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA111" t="n">
         <v>9.5</v>
@@ -16576,10 +16576,10 @@
         <v>2.95</v>
       </c>
       <c r="J113" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="K113" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L113" t="n">
         <v>3.45</v>
@@ -16587,24 +16587,24 @@
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P113" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R113" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="V113" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W113" t="n">
         <v>1.38</v>
@@ -16613,16 +16613,16 @@
         <v>2.6</v>
       </c>
       <c r="Y113" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Z113" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AA113" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB113" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AC113" t="n">
         <v>8.75</v>
@@ -16631,31 +16631,31 @@
         <v>22</v>
       </c>
       <c r="AE113" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF113" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG113" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH113" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AI113" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ113" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK113" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AL113" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AM113" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AN113" t="n">
         <v>10.5</v>
@@ -16667,7 +16667,7 @@
         <v>24</v>
       </c>
       <c r="AQ113" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR113" t="inlineStr"/>
       <c r="AS113" t="inlineStr"/>
@@ -17135,10 +17135,10 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H117" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I117" t="n">
         <v>4.75</v>
@@ -17159,24 +17159,24 @@
         <v>8</v>
       </c>
       <c r="O117" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P117" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q117" t="n">
         <v>2.35</v>
       </c>
       <c r="R117" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V117" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W117" t="n">
         <v>1.5</v>
@@ -17185,10 +17185,10 @@
         <v>2.5</v>
       </c>
       <c r="Y117" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z117" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AA117" t="n">
         <v>5.5</v>
@@ -17200,7 +17200,7 @@
         <v>9</v>
       </c>
       <c r="AD117" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE117" t="n">
         <v>17</v>
@@ -17209,7 +17209,7 @@
         <v>34</v>
       </c>
       <c r="AG117" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH117" t="n">
         <v>6.5</v>
@@ -17224,7 +17224,7 @@
         <v>101</v>
       </c>
       <c r="AL117" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM117" t="n">
         <v>23</v>
@@ -17241,8 +17241,12 @@
       <c r="AQ117" t="n">
         <v>51</v>
       </c>
-      <c r="AR117" t="inlineStr"/>
-      <c r="AS117" t="inlineStr"/>
+      <c r="AR117" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -17425,10 +17429,10 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H119" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I119" t="n">
         <v>1.75</v>
@@ -17443,10 +17447,10 @@
         <v>2.5</v>
       </c>
       <c r="M119" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N119" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O119" t="n">
         <v>1.33</v>
@@ -17479,19 +17483,19 @@
         <v>2.63</v>
       </c>
       <c r="Y119" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z119" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AA119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB119" t="n">
         <v>23</v>
       </c>
       <c r="AC119" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD119" t="n">
         <v>51</v>
@@ -17503,19 +17507,19 @@
         <v>41</v>
       </c>
       <c r="AG119" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH119" t="n">
         <v>6.5</v>
       </c>
       <c r="AI119" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ119" t="n">
         <v>51</v>
       </c>
       <c r="AK119" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL119" t="n">
         <v>6.5</v>
@@ -17524,10 +17528,10 @@
         <v>8</v>
       </c>
       <c r="AN119" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO119" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP119" t="n">
         <v>15</v>
@@ -17583,10 +17587,10 @@
         <v>15</v>
       </c>
       <c r="J120" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="K120" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="L120" t="n">
         <v>11</v>
@@ -17598,22 +17602,22 @@
         <v>17</v>
       </c>
       <c r="O120" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P120" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q120" t="n">
         <v>1.5</v>
       </c>
       <c r="R120" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S120" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="T120" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="U120" t="n">
         <v>2.25</v>
@@ -17631,7 +17635,7 @@
         <v>2.25</v>
       </c>
       <c r="Z120" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AA120" t="n">
         <v>8</v>
@@ -17685,10 +17689,10 @@
         <v>81</v>
       </c>
       <c r="AR120" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AS120" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="121">
@@ -19006,40 +19010,40 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="H130" t="n">
         <v>3.6</v>
       </c>
       <c r="I130" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="J130" t="n">
         <v>4.33</v>
       </c>
       <c r="K130" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L130" t="n">
         <v>2.5</v>
       </c>
       <c r="M130" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N130" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O130" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P130" t="n">
         <v>3.75</v>
       </c>
       <c r="Q130" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="R130" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
@@ -19047,7 +19051,7 @@
         <v>3</v>
       </c>
       <c r="V130" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W130" t="n">
         <v>1.36</v>
@@ -19056,13 +19060,13 @@
         <v>3</v>
       </c>
       <c r="Y130" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z130" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA130" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB130" t="n">
         <v>21</v>
@@ -19074,19 +19078,19 @@
         <v>41</v>
       </c>
       <c r="AE130" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF130" t="n">
         <v>34</v>
       </c>
       <c r="AG130" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH130" t="n">
         <v>7</v>
       </c>
       <c r="AI130" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ130" t="n">
         <v>41</v>
@@ -19098,13 +19102,13 @@
         <v>8</v>
       </c>
       <c r="AM130" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN130" t="n">
         <v>8.5</v>
       </c>
       <c r="AO130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP130" t="n">
         <v>15</v>
@@ -19729,10 +19733,10 @@
         <v>7.5</v>
       </c>
       <c r="M135" t="n">
-        <v>1.02</v>
+        <v>21</v>
       </c>
       <c r="N135" t="n">
-        <v>12</v>
+        <v>1.03</v>
       </c>
       <c r="O135" t="n">
         <v>1.13</v>
@@ -19741,10 +19745,10 @@
         <v>5.5</v>
       </c>
       <c r="Q135" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R135" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S135" t="n">
         <v>1.78</v>
@@ -19759,16 +19763,16 @@
         <v>1.73</v>
       </c>
       <c r="W135" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X135" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Y135" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z135" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA135" t="n">
         <v>9.5</v>
@@ -19780,7 +19784,7 @@
         <v>9.5</v>
       </c>
       <c r="AD135" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE135" t="n">
         <v>11</v>
@@ -19795,13 +19799,13 @@
         <v>13</v>
       </c>
       <c r="AI135" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ135" t="n">
         <v>51</v>
       </c>
       <c r="AK135" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL135" t="n">
         <v>26</v>
@@ -19856,28 +19860,28 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I136" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J136" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K136" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L136" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M136" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N136" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O136" t="n">
         <v>1.2</v>
@@ -19886,10 +19890,10 @@
         <v>4.33</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R136" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S136" t="n">
         <v>2.03</v>
@@ -19898,22 +19902,22 @@
         <v>1.78</v>
       </c>
       <c r="U136" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V136" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W136" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X136" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y136" t="n">
         <v>2</v>
       </c>
       <c r="Z136" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AA136" t="n">
         <v>7.5</v>
@@ -19922,10 +19926,10 @@
         <v>6.5</v>
       </c>
       <c r="AC136" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD136" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE136" t="n">
         <v>12</v>
@@ -19934,22 +19938,22 @@
         <v>29</v>
       </c>
       <c r="AG136" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH136" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI136" t="n">
         <v>21</v>
       </c>
       <c r="AJ136" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK136" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AL136" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM136" t="n">
         <v>41</v>
@@ -20031,10 +20035,10 @@
         <v>3.5</v>
       </c>
       <c r="Q137" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R137" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
@@ -20051,7 +20055,7 @@
         <v>2.75</v>
       </c>
       <c r="Y137" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Z137" t="n">
         <v>2</v>
@@ -22541,28 +22545,28 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H155" t="n">
         <v>3.1</v>
       </c>
       <c r="I155" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="J155" t="n">
         <v>3.2</v>
       </c>
       <c r="K155" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L155" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M155" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N155" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O155" t="n">
         <v>1.33</v>
@@ -22579,10 +22583,10 @@
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V155" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W155" t="n">
         <v>1.44</v>
@@ -22597,7 +22601,7 @@
         <v>1.91</v>
       </c>
       <c r="AA155" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB155" t="n">
         <v>12</v>
@@ -22606,16 +22610,16 @@
         <v>10</v>
       </c>
       <c r="AD155" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE155" t="n">
         <v>21</v>
       </c>
       <c r="AF155" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG155" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH155" t="n">
         <v>6</v>
@@ -22633,7 +22637,7 @@
         <v>9</v>
       </c>
       <c r="AM155" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN155" t="n">
         <v>11</v>
@@ -25796,58 +25800,58 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="H178" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I178" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J178" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L178" t="n">
+        <v>5</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N178" t="n">
+        <v>19</v>
+      </c>
+      <c r="O178" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P178" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S178" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T178" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U178" t="n">
         <v>2.25</v>
       </c>
-      <c r="K178" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L178" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M178" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N178" t="n">
-        <v>17</v>
-      </c>
-      <c r="O178" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P178" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q178" t="n">
+      <c r="V178" t="n">
         <v>1.57</v>
       </c>
-      <c r="R178" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S178" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T178" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U178" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V178" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W178" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X178" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y178" t="n">
         <v>1.57</v>
@@ -25856,28 +25860,28 @@
         <v>2.25</v>
       </c>
       <c r="AA178" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB178" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AB178" t="n">
-        <v>10</v>
       </c>
       <c r="AC178" t="n">
         <v>8.5</v>
       </c>
       <c r="AD178" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE178" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF178" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG178" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH178" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI178" t="n">
         <v>13</v>
@@ -25889,22 +25893,22 @@
         <v>126</v>
       </c>
       <c r="AL178" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM178" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN178" t="n">
         <v>15</v>
       </c>
       <c r="AO178" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP178" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ178" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR178" t="inlineStr"/>
       <c r="AS178" t="inlineStr"/>
@@ -25941,13 +25945,13 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H179" t="n">
         <v>3.7</v>
       </c>
       <c r="I179" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="J179" t="n">
         <v>2.88</v>
@@ -25971,10 +25975,10 @@
         <v>4.33</v>
       </c>
       <c r="Q179" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R179" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S179" t="n">
         <v>2.05</v>
@@ -26086,83 +26090,87 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.6</v>
+        <v>4.65</v>
       </c>
       <c r="H180" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="I180" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="J180" t="n">
-        <v>4.15</v>
+        <v>5.1</v>
       </c>
       <c r="K180" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="L180" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr"/>
+        <v>2.45</v>
+      </c>
+      <c r="M180" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N180" t="n">
+        <v>6.4</v>
+      </c>
       <c r="O180" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="P180" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="Q180" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R180" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="V180" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W180" t="n">
         <v>1.5</v>
       </c>
       <c r="X180" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="Y180" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Z180" t="n">
         <v>1.65</v>
       </c>
       <c r="AA180" t="n">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB180" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>90</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI180" t="n">
         <v>18</v>
-      </c>
-      <c r="AC180" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD180" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE180" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF180" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG180" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH180" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AI180" t="n">
-        <v>17</v>
       </c>
       <c r="AJ180" t="n">
         <v>110</v>
@@ -26171,22 +26179,22 @@
         <v>800</v>
       </c>
       <c r="AL180" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AM180" t="n">
-        <v>9.25</v>
+        <v>7.8</v>
       </c>
       <c r="AN180" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AO180" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AP180" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ180" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AR180" t="inlineStr"/>
       <c r="AS180" t="inlineStr"/>
@@ -26223,22 +26231,22 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H181" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I181" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J181" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="K181" t="n">
         <v>2.18</v>
       </c>
       <c r="L181" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
@@ -26269,28 +26277,28 @@
         <v>2.7</v>
       </c>
       <c r="Y181" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Z181" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AA181" t="n">
         <v>6.6</v>
       </c>
       <c r="AB181" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AC181" t="n">
         <v>7.9</v>
       </c>
       <c r="AD181" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AE181" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF181" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG181" t="n">
         <v>10.75</v>
@@ -26299,10 +26307,10 @@
         <v>7.5</v>
       </c>
       <c r="AI181" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ181" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK181" t="n">
         <v>600</v>
@@ -26314,16 +26322,16 @@
         <v>40</v>
       </c>
       <c r="AN181" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO181" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AP181" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AQ181" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR181" t="inlineStr"/>
       <c r="AS181" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-02.xlsx
@@ -3842,19 +3842,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
         <v>2.75</v>
       </c>
       <c r="I24" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L24" t="n">
         <v>4.33</v>
@@ -3866,28 +3866,28 @@
         <v>5.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="P24" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R24" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="U24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W24" t="n">
         <v>1.67</v>
@@ -3905,22 +3905,22 @@
         <v>5.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC24" t="n">
         <v>11</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF24" t="n">
         <v>41</v>
       </c>
       <c r="AG24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH24" t="n">
         <v>5.5</v>
@@ -3935,19 +3935,19 @@
         <v>501</v>
       </c>
       <c r="AL24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
         <v>41</v>
       </c>
       <c r="AP24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ24" t="n">
         <v>51</v>
@@ -3991,28 +3991,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="J25" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>1.83</v>
       </c>
       <c r="L25" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.57</v>
@@ -4027,10 +4027,10 @@
         <v>1.4</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="T25" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="U25" t="n">
         <v>6</v>
@@ -4039,34 +4039,34 @@
         <v>1.13</v>
       </c>
       <c r="W25" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X25" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE25" t="n">
         <v>34</v>
       </c>
       <c r="AF25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG25" t="n">
         <v>6</v>
@@ -4084,16 +4084,16 @@
         <v>101</v>
       </c>
       <c r="AL25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN25" t="n">
         <v>11</v>
       </c>
       <c r="AO25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP25" t="n">
         <v>26</v>
@@ -4102,10 +4102,10 @@
         <v>41</v>
       </c>
       <c r="AR25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="26">
@@ -4140,13 +4140,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H26" t="n">
         <v>2.9</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J26" t="n">
         <v>3.2</v>
@@ -4155,7 +4155,7 @@
         <v>1.83</v>
       </c>
       <c r="L26" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.13</v>
@@ -4200,7 +4200,7 @@
         <v>1.53</v>
       </c>
       <c r="AA26" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB26" t="n">
         <v>9</v>
@@ -4212,7 +4212,7 @@
         <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
@@ -5139,54 +5139,54 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H33" t="n">
         <v>2.8</v>
       </c>
       <c r="I33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J33" t="n">
         <v>3.5</v>
       </c>
-      <c r="J33" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K33" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N33" t="n">
         <v>4.75</v>
       </c>
-      <c r="M33" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N33" t="n">
-        <v>5.5</v>
-      </c>
       <c r="O33" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R33" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V33" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W33" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="X33" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y33" t="n">
         <v>2.63</v>
@@ -5198,13 +5198,13 @@
         <v>5</v>
       </c>
       <c r="AB33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC33" t="n">
         <v>12</v>
       </c>
       <c r="AD33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE33" t="n">
         <v>29</v>
@@ -5213,7 +5213,7 @@
         <v>51</v>
       </c>
       <c r="AG33" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH33" t="n">
         <v>6</v>
@@ -5280,13 +5280,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H34" t="n">
         <v>2.8</v>
       </c>
       <c r="I34" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J34" t="n">
         <v>3.1</v>
@@ -5298,36 +5298,36 @@
         <v>5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N34" t="n">
         <v>5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="P34" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V34" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W34" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X34" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="Y34" t="n">
         <v>2.63</v>
@@ -5336,10 +5336,10 @@
         <v>1.44</v>
       </c>
       <c r="AA34" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC34" t="n">
         <v>11</v>
@@ -5354,37 +5354,37 @@
         <v>51</v>
       </c>
       <c r="AG34" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH34" t="n">
         <v>6</v>
       </c>
       <c r="AI34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ34" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK34" t="n">
         <v>101</v>
       </c>
       <c r="AL34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN34" t="n">
         <v>17</v>
       </c>
-      <c r="AN34" t="n">
-        <v>15</v>
-      </c>
       <c r="AO34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP34" t="n">
         <v>41</v>
       </c>
       <c r="AQ34" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR34" t="n">
         <v>2.05</v>
@@ -5425,34 +5425,34 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H35" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="I35" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K35" t="n">
         <v>1.73</v>
       </c>
       <c r="L35" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="N35" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q35" t="n">
         <v>4</v>
@@ -5466,25 +5466,25 @@
         <v>9</v>
       </c>
       <c r="V35" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="W35" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="X35" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC35" t="n">
         <v>12</v>
@@ -5499,7 +5499,7 @@
         <v>51</v>
       </c>
       <c r="AG35" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AH35" t="n">
         <v>6</v>
@@ -5514,10 +5514,10 @@
         <v>101</v>
       </c>
       <c r="AL35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN35" t="n">
         <v>17</v>
@@ -5526,7 +5526,7 @@
         <v>41</v>
       </c>
       <c r="AP35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ35" t="n">
         <v>67</v>
@@ -5584,30 +5584,30 @@
         <v>7.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="N36" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="P36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V36" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="W36" t="n">
         <v>1.67</v>
@@ -7729,22 +7729,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="H51" t="n">
         <v>3.2</v>
       </c>
       <c r="I51" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="J51" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L51" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.6</v>
       </c>
       <c r="M51" t="n">
         <v>1.07</v>
@@ -7759,10 +7759,10 @@
         <v>3</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R51" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S51" t="n">
         <v>3.25</v>
@@ -7771,10 +7771,10 @@
         <v>1.33</v>
       </c>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V51" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W51" t="n">
         <v>1.5</v>
@@ -7789,25 +7789,25 @@
         <v>1.83</v>
       </c>
       <c r="AA51" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB51" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC51" t="n">
         <v>11</v>
       </c>
-      <c r="AC51" t="n">
-        <v>10</v>
-      </c>
       <c r="AD51" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE51" t="n">
         <v>23</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>21</v>
       </c>
       <c r="AF51" t="n">
         <v>34</v>
       </c>
       <c r="AG51" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH51" t="n">
         <v>6</v>
@@ -7819,22 +7819,22 @@
         <v>51</v>
       </c>
       <c r="AK51" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL51" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO51" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AP51" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ51" t="n">
         <v>34</v>
@@ -8172,28 +8172,28 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="H54" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J54" t="n">
         <v>3</v>
-      </c>
-      <c r="I54" t="n">
-        <v>5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2.75</v>
       </c>
       <c r="K54" t="n">
         <v>1.83</v>
       </c>
       <c r="L54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N54" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O54" t="n">
         <v>1.62</v>
@@ -8232,19 +8232,19 @@
         <v>1.5</v>
       </c>
       <c r="AA54" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AB54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC54" t="n">
         <v>10</v>
       </c>
       <c r="AD54" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF54" t="n">
         <v>41</v>
@@ -8253,10 +8253,10 @@
         <v>5.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ54" t="n">
         <v>101</v>
@@ -8265,22 +8265,22 @@
         <v>1250</v>
       </c>
       <c r="AL54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM54" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AN54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO54" t="n">
         <v>51</v>
       </c>
       <c r="AP54" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ54" t="n">
         <v>51</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>67</v>
       </c>
       <c r="AR54" t="n">
         <v>2.1</v>
@@ -10323,22 +10323,22 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H69" t="n">
         <v>3.4</v>
       </c>
       <c r="I69" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J69" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K69" t="n">
         <v>2.05</v>
       </c>
       <c r="L69" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M69" t="n">
         <v>1.06</v>
@@ -16003,22 +16003,22 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H109" t="n">
         <v>3.3</v>
       </c>
       <c r="I109" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J109" t="n">
         <v>3</v>
-      </c>
-      <c r="J109" t="n">
-        <v>3.1</v>
       </c>
       <c r="K109" t="n">
         <v>2.05</v>
       </c>
       <c r="L109" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M109" t="n">
         <v>1.07</v>
@@ -16027,16 +16027,16 @@
         <v>9</v>
       </c>
       <c r="O109" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P109" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R109" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
@@ -16053,10 +16053,10 @@
         <v>2.63</v>
       </c>
       <c r="Y109" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z109" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA109" t="n">
         <v>7.5</v>
@@ -16068,10 +16068,10 @@
         <v>9.5</v>
       </c>
       <c r="AD109" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE109" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF109" t="n">
         <v>29</v>
@@ -16101,7 +16101,7 @@
         <v>11</v>
       </c>
       <c r="AO109" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP109" t="n">
         <v>26</v>
@@ -16144,28 +16144,28 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="H110" t="n">
         <v>3.5</v>
       </c>
       <c r="I110" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J110" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="K110" t="n">
         <v>2.2</v>
       </c>
       <c r="L110" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M110" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N110" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O110" t="n">
         <v>1.29</v>
@@ -16194,25 +16194,25 @@
         <v>2.75</v>
       </c>
       <c r="Y110" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z110" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AA110" t="n">
         <v>7.5</v>
       </c>
       <c r="AB110" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC110" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD110" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE110" t="n">
         <v>17</v>
-      </c>
-      <c r="AE110" t="n">
-        <v>15</v>
       </c>
       <c r="AF110" t="n">
         <v>26</v>
@@ -16239,7 +16239,7 @@
         <v>19</v>
       </c>
       <c r="AN110" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO110" t="n">
         <v>41</v>
@@ -16285,7 +16285,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H111" t="n">
         <v>6.25</v>
@@ -16300,25 +16300,25 @@
         <v>2.88</v>
       </c>
       <c r="L111" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M111" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N111" t="n">
         <v>21</v>
       </c>
       <c r="O111" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P111" t="n">
         <v>6</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R111" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S111" t="n">
         <v>1.93</v>
@@ -16330,7 +16330,7 @@
         <v>2</v>
       </c>
       <c r="V111" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W111" t="n">
         <v>1.22</v>
@@ -16378,7 +16378,7 @@
         <v>251</v>
       </c>
       <c r="AL111" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM111" t="n">
         <v>51</v>
@@ -16387,10 +16387,10 @@
         <v>26</v>
       </c>
       <c r="AO111" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP111" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ111" t="n">
         <v>51</v>
@@ -16567,10 +16567,10 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H113" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I113" t="n">
         <v>2.95</v>
@@ -16596,7 +16596,7 @@
         <v>1.72</v>
       </c>
       <c r="R113" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
@@ -16619,31 +16619,31 @@
         <v>2.05</v>
       </c>
       <c r="AA113" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB113" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AC113" t="n">
         <v>8.75</v>
       </c>
       <c r="AD113" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE113" t="n">
         <v>16.5</v>
       </c>
       <c r="AF113" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG113" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH113" t="n">
         <v>6.7</v>
       </c>
       <c r="AI113" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ113" t="n">
         <v>50</v>
@@ -17135,22 +17135,22 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H117" t="n">
         <v>3.2</v>
       </c>
       <c r="I117" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J117" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K117" t="n">
         <v>2</v>
       </c>
       <c r="L117" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M117" t="n">
         <v>1.08</v>
@@ -17159,10 +17159,10 @@
         <v>8</v>
       </c>
       <c r="O117" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P117" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q117" t="n">
         <v>2.35</v>
@@ -17173,10 +17173,10 @@
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V117" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W117" t="n">
         <v>1.5</v>
@@ -17224,10 +17224,10 @@
         <v>101</v>
       </c>
       <c r="AL117" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM117" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN117" t="n">
         <v>17</v>
@@ -17596,10 +17596,10 @@
         <v>11</v>
       </c>
       <c r="M120" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N120" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O120" t="n">
         <v>1.14</v>
@@ -17614,16 +17614,16 @@
         <v>2.5</v>
       </c>
       <c r="S120" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T120" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U120" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V120" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W120" t="n">
         <v>1.25</v>
@@ -17632,16 +17632,16 @@
         <v>3.75</v>
       </c>
       <c r="Y120" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z120" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA120" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB120" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC120" t="n">
         <v>10</v>
@@ -17662,7 +17662,7 @@
         <v>12</v>
       </c>
       <c r="AI120" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ120" t="n">
         <v>81</v>
@@ -17677,7 +17677,7 @@
         <v>67</v>
       </c>
       <c r="AN120" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO120" t="n">
         <v>201</v>
@@ -17689,10 +17689,10 @@
         <v>81</v>
       </c>
       <c r="AR120" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AS120" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="121">
@@ -25800,13 +25800,13 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H178" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I178" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J178" t="n">
         <v>2.1</v>
@@ -25815,31 +25815,31 @@
         <v>2.5</v>
       </c>
       <c r="L178" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N178" t="n">
+        <v>17</v>
+      </c>
+      <c r="O178" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P178" t="n">
         <v>5</v>
       </c>
-      <c r="M178" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N178" t="n">
-        <v>19</v>
-      </c>
-      <c r="O178" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P178" t="n">
-        <v>5.5</v>
-      </c>
       <c r="Q178" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R178" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S178" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T178" t="n">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="U178" t="n">
         <v>2.25</v>
@@ -25848,10 +25848,10 @@
         <v>1.57</v>
       </c>
       <c r="W178" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X178" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y178" t="n">
         <v>1.57</v>
@@ -25875,10 +25875,10 @@
         <v>12</v>
       </c>
       <c r="AF178" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG178" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH178" t="n">
         <v>8.5</v>
@@ -25893,7 +25893,7 @@
         <v>126</v>
       </c>
       <c r="AL178" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM178" t="n">
         <v>29</v>
@@ -25945,22 +25945,22 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H179" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I179" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="J179" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K179" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L179" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M179" t="n">
         <v>1.03</v>
@@ -25975,10 +25975,10 @@
         <v>4.33</v>
       </c>
       <c r="Q179" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R179" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S179" t="n">
         <v>2.05</v>
@@ -25999,22 +25999,22 @@
         <v>3.25</v>
       </c>
       <c r="Y179" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="Z179" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA179" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB179" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC179" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD179" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE179" t="n">
         <v>17</v>
@@ -26029,22 +26029,22 @@
         <v>7</v>
       </c>
       <c r="AI179" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ179" t="n">
         <v>41</v>
       </c>
       <c r="AK179" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL179" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM179" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN179" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO179" t="n">
         <v>29</v>
@@ -26053,7 +26053,7 @@
         <v>21</v>
       </c>
       <c r="AQ179" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR179" t="inlineStr"/>
       <c r="AS179" t="inlineStr"/>
